--- a/AmazonReviewMatchResultdrop.xlsx
+++ b/AmazonReviewMatchResultdrop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="1111">
   <si>
     <t>Review</t>
   </si>
@@ -52,7 +52,7 @@
     <t>lightweight, blazing fast, easy to use, battery life is incredible with the new apple m1 chip.  a typical great apple product.however, there is only a thunderbolt port, so you now have to go out and buy a cable to convert usb to thunderbolt (if you want to use a backup hard drive) or other usb items, and, i had to buy yet another cable to sync my phone's lightning port to the thunderbolt port on the computer. total $56.i love apple product, and worked for them in my caerer, but i would wait on buying this version until the software for it has been developed.update: after several months of using this computer, i have have found several things of concern:1.  my notification center keeps disappearing, despite my constant reinstalling the widgets.2.  my computer's calendar, reminders, and photo stream do not sync with my ios devices (iphone &amp; ipad).  if i add an item to calendar on my phone, it will appear on my mac but not vice versa.  reminders will not sync regardless of which device i originate the item on.i have contacted apple support on all these issues and they cannot solve the problem.it appears that the bugs have not been worked out, yet.  things are maddeningly clunky!</t>
   </si>
   <si>
-    <t>your browser does not support html5 video.
+    <t>the media could not be loaded.
    bought this laptop bc i needed it for spring semester and i needed an upgrade from my heavy macbook pro. i go to work too so i needed something super light and thin i can just bring everywhere and slide it in my bag.i am obsessed with how fast this macbook is. the battery life is on point. i used it for movies and series at work and it lasted for 3 days. the processor is definitely sooo good. i open so many tabs at once and it has not lagged on me. the keyboard and trackpad is responsive.i love the color. the main reason why i bought this too. 😍😂i have no problems with it at all.highly recommend</t>
   </si>
   <si>
@@ -98,25 +98,28 @@
     <t>i put this along side my £3,500 13” macbook pro (2019), which was spec’d up to the max, and the m1 air wiped the floor with it. twice as fast encoding the same video, making my top of the line intel macbook pro instantly obsolete. you can not go wrong with this purchase. this is the biggest evolutionary leap in desktop computing since the early 00’s. i’m just upset i bought this as a gift for someone else.</t>
   </si>
   <si>
+    <t>i needed a new computer desperately, (screen broke and volume malfunctioned on my beloved old asus transformer), so after much research about macs online, i ordered a new macbook air. most of the online reviews and info praised it except for the camera, and in this current pandemic zoom world, that was a must!  however, i couldn't imagine a new apple  computer having a worse camera than my old iphone 6 which i am still happily using, so i took a chance! the laptop is awesome on so many levels! new m1 chip, super fast everything, and fantastic color display!the sound and yes, the camera, are phenomenal! i can only assume the bad camera reviews were made by video bloggers that need extreme hd resolution. i just do average work on my computer, so no problem there! i am thoroughly enjoying surfing online, streaming videos, and zooming with great clarity. i needed to clarify this camera issue for those holding back from purchasing such a great computer just due to those negative camera opinions, as i was. if i had read my review or one similar to it, it would have eased my mind. so, unless you're a vlogger , fear not!it's a fantastic computer in every sense of the word! (not to mention the $999 price for a new mac!) get it!!! you won't regret it! the rose gold is especially pretty!</t>
+  </si>
+  <si>
     <t>why is there only two reviews and hardly anyone purchasing this item?. must not be a good product compared to other similar ones listed here. or the price is too high, one of the two.</t>
   </si>
   <si>
     <t>the first one i received got bricked trying to restore after the initial setup failed.the second one is fine.you can google the issues.apple support said i'd need to bring the first one into the apple store for a firmware update to get it working.not great for a brand new 1000$ laptop.anyway the second one came already updated and everything has been fine so i'm happy now.it's snappy and has that new macbook smell.</t>
   </si>
   <si>
+    <t>this is honestly an excellent machine.not even interested in discussing "cons" because there aren't any if you  weigh up the price point fairly for what is arguably the best ultra portable laptop on the market right now (july 21') and i don't mean the fastest.the "only two" thunderbolt slots can be dongled out to the max. if you want a second or third monitor setup, get any "display-link" certified hub like the dell 452-bcyt d6000 universal dock (pricey) or the wavlink usb 3.0 universal laptop docking station,usb c to 5k/ dual 4k @60hz video (cheaper).the 7 cores of gpu on this model won't be noticed vs 8 cores. the machine is a beast. i'm using lumafusion to process video (not even designed for macos but ports across from ipados) and it's 3x as fast as the ipad pro that i own - 2019best laptop i've ever owned and i've owned two earlier macbook pro's, a mac mini, several windows laptops, and the dell s2721q 27 inch 4k uhd monitor i purchased here is parked on top of the last windows machine i purchased.the 4k dell monitor is easily crisp enough for macos and i purchased the keyboard used and magic mouse (2) new, on amazon.it's been a while since i've been on macos and would describe it as wonderful to use and look at, after coming from windows 10. sidecar is also amazing (using the ipad pro to the right for that)if you're shopping for a laptop or a mac laptop, this is a good option.you'll love it. nuff said.</t>
+  </si>
+  <si>
     <t>the computer is everything i thought it would be. gave the camera a 3 star because quality could be better but i don’t use facetime as much so it’s not a big deal to me. overall so worth the money. great investment for my book writing and finances.definitely a major upgrade from my hp.now i wasn’t sure who to contact about delivery or where to write it but i don’t appreciate having told them i want someone to sign for it being it is a high value priced item and it was just thrown on my porch and i wasn’t notified at all then when i go look it says it was directly handed to me. don’t like liars so amazon you need to get it together because if this would have gotten stolen i would have raised hell for my money back.-thanks.</t>
   </si>
   <si>
-    <t>i needed a new computer desperately, (screen broke and volume malfunctioned on my beloved old asus transformer), so after much research about macs online, i ordered a new macbook air. most of the online reviews and info praised it except for the camera, and in this current pandemic zoom world, that was a must!  however, i couldn't imagine a new apple  computer having a worse camera than my old iphone 6 which i am still happily using, so i took a chance! the laptop is awesome on so many levels! new m1 chip, super fast everything, and fantastic color display!the sound and yes, the camera, are phenomenal! i can only assume the bad camera reviews were made by video bloggers that need extreme hd resolution. i just do average work on my computer, so no problem there! i am thoroughly enjoying surfing online, streaming videos, and zooming with great clarity. i needed to clarify this camera issue for those holding back from purchasing such a great computer just due to those negative camera opinions, as i was. if i had read my review or one similar to it, it would have eased my mind. so, unless you're a vlogger , fear not!it's a fantastic computer in every sense of the word! (not to mention the $999 price for a new mac!) get it!!! you won't regret it! the rose gold is especially pretty!</t>
-  </si>
-  <si>
     <t>im sure its amazing for die hard mac users. however, the one port is a non starter for me. i opened it started it up and one i realized i had to buy accessories to add anything additional, i cleaned it and packed back up to return. one port is horribly inconvenient for my needs, and having to carry around an accessory to add even one more is a waste of my energy. i can and will purchase something more adaptable and suited to my needs</t>
   </si>
   <si>
     <t>buying into the apple ecosystem should only be done to make products for the ecosystem which will make the user money, but, do not make them a critical part of your workflow.  they are too expensive for that.  apple just does not make good computers.  yes, they make a ok operating system, but they make computers that cannot be repaired by taking out the ssd or ram sticks and putting new ones in.you can't just go and buy the parts to fix your mac computers when they break.  the macbook air is no exception to this.  the ssd is solider to the motherboard.  likewise the ram.  now, if that were the only problem, well -- one would be able to get someone skilled to replace these broken pieces after apple stop warranty coverage -- maybe.  but, they don't even allow the suppliers of these chips to supply them to the public.  so, once the warranty is. up -- you will not be able to get spare parts for the computer.  needless to say, this is a major flaw in apple products -- of which it is no exception for this macbook air.  (oh, and if they start allowing suppliers to supply, but, lock down with crypto keys to a particular machine we just have even more e-waste.)also, this computer flickers with a 4k output.  the macbook air has screen flicker with an external monitor using the hootoo dock that i've used with an intel macbook pro which is a few years old.  this is unacceptable.  apple's response to the sometimes frying the computer for using usb-c docks that work with other computers is an example of the poorly built computer they are pushing.though poorly engineered in terms of video, ssd, and ram.  it is a wonderful typing experience when using the laptop keyboard.  if you are willing to let that guide you, then, the computer may be worth it if you are willing to set aside another grand when ssd fails or you plug in the wrong dock to drive an external monitor even though someone else just had their intel mac plugged in and worked just fine.  (supposedly apple fix this with an os update -- good for them.)even though i dislike the mac, it is better than most laptops -- because it is quiet since it has no fan.  would i buy one again? perhaps -- it is a question of whether i think the market exists for me to make money off of it.the good things:keyboard, touchpad, built-in screen, build-in speakers, drives external audio better than microsoft windows, and the operating system is less cluttered than is windows.  also, comes with a spreadsheet, word processor, presentation program -- now, it is better just to use something really libre -- like libreoffice.  but, it is kind of nice the table steaks are included -- unlike for microsoft windows.</t>
   </si>
   <si>
-    <t>this is honestly an excellent machine.not even interested in discussing "cons" because there aren't any if you  weigh up the price point fairly for what is arguably the best ultra portable laptop on the market right now (july 21') and i don't mean the fastest.the "only two" thunderbolt slots can be dongled out to the max. if you want a second or third monitor setup, get any "display-link" certified hub like the dell 452-bcyt d6000 universal dock (pricey) or the wavlink usb 3.0 universal laptop docking station,usb c to 5k/ dual 4k @60hz video (cheaper).the 7 cores of gpu on this model won't be noticed vs 8 cores. the machine is a beast. i'm using lumafusion to process video (not even designed for macos but ports across from ipados) and it's 3x as fast as the ipad pro that i own - 2019best laptop i've ever owned and i've owned two earlier macbook pro's, a mac mini, several windows laptops, and the dell s2721q 27 inch 4k uhd monitor i purchased here is parked on top of the last windows machine i purchased.the 4k dell monitor is easily crisp enough for macos and i purchased the keyboard used and magic mouse (2) new, on amazon.it's been a while since i've been on macos and would describe it as wonderful to use and look at, after coming from windows 10. sidecar is also amazing (using the ipad pro to the right for that)if you're shopping for a laptop or a mac laptop, this is a good option.you'll love it. nuff said.</t>
+    <t>prosworksno fan - super quietscreen resolution decent and looks good from most anglessuper-fast response time during usewakes up from sleep instantlylooks nice (for a laptop)not super heavyif you check your email, listen to spotify, shop online (amazon), web browse, watch youtube videos, zoom calls, work with apple photos, look at pdf's, use google docs/spreadsheets - this is a great laptopconssome software is not compatible or has problems with the m1 apple cpu ( not that i've experienced but this might impact you)no built-in cam cover for $1000+ laptop - and according to apple if you use your own you can damage your screen - https://support.apple.com/en-us/ht211148when you open the laptop unless you're super careful you smudge the laptop camera/that general area - that or you open it from the sidesno led light indicator for if the laptop is on, sleep mode, charging, fully chargedcharging seems kinda slowthey removed the keyboard brightness physical buttons - but you can pin this in the top-right menu bar or and it's in the control centerside note oson the login screen of big sur, you can see the battery icon but not the exact percentage you have left - have to log in for thatstill have to manually turn on "show thousand separators" on the calculator app</t>
   </si>
   <si>
     <t>i have used microsoft windows based computers 100% since 1985.  now for the 1st time i decided to try apple out instead to see how windows compares to a macbook.  only been a few days and i already see things unfamiliar i am learning. so far...i have to say the speed of the new m1 processor compared to any of the windows 10 computers is very impressive and just the speed and "faster response" the macbook seems to have combined with the programs i have downloaded and a few i purchased i would have to say i prefer the macbook.  i added a 7 port usb hub and a trackball i use instead of the built in pad but other then that i have not changed a thing.  it definitely does everything i need it to do both business related an for pleasure.  i also enjoy the small portable size and will be taking it on it's first trip in just a few days.  if anyone is a current windows user and is considering the switch to try out a macbook i would say go for it and do not look back....if you purchase one and later decide you would prefer not to stick with it a macbook seems to hold their value much better then the majority of windows based computers out there.</t>
@@ -128,24 +131,21 @@
     <t>computer is lightweight and fast but... right out of the box i had a service battery notice. charged it up and it was still there. made an appointment with the nearest apple store (20 miles away). they confirmed my mac was made this month so it was brand new but they can’t replace it since it was bought from amazon and not apple. they sent it out for a new battery under warranty which was to take 3-5 days and they have had it a week now and haven’t completed the repair yet. all around not a good experience for my first mac and spending a thousand bucks on a laptop. i’ll be going back to pc after this.</t>
   </si>
   <si>
-    <t>prosworksno fan - super quietscreen resolution decent and looks good from most anglessuper-fast response time during usewakes up from sleep instantlylooks nice (for a laptop)not super heavyif you check your email, listen to spotify, shop online (amazon), web browse, watch youtube videos, zoom calls, work with apple photos, look at pdf's, use google docs/spreadsheets - this is a great laptopconssome software is not compatible or has problems with the m1 apple cpu ( not that i've experienced but this might impact you)no built-in cam cover for $1000+ laptop - and according to apple if you use your own you can damage your screen - https://support.apple.com/en-us/ht211148when you open the laptop unless you're super careful you smudge the laptop camera/that general area - that or you open it from the sidesno led light indicator for if the laptop is on, sleep mode, charging, fully chargedcharging seems kinda slowthey removed the keyboard brightness physical buttons - but you can pin this in the top-right menu bar or and it's in the control centerside note oson the login screen of big sur, you can see the battery icon but not the exact percentage you have left - have to log in for thatstill have to manually turn on "show thousand separators" on the calculator app</t>
-  </si>
-  <si>
     <t>i love this little computer! when i was looking for a laptop to buy, i almost went with a used, older macbook air. i decided to just spend the extra money and get a brand new computer and the newest model and i’m so happy i did because apple’s m1 chip is impressive. after two months of owning this laptop, i think my favorite thing is the battery life. for lighter tasks (web browsing, listening to music, steaming netflix etc), the battery could last the entire day, and i love how i can take this thing anywhere with me without having to lug a charger around as well. for heavier tasks, it of course doesn’t last all day but you get a lot of hours out of the battery. it rarely gets hot, and doesn’t even have a fan, so you know how efficient that chip is running. i also love the fanless design because i can have it with me in my bed or anywhere and not worry about blocking vents or getting dog hair in those fans. i don’t use it for anything crazy, mainly just work and personal stuff, along with frequent streaming and occasionally i’ll fire up the sims 4 (and it runs beautifully by the way). but i’m never not impressed by how quick it is, opens applications almost instantly and wakes instantly. also, i am new to mac with this purchase but have owned iphones for a decade and i love the seamless integration jumping between applications on your laptop and phone. so far i’m loving big sur and basically this is just a laptop that would be great for almost anyone.</t>
   </si>
   <si>
+    <t>the camera is not really current. especially for a laptop in this price range. it’s not much, if any, better than the toshiba laptop i got at walmart for $400 back in like 2010. it is actually fine for me because i don’t rely on it for work or anything. but if you rely on it for virtual meetings, facetime, zoom, etc, you will be disappointed in the camera quality. i have very little need for the camera so it doesn’t bother me personally. but the camera is absolutely embarrassing for what has been named the laptop of the year by many, and i would agree, it’s a great computer. great battery life, super fast charging, very light, not quiet—silent. quiet implies there is a minimal amount of noise. there is no fan in this and it’s is literally silent. no noise at all, at any level that i can discern. really fast. best laptop i’ve ever had for sure.</t>
+  </si>
+  <si>
+    <t>i replaced on older 2009 macbook pro with this new model from apple. it has the new m1 chip and it is fast. for the type of things i do in a home office this is lightning fast. i don't do a lot of editing of videos or play video games on it so my work load is pretty mundane compared to others. i like it though because it is lightweight when i take it to my den or on a trip in my computer bag. the battery lasts a long time and the keyboard is very responsive. love the screen clarity. i have not found any of my regular apps having any difficulty running on the new chip. i did set up a new camera connection app to see how it would do and had no issues either. it is running in the background and when they update to work specifically with the new chip it should work even better. i don't have any negatives with this computer. i have been an apple fan for several years now and so use to it that i have great difficulty when trying to use a window's based computer.</t>
+  </si>
+  <si>
+    <t>i am a windows man way back 40 yrs.  since i used windows software for work i saw no reason to switch to apple.  although i did have an apple  iic for fun way back in the early pc daysmy surface pro entry model has been around for many yrs and the battery has run down and mostly i use it plugged in. i decided to try a mac to learn something new. after research i decided to get the mac air m1 w 8gb ram and the 512gb ssd - this is what i learned ( not going into why i decided what i did as anyone can do the same research1. setup and initial use was not as easy as advertised- couldnt get past the country selection and found after search many had same problem. almost returned it but i finally found i could move selection by tab key and selection based on space press and  not return key - track pad was useless - ( it had a little to do with track pad setup that can only be performed later as well as track pad difference from ms product) .windows and track pad usage not same as windows and i couldn't resize screen windows or even drag them on the screen -plenty of tutorials on you tube - but none really helped decipher selection until i figured it out watching an excel tutorial on how to select and drag cells - you have to "hard" press.this hard press finally solved the moving and resizing windows issues - again none of this info was included with product.2. very confusing from reviews n qnas whether or not this mac had 7 or 8 core gpu - according to internal report its 8 core3. what have i learned -- very lightweight machine- lots of internal tweaking can be done to personalize machine- very fast on the task used - browsing and some excel files now needing to run under mac for which i purchased new software- beautiful screen- great battery life- particularly liked my iphone messages show up on the mac and i can send and receive on same - apple makes computer look sim to phone4. recommendation - for 1000$ to 1200$ a student or any one like me, whos not going to program or have a gazillion windows open or need a large screen, can get this machine - a comparable windows machine would cost same but a windows machine can also be purchased for a lot less and still be capable of student tasks.however, the battery life and weight and integration w iphone tip the scales to this machine if you want to purchase a comparable ms product</t>
+  </si>
+  <si>
     <t>first off: this computer is extremely lightweight, well built, and beautiful. yes this is the new macbook air m1. and it arrived with 4 days after shipping (bad weather slowed it down so it arrived late).battery: i’ve been on my computer for 12 hours today and battery is at 64%. i’ve had it for 3 days. and have only charged it once.  and that was when it arrived while i set up.  the computer is very quiet it and does not get hot. i’ve had several tabs open and applications at once and it didn’t even slow down or run hot.camera: facetime calls are beautiful on here. facebook messenger, you look a little yellow, but other people look perfect(probably lighting issue)sound: is amazing, the best i have had on any computer. crystal clear sound. this computer gets really loudspeed: this computer is extremely fast.  internet sites load with a second. as soon as you sign in it’s an instant log on to your screen with no waiting for application to load.this by far the best computer i’ve had. if you are looking at your first macbook laptop this is great(this is my first also). if you are looking to upgrade a really old macbook model you will love this. worth the money!</t>
   </si>
   <si>
-    <t>the camera is not really current. especially for a laptop in this price range. it’s not much, if any, better than the toshiba laptop i got at walmart for $400 back in like 2010. it is actually fine for me because i don’t rely on it for work or anything. but if you rely on it for virtual meetings, facetime, zoom, etc, you will be disappointed in the camera quality. i have very little need for the camera so it doesn’t bother me personally. but the camera is absolutely embarrassing for what has been named the laptop of the year by many, and i would agree, it’s a great computer. great battery life, super fast charging, very light, not quiet—silent. quiet implies there is a minimal amount of noise. there is no fan in this and it’s is literally silent. no noise at all, at any level that i can discern. really fast. best laptop i’ve ever had for sure.</t>
-  </si>
-  <si>
-    <t>i replaced on older 2009 macbook pro with this new model from apple. it has the new m1 chip and it is fast. for the type of things i do in a home office this is lightning fast. i don't do a lot of editing of videos or play video games on it so my work load is pretty mundane compared to others. i like it though because it is lightweight when i take it to my den or on a trip in my computer bag. the battery lasts a long time and the keyboard is very responsive. love the screen clarity. i have not found any of my regular apps having any difficulty running on the new chip. i did set up a new camera connection app to see how it would do and had no issues either. it is running in the background and when they update to work specifically with the new chip it should work even better. i don't have any negatives with this computer. i have been an apple fan for several years now and so use to it that i have great difficulty when trying to use a window's based computer.</t>
-  </si>
-  <si>
-    <t>i am a windows man way back 40 yrs.  since i used windows software for work i saw no reason to switch to apple.  although i did have an apple  iic for fun way back in the early pc daysmy surface pro entry model has been around for many yrs and the battery has run down and mostly i use it plugged in. i decided to try a mac to learn something new. after research i decided to get the mac air m1 w 8gb ram and the 512gb ssd - this is what i learned ( not going into why i decided what i did as anyone can do the same research1. setup and initial use was not as easy as advertised- couldnt get past the country selection and found after search many had same problem. almost returned it but i finally found i could move selection by tab key and selection based on space press and  not return key - track pad was useless - ( it had a little to do with track pad setup that can only be performed later as well as track pad difference from ms product) .windows and track pad usage not same as windows and i couldn't resize screen windows or even drag them on the screen -plenty of tutorials on you tube - but none really helped decipher selection until i figured it out watching an excel tutorial on how to select and drag cells - you have to "hard" press.this hard press finally solved the moving and resizing windows issues - again none of this info was included with product.2. very confusing from reviews n qnas whether or not this mac had 7 or 8 core gpu - according to internal report its 8 core3. what have i learned -- very lightweight machine- lots of internal tweaking can be done to personalize machine- very fast on the task used - browsing and some excel files now needing to run under mac for which i purchased new software- beautiful screen- great battery life- particularly liked my iphone messages show up on the mac and i can send and receive on same - apple makes computer look sim to phone4. recommendation - for 1000$ to 1200$ a student or any one like me, whos not going to program or have a gazillion windows open or need a large screen, can get this machine - a comparable windows machine would cost same but a windows machine can also be purchased for a lot less and still be capable of student tasks.however, the battery life and weight and integration w iphone tip the scales to this machine if you want to purchase a comparable ms product</t>
-  </si>
-  <si>
     <t>i have had my new macair not quite two weeks and it is even better than i expected.  this one is with the new m1 chip and is an upgrade from my previous mac....which i loved.  faster, better, more battery.  what's not to like.  and frankly the price for the machine is a bargain.  i do not use my mac for gaming, heavy downloads, large graphics so can't comment but is why the air is a perfect choice over the pro.  transferring files etc from my previous mac was a snap and now i have my "old" mac on the m1 so everything works better.  i was a bit surprised everything is the same size and weight....but that's likely because i didn't look at those specs before purchase.  one sweet thing about the mac is it comes about 70% charged so just open and start.  if you are considering a mac or have one and are thinking about upgrade just do it.  and amazon made it easy....arrived in two days.</t>
   </si>
   <si>
@@ -155,6 +155,9 @@
     <t>i had given this a few months since release for some of the software compatibility issues to be straightened out, and was encouraged by reviews. however, there are significant unresolved issues from the hardware side of things: 1. there is a known problem with disk usage related to ram disk swap (from what i understand) and media-heavy usage (why i bought this laptop) deteriorates the ssd quickly. 2. the facetime camera is absolutely terrible. there is no other way to put this. it may be the worst camera i have seen on any device since my iphone 3g. the picture is incredibly blurry, and not suitable for the covid/virtual environment. there have been issued raised about this in apple support forums with no resolution.unfortunately my return window has passed, but i would not recommend this machine to anyone. really thought apple had turned a corner with their new processor, but ended up being stuck with a bunch of other systems that weren't upgraded. 2/10</t>
   </si>
   <si>
+    <t>i had previously purchased a “renewed” macbook air and it wasn’t exactly what i would call renewed. i returned it and found a new macbook air for under $900. only a few hundred more than someone else’s old one and i couldn’t be happier. i’ve had iphones since 3gs and they have always been user friendly and the macbook air is just like my iphone but better.i have always had windows and the last one installed the manufacturer update and afterwards i could not log into the computer. that’s the end of windows and the beginning of my mac attack.i highly recommend this item especially if you are able to purchase it for under $900.</t>
+  </si>
+  <si>
     <t>i looked at a lot of different laptops and went to my local best buy for in person testing before deciding on this one.  i work from home and have been using a older model hp that was passed down to me that had a hour and a half battery life, a plastic shell, and froze endlessly.this laptop is real clean looking, feels solid, has insane battery life, and the screen is absolutely insane.  watching videos on it is unreal and have had no issues running multiple programs/desktops/and some gaming on it.  i purchased the base model and run it with an external hard drive to keep the space clear on it.i love how all the apple products interact seamlessly with each other and the sidecar feature that links it to the ipad to work as a second screen on the go.in the future would be nice to see the bezels slimmed down, the keyboard have a little more weight to it, macbook air speakers amped up a bit, and a higher quality camera and all those things are near perfect.  ill be holding on to this for the next 5 years plus</t>
   </si>
   <si>
@@ -194,9 +197,6 @@
     <t>this was my first mac purchase! the quality, engineering, craftmanship is top notch! surprisingly not hard to adapt to using coming from a pc! very happy.. absolutely love all the very helpful features, still discovering new ones &amp; faster ways to do things on it everyday. plus it looks like a million bucks &amp; very nice/addictive feel to the the touch.. can't say enough good things about macbook air.. apple - - you've hit a grand slam with this one &amp; the m1 chip!! thanks.</t>
   </si>
   <si>
-    <t>i had previously purchased a “renewed” macbook air and it wasn’t exactly what i would call renewed. i returned it and found a new macbook air for under $900. only a few hundred more than someone else’s old one and i couldn’t be happier. i’ve had iphones since 3gs and they have always been user friendly and the macbook air is just like my iphone but better.i have always had windows and the last one installed the manufacturer update and afterwards i could not log into the computer. that’s the end of windows and the beginning of my mac attack.i highly recommend this item especially if you are able to purchase it for under $900.</t>
-  </si>
-  <si>
     <t>this laptop is really fast and the battery lasts really long.the battery lasts me about a week with just one charge and i find that crazy.there is not fan noise and this doesn't get hot.the quality is really good.. i mean the way the laptop opens with one hand and the smooth closing of the lid is really smooth.the screen isn't the best but its still really good.this laptop has the m1 chip, fastest chip on the market.this laptop's bench marks are off the roof.it's great for casual use like, watching movies, using word docs and excel sheet, coding and video editing.i wouldn't recommend gaming even though basic games will do just fine.</t>
   </si>
   <si>
@@ -254,40 +254,46 @@
     <t>not long ago i decided to get far from apple products because some work necessities i couldn't cover with an iphone and a mac. the limitation of the iphone for some advanced features (like dual sim and the possibility to flash os images from a ssd) and the need to use bootcamp in the mac made me jump to an android phone and a windows computer.i had a samsung s10+ and a huawei matebook pro with windows and linux. both devices are impeccable. really made my work easier in so many aspects. but as time passed my life wasn't getting simpler like it was with my iphone and my mac.apple products work flawlessly between each other and there are always new implementations that simplifies everyday life. quality of this products and its software is incredible. although other products have better capabilities ( for example my matebook outperforms this macbook air m1 and has a much better quality screen) they lack the simplicity and stability.being all this said, the macbook air m1 is a really great laptop. the most basic version which is the one i bought is blazing fast, stable and with a great battery life (much better than the huawei matebook pro). also its absolute silent and fresh. its doesn't get hot at all.to make my work easier i had to pay for some software that saddly i was denied to pay on the mac at the beginning.  apple products are expensive but i've learned that in the long run they are worth it. life is about time and how you spend it and apple definitely focus its effort to simplify the time you use to do a task.i wanted to share my story in case you are in a situation like i had. if you have an iphone and other apple products don't doubt. buy a macbook air m1. i still have a beefy windows machine for gaming, rendering, and other things. but most of the time i rather work in my new macbook.</t>
   </si>
   <si>
+    <t>i purchased a macbook air (late 2020) from amazon on september 17th.  after a week of use, the screen has lines on it.  before the 30-day return window was up, i brought it to the apple store (twice).  the apple store, would not replace the unit and the staff would not send the unit out to be fixed at no cost. the store claimed “damage” was done to the laptop.  an unacceptable response where the laptop was used over a week with normal use, on a desk. this is a defect, not “damage”.  additionally, employee at the apple store, said that he could only “swap it out” if we purchased it from apple directly.  this is unacceptable, i purchased this unit from amazon which is an authorized apple retailer.  the same policies need to be applied, or why bother having authorized retailers.the screens on the m1 macbook airs are fragile and are of poor quality.  apple won’t stand behind its product and fix it. amazon will take back the laptop and i’m getting a full refund.  apple needs to address the screen issue on their laptops, improve their warranty and retrain staff.  the m1 macbook air has poor components, poor warranty and the apple staff are not handling these issues well.  apple is blaming customers for apple’s poor build quality.</t>
+  </si>
+  <si>
+    <t>excellent battery, speedy, lightweight. you do not often come across these three benefits together. this is still a great purchase if you (like me) do the regular zoom meetings, graphic design, edit 4k video, some spreadsheet work and occasionally edit batches of 100 photos in raw format in lightroom. go spend some more in a m1 pro or max if you really need that much computational power for 3d or heavy 8k video editing.</t>
+  </si>
+  <si>
+    <t>i've always been a windows pc user. the brand i normally get doesn't sell anymore. i decided to switch to mac. oh my...i wish i'd done it sooner. i love this computer so much. it's fast. the screen quality is amazing. i had to get used to it not being a touch screen but it's worth losing that feature. i don't miss windows at all. everything is so much easier to use. if you're hesitating, don't. you won't regret it.</t>
+  </si>
+  <si>
+    <t>the m1 chip is amazing and a miracle, this little chip can play some of the most cpu demand games around cities skylines it played phenomenal without any lag or freezing. this macbook air is very powerful. the downside to it, is that it doesn't have a cooling fan and one cooling fan in it would make a major improvement.</t>
+  </si>
+  <si>
+    <t>every older generation is practically the same, if you are interested in getting any mac the macbook air late 2015 model will fit all your needs and if cleaned properly will work like new. all airs can last extremely long. good quality laptop m1 chip is very powerful but 90% of users wont be able to use this mac to its full capacity honestly. but if you looking for an upgrade this is it, beautiful look, sleek design, light, powerful. will last from freshman year of college to well in post grad career. i say every mac with proper care can last a good 5-6 years then should be handed down to a friend. i gave my last mac book air (2015) away when i got this and my friends says the best laptop they ever had. again only mac worth buying new if you already own one and want to upgrade, 90% of those who will use it wont need the power and capacity it comes with.</t>
+  </si>
+  <si>
+    <t>don’t appreciate how i received a used macbook with fingerprints on the screen. they tried to put the film back on the screen as it was originally, but it wasn’t stuck to the screen as it should have been. i returned it because i refuse to spend that much money on something someone else had their hands one. it’s unacceptable especially due to covid. i went and bought one locally and it was brand new no fingerprints and the film was stuck to the screen as it should be because thats how apple packages it.</t>
+  </si>
+  <si>
+    <t>best laptop you can buy but mine came scratched idk why apple is trying to punish me for but it's fine. also be really careful because the screen is special, it has a coating for retina display and even touching it or gently cleaning it can remove some of the coating and leave subtle blue marks. sound is boxy i'd recommend speakeramp and choose flat sound to get a clearer sound. but nothing is perfect of course and for that price this is a great investment</t>
+  </si>
+  <si>
+    <t>this was everything i expected it to be. the screen is small but bright. i use it for virtual teaching, it handles zoom, google meets and all my other needs. i can use my ipad as a second screen when needed. i like how my apple id paired this with all my devices. i charge it daily and it gets me though my daily needs. the only thing i didn’t get was a notification to purchase applecare. it’s easy enough to do online.</t>
+  </si>
+  <si>
+    <t>it’s a great computer;  is stupidly fast,  the battery last for 15 to 20 hrs on constant use.  if you don’t use it that much last for days without recharge.  it behaves like a smartphone but just bigger to fit a full keyboard and a big screen, with the same or better performance.  this is the new era of laptops and desktops, you’ll see soon other brands doing it too.  because it uses “no fan at all”, is very thin and lightweight.  i don’t need to use an egg carton on my lap to avoid overheating like the fan ones. the m1 ship is definitely a great upgrade.  excellent idea!!!</t>
+  </si>
+  <si>
+    <t>what i liked: apple's construction quality is second to none. unboxing this is a delight, it's just a beautiful machine. you can start working with it as soon as the initial setup is done, which might take a few minutes. love the display, bright colors, nice resolution, everything looks crisp. keys are a delight to type with, real smooth. battery life is the best i've ever witnessed, i just recharge this thing every other day, whereas my previous laptop would use three rounds of charge a day (and i had for just one year).what i disliked: some of my favorite apps are still not ready for apple silicon or m1 chip. it's given me two or three random reboots with cryptic error logs already. and coming from over 25 years using mostly windows (and some 2-3 years using linux) i feel like i have to rewire my brain to start using the fn, control, option &amp; command keys properly.all in all, it's a really solid laptop although i feel like i still haven't made the most out of it. no heavy usage so far, except for some minor audio production work. guess i'll do it eventually. hope app compatibility gets better with time too, that's the reason for the missing star up there, otherwise, it would've been 5-stars all the way.</t>
+  </si>
+  <si>
+    <t>unfortunately i bought this laptop new, brand new in box, then after editing large files for photography, i noticed i had no storage very quickly. starting cleaning the laptop up and realized it was used.  found a couple who had a few video files of their trip to mexico. several other files i had never seen before and had my tech guy at work clean it up and he could tell right away it was used. really disappointing i paid for the new versus the used and still got a used laptop.  it works great but still fraudulent. just be careful ordering these off of amazon.</t>
+  </si>
+  <si>
+    <t>back in 2012 i got a macbook air with 8gb i7 and a turbo... back in the day it was the most equipped... i believe it was slightly faster in the kickstart by 2 or 3 seconds... yet back then i also paid about 1700 usd, my video card broke at some point back then and i was a bit upset that my only option was to replace the whole mother board, so i kept it broken and fixed it a couple of years later about about 320 usd and it worked decently for an extra couple of years for basic work...i then got an asus with 16gb plus 2gb just for video as i wanted it for video editing, but it has 2tb + 256 ssd so the computer is massive and heavy and it has a cheap unresponsive trackpad making it so inconvenient to travel or work at a coffeeshop. so eventually i am back with mac for editing my website, answering emails, and all the other trials and tribulations of work... it is so refreshing and made me realize how much i missed this system as well.</t>
+  </si>
+  <si>
+    <t>this new mac is more powerful than all previous versions, runs silent (no fans), dissipates heat under the heaviest of loads with no throttling, and does so while lasting 48 hours on a chafe and being almost as light as your phone.people taking about m1 being an issue either don’t know enough to figure it out or are straight lying. everything works fine.if you’re looking to upgrade, you can’t go wrong with this.</t>
+  </si>
+  <si>
     <t>my first day. i’ve used macbooks since 2006 when the first intel processors were used. the m1 chip is amazing. i now understand why 8 gb of ram is perfect for this model. crystal clear text rendering. silky-smooth touch pad. nice tactile response on keyboard— big improvement over the troublesome keyboards of the last 7 years. speakers are lovely. very pleased. battery fully charged. was able to easily migrate from my old 2016 macbook retina 12. easy to connect with icloud and mac account. a couple of my non-apple apps required rosetta to run with m1 processor—smooth download of rosetta. anyone needing a high end camera might go for the macbook pro but this is fine for my needs.</t>
-  </si>
-  <si>
-    <t>excellent battery, speedy, lightweight. you do not often come across these three benefits together. this is still a great purchase if you (like me) do the regular zoom meetings, graphic design, edit 4k video, some spreadsheet work and occasionally edit batches of 100 photos in raw format in lightroom. go spend some more in a m1 pro or max if you really need that much computational power for 3d or heavy 8k video editing.</t>
-  </si>
-  <si>
-    <t>i've always been a windows pc user. the brand i normally get doesn't sell anymore. i decided to switch to mac. oh my...i wish i'd done it sooner. i love this computer so much. it's fast. the screen quality is amazing. i had to get used to it not being a touch screen but it's worth losing that feature. i don't miss windows at all. everything is so much easier to use. if you're hesitating, don't. you won't regret it.</t>
-  </si>
-  <si>
-    <t>the m1 chip is amazing and a miracle, this little chip can play some of the most cpu demand games around cities skylines it played phenomenal without any lag or freezing. this macbook air is very powerful. the downside to it, is that it doesn't have a cooling fan and one cooling fan in it would make a major improvement.</t>
-  </si>
-  <si>
-    <t>every older generation is practically the same, if you are interested in getting any mac the macbook air late 2015 model will fit all your needs and if cleaned properly will work like new. all airs can last extremely long. good quality laptop m1 chip is very powerful but 90% of users wont be able to use this mac to its full capacity honestly. but if you looking for an upgrade this is it, beautiful look, sleek design, light, powerful. will last from freshman year of college to well in post grad career. i say every mac with proper care can last a good 5-6 years then should be handed down to a friend. i gave my last mac book air (2015) away when i got this and my friends says the best laptop they ever had. again only mac worth buying new if you already own one and want to upgrade, 90% of those who will use it wont need the power and capacity it comes with.</t>
-  </si>
-  <si>
-    <t>don’t appreciate how i received a used macbook with fingerprints on the screen. they tried to put the film back on the screen as it was originally, but it wasn’t stuck to the screen as it should have been. i returned it because i refuse to spend that much money on something someone else had their hands one. it’s unacceptable especially due to covid. i went and bought one locally and it was brand new no fingerprints and the film was stuck to the screen as it should be because thats how apple packages it.</t>
-  </si>
-  <si>
-    <t>best laptop you can buy but mine came scratched idk why apple is trying to punish me for but it's fine. also be really careful because the screen is special, it has a coating for retina display and even touching it or gently cleaning it can remove some of the coating and leave subtle blue marks. sound is boxy i'd recommend speakeramp and choose flat sound to get a clearer sound. but nothing is perfect of course and for that price this is a great investment</t>
-  </si>
-  <si>
-    <t>this was everything i expected it to be. the screen is small but bright. i use it for virtual teaching, it handles zoom, google meets and all my other needs. i can use my ipad as a second screen when needed. i like how my apple id paired this with all my devices. i charge it daily and it gets me though my daily needs. the only thing i didn’t get was a notification to purchase applecare. it’s easy enough to do online.</t>
-  </si>
-  <si>
-    <t>it’s a great computer;  is stupidly fast,  the battery last for 15 to 20 hrs on constant use.  if you don’t use it that much last for days without recharge.  it behaves like a smartphone but just bigger to fit a full keyboard and a big screen, with the same or better performance.  this is the new era of laptops and desktops, you’ll see soon other brands doing it too.  because it uses “no fan at all”, is very thin and lightweight.  i don’t need to use an egg carton on my lap to avoid overheating like the fan ones. the m1 ship is definitely a great upgrade.  excellent idea!!!</t>
-  </si>
-  <si>
-    <t>what i liked: apple's construction quality is second to none. unboxing this is a delight, it's just a beautiful machine. you can start working with it as soon as the initial setup is done, which might take a few minutes. love the display, bright colors, nice resolution, everything looks crisp. keys are a delight to type with, real smooth. battery life is the best i've ever witnessed, i just recharge this thing every other day, whereas my previous laptop would use three rounds of charge a day (and i had for just one year).what i disliked: some of my favorite apps are still not ready for apple silicon or m1 chip. it's given me two or three random reboots with cryptic error logs already. and coming from over 25 years using mostly windows (and some 2-3 years using linux) i feel like i have to rewire my brain to start using the fn, control, option &amp; command keys properly.all in all, it's a really solid laptop although i feel like i still haven't made the most out of it. no heavy usage so far, except for some minor audio production work. guess i'll do it eventually. hope app compatibility gets better with time too, that's the reason for the missing star up there, otherwise, it would've been 5-stars all the way.</t>
-  </si>
-  <si>
-    <t>back in 2012 i got a macbook air with 8gb i7 and a turbo... back in the day it was the most equipped... i believe it was slightly faster in the kickstart by 2 or 3 seconds... yet back then i also paid about 1700 usd, my video card broke at some point back then and i was a bit upset that my only option was to replace the whole mother board, so i kept it broken and fixed it a couple of years later about about 320 usd and it worked decently for an extra couple of years for basic work...i then got an asus with 16gb plus 2gb just for video as i wanted it for video editing, but it has 2tb + 256 ssd so the computer is massive and heavy and it has a cheap unresponsive trackpad making it so inconvenient to travel or work at a coffeeshop. so eventually i am back with mac for editing my website, answering emails, and all the other trials and tribulations of work... it is so refreshing and made me realize how much i missed this system as well.</t>
-  </si>
-  <si>
-    <t>this new mac is more powerful than all previous versions, runs silent (no fans), dissipates heat under the heaviest of loads with no throttling, and does so while lasting 48 hours on a chafe and being almost as light as your phone.people taking about m1 being an issue either don’t know enough to figure it out or are straight lying. everything works fine.if you’re looking to upgrade, you can’t go wrong with this.</t>
   </si>
   <si>
     <t>i never write reviews but i’m taking time to write this one.tried to save some money on a open box mac never again with amazon they have horrible quality control could not even get through setup without it freezing up and then it does not recognize my apple id returning and going to bestbuy would of reordered with amazon but have to wait till return is received and then then they will mail one out that’s going to take maybe two weeks total time i don’t think so never again</t>
@@ -345,9 +351,6 @@
     <t>already had a brand new laptop windows, dealing with pop-ups malware crap not to mention a big bulky laptop etc. wanted to get back in the game for quite some time, always wanted a mac air, best decision ever! incorporates well with all my apple products and just makes things a breeze with all it can do! the battery life is phenomenal along with the screen! don’t get me wrong i was hung up on the high price tag! but i’m so glad i pulled the trigger now!</t>
   </si>
   <si>
-    <t>i purchased a macbook air (late 2020) from amazon on september 17th.  after a week of use, the screen has lines on it.  before the 30-day return window was up, i brought it to the apple store (twice).  the apple store, would not replace the unit and the staff would not send the unit out to be fixed at no cost. the store claimed “damage” was done to the laptop.  an unacceptable response where the laptop was used over a week with normal use, on a desk. this is a defect, not “damage”.  additionally, employee at the apple store, said that he could only “swap it out” if we purchased it from apple directly.  this is unacceptable, i purchased this unit from amazon which is an authorized apple retailer.  the same policies need to be applied, or why bother having authorized retailers.the screens on the m1 macbook airs are fragile and are of poor quality.  apple won’t stand behind its product and fix it. amazon will take back the laptop and i’m getting a full refund.  apple needs to address the screen issue on their laptops, improve their warranty and retrain staff.  the m1 macbook air has poor components, poor warranty and the apple staff are not handling these issues well.  apple is blaming customers for apple’s poor build quality.</t>
-  </si>
-  <si>
     <t>this is a m1 macbook air what more can we say?  we went with used - good condition space gray in order to save money and so far everything looks and works well.  there were 2 battery cycles, minor signs of use on the bottom, and the charger was obviously used but otherwise its in good shape.  there were about 8 months of factory warranty left and i couldn't add applecare+ since it was bought used so i went with a 3rd party warranbty service instead.</t>
   </si>
   <si>
@@ -367,9 +370,6 @@
   </si>
   <si>
     <t>excelente lo habia soñado. contento con mi mac</t>
-  </si>
-  <si>
-    <t>unfortunately i bought this laptop new, brand new in box, then after editing large files for photography, i noticed i had no storage very quickly. starting cleaning the laptop up and realized it was used.  found a couple who had a few video files of their trip to mexico. several other files i had never seen before and had my tech guy at work clean it up and he could tell right away it was used. really disappointing i paid for the new versus the used and still got a used laptop.  it works great but still fraudulent. just be careful ordering these off of amazon.</t>
   </si>
   <si>
     <t>great lightweight laptop. hard to get used to the new command keys if you are not an apple user already. great migration operation from other laptops even windows applications.  not easy to fix or troubleshoot when necessary. had to get tech support to correct a bug with the m1 chip(hard drive), it was fixed but took an hour on the phone</t>
@@ -472,12 +472,12 @@
     <t>pros. i love the new m1 processor, i had an i5 macbook air before this one that was fast, this one is to me compares to the i9 for speed.cons, i don't like that you have to buy an adapter to have a usb or to use my camera sd card, plus they took away the magnetic cord you charge with now it is just a plug-in like the macbook pro. being a computer tech i see problems in the future with it being a plug, they always seem to loosen up as the years go on. other than that i love it!</t>
   </si>
   <si>
+    <t>will not support apple's 2011 thunderbolt 27" display. i have spent hundreds of dollars on connectors/converters and dongles which do not work. both apple and amazon have sent me around 10 items that do not work. i have a tremor which makes it hard to work on a small screen.  i was informed that each of the solutions would work by both companies and other third-party sellers to whom they have directed me.  shame on them! apple is not my friend.</t>
+  </si>
+  <si>
     <t>i needed to upgrade my old desk top computer and synch it with my iphone.  perfection.  everything about apple is the best and this macbook air is delightful.  there is so much more i can do and i can see the possibilities are endless.</t>
   </si>
   <si>
-    <t>will not support apple's 2011 thunderbolt 27" display. i have spent hundreds of dollars on connectors/converters and dongles which do not work. both apple and amazon have sent me around 10 items that do not work. i have a tremor which makes it hard to work on a small screen.  i was informed that each of the solutions would work by both companies and other third-party sellers to whom they have directed me.  shame on them! apple is not my friend.</t>
-  </si>
-  <si>
     <t>my first time macbook experience, there are many things to learn, my iphone and ipad  experiences helps, that is the apple system, its shares so many apps, functionalities, the  m1 chip is amazing, laptop never got warm and i use it for three or four days without charging.i have migrated many window office documents to mac, am still learning so far i'm impressed with the new mac air. quality is top notch</t>
   </si>
   <si>
@@ -523,12 +523,6 @@
     <t>i'm giving this a 5 star because the laptop is perfect for what it is and the seller was great, however i watched multiple youtube videos glorifying the m1 chip as being fast enough that 8gb could handle a ton of open applications. i need a bunch of tabs open for my work, use canva constantly, and occasionally need to open photoshop too so i needed to return this and buy 16gb. but that's my fault and the youtube reviews faults, not the laptop. battery life is amaaaazing though!</t>
   </si>
   <si>
-    <t>this is a great desktop. i have it paired with a dell hi res display i purchased with my old mac. my old mac was getting unreliable (2015). this air is very similar to the mac but faster, reliable. i like the larger touch pad and don't have to use a wireless mouse. i have a usb type c hub to get more connectivity. keyboard is great.</t>
-  </si>
-  <si>
-    <t>i love the battery life. it lasts so long that i charge it sparingly. i love the instant on feature when i lift the lid. i am impressed with the biometric scanner that allows me to log in without my password. the macbook air allows me to log in with my apple watch as well. the speed is fantastic. i am thoroughly impressed. i have an m1 mac mini as well. i am hooked.</t>
-  </si>
-  <si>
     <t>i'm serious ..bought it dec. 14 and have never been able to use it! its crazy.. i guess i was hacked the moment i set it up? also you cant try to change the password unless you use another apple product. dumbest thing i ever heard of! today is march 25th 2021 and no service at all!</t>
   </si>
   <si>
@@ -811,9 +805,6 @@
     <t>overall great computer, my last macbook air was 8 years old so this is a great replacement but super disappointed that the charging cord isn’t magnetic like the old style</t>
   </si>
   <si>
-    <t>this is a really nice computer. i am still learning the shortcuts that make it even more user friendly. everyday i learn something new. happy customer over here.</t>
-  </si>
-  <si>
     <t>my daughter is a budding photographer and got this computer to edit her photos and for college. she loves everything about it, it fits her needs perfectly.</t>
   </si>
   <si>
@@ -835,6 +826,9 @@
     <t>apple has gone through 3 big sur os updates and there's still quirks to deal with. i end up re-starting sometimes just to get software booted up and documents retrieved from icloud.</t>
   </si>
   <si>
+    <t>this is my first mac ever. i had to go through a small learning curve to get used to the os and the keyboard layout and shortcuts. but now i am so happy with the purchase.really good screen, trackpad and keyboard. amazing battery life. so compact and light. the only thing that i miss from my previous laptop is a touchscreen.i would without any hesitation recommend this for anyone looking for a handy and powerful laptop.</t>
+  </si>
+  <si>
     <t>this is what i'd hoped for w/ the macbook. great typing, fast and super media performance. a perfect stay at home compliment to my pixelbook go.</t>
   </si>
   <si>
@@ -880,9 +874,6 @@
     <t>this macbook is super fast and convenient to use. typical apple quality but yes you will have to pay a price for it.  the m1 chip is amazing and worth it.  wish the bezels weren't as big but you can't get everything right?  highly recommend if you are a fan of apple. very lightweight and portable.</t>
   </si>
   <si>
-    <t>i love it! i’ve had it for about 2 weeks now and it’s the best laptop i’ve ever owned. i do play games on it (mainly sims) and it doesn’t lag or mess up which i’m happy with. great buy and i’m happy i bought it!</t>
-  </si>
-  <si>
     <t>i like that it is small and compact and easy to use.  using it daily for many hours and hardly drains the battery at all.</t>
   </si>
   <si>
@@ -1015,6 +1006,9 @@
     <t>very please with this laptop.  battery life is amazing!  also appreciated the amazon discount.</t>
   </si>
   <si>
+    <t>beautiful and looks really nice.  quality looks like true apple quality.  battery life is respectable.  no touch screen but keyboard makes it easy to use</t>
+  </si>
+  <si>
     <t>very fast! starts right up! only complaint is wish it had the old magnetic power plug and more usb connections. other then that, fantastic!</t>
   </si>
   <si>
@@ -1076,6 +1070,9 @@
   </si>
   <si>
     <t>of course my daughter was so happy with this gift.</t>
+  </si>
+  <si>
+    <t>perfect perfect perfect. nothing damaged and i got it for a good price! 100 dollars off at the time.  thank you ❤️❤️❤️</t>
   </si>
   <si>
     <t>their support staff created more problems than i could ever have and i have wasted at least 20 hours on hold and trying to get apple to set up my new mac and i still cannot use this computer.  i am seriously thinking to send back and hoping i can!</t>
@@ -1538,7 +1535,7 @@
     <t>i love it! it was everything i asked for! it came on time and it was amazing! it was delivered with care and everything works amazingly great!</t>
   </si>
   <si>
-    <t>the media could not be loaded.
+    <t>your browser does not support html5 video.
    i love it! came in great packaging , i received my package extremely quickly and everything is working fine.</t>
   </si>
   <si>
@@ -1973,6 +1970,9 @@
     <t>do you like microsoft office? adobe creative cloud? video games? basically any application? a straight forward user interface that even a child could use?sorry, you’ve come to the wrong place. it was good 13 years ago.on the plus side, you can now stop using windows entirely thanks to arm, as intended, and thus all your productivity will stop as well unless you literally cannot stand using a regular portable computer, which has been a running joke since seinfeld was on air.yes, this magical 8 core 2.7 gigahertz processor with 8 gigs of ram, a 2700 mb/s read and write speed hard disk, and a 1.2 teraflop graphics card still struggles to keep up to my aging 8 year old lenovo laptop upgraded with an ssd running windows 7 through 10+.no, don’t bother having more than 2 applications open. it’s sucked for over a decade now unless you have the luck of owning a $2,000 imac, or a $50 older imac.seriously, don’t buy this. computers have gotten worse in the last 10 years.handoff is still nice though.</t>
   </si>
   <si>
+    <t>as a gamer i must say although i love my computer it does not last anywhere near 18 hours. maybe because i am gaming. but it does not last 5-6 while i am gaming. when i am working or watching tv shows my battery also dies kinda fast. i don't like to use my laptop and charge so i let it charge normally but that's my only problem is the fact that the battery is nothing like they said it would be. but neither are our phones lol. other than that its a great light way, easy on the go, laptop that works very well for business. not so much gaming as the battery is low. may be just mine but its the one con i noticed.</t>
+  </si>
+  <si>
     <t>i got this macbook air for work, because my personal laptop is a 2019 razer blade, and while thin, it’s heavy and runs hot…like gaming laptops do.i decided to get a macbook air m1 256g for a work laptop, and had no real expectations for it. i’ve been very impressed.the quality is what you’d expect from apple, sturdy construction, i love the keyboard, the display is solid and shows a depth that my other laptops never have. it has handled everything i’ve thrown at it, zooms, huge files of client contracts, browsing of course, i haven’t ever noticed it throttling due to a lack of a fan.it’s operating system is very user friendly too, some tasks that are a bit more difficult in a pc are astonishingly easy. honestly, i haven’t even touched the razer blade in a few months, i will always have an apple laptop from here on out.</t>
   </si>
   <si>
@@ -2135,25 +2135,28 @@
     <t xml:space="preserve"> fast</t>
   </si>
   <si>
+    <t>awesome current fantastic fast fun hip level pretty</t>
+  </si>
+  <si>
     <t>good hard</t>
   </si>
   <si>
     <t>fine happy</t>
   </si>
   <si>
+    <t>amazing excellent fair fast good honest wonderful</t>
+  </si>
+  <si>
     <t xml:space="preserve"> direct</t>
   </si>
   <si>
-    <t>awesome current fantastic fast fun hip level pretty</t>
-  </si>
-  <si>
     <t>adaptable amazing clean convenient hard open</t>
   </si>
   <si>
     <t>expensive fine good grand hip kind nice present quiet soft solid willing wise wonderful</t>
   </si>
   <si>
-    <t>amazing excellent fair fast good honest wonderful</t>
+    <t>bright careful fast good heavy kind light nice open quiet soft</t>
   </si>
   <si>
     <t>current elated familiar fast soft</t>
@@ -2165,24 +2168,21 @@
     <t>fast good light</t>
   </si>
   <si>
-    <t>bright careful fast good heavy kind light nice open quiet soft</t>
-  </si>
-  <si>
     <t>efficient happy hip light loving open quick</t>
   </si>
   <si>
+    <t>current fast fine level light minimal quiet</t>
+  </si>
+  <si>
+    <t>fast hip light pretty specific</t>
+  </si>
+  <si>
+    <t>capable country fast fun hard light open sage soft</t>
+  </si>
+  <si>
     <t>amazing fast hip light open perfect quiet</t>
   </si>
   <si>
-    <t>current fast fine level light minimal quiet</t>
-  </si>
-  <si>
-    <t>fast hip light pretty specific</t>
-  </si>
-  <si>
-    <t>capable country fast fun hard light open sage soft</t>
-  </si>
-  <si>
     <t>fast frank heavy hip open perfect sweet</t>
   </si>
   <si>
@@ -2192,6 +2192,9 @@
     <t>elated hard heavy quick sage soft</t>
   </si>
   <si>
+    <t xml:space="preserve"> friendly</t>
+  </si>
+  <si>
     <t>clean hard nice perfect solid</t>
   </si>
   <si>
@@ -2231,9 +2234,6 @@
     <t>fast good grand happy hard helpful hip nice</t>
   </si>
   <si>
-    <t xml:space="preserve"> friendly</t>
-  </si>
-  <si>
     <t>casual fast fine good hip open</t>
   </si>
   <si>
@@ -2291,42 +2291,48 @@
     <t>credible expensive fast fresh simple soft stable</t>
   </si>
   <si>
+    <t>custom direct fun</t>
+  </si>
+  <si>
+    <t>excellent fit heavy light raw</t>
+  </si>
+  <si>
+    <t>amazing fast</t>
+  </si>
+  <si>
+    <t>amazing cool free hip powerful</t>
+  </si>
+  <si>
+    <t>clean fit fresh good hip honest light powerful practical sleek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> original</t>
+  </si>
+  <si>
+    <t>careful clean fine perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bright</t>
+  </si>
+  <si>
+    <t>excellent fast fit hip light smart</t>
+  </si>
+  <si>
+    <t>bright heavy hip light nice sage solid wise</t>
+  </si>
+  <si>
+    <t>careful clean quick</t>
+  </si>
+  <si>
+    <t>convenient fast fresh heavy light refreshing</t>
+  </si>
+  <si>
+    <t>fine light powerful</t>
+  </si>
+  <si>
     <t>amazing fine hip lovely nice perfect</t>
   </si>
   <si>
-    <t>excellent fit heavy light raw</t>
-  </si>
-  <si>
-    <t>amazing fast</t>
-  </si>
-  <si>
-    <t>amazing cool free hip powerful</t>
-  </si>
-  <si>
-    <t>clean fit fresh good hip honest light powerful practical sleek</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> original</t>
-  </si>
-  <si>
-    <t>careful clean fine perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bright</t>
-  </si>
-  <si>
-    <t>excellent fast fit hip light smart</t>
-  </si>
-  <si>
-    <t>bright heavy hip light nice sage solid wise</t>
-  </si>
-  <si>
-    <t>convenient fast fresh heavy light refreshing</t>
-  </si>
-  <si>
-    <t>fine light powerful</t>
-  </si>
-  <si>
     <t>free open</t>
   </si>
   <si>
@@ -2381,9 +2387,6 @@
     <t xml:space="preserve"> corporate</t>
   </si>
   <si>
-    <t>custom direct fun</t>
-  </si>
-  <si>
     <t>good wise</t>
   </si>
   <si>
@@ -2405,9 +2408,6 @@
     <t xml:space="preserve"> content</t>
   </si>
   <si>
-    <t>careful clean quick</t>
-  </si>
-  <si>
     <t>hard hip light</t>
   </si>
   <si>
@@ -2504,12 +2504,12 @@
     <t>fast magnetic</t>
   </si>
   <si>
+    <t>direct hard</t>
+  </si>
+  <si>
     <t>delightful light perfect</t>
   </si>
   <si>
-    <t>direct hard</t>
-  </si>
-  <si>
     <t>amazing fun functional hip warm</t>
   </si>
   <si>
@@ -2549,615 +2549,618 @@
     <t>fast giving hip open perfect</t>
   </si>
   <si>
+    <t xml:space="preserve"> serious</t>
+  </si>
+  <si>
+    <t>awesome fast light</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pretty</t>
+  </si>
+  <si>
+    <t>hard pretty</t>
+  </si>
+  <si>
+    <t>awesome fast perfect</t>
+  </si>
+  <si>
+    <t>fun wonderful</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cool</t>
+  </si>
+  <si>
+    <t>fast kind pretty</t>
+  </si>
+  <si>
+    <t>fast powerful</t>
+  </si>
+  <si>
+    <t>good kind nice</t>
+  </si>
+  <si>
+    <t>excellent light</t>
+  </si>
+  <si>
+    <t>amazing fine good light pretty</t>
+  </si>
+  <si>
+    <t>good sensitive</t>
+  </si>
+  <si>
+    <t>fine light perfect</t>
+  </si>
+  <si>
+    <t>fast heavy</t>
+  </si>
+  <si>
+    <t>amazing fine fun functional perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> present</t>
+  </si>
+  <si>
+    <t>expensive hip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> good</t>
+  </si>
+  <si>
+    <t>affordable open</t>
+  </si>
+  <si>
+    <t>fit good</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> soft</t>
+  </si>
+  <si>
+    <t>fast hard plain solid</t>
+  </si>
+  <si>
+    <t>fun plain</t>
+  </si>
+  <si>
+    <t>comfortable familiar fun hard nice</t>
+  </si>
+  <si>
+    <t>amazing hard pretty</t>
+  </si>
+  <si>
+    <t>solid wonderful</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> elated</t>
+  </si>
+  <si>
+    <t>hip social soft stable</t>
+  </si>
+  <si>
+    <t>good hard nice</t>
+  </si>
+  <si>
+    <t>credible patient perfect plain quick</t>
+  </si>
+  <si>
+    <t>hip light</t>
+  </si>
+  <si>
+    <t>good plain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> open</t>
+  </si>
+  <si>
+    <t>amazing happy</t>
+  </si>
+  <si>
+    <t>fast quick</t>
+  </si>
+  <si>
+    <t>awesome fast fine good nice plain</t>
+  </si>
+  <si>
+    <t>fast quiet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free</t>
+  </si>
+  <si>
+    <t>good happy sweet</t>
+  </si>
+  <si>
+    <t>careful fun</t>
+  </si>
+  <si>
+    <t>fast perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> excellent</t>
+  </si>
+  <si>
+    <t>fast fun</t>
+  </si>
+  <si>
+    <t>good light</t>
+  </si>
+  <si>
+    <t>bright concerned excellent plain</t>
+  </si>
+  <si>
+    <t>light perfect</t>
+  </si>
+  <si>
+    <t>fast happy light</t>
+  </si>
+  <si>
+    <t>fast nice reliable</t>
+  </si>
+  <si>
+    <t>hip reliable</t>
+  </si>
+  <si>
+    <t>current fast</t>
+  </si>
+  <si>
+    <t>hip pleasant</t>
+  </si>
+  <si>
+    <t>light powerful soft</t>
+  </si>
+  <si>
+    <t>fine good heavy nice</t>
+  </si>
+  <si>
+    <t>good solid</t>
+  </si>
+  <si>
+    <t>fast simple</t>
+  </si>
+  <si>
+    <t>fast open reliable</t>
+  </si>
+  <si>
+    <t>light quick</t>
+  </si>
+  <si>
+    <t>hip original plain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sleek</t>
+  </si>
+  <si>
+    <t>hip quick</t>
+  </si>
+  <si>
+    <t>consistent good</t>
+  </si>
+  <si>
+    <t>light quick sleek</t>
+  </si>
+  <si>
+    <t>capable excellent hard</t>
+  </si>
+  <si>
+    <t>convenient current fit</t>
+  </si>
+  <si>
+    <t>good quick</t>
+  </si>
+  <si>
+    <t>good soft willing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quick</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> standard</t>
+  </si>
+  <si>
+    <t>perfect wonderful</t>
+  </si>
+  <si>
+    <t>happy light powerful</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> awesome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> magnetic</t>
+  </si>
+  <si>
+    <t>fit perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> perfect</t>
+  </si>
+  <si>
+    <t>awesome good</t>
+  </si>
+  <si>
+    <t>current fast powerful sharp</t>
+  </si>
+  <si>
+    <t>awesome fast pretty</t>
+  </si>
+  <si>
+    <t>familiar wonderful</t>
+  </si>
+  <si>
+    <t>amazing good happy light powerful</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nice</t>
+  </si>
+  <si>
+    <t>gorgeous light plain quick</t>
+  </si>
+  <si>
+    <t>fast hip</t>
+  </si>
+  <si>
+    <t>familiar fast hip light</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> intuitive</t>
+  </si>
+  <si>
+    <t>perfect soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sage</t>
+  </si>
+  <si>
+    <t>hip smart</t>
+  </si>
+  <si>
+    <t>fast nice</t>
+  </si>
+  <si>
+    <t>fast modern</t>
+  </si>
+  <si>
+    <t>amazing cool fast light</t>
+  </si>
+  <si>
+    <t>hard honest open</t>
+  </si>
+  <si>
+    <t>amazing convenient fast hip light</t>
+  </si>
+  <si>
+    <t>fancy plain</t>
+  </si>
+  <si>
+    <t>amazing light</t>
+  </si>
+  <si>
+    <t>hard soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> credible</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grand</t>
+  </si>
+  <si>
+    <t>fast hip soft</t>
+  </si>
+  <si>
+    <t>concerned good</t>
+  </si>
+  <si>
+    <t>nice perfect pure</t>
+  </si>
+  <si>
+    <t>affordable amazing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fine</t>
+  </si>
+  <si>
+    <t>awesome excellent good happy light quiet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amazing</t>
+  </si>
+  <si>
+    <t>fine perfect</t>
+  </si>
+  <si>
+    <t>excellent perfect</t>
+  </si>
+  <si>
+    <t>bright happy nice</t>
+  </si>
+  <si>
+    <t>light loving perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> happy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> current</t>
+  </si>
+  <si>
+    <t>excellent fast light</t>
+  </si>
+  <si>
+    <t>fast free light</t>
+  </si>
+  <si>
+    <t>free hip safe thoughtful</t>
+  </si>
+  <si>
+    <t>credible expensive fast gorgeous</t>
+  </si>
+  <si>
+    <t>active nice perfect</t>
+  </si>
+  <si>
+    <t>awesome fast light plain</t>
+  </si>
+  <si>
+    <t>fast heavy nice perfect plain sage sleek</t>
+  </si>
+  <si>
+    <t>excellent good happy quiet</t>
+  </si>
+  <si>
+    <t>fantastic fast magnetic plain</t>
+  </si>
+  <si>
+    <t>amazing fun</t>
+  </si>
+  <si>
+    <t>light pretty</t>
+  </si>
+  <si>
+    <t>fast good serious simple</t>
+  </si>
+  <si>
+    <t>fast light wonderful</t>
+  </si>
+  <si>
+    <t>plain wonderful</t>
+  </si>
+  <si>
+    <t>nice quick</t>
+  </si>
+  <si>
+    <t>happy perfect</t>
+  </si>
+  <si>
+    <t>amazing current fast hip</t>
+  </si>
+  <si>
+    <t>convenient helpful magical sleek</t>
+  </si>
+  <si>
+    <t>good perfect</t>
+  </si>
+  <si>
+    <t>active hip light pristine soft</t>
+  </si>
+  <si>
+    <t>excellent good</t>
+  </si>
+  <si>
+    <t>fast good open</t>
+  </si>
+  <si>
+    <t>amazing hip powerful</t>
+  </si>
+  <si>
+    <t>excellent light nice</t>
+  </si>
+  <si>
+    <t>good pretty</t>
+  </si>
+  <si>
+    <t>fine hip productive quick</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> powerful</t>
+  </si>
+  <si>
+    <t>good sage</t>
+  </si>
+  <si>
+    <t>good strong</t>
+  </si>
+  <si>
+    <t>fast nice perfect</t>
+  </si>
+  <si>
+    <t>competent reliable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> plain</t>
+  </si>
+  <si>
+    <t>efficient elated fast simple</t>
+  </si>
+  <si>
+    <t>excellent happy</t>
+  </si>
+  <si>
+    <t>fast professional secure sleek</t>
+  </si>
+  <si>
+    <t>good happy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> heavy</t>
+  </si>
+  <si>
+    <t>excellent light sleek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wonderful</t>
+  </si>
+  <si>
+    <t>light powerful</t>
+  </si>
+  <si>
+    <t>amazing reliable</t>
+  </si>
+  <si>
+    <t>expensive good</t>
+  </si>
+  <si>
     <t>fast reliable</t>
   </si>
   <si>
+    <t>familiar hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> neat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hopeful</t>
+  </si>
+  <si>
+    <t>custom efficient friendly light sleek</t>
+  </si>
+  <si>
+    <t>good honest pretty</t>
+  </si>
+  <si>
+    <t>happy pretty</t>
+  </si>
+  <si>
+    <t>excited fast hip wonderful</t>
+  </si>
+  <si>
+    <t>happy hip quick</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> raw</t>
+  </si>
+  <si>
+    <t>fast fun hip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> positive</t>
+  </si>
+  <si>
+    <t>elegant light</t>
+  </si>
+  <si>
+    <t>powerful quick</t>
+  </si>
+  <si>
+    <t>good hip perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> versatile</t>
+  </si>
+  <si>
+    <t>good sleek</t>
+  </si>
+  <si>
+    <t>credible custom happy</t>
+  </si>
+  <si>
+    <t>expert good happy light</t>
+  </si>
+  <si>
+    <t>amazing sage</t>
+  </si>
+  <si>
+    <t>current fast hip nice</t>
+  </si>
+  <si>
+    <t>amazing good perfect</t>
+  </si>
+  <si>
+    <t>fast good</t>
+  </si>
+  <si>
+    <t>excellent plain</t>
+  </si>
+  <si>
+    <t>good heavy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quiet</t>
+  </si>
+  <si>
+    <t>good light powerful</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lovely</t>
+  </si>
+  <si>
+    <t>fast happy nice</t>
+  </si>
+  <si>
+    <t>fast light quick</t>
+  </si>
+  <si>
+    <t>delightful fantastic light nice present</t>
+  </si>
+  <si>
+    <t>fantastic fast</t>
+  </si>
+  <si>
+    <t>custom happy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wise</t>
+  </si>
+  <si>
+    <t>fine quick</t>
+  </si>
+  <si>
+    <t>happy light perfect</t>
+  </si>
+  <si>
+    <t>perfect powerful</t>
+  </si>
+  <si>
+    <t>happy pleasant</t>
+  </si>
+  <si>
+    <t>fast happy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> efficient</t>
+  </si>
+  <si>
+    <t>awesome nice</t>
+  </si>
+  <si>
+    <t>awesome plain</t>
+  </si>
+  <si>
+    <t>good heavy hip nice</t>
+  </si>
+  <si>
+    <t>expensive plain</t>
+  </si>
+  <si>
+    <t>light sleek</t>
+  </si>
+  <si>
+    <t>fast safe</t>
+  </si>
+  <si>
+    <t>efficient friendly</t>
+  </si>
+  <si>
+    <t>plain sleek</t>
+  </si>
+  <si>
+    <t>fast warm</t>
+  </si>
+  <si>
+    <t>cool fast</t>
+  </si>
+  <si>
     <t xml:space="preserve"> fantastic</t>
   </si>
   <si>
-    <t xml:space="preserve"> serious</t>
-  </si>
-  <si>
-    <t>awesome fast light</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pretty</t>
-  </si>
-  <si>
-    <t>hard pretty</t>
-  </si>
-  <si>
-    <t>awesome fast perfect</t>
-  </si>
-  <si>
-    <t>fun wonderful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cool</t>
-  </si>
-  <si>
-    <t>fast kind pretty</t>
-  </si>
-  <si>
-    <t>fast powerful</t>
-  </si>
-  <si>
-    <t>good kind nice</t>
-  </si>
-  <si>
-    <t>excellent light</t>
-  </si>
-  <si>
-    <t>amazing fine good light pretty</t>
-  </si>
-  <si>
-    <t>good sensitive</t>
-  </si>
-  <si>
-    <t>fine light perfect</t>
-  </si>
-  <si>
-    <t>fast heavy</t>
-  </si>
-  <si>
-    <t>amazing fine fun functional perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> present</t>
-  </si>
-  <si>
-    <t>expensive hip</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> good</t>
-  </si>
-  <si>
-    <t>affordable open</t>
-  </si>
-  <si>
-    <t>fit good</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> soft</t>
-  </si>
-  <si>
-    <t>fast hard plain solid</t>
-  </si>
-  <si>
-    <t>fun plain</t>
-  </si>
-  <si>
-    <t>comfortable familiar fun hard nice</t>
-  </si>
-  <si>
-    <t>amazing hard pretty</t>
-  </si>
-  <si>
-    <t>solid wonderful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> elated</t>
-  </si>
-  <si>
-    <t>hip social soft stable</t>
-  </si>
-  <si>
-    <t>good hard nice</t>
-  </si>
-  <si>
-    <t>credible patient perfect plain quick</t>
-  </si>
-  <si>
-    <t>hip light</t>
-  </si>
-  <si>
-    <t>good plain</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> open</t>
-  </si>
-  <si>
-    <t>amazing happy</t>
-  </si>
-  <si>
-    <t>fast quick</t>
-  </si>
-  <si>
-    <t>awesome fast fine good nice plain</t>
-  </si>
-  <si>
-    <t>fast quiet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> free</t>
-  </si>
-  <si>
-    <t>good happy sweet</t>
-  </si>
-  <si>
-    <t>careful fun</t>
-  </si>
-  <si>
-    <t>fast perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> excellent</t>
-  </si>
-  <si>
-    <t>fast fun</t>
-  </si>
-  <si>
-    <t>good light</t>
-  </si>
-  <si>
-    <t>bright concerned excellent plain</t>
-  </si>
-  <si>
-    <t>light perfect</t>
-  </si>
-  <si>
-    <t>fast happy light</t>
-  </si>
-  <si>
-    <t>fast nice reliable</t>
-  </si>
-  <si>
-    <t>hip reliable</t>
-  </si>
-  <si>
-    <t>current fast</t>
-  </si>
-  <si>
-    <t>hip pleasant</t>
-  </si>
-  <si>
-    <t>light powerful soft</t>
-  </si>
-  <si>
-    <t>fine good heavy nice</t>
-  </si>
-  <si>
-    <t>good solid</t>
-  </si>
-  <si>
-    <t>fast simple</t>
-  </si>
-  <si>
-    <t>fast open reliable</t>
-  </si>
-  <si>
-    <t>light quick</t>
-  </si>
-  <si>
-    <t>hip original plain</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sleek</t>
-  </si>
-  <si>
-    <t>hip quick</t>
-  </si>
-  <si>
-    <t>consistent good</t>
-  </si>
-  <si>
-    <t>light quick sleek</t>
-  </si>
-  <si>
-    <t>capable excellent hard</t>
-  </si>
-  <si>
-    <t>convenient current fit</t>
-  </si>
-  <si>
-    <t>good quick</t>
-  </si>
-  <si>
-    <t>good soft willing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> quick</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> standard</t>
-  </si>
-  <si>
-    <t>perfect wonderful</t>
-  </si>
-  <si>
-    <t>happy light powerful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> awesome</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> magnetic</t>
-  </si>
-  <si>
-    <t>custom friendly happy nice</t>
-  </si>
-  <si>
-    <t>fit perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> perfect</t>
-  </si>
-  <si>
-    <t>awesome good</t>
-  </si>
-  <si>
-    <t>current fast powerful sharp</t>
-  </si>
-  <si>
-    <t>awesome fast pretty</t>
-  </si>
-  <si>
-    <t>familiar wonderful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nice</t>
-  </si>
-  <si>
-    <t>gorgeous light plain quick</t>
-  </si>
-  <si>
-    <t>fast hip</t>
-  </si>
-  <si>
-    <t>familiar fast hip light</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> intuitive</t>
-  </si>
-  <si>
-    <t>perfect soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sage</t>
-  </si>
-  <si>
-    <t>hip smart</t>
-  </si>
-  <si>
-    <t>fast nice</t>
-  </si>
-  <si>
-    <t>fast modern</t>
-  </si>
-  <si>
-    <t>amazing cool fast light</t>
-  </si>
-  <si>
-    <t>hard honest open</t>
-  </si>
-  <si>
-    <t>amazing convenient fast hip light</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> happy</t>
-  </si>
-  <si>
-    <t>fancy plain</t>
-  </si>
-  <si>
-    <t>amazing light</t>
-  </si>
-  <si>
-    <t>hard soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> credible</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> grand</t>
-  </si>
-  <si>
-    <t>fast hip soft</t>
-  </si>
-  <si>
-    <t>concerned good</t>
-  </si>
-  <si>
-    <t>nice perfect pure</t>
-  </si>
-  <si>
-    <t>affordable amazing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fine</t>
-  </si>
-  <si>
-    <t>awesome excellent good happy light quiet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> amazing</t>
-  </si>
-  <si>
-    <t>fine perfect</t>
-  </si>
-  <si>
-    <t>excellent perfect</t>
-  </si>
-  <si>
-    <t>bright happy nice</t>
-  </si>
-  <si>
-    <t>light loving perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> current</t>
-  </si>
-  <si>
-    <t>excellent fast light</t>
-  </si>
-  <si>
-    <t>fast free light</t>
-  </si>
-  <si>
-    <t>free hip safe thoughtful</t>
-  </si>
-  <si>
-    <t>credible expensive fast gorgeous</t>
-  </si>
-  <si>
-    <t>active nice perfect</t>
-  </si>
-  <si>
-    <t>awesome fast light plain</t>
-  </si>
-  <si>
-    <t>fast heavy nice perfect plain sage sleek</t>
-  </si>
-  <si>
-    <t>excellent good happy quiet</t>
-  </si>
-  <si>
-    <t>fantastic fast magnetic plain</t>
-  </si>
-  <si>
-    <t>amazing fun</t>
-  </si>
-  <si>
-    <t>light pretty</t>
-  </si>
-  <si>
-    <t>fast good serious simple</t>
-  </si>
-  <si>
-    <t>fast light wonderful</t>
-  </si>
-  <si>
-    <t>plain wonderful</t>
-  </si>
-  <si>
-    <t>nice quick</t>
-  </si>
-  <si>
-    <t>happy perfect</t>
-  </si>
-  <si>
-    <t>amazing current fast hip</t>
-  </si>
-  <si>
-    <t>convenient helpful magical sleek</t>
-  </si>
-  <si>
-    <t>active hip light pristine soft</t>
-  </si>
-  <si>
-    <t>excellent good</t>
-  </si>
-  <si>
-    <t>fast good open</t>
-  </si>
-  <si>
-    <t>amazing hip powerful</t>
-  </si>
-  <si>
-    <t>excellent light nice</t>
-  </si>
-  <si>
-    <t>good pretty</t>
-  </si>
-  <si>
-    <t>fine hip productive quick</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> powerful</t>
-  </si>
-  <si>
-    <t>good sage</t>
-  </si>
-  <si>
-    <t>good strong</t>
-  </si>
-  <si>
-    <t>fast nice perfect</t>
-  </si>
-  <si>
-    <t>competent reliable</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> plain</t>
-  </si>
-  <si>
-    <t>efficient elated fast simple</t>
-  </si>
-  <si>
-    <t>excellent happy</t>
-  </si>
-  <si>
-    <t>fast professional secure sleek</t>
-  </si>
-  <si>
-    <t>good happy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> heavy</t>
-  </si>
-  <si>
-    <t>excellent light sleek</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wonderful</t>
-  </si>
-  <si>
-    <t>light powerful</t>
-  </si>
-  <si>
-    <t>amazing reliable</t>
-  </si>
-  <si>
-    <t>expensive good</t>
-  </si>
-  <si>
-    <t>familiar hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> neat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hopeful</t>
-  </si>
-  <si>
-    <t>custom efficient friendly light sleek</t>
-  </si>
-  <si>
-    <t>good honest pretty</t>
-  </si>
-  <si>
-    <t>happy pretty</t>
-  </si>
-  <si>
-    <t>excited fast hip wonderful</t>
-  </si>
-  <si>
-    <t>happy hip quick</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> raw</t>
-  </si>
-  <si>
-    <t>fast fun hip</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> positive</t>
-  </si>
-  <si>
-    <t>elegant light</t>
-  </si>
-  <si>
-    <t>powerful quick</t>
-  </si>
-  <si>
-    <t>good hip perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> versatile</t>
-  </si>
-  <si>
-    <t>good sleek</t>
-  </si>
-  <si>
-    <t>credible custom happy</t>
-  </si>
-  <si>
-    <t>expert good happy light</t>
-  </si>
-  <si>
-    <t>amazing sage</t>
-  </si>
-  <si>
-    <t>current fast hip nice</t>
-  </si>
-  <si>
-    <t>amazing good perfect</t>
-  </si>
-  <si>
-    <t>fast good</t>
-  </si>
-  <si>
-    <t>excellent plain</t>
-  </si>
-  <si>
-    <t>good heavy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> quiet</t>
-  </si>
-  <si>
-    <t>good light powerful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lovely</t>
-  </si>
-  <si>
-    <t>fast happy nice</t>
-  </si>
-  <si>
-    <t>fast light quick</t>
-  </si>
-  <si>
-    <t>delightful fantastic light nice present</t>
-  </si>
-  <si>
-    <t>fantastic fast</t>
-  </si>
-  <si>
-    <t>custom happy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wise</t>
-  </si>
-  <si>
-    <t>fine quick</t>
-  </si>
-  <si>
-    <t>happy light perfect</t>
-  </si>
-  <si>
-    <t>perfect powerful</t>
-  </si>
-  <si>
-    <t>happy pleasant</t>
-  </si>
-  <si>
-    <t>fast happy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> efficient</t>
-  </si>
-  <si>
-    <t>awesome nice</t>
-  </si>
-  <si>
-    <t>awesome plain</t>
-  </si>
-  <si>
-    <t>good heavy hip nice</t>
-  </si>
-  <si>
-    <t>expensive plain</t>
-  </si>
-  <si>
-    <t>light sleek</t>
-  </si>
-  <si>
-    <t>fast safe</t>
-  </si>
-  <si>
-    <t>efficient friendly</t>
-  </si>
-  <si>
-    <t>plain sleek</t>
-  </si>
-  <si>
-    <t>fast warm</t>
-  </si>
-  <si>
-    <t>cool fast</t>
-  </si>
-  <si>
     <t>perfect specific</t>
   </si>
   <si>
@@ -3291,6 +3294,9 @@
   </si>
   <si>
     <t>creative good hard magical nice open serious soft</t>
+  </si>
+  <si>
+    <t>fast kind light</t>
   </si>
   <si>
     <t>friendly heavy honest solid</t>
@@ -4052,13 +4058,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C25" t="s">
         <v>704</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4066,7 +4072,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C26" t="s">
         <v>705</v>
@@ -4080,13 +4086,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C27" t="s">
         <v>706</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4100,7 +4106,7 @@
         <v>707</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4108,13 +4114,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C29" t="s">
         <v>708</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4128,7 +4134,7 @@
         <v>709</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4136,13 +4142,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C31" t="s">
         <v>710</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4150,13 +4156,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C32" t="s">
         <v>711</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4170,7 +4176,7 @@
         <v>712</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4178,13 +4184,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C34" t="s">
         <v>713</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4192,13 +4198,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C35" t="s">
         <v>714</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4240,7 +4246,7 @@
         <v>717</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4254,7 +4260,7 @@
         <v>718</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4268,7 +4274,7 @@
         <v>719</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4324,7 +4330,7 @@
         <v>723</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4352,7 +4358,7 @@
         <v>725</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4360,7 +4366,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C47" t="s">
         <v>726</v>
@@ -4374,13 +4380,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C48" t="s">
         <v>727</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4388,7 +4394,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C49" t="s">
         <v>728</v>
@@ -4402,13 +4408,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C50" t="s">
         <v>729</v>
       </c>
       <c r="D50">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4422,7 +4428,7 @@
         <v>730</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4436,7 +4442,7 @@
         <v>731</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4444,13 +4450,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C53" t="s">
         <v>732</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4458,13 +4464,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C54" t="s">
         <v>733</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4478,7 +4484,7 @@
         <v>734</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4492,7 +4498,7 @@
         <v>735</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4506,7 +4512,7 @@
         <v>736</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4780,13 +4786,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C77" t="s">
         <v>756</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4920,13 +4926,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C87" t="s">
         <v>766</v>
       </c>
       <c r="D87">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4940,7 +4946,7 @@
         <v>767</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4948,13 +4954,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C89" t="s">
         <v>768</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4968,7 +4974,7 @@
         <v>769</v>
       </c>
       <c r="D90">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4976,13 +4982,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C91" t="s">
         <v>770</v>
       </c>
       <c r="D91">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4996,7 +5002,7 @@
         <v>771</v>
       </c>
       <c r="D92">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5004,13 +5010,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C93" t="s">
         <v>772</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5024,7 +5030,7 @@
         <v>773</v>
       </c>
       <c r="D94">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5032,7 +5038,7 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C95" t="s">
         <v>774</v>
@@ -5052,7 +5058,7 @@
         <v>775</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -5066,7 +5072,7 @@
         <v>776</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -5080,7 +5086,7 @@
         <v>777</v>
       </c>
       <c r="D98">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -5094,7 +5100,7 @@
         <v>778</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5102,13 +5108,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C100" t="s">
         <v>779</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5122,7 +5128,7 @@
         <v>780</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5130,13 +5136,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C102" t="s">
         <v>781</v>
       </c>
       <c r="D102">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5150,7 +5156,7 @@
         <v>782</v>
       </c>
       <c r="D103">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5164,7 +5170,7 @@
         <v>783</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5178,7 +5184,7 @@
         <v>784</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5192,7 +5198,7 @@
         <v>785</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5200,13 +5206,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C107" t="s">
         <v>786</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5220,7 +5226,7 @@
         <v>787</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -5228,13 +5234,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C109" t="s">
         <v>788</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5242,13 +5248,13 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C110" t="s">
         <v>789</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5270,13 +5276,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C112" t="s">
         <v>791</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5284,13 +5290,13 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C113" t="s">
         <v>792</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5304,7 +5310,7 @@
         <v>793</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5312,13 +5318,13 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C115" t="s">
         <v>794</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5788,13 +5794,13 @@
         <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C149" t="s">
         <v>827</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5802,13 +5808,13 @@
         <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C150" t="s">
         <v>828</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -6026,13 +6032,13 @@
         <v>168</v>
       </c>
       <c r="B166" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C166" t="s">
         <v>842</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -6046,7 +6052,7 @@
         <v>843</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -6054,7 +6060,7 @@
         <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C168" t="s">
         <v>844</v>
@@ -6068,13 +6074,13 @@
         <v>171</v>
       </c>
       <c r="B169" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C169" t="s">
         <v>845</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -6088,7 +6094,7 @@
         <v>846</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -6096,7 +6102,7 @@
         <v>173</v>
       </c>
       <c r="B171" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C171" t="s">
         <v>847</v>
@@ -6116,7 +6122,7 @@
         <v>848</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -6124,13 +6130,13 @@
         <v>175</v>
       </c>
       <c r="B173" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C173" t="s">
         <v>849</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6144,7 +6150,7 @@
         <v>850</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -6152,7 +6158,7 @@
         <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C175" t="s">
         <v>851</v>
@@ -6169,10 +6175,10 @@
         <v>678</v>
       </c>
       <c r="C176" t="s">
-        <v>852</v>
+        <v>789</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -6180,13 +6186,13 @@
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C177" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -6197,10 +6203,10 @@
         <v>678</v>
       </c>
       <c r="C178" t="s">
-        <v>788</v>
+        <v>853</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -6208,7 +6214,7 @@
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C179" t="s">
         <v>854</v>
@@ -6228,7 +6234,7 @@
         <v>855</v>
       </c>
       <c r="D180">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -6236,7 +6242,7 @@
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C181" t="s">
         <v>856</v>
@@ -6256,7 +6262,7 @@
         <v>857</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -6267,10 +6273,10 @@
         <v>678</v>
       </c>
       <c r="C183" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -6281,10 +6287,10 @@
         <v>678</v>
       </c>
       <c r="C184" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -6295,10 +6301,10 @@
         <v>678</v>
       </c>
       <c r="C185" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -6337,10 +6343,10 @@
         <v>678</v>
       </c>
       <c r="C188" t="s">
-        <v>862</v>
+        <v>758</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -6351,7 +6357,7 @@
         <v>678</v>
       </c>
       <c r="C189" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -6365,10 +6371,10 @@
         <v>678</v>
       </c>
       <c r="C190" t="s">
-        <v>758</v>
+        <v>863</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -6382,7 +6388,7 @@
         <v>864</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -6396,7 +6402,7 @@
         <v>865</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6407,10 +6413,10 @@
         <v>678</v>
       </c>
       <c r="C193" t="s">
-        <v>866</v>
+        <v>703</v>
       </c>
       <c r="D193">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -6418,13 +6424,13 @@
         <v>196</v>
       </c>
       <c r="B194" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C194" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -6432,13 +6438,13 @@
         <v>197</v>
       </c>
       <c r="B195" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C195" t="s">
-        <v>703</v>
+        <v>867</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -6446,13 +6452,13 @@
         <v>198</v>
       </c>
       <c r="B196" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C196" t="s">
         <v>868</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6460,13 +6466,13 @@
         <v>199</v>
       </c>
       <c r="B197" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C197" t="s">
-        <v>869</v>
+        <v>703</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -6474,13 +6480,13 @@
         <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C198" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6488,13 +6494,13 @@
         <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C199" t="s">
-        <v>703</v>
+        <v>870</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -6502,10 +6508,10 @@
         <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C200" t="s">
-        <v>871</v>
+        <v>746</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -6516,13 +6522,13 @@
         <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C201" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -6530,13 +6536,13 @@
         <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C202" t="s">
-        <v>746</v>
+        <v>872</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -6544,13 +6550,13 @@
         <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C203" t="s">
         <v>873</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6564,7 +6570,7 @@
         <v>874</v>
       </c>
       <c r="D204">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6572,13 +6578,13 @@
         <v>207</v>
       </c>
       <c r="B205" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C205" t="s">
-        <v>875</v>
+        <v>789</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6589,10 +6595,10 @@
         <v>678</v>
       </c>
       <c r="C206" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6600,10 +6606,10 @@
         <v>209</v>
       </c>
       <c r="B207" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C207" t="s">
-        <v>788</v>
+        <v>814</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -6617,10 +6623,10 @@
         <v>678</v>
       </c>
       <c r="C208" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6631,10 +6637,10 @@
         <v>678</v>
       </c>
       <c r="C209" t="s">
-        <v>814</v>
+        <v>877</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6648,7 +6654,7 @@
         <v>878</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6673,10 +6679,10 @@
         <v>678</v>
       </c>
       <c r="C212" t="s">
-        <v>880</v>
+        <v>814</v>
       </c>
       <c r="D212">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6687,10 +6693,10 @@
         <v>678</v>
       </c>
       <c r="C213" t="s">
-        <v>881</v>
+        <v>703</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6701,7 +6707,7 @@
         <v>678</v>
       </c>
       <c r="C214" t="s">
-        <v>814</v>
+        <v>752</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -6712,10 +6718,10 @@
         <v>217</v>
       </c>
       <c r="B215" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C215" t="s">
-        <v>703</v>
+        <v>880</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -6729,10 +6735,10 @@
         <v>678</v>
       </c>
       <c r="C216" t="s">
-        <v>752</v>
+        <v>881</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6746,7 +6752,7 @@
         <v>882</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6760,7 +6766,7 @@
         <v>883</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6768,13 +6774,13 @@
         <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C219" t="s">
         <v>884</v>
       </c>
       <c r="D219">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6802,7 +6808,7 @@
         <v>886</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6816,7 +6822,7 @@
         <v>887</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6844,7 +6850,7 @@
         <v>889</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6858,7 +6864,7 @@
         <v>890</v>
       </c>
       <c r="D225">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6866,13 +6872,13 @@
         <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C226" t="s">
         <v>891</v>
       </c>
       <c r="D226">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6883,10 +6889,10 @@
         <v>678</v>
       </c>
       <c r="C227" t="s">
-        <v>892</v>
+        <v>752</v>
       </c>
       <c r="D227">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6894,10 +6900,10 @@
         <v>230</v>
       </c>
       <c r="B228" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C228" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D228">
         <v>2</v>
@@ -6911,10 +6917,10 @@
         <v>678</v>
       </c>
       <c r="C229" t="s">
-        <v>752</v>
+        <v>840</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6925,7 +6931,7 @@
         <v>678</v>
       </c>
       <c r="C230" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D230">
         <v>2</v>
@@ -6939,10 +6945,10 @@
         <v>678</v>
       </c>
       <c r="C231" t="s">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="D231">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6953,10 +6959,10 @@
         <v>678</v>
       </c>
       <c r="C232" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D232">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6967,10 +6973,10 @@
         <v>678</v>
       </c>
       <c r="C233" t="s">
-        <v>862</v>
+        <v>895</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6984,7 +6990,7 @@
         <v>896</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6998,7 +7004,7 @@
         <v>897</v>
       </c>
       <c r="D235">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -7009,10 +7015,10 @@
         <v>678</v>
       </c>
       <c r="C236" t="s">
-        <v>898</v>
+        <v>843</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -7023,10 +7029,10 @@
         <v>678</v>
       </c>
       <c r="C237" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -7037,10 +7043,10 @@
         <v>678</v>
       </c>
       <c r="C238" t="s">
-        <v>845</v>
+        <v>899</v>
       </c>
       <c r="D238">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -7065,10 +7071,10 @@
         <v>678</v>
       </c>
       <c r="C240" t="s">
-        <v>901</v>
+        <v>703</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -7079,10 +7085,10 @@
         <v>678</v>
       </c>
       <c r="C241" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D241">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -7093,10 +7099,10 @@
         <v>678</v>
       </c>
       <c r="C242" t="s">
-        <v>703</v>
+        <v>902</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -7104,13 +7110,13 @@
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C243" t="s">
         <v>903</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -7118,13 +7124,13 @@
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C244" t="s">
-        <v>904</v>
+        <v>789</v>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -7132,13 +7138,13 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C245" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -7146,13 +7152,13 @@
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C246" t="s">
-        <v>788</v>
+        <v>905</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -7177,10 +7183,10 @@
         <v>678</v>
       </c>
       <c r="C248" t="s">
-        <v>907</v>
+        <v>840</v>
       </c>
       <c r="D248">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -7191,10 +7197,10 @@
         <v>678</v>
       </c>
       <c r="C249" t="s">
-        <v>908</v>
+        <v>840</v>
       </c>
       <c r="D249">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -7202,10 +7208,10 @@
         <v>252</v>
       </c>
       <c r="B250" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C250" t="s">
-        <v>840</v>
+        <v>907</v>
       </c>
       <c r="D250">
         <v>2</v>
@@ -7219,10 +7225,10 @@
         <v>678</v>
       </c>
       <c r="C251" t="s">
-        <v>840</v>
+        <v>908</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -7230,13 +7236,13 @@
         <v>254</v>
       </c>
       <c r="B252" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C252" t="s">
         <v>909</v>
       </c>
       <c r="D252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -7250,7 +7256,7 @@
         <v>910</v>
       </c>
       <c r="D253">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -7264,7 +7270,7 @@
         <v>911</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -7278,7 +7284,7 @@
         <v>912</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -7289,10 +7295,10 @@
         <v>678</v>
       </c>
       <c r="C256" t="s">
-        <v>913</v>
+        <v>814</v>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -7303,10 +7309,10 @@
         <v>678</v>
       </c>
       <c r="C257" t="s">
-        <v>914</v>
+        <v>860</v>
       </c>
       <c r="D257">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -7317,7 +7323,7 @@
         <v>678</v>
       </c>
       <c r="C258" t="s">
-        <v>814</v>
+        <v>913</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -7328,10 +7334,10 @@
         <v>261</v>
       </c>
       <c r="B259" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C259" t="s">
-        <v>862</v>
+        <v>914</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -7348,7 +7354,7 @@
         <v>915</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -7356,7 +7362,7 @@
         <v>263</v>
       </c>
       <c r="B261" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C261" t="s">
         <v>916</v>
@@ -7376,7 +7382,7 @@
         <v>917</v>
       </c>
       <c r="D262">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -7390,7 +7396,7 @@
         <v>918</v>
       </c>
       <c r="D263">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -7398,13 +7404,13 @@
         <v>266</v>
       </c>
       <c r="B264" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C264" t="s">
         <v>919</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -7412,7 +7418,7 @@
         <v>267</v>
       </c>
       <c r="B265" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C265" t="s">
         <v>920</v>
@@ -7426,13 +7432,13 @@
         <v>268</v>
       </c>
       <c r="B266" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C266" t="s">
-        <v>921</v>
+        <v>863</v>
       </c>
       <c r="D266">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -7440,13 +7446,13 @@
         <v>269</v>
       </c>
       <c r="B267" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C267" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D267">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -7454,10 +7460,10 @@
         <v>270</v>
       </c>
       <c r="B268" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C268" t="s">
-        <v>923</v>
+        <v>883</v>
       </c>
       <c r="D268">
         <v>2</v>
@@ -7468,10 +7474,10 @@
         <v>271</v>
       </c>
       <c r="B269" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C269" t="s">
-        <v>865</v>
+        <v>922</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -7485,10 +7491,10 @@
         <v>678</v>
       </c>
       <c r="C270" t="s">
-        <v>885</v>
+        <v>923</v>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -7496,13 +7502,13 @@
         <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C271" t="s">
         <v>924</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -7524,13 +7530,13 @@
         <v>275</v>
       </c>
       <c r="B273" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C273" t="s">
         <v>926</v>
       </c>
       <c r="D273">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7544,7 +7550,7 @@
         <v>927</v>
       </c>
       <c r="D274">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7566,7 +7572,7 @@
         <v>278</v>
       </c>
       <c r="B276" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C276" t="s">
         <v>929</v>
@@ -7580,13 +7586,13 @@
         <v>279</v>
       </c>
       <c r="B277" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C277" t="s">
         <v>930</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7594,7 +7600,7 @@
         <v>280</v>
       </c>
       <c r="B278" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C278" t="s">
         <v>931</v>
@@ -7614,7 +7620,7 @@
         <v>932</v>
       </c>
       <c r="D279">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7625,10 +7631,10 @@
         <v>678</v>
       </c>
       <c r="C280" t="s">
-        <v>933</v>
+        <v>703</v>
       </c>
       <c r="D280">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7636,13 +7642,13 @@
         <v>283</v>
       </c>
       <c r="B281" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C281" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D281">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7653,10 +7659,10 @@
         <v>678</v>
       </c>
       <c r="C282" t="s">
-        <v>703</v>
+        <v>934</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7664,13 +7670,13 @@
         <v>285</v>
       </c>
       <c r="B283" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C283" t="s">
-        <v>935</v>
+        <v>746</v>
       </c>
       <c r="D283">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7681,10 +7687,10 @@
         <v>678</v>
       </c>
       <c r="C284" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D284">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7695,7 +7701,7 @@
         <v>678</v>
       </c>
       <c r="C285" t="s">
-        <v>937</v>
+        <v>860</v>
       </c>
       <c r="D285">
         <v>1</v>
@@ -7709,10 +7715,10 @@
         <v>678</v>
       </c>
       <c r="C286" t="s">
-        <v>746</v>
+        <v>936</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7723,10 +7729,10 @@
         <v>678</v>
       </c>
       <c r="C287" t="s">
-        <v>938</v>
+        <v>752</v>
       </c>
       <c r="D287">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7737,10 +7743,10 @@
         <v>678</v>
       </c>
       <c r="C288" t="s">
-        <v>862</v>
+        <v>937</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7751,10 +7757,10 @@
         <v>678</v>
       </c>
       <c r="C289" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D289">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7765,7 +7771,7 @@
         <v>678</v>
       </c>
       <c r="C290" t="s">
-        <v>752</v>
+        <v>939</v>
       </c>
       <c r="D290">
         <v>1</v>
@@ -7782,7 +7788,7 @@
         <v>940</v>
       </c>
       <c r="D291">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7793,10 +7799,10 @@
         <v>678</v>
       </c>
       <c r="C292" t="s">
-        <v>941</v>
+        <v>804</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7807,10 +7813,10 @@
         <v>678</v>
       </c>
       <c r="C293" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7821,7 +7827,7 @@
         <v>678</v>
       </c>
       <c r="C294" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D294">
         <v>3</v>
@@ -7835,7 +7841,7 @@
         <v>678</v>
       </c>
       <c r="C295" t="s">
-        <v>804</v>
+        <v>943</v>
       </c>
       <c r="D295">
         <v>2</v>
@@ -7849,10 +7855,10 @@
         <v>678</v>
       </c>
       <c r="C296" t="s">
-        <v>944</v>
+        <v>703</v>
       </c>
       <c r="D296">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -7860,13 +7866,13 @@
         <v>299</v>
       </c>
       <c r="B297" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C297" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D297">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -7877,10 +7883,10 @@
         <v>678</v>
       </c>
       <c r="C298" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D298">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7891,7 +7897,7 @@
         <v>678</v>
       </c>
       <c r="C299" t="s">
-        <v>703</v>
+        <v>875</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -7902,10 +7908,10 @@
         <v>302</v>
       </c>
       <c r="B300" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C300" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -7919,10 +7925,10 @@
         <v>678</v>
       </c>
       <c r="C301" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D301">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7933,7 +7939,7 @@
         <v>678</v>
       </c>
       <c r="C302" t="s">
-        <v>877</v>
+        <v>703</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -7947,10 +7953,10 @@
         <v>678</v>
       </c>
       <c r="C303" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D303">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7961,10 +7967,10 @@
         <v>678</v>
       </c>
       <c r="C304" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D304">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7975,10 +7981,10 @@
         <v>678</v>
       </c>
       <c r="C305" t="s">
-        <v>703</v>
+        <v>950</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7992,7 +7998,7 @@
         <v>951</v>
       </c>
       <c r="D306">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -8003,10 +8009,10 @@
         <v>678</v>
       </c>
       <c r="C307" t="s">
-        <v>952</v>
+        <v>876</v>
       </c>
       <c r="D307">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -8017,10 +8023,10 @@
         <v>678</v>
       </c>
       <c r="C308" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D308">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -8028,10 +8034,10 @@
         <v>311</v>
       </c>
       <c r="B309" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C309" t="s">
-        <v>937</v>
+        <v>789</v>
       </c>
       <c r="D309">
         <v>1</v>
@@ -8045,10 +8051,10 @@
         <v>678</v>
       </c>
       <c r="C310" t="s">
-        <v>878</v>
+        <v>953</v>
       </c>
       <c r="D310">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -8059,7 +8065,7 @@
         <v>678</v>
       </c>
       <c r="C311" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="D311">
         <v>1</v>
@@ -8070,13 +8076,13 @@
         <v>314</v>
       </c>
       <c r="B312" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C312" t="s">
-        <v>788</v>
+        <v>954</v>
       </c>
       <c r="D312">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -8084,13 +8090,13 @@
         <v>315</v>
       </c>
       <c r="B313" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C313" t="s">
-        <v>955</v>
+        <v>924</v>
       </c>
       <c r="D313">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -8101,10 +8107,10 @@
         <v>678</v>
       </c>
       <c r="C314" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="D314">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -8115,10 +8121,10 @@
         <v>678</v>
       </c>
       <c r="C315" t="s">
-        <v>956</v>
+        <v>840</v>
       </c>
       <c r="D315">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -8126,13 +8132,13 @@
         <v>318</v>
       </c>
       <c r="B316" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C316" t="s">
-        <v>926</v>
+        <v>956</v>
       </c>
       <c r="D316">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -8146,7 +8152,7 @@
         <v>957</v>
       </c>
       <c r="D317">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -8157,10 +8163,10 @@
         <v>678</v>
       </c>
       <c r="C318" t="s">
-        <v>840</v>
+        <v>938</v>
       </c>
       <c r="D318">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -8171,10 +8177,10 @@
         <v>678</v>
       </c>
       <c r="C319" t="s">
-        <v>958</v>
+        <v>752</v>
       </c>
       <c r="D319">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -8185,10 +8191,10 @@
         <v>678</v>
       </c>
       <c r="C320" t="s">
-        <v>959</v>
+        <v>916</v>
       </c>
       <c r="D320">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -8199,7 +8205,7 @@
         <v>678</v>
       </c>
       <c r="C321" t="s">
-        <v>941</v>
+        <v>703</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -8213,10 +8219,10 @@
         <v>678</v>
       </c>
       <c r="C322" t="s">
-        <v>752</v>
+        <v>958</v>
       </c>
       <c r="D322">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -8224,13 +8230,13 @@
         <v>325</v>
       </c>
       <c r="B323" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C323" t="s">
-        <v>919</v>
+        <v>959</v>
       </c>
       <c r="D323">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -8238,10 +8244,10 @@
         <v>326</v>
       </c>
       <c r="B324" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C324" t="s">
-        <v>703</v>
+        <v>858</v>
       </c>
       <c r="D324">
         <v>1</v>
@@ -8266,13 +8272,13 @@
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C326" t="s">
-        <v>961</v>
+        <v>946</v>
       </c>
       <c r="D326">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -8280,10 +8286,10 @@
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C327" t="s">
-        <v>860</v>
+        <v>922</v>
       </c>
       <c r="D327">
         <v>1</v>
@@ -8297,7 +8303,7 @@
         <v>678</v>
       </c>
       <c r="C328" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D328">
         <v>4</v>
@@ -8308,10 +8314,10 @@
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C329" t="s">
-        <v>949</v>
+        <v>789</v>
       </c>
       <c r="D329">
         <v>1</v>
@@ -8322,13 +8328,13 @@
         <v>332</v>
       </c>
       <c r="B330" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C330" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D330">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -8336,10 +8342,10 @@
         <v>333</v>
       </c>
       <c r="B331" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C331" t="s">
-        <v>788</v>
+        <v>863</v>
       </c>
       <c r="D331">
         <v>1</v>
@@ -8350,13 +8356,13 @@
         <v>334</v>
       </c>
       <c r="B332" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C332" t="s">
-        <v>964</v>
+        <v>703</v>
       </c>
       <c r="D332">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -8367,10 +8373,10 @@
         <v>678</v>
       </c>
       <c r="C333" t="s">
-        <v>865</v>
+        <v>963</v>
       </c>
       <c r="D333">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -8378,13 +8384,13 @@
         <v>336</v>
       </c>
       <c r="B334" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C334" t="s">
-        <v>703</v>
+        <v>964</v>
       </c>
       <c r="D334">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -8398,7 +8404,7 @@
         <v>965</v>
       </c>
       <c r="D335">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -8406,13 +8412,13 @@
         <v>338</v>
       </c>
       <c r="B336" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C336" t="s">
-        <v>966</v>
+        <v>859</v>
       </c>
       <c r="D336">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -8423,10 +8429,10 @@
         <v>678</v>
       </c>
       <c r="C337" t="s">
-        <v>967</v>
+        <v>789</v>
       </c>
       <c r="D337">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -8434,13 +8440,13 @@
         <v>340</v>
       </c>
       <c r="B338" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C338" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D338">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -8451,7 +8457,7 @@
         <v>678</v>
       </c>
       <c r="C339" t="s">
-        <v>788</v>
+        <v>951</v>
       </c>
       <c r="D339">
         <v>1</v>
@@ -8465,10 +8471,10 @@
         <v>678</v>
       </c>
       <c r="C340" t="s">
-        <v>862</v>
+        <v>966</v>
       </c>
       <c r="D340">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -8479,10 +8485,10 @@
         <v>678</v>
       </c>
       <c r="C341" t="s">
-        <v>937</v>
+        <v>967</v>
       </c>
       <c r="D341">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -8510,7 +8516,7 @@
         <v>969</v>
       </c>
       <c r="D343">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -8521,7 +8527,7 @@
         <v>678</v>
       </c>
       <c r="C344" t="s">
-        <v>970</v>
+        <v>852</v>
       </c>
       <c r="D344">
         <v>2</v>
@@ -8535,7 +8541,7 @@
         <v>678</v>
       </c>
       <c r="C345" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D345">
         <v>4</v>
@@ -8549,10 +8555,10 @@
         <v>678</v>
       </c>
       <c r="C346" t="s">
-        <v>854</v>
+        <v>884</v>
       </c>
       <c r="D346">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8563,10 +8569,10 @@
         <v>678</v>
       </c>
       <c r="C347" t="s">
-        <v>972</v>
+        <v>752</v>
       </c>
       <c r="D347">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8577,7 +8583,7 @@
         <v>678</v>
       </c>
       <c r="C348" t="s">
-        <v>886</v>
+        <v>951</v>
       </c>
       <c r="D348">
         <v>1</v>
@@ -8591,10 +8597,10 @@
         <v>678</v>
       </c>
       <c r="C349" t="s">
-        <v>752</v>
+        <v>971</v>
       </c>
       <c r="D349">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8602,10 +8608,10 @@
         <v>352</v>
       </c>
       <c r="B350" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C350" t="s">
-        <v>937</v>
+        <v>842</v>
       </c>
       <c r="D350">
         <v>1</v>
@@ -8616,10 +8622,10 @@
         <v>353</v>
       </c>
       <c r="B351" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C351" t="s">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="D351">
         <v>1</v>
@@ -8633,7 +8639,7 @@
         <v>678</v>
       </c>
       <c r="C352" t="s">
-        <v>862</v>
+        <v>703</v>
       </c>
       <c r="D352">
         <v>1</v>
@@ -8647,10 +8653,10 @@
         <v>678</v>
       </c>
       <c r="C353" t="s">
-        <v>703</v>
+        <v>897</v>
       </c>
       <c r="D353">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8661,10 +8667,10 @@
         <v>678</v>
       </c>
       <c r="C354" t="s">
-        <v>899</v>
+        <v>972</v>
       </c>
       <c r="D354">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -8675,10 +8681,10 @@
         <v>678</v>
       </c>
       <c r="C355" t="s">
-        <v>973</v>
+        <v>916</v>
       </c>
       <c r="D355">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8689,7 +8695,7 @@
         <v>678</v>
       </c>
       <c r="C356" t="s">
-        <v>919</v>
+        <v>860</v>
       </c>
       <c r="D356">
         <v>1</v>
@@ -8703,10 +8709,10 @@
         <v>678</v>
       </c>
       <c r="C357" t="s">
-        <v>862</v>
+        <v>973</v>
       </c>
       <c r="D357">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8714,13 +8720,13 @@
         <v>360</v>
       </c>
       <c r="B358" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C358" t="s">
         <v>974</v>
       </c>
       <c r="D358">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8731,10 +8737,10 @@
         <v>680</v>
       </c>
       <c r="C359" t="s">
-        <v>975</v>
+        <v>789</v>
       </c>
       <c r="D359">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8742,13 +8748,13 @@
         <v>362</v>
       </c>
       <c r="B360" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C360" t="s">
-        <v>788</v>
+        <v>975</v>
       </c>
       <c r="D360">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8773,10 +8779,10 @@
         <v>678</v>
       </c>
       <c r="C362" t="s">
-        <v>977</v>
+        <v>860</v>
       </c>
       <c r="D362">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8787,7 +8793,7 @@
         <v>678</v>
       </c>
       <c r="C363" t="s">
-        <v>862</v>
+        <v>916</v>
       </c>
       <c r="D363">
         <v>1</v>
@@ -8801,7 +8807,7 @@
         <v>678</v>
       </c>
       <c r="C364" t="s">
-        <v>919</v>
+        <v>875</v>
       </c>
       <c r="D364">
         <v>1</v>
@@ -8815,10 +8821,10 @@
         <v>678</v>
       </c>
       <c r="C365" t="s">
-        <v>877</v>
+        <v>977</v>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8832,7 +8838,7 @@
         <v>978</v>
       </c>
       <c r="D366">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8840,13 +8846,13 @@
         <v>369</v>
       </c>
       <c r="B367" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C367" t="s">
         <v>979</v>
       </c>
       <c r="D367">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8854,10 +8860,10 @@
         <v>370</v>
       </c>
       <c r="B368" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C368" t="s">
-        <v>980</v>
+        <v>703</v>
       </c>
       <c r="D368">
         <v>1</v>
@@ -8868,10 +8874,10 @@
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C369" t="s">
-        <v>703</v>
+        <v>789</v>
       </c>
       <c r="D369">
         <v>1</v>
@@ -8882,13 +8888,13 @@
         <v>372</v>
       </c>
       <c r="B370" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C370" t="s">
-        <v>788</v>
+        <v>980</v>
       </c>
       <c r="D370">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8899,10 +8905,10 @@
         <v>678</v>
       </c>
       <c r="C371" t="s">
-        <v>981</v>
+        <v>946</v>
       </c>
       <c r="D371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8913,7 +8919,7 @@
         <v>678</v>
       </c>
       <c r="C372" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D372">
         <v>1</v>
@@ -8927,7 +8933,7 @@
         <v>678</v>
       </c>
       <c r="C373" t="s">
-        <v>937</v>
+        <v>703</v>
       </c>
       <c r="D373">
         <v>1</v>
@@ -8941,10 +8947,10 @@
         <v>678</v>
       </c>
       <c r="C374" t="s">
-        <v>703</v>
+        <v>981</v>
       </c>
       <c r="D374">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8955,10 +8961,10 @@
         <v>678</v>
       </c>
       <c r="C375" t="s">
-        <v>982</v>
+        <v>913</v>
       </c>
       <c r="D375">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8969,10 +8975,10 @@
         <v>678</v>
       </c>
       <c r="C376" t="s">
-        <v>915</v>
+        <v>982</v>
       </c>
       <c r="D376">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8986,7 +8992,7 @@
         <v>983</v>
       </c>
       <c r="D377">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -9000,7 +9006,7 @@
         <v>984</v>
       </c>
       <c r="D378">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -9014,7 +9020,7 @@
         <v>985</v>
       </c>
       <c r="D379">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -9025,10 +9031,10 @@
         <v>678</v>
       </c>
       <c r="C380" t="s">
-        <v>986</v>
+        <v>946</v>
       </c>
       <c r="D380">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -9036,10 +9042,10 @@
         <v>383</v>
       </c>
       <c r="B381" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C381" t="s">
-        <v>949</v>
+        <v>880</v>
       </c>
       <c r="D381">
         <v>1</v>
@@ -9050,13 +9056,13 @@
         <v>384</v>
       </c>
       <c r="B382" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C382" t="s">
-        <v>882</v>
+        <v>986</v>
       </c>
       <c r="D382">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -9064,13 +9070,13 @@
         <v>385</v>
       </c>
       <c r="B383" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C383" t="s">
-        <v>987</v>
+        <v>951</v>
       </c>
       <c r="D383">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -9078,13 +9084,13 @@
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C384" t="s">
-        <v>937</v>
+        <v>987</v>
       </c>
       <c r="D384">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -9095,10 +9101,10 @@
         <v>678</v>
       </c>
       <c r="C385" t="s">
-        <v>988</v>
+        <v>916</v>
       </c>
       <c r="D385">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -9109,10 +9115,10 @@
         <v>678</v>
       </c>
       <c r="C386" t="s">
-        <v>919</v>
+        <v>988</v>
       </c>
       <c r="D386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -9123,10 +9129,10 @@
         <v>678</v>
       </c>
       <c r="C387" t="s">
-        <v>989</v>
+        <v>946</v>
       </c>
       <c r="D387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -9134,10 +9140,10 @@
         <v>390</v>
       </c>
       <c r="B388" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C388" t="s">
-        <v>949</v>
+        <v>989</v>
       </c>
       <c r="D388">
         <v>1</v>
@@ -9148,10 +9154,10 @@
         <v>391</v>
       </c>
       <c r="B389" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C389" t="s">
-        <v>990</v>
+        <v>789</v>
       </c>
       <c r="D389">
         <v>1</v>
@@ -9162,10 +9168,10 @@
         <v>392</v>
       </c>
       <c r="B390" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C390" t="s">
-        <v>788</v>
+        <v>946</v>
       </c>
       <c r="D390">
         <v>1</v>
@@ -9179,7 +9185,7 @@
         <v>678</v>
       </c>
       <c r="C391" t="s">
-        <v>949</v>
+        <v>703</v>
       </c>
       <c r="D391">
         <v>1</v>
@@ -9193,10 +9199,10 @@
         <v>678</v>
       </c>
       <c r="C392" t="s">
-        <v>703</v>
+        <v>990</v>
       </c>
       <c r="D392">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -9207,10 +9213,10 @@
         <v>678</v>
       </c>
       <c r="C393" t="s">
-        <v>991</v>
+        <v>703</v>
       </c>
       <c r="D393">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -9221,7 +9227,7 @@
         <v>678</v>
       </c>
       <c r="C394" t="s">
-        <v>703</v>
+        <v>746</v>
       </c>
       <c r="D394">
         <v>1</v>
@@ -9235,7 +9241,7 @@
         <v>678</v>
       </c>
       <c r="C395" t="s">
-        <v>746</v>
+        <v>860</v>
       </c>
       <c r="D395">
         <v>1</v>
@@ -9249,7 +9255,7 @@
         <v>678</v>
       </c>
       <c r="C396" t="s">
-        <v>862</v>
+        <v>991</v>
       </c>
       <c r="D396">
         <v>1</v>
@@ -9266,7 +9272,7 @@
         <v>992</v>
       </c>
       <c r="D397">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -9274,10 +9280,10 @@
         <v>400</v>
       </c>
       <c r="B398" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C398" t="s">
-        <v>993</v>
+        <v>924</v>
       </c>
       <c r="D398">
         <v>2</v>
@@ -9288,10 +9294,10 @@
         <v>401</v>
       </c>
       <c r="B399" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C399" t="s">
-        <v>926</v>
+        <v>993</v>
       </c>
       <c r="D399">
         <v>2</v>
@@ -9305,10 +9311,10 @@
         <v>678</v>
       </c>
       <c r="C400" t="s">
-        <v>994</v>
+        <v>860</v>
       </c>
       <c r="D400">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -9316,13 +9322,13 @@
         <v>403</v>
       </c>
       <c r="B401" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C401" t="s">
-        <v>862</v>
+        <v>994</v>
       </c>
       <c r="D401">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -9330,7 +9336,7 @@
         <v>404</v>
       </c>
       <c r="B402" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C402" t="s">
         <v>995</v>
@@ -9344,10 +9350,10 @@
         <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C403" t="s">
-        <v>842</v>
+        <v>996</v>
       </c>
       <c r="D403">
         <v>2</v>
@@ -9358,13 +9364,13 @@
         <v>406</v>
       </c>
       <c r="B404" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C404" t="s">
-        <v>996</v>
+        <v>880</v>
       </c>
       <c r="D404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -9372,10 +9378,10 @@
         <v>407</v>
       </c>
       <c r="B405" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C405" t="s">
-        <v>882</v>
+        <v>794</v>
       </c>
       <c r="D405">
         <v>1</v>
@@ -9386,10 +9392,10 @@
         <v>408</v>
       </c>
       <c r="B406" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C406" t="s">
-        <v>793</v>
+        <v>939</v>
       </c>
       <c r="D406">
         <v>1</v>
@@ -9403,7 +9409,7 @@
         <v>678</v>
       </c>
       <c r="C407" t="s">
-        <v>942</v>
+        <v>913</v>
       </c>
       <c r="D407">
         <v>1</v>
@@ -9417,7 +9423,7 @@
         <v>678</v>
       </c>
       <c r="C408" t="s">
-        <v>915</v>
+        <v>997</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -9431,7 +9437,7 @@
         <v>678</v>
       </c>
       <c r="C409" t="s">
-        <v>997</v>
+        <v>703</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -9445,7 +9451,7 @@
         <v>678</v>
       </c>
       <c r="C410" t="s">
-        <v>703</v>
+        <v>860</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -9456,10 +9462,10 @@
         <v>413</v>
       </c>
       <c r="B411" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C411" t="s">
-        <v>862</v>
+        <v>998</v>
       </c>
       <c r="D411">
         <v>1</v>
@@ -9470,10 +9476,10 @@
         <v>414</v>
       </c>
       <c r="B412" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C412" t="s">
-        <v>998</v>
+        <v>916</v>
       </c>
       <c r="D412">
         <v>1</v>
@@ -9487,10 +9493,10 @@
         <v>678</v>
       </c>
       <c r="C413" t="s">
-        <v>919</v>
+        <v>999</v>
       </c>
       <c r="D413">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -9501,10 +9507,10 @@
         <v>678</v>
       </c>
       <c r="C414" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="D414">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -9515,7 +9521,7 @@
         <v>678</v>
       </c>
       <c r="C415" t="s">
-        <v>992</v>
+        <v>951</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -9529,10 +9535,10 @@
         <v>678</v>
       </c>
       <c r="C416" t="s">
-        <v>937</v>
+        <v>1000</v>
       </c>
       <c r="D416">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -9543,10 +9549,10 @@
         <v>678</v>
       </c>
       <c r="C417" t="s">
-        <v>1000</v>
+        <v>848</v>
       </c>
       <c r="D417">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9557,7 +9563,7 @@
         <v>678</v>
       </c>
       <c r="C418" t="s">
-        <v>850</v>
+        <v>703</v>
       </c>
       <c r="D418">
         <v>1</v>
@@ -9568,10 +9574,10 @@
         <v>421</v>
       </c>
       <c r="B419" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C419" t="s">
-        <v>703</v>
+        <v>789</v>
       </c>
       <c r="D419">
         <v>1</v>
@@ -9582,10 +9588,10 @@
         <v>422</v>
       </c>
       <c r="B420" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C420" t="s">
-        <v>788</v>
+        <v>860</v>
       </c>
       <c r="D420">
         <v>1</v>
@@ -9599,10 +9605,10 @@
         <v>678</v>
       </c>
       <c r="C421" t="s">
-        <v>862</v>
+        <v>973</v>
       </c>
       <c r="D421">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9613,7 +9619,7 @@
         <v>678</v>
       </c>
       <c r="C422" t="s">
-        <v>974</v>
+        <v>1001</v>
       </c>
       <c r="D422">
         <v>2</v>
@@ -9627,10 +9633,10 @@
         <v>678</v>
       </c>
       <c r="C423" t="s">
-        <v>1001</v>
+        <v>884</v>
       </c>
       <c r="D423">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9641,10 +9647,10 @@
         <v>678</v>
       </c>
       <c r="C424" t="s">
-        <v>886</v>
+        <v>1002</v>
       </c>
       <c r="D424">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9655,10 +9661,10 @@
         <v>678</v>
       </c>
       <c r="C425" t="s">
-        <v>1002</v>
+        <v>703</v>
       </c>
       <c r="D425">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9669,7 +9675,7 @@
         <v>678</v>
       </c>
       <c r="C426" t="s">
-        <v>703</v>
+        <v>951</v>
       </c>
       <c r="D426">
         <v>1</v>
@@ -9683,10 +9689,10 @@
         <v>678</v>
       </c>
       <c r="C427" t="s">
-        <v>937</v>
+        <v>1003</v>
       </c>
       <c r="D427">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9694,13 +9700,13 @@
         <v>430</v>
       </c>
       <c r="B428" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C428" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D428">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9708,10 +9714,10 @@
         <v>431</v>
       </c>
       <c r="B429" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C429" t="s">
-        <v>1004</v>
+        <v>860</v>
       </c>
       <c r="D429">
         <v>1</v>
@@ -9725,10 +9731,10 @@
         <v>678</v>
       </c>
       <c r="C430" t="s">
-        <v>862</v>
+        <v>1005</v>
       </c>
       <c r="D430">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9739,10 +9745,10 @@
         <v>678</v>
       </c>
       <c r="C431" t="s">
-        <v>1005</v>
+        <v>946</v>
       </c>
       <c r="D431">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9750,10 +9756,10 @@
         <v>434</v>
       </c>
       <c r="B432" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C432" t="s">
-        <v>949</v>
+        <v>1006</v>
       </c>
       <c r="D432">
         <v>1</v>
@@ -9764,10 +9770,10 @@
         <v>435</v>
       </c>
       <c r="B433" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C433" t="s">
-        <v>1006</v>
+        <v>860</v>
       </c>
       <c r="D433">
         <v>1</v>
@@ -9778,13 +9784,13 @@
         <v>436</v>
       </c>
       <c r="B434" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C434" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="D434">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9792,10 +9798,10 @@
         <v>437</v>
       </c>
       <c r="B435" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C435" t="s">
-        <v>852</v>
+        <v>888</v>
       </c>
       <c r="D435">
         <v>2</v>
@@ -9809,10 +9815,10 @@
         <v>678</v>
       </c>
       <c r="C436" t="s">
-        <v>890</v>
+        <v>951</v>
       </c>
       <c r="D436">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9823,10 +9829,10 @@
         <v>678</v>
       </c>
       <c r="C437" t="s">
-        <v>937</v>
+        <v>1007</v>
       </c>
       <c r="D437">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -9837,10 +9843,10 @@
         <v>678</v>
       </c>
       <c r="C438" t="s">
-        <v>1007</v>
+        <v>860</v>
       </c>
       <c r="D438">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -9851,7 +9857,7 @@
         <v>678</v>
       </c>
       <c r="C439" t="s">
-        <v>862</v>
+        <v>814</v>
       </c>
       <c r="D439">
         <v>1</v>
@@ -9865,10 +9871,10 @@
         <v>678</v>
       </c>
       <c r="C440" t="s">
-        <v>814</v>
+        <v>1008</v>
       </c>
       <c r="D440">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9879,10 +9885,10 @@
         <v>678</v>
       </c>
       <c r="C441" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D441">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9893,10 +9899,10 @@
         <v>678</v>
       </c>
       <c r="C442" t="s">
-        <v>1009</v>
+        <v>875</v>
       </c>
       <c r="D442">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -9907,7 +9913,7 @@
         <v>678</v>
       </c>
       <c r="C443" t="s">
-        <v>877</v>
+        <v>922</v>
       </c>
       <c r="D443">
         <v>1</v>
@@ -9921,7 +9927,7 @@
         <v>678</v>
       </c>
       <c r="C444" t="s">
-        <v>924</v>
+        <v>951</v>
       </c>
       <c r="D444">
         <v>1</v>
@@ -9935,10 +9941,10 @@
         <v>678</v>
       </c>
       <c r="C445" t="s">
-        <v>937</v>
+        <v>965</v>
       </c>
       <c r="D445">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -9949,10 +9955,10 @@
         <v>678</v>
       </c>
       <c r="C446" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
       <c r="D446">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9963,7 +9969,7 @@
         <v>678</v>
       </c>
       <c r="C447" t="s">
-        <v>949</v>
+        <v>794</v>
       </c>
       <c r="D447">
         <v>1</v>
@@ -9977,7 +9983,7 @@
         <v>678</v>
       </c>
       <c r="C448" t="s">
-        <v>793</v>
+        <v>951</v>
       </c>
       <c r="D448">
         <v>1</v>
@@ -9991,7 +9997,7 @@
         <v>678</v>
       </c>
       <c r="C449" t="s">
-        <v>937</v>
+        <v>875</v>
       </c>
       <c r="D449">
         <v>1</v>
@@ -10005,10 +10011,10 @@
         <v>678</v>
       </c>
       <c r="C450" t="s">
-        <v>877</v>
+        <v>992</v>
       </c>
       <c r="D450">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -10019,10 +10025,10 @@
         <v>678</v>
       </c>
       <c r="C451" t="s">
-        <v>993</v>
+        <v>814</v>
       </c>
       <c r="D451">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -10033,7 +10039,7 @@
         <v>678</v>
       </c>
       <c r="C452" t="s">
-        <v>814</v>
+        <v>946</v>
       </c>
       <c r="D452">
         <v>1</v>
@@ -10044,10 +10050,10 @@
         <v>455</v>
       </c>
       <c r="B453" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C453" t="s">
-        <v>949</v>
+        <v>922</v>
       </c>
       <c r="D453">
         <v>1</v>
@@ -10058,13 +10064,13 @@
         <v>456</v>
       </c>
       <c r="B454" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C454" t="s">
-        <v>924</v>
+        <v>840</v>
       </c>
       <c r="D454">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -10075,10 +10081,10 @@
         <v>678</v>
       </c>
       <c r="C455" t="s">
-        <v>840</v>
+        <v>1010</v>
       </c>
       <c r="D455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -10089,10 +10095,10 @@
         <v>678</v>
       </c>
       <c r="C456" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D456">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -10103,10 +10109,10 @@
         <v>678</v>
       </c>
       <c r="C457" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D457">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -10117,10 +10123,10 @@
         <v>678</v>
       </c>
       <c r="C458" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D458">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -10128,13 +10134,13 @@
         <v>461</v>
       </c>
       <c r="B459" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C459" t="s">
-        <v>1013</v>
+        <v>723</v>
       </c>
       <c r="D459">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -10142,10 +10148,10 @@
         <v>462</v>
       </c>
       <c r="B460" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C460" t="s">
-        <v>736</v>
+        <v>860</v>
       </c>
       <c r="D460">
         <v>1</v>
@@ -10156,13 +10162,13 @@
         <v>463</v>
       </c>
       <c r="B461" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C461" t="s">
-        <v>862</v>
+        <v>1014</v>
       </c>
       <c r="D461">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -10170,13 +10176,13 @@
         <v>464</v>
       </c>
       <c r="B462" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C462" t="s">
-        <v>1014</v>
+        <v>922</v>
       </c>
       <c r="D462">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -10184,13 +10190,13 @@
         <v>465</v>
       </c>
       <c r="B463" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C463" t="s">
-        <v>924</v>
+        <v>1015</v>
       </c>
       <c r="D463">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -10201,10 +10207,10 @@
         <v>678</v>
       </c>
       <c r="C464" t="s">
-        <v>1015</v>
+        <v>840</v>
       </c>
       <c r="D464">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -10215,10 +10221,10 @@
         <v>678</v>
       </c>
       <c r="C465" t="s">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="D465">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -10226,13 +10232,13 @@
         <v>468</v>
       </c>
       <c r="B466" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C466" t="s">
-        <v>862</v>
+        <v>1001</v>
       </c>
       <c r="D466">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -10240,13 +10246,13 @@
         <v>469</v>
       </c>
       <c r="B467" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C467" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="D467">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -10257,10 +10263,10 @@
         <v>678</v>
       </c>
       <c r="C468" t="s">
-        <v>1016</v>
+        <v>946</v>
       </c>
       <c r="D468">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -10268,10 +10274,10 @@
         <v>471</v>
       </c>
       <c r="B469" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C469" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="D469">
         <v>1</v>
@@ -10282,10 +10288,10 @@
         <v>472</v>
       </c>
       <c r="B470" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C470" t="s">
-        <v>937</v>
+        <v>863</v>
       </c>
       <c r="D470">
         <v>1</v>
@@ -10296,10 +10302,10 @@
         <v>473</v>
       </c>
       <c r="B471" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C471" t="s">
-        <v>865</v>
+        <v>916</v>
       </c>
       <c r="D471">
         <v>1</v>
@@ -10310,10 +10316,10 @@
         <v>474</v>
       </c>
       <c r="B472" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C472" t="s">
-        <v>919</v>
+        <v>880</v>
       </c>
       <c r="D472">
         <v>1</v>
@@ -10324,10 +10330,10 @@
         <v>475</v>
       </c>
       <c r="B473" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C473" t="s">
-        <v>882</v>
+        <v>860</v>
       </c>
       <c r="D473">
         <v>1</v>
@@ -10341,7 +10347,7 @@
         <v>678</v>
       </c>
       <c r="C474" t="s">
-        <v>862</v>
+        <v>703</v>
       </c>
       <c r="D474">
         <v>1</v>
@@ -10355,7 +10361,7 @@
         <v>678</v>
       </c>
       <c r="C475" t="s">
-        <v>703</v>
+        <v>913</v>
       </c>
       <c r="D475">
         <v>1</v>
@@ -10369,7 +10375,7 @@
         <v>678</v>
       </c>
       <c r="C476" t="s">
-        <v>915</v>
+        <v>703</v>
       </c>
       <c r="D476">
         <v>1</v>
@@ -10380,13 +10386,13 @@
         <v>479</v>
       </c>
       <c r="B477" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C477" t="s">
-        <v>703</v>
+        <v>1017</v>
       </c>
       <c r="D477">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -10394,10 +10400,10 @@
         <v>480</v>
       </c>
       <c r="B478" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C478" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D478">
         <v>2</v>
@@ -10411,10 +10417,10 @@
         <v>678</v>
       </c>
       <c r="C479" t="s">
-        <v>1018</v>
+        <v>884</v>
       </c>
       <c r="D479">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -10425,10 +10431,10 @@
         <v>678</v>
       </c>
       <c r="C480" t="s">
-        <v>886</v>
+        <v>1019</v>
       </c>
       <c r="D480">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -10439,7 +10445,7 @@
         <v>678</v>
       </c>
       <c r="C481" t="s">
-        <v>1019</v>
+        <v>812</v>
       </c>
       <c r="D481">
         <v>2</v>
@@ -10453,10 +10459,10 @@
         <v>678</v>
       </c>
       <c r="C482" t="s">
-        <v>812</v>
+        <v>913</v>
       </c>
       <c r="D482">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -10467,7 +10473,7 @@
         <v>678</v>
       </c>
       <c r="C483" t="s">
-        <v>915</v>
+        <v>703</v>
       </c>
       <c r="D483">
         <v>1</v>
@@ -10481,7 +10487,7 @@
         <v>678</v>
       </c>
       <c r="C484" t="s">
-        <v>703</v>
+        <v>1020</v>
       </c>
       <c r="D484">
         <v>1</v>
@@ -10495,10 +10501,10 @@
         <v>678</v>
       </c>
       <c r="C485" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D485">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -10506,13 +10512,13 @@
         <v>488</v>
       </c>
       <c r="B486" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C486" t="s">
-        <v>1021</v>
+        <v>814</v>
       </c>
       <c r="D486">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -10520,10 +10526,10 @@
         <v>489</v>
       </c>
       <c r="B487" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C487" t="s">
-        <v>814</v>
+        <v>752</v>
       </c>
       <c r="D487">
         <v>1</v>
@@ -10537,7 +10543,7 @@
         <v>678</v>
       </c>
       <c r="C488" t="s">
-        <v>752</v>
+        <v>1022</v>
       </c>
       <c r="D488">
         <v>1</v>
@@ -10551,7 +10557,7 @@
         <v>678</v>
       </c>
       <c r="C489" t="s">
-        <v>1022</v>
+        <v>703</v>
       </c>
       <c r="D489">
         <v>1</v>
@@ -10565,10 +10571,10 @@
         <v>678</v>
       </c>
       <c r="C490" t="s">
-        <v>703</v>
+        <v>888</v>
       </c>
       <c r="D490">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10579,10 +10585,10 @@
         <v>678</v>
       </c>
       <c r="C491" t="s">
-        <v>890</v>
+        <v>1023</v>
       </c>
       <c r="D491">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10593,10 +10599,10 @@
         <v>678</v>
       </c>
       <c r="C492" t="s">
-        <v>1023</v>
+        <v>946</v>
       </c>
       <c r="D492">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10604,13 +10610,13 @@
         <v>495</v>
       </c>
       <c r="B493" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C493" t="s">
-        <v>949</v>
+        <v>883</v>
       </c>
       <c r="D493">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10618,13 +10624,13 @@
         <v>496</v>
       </c>
       <c r="B494" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C494" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D494">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10635,10 +10641,10 @@
         <v>678</v>
       </c>
       <c r="C495" t="s">
-        <v>886</v>
+        <v>1024</v>
       </c>
       <c r="D495">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10649,10 +10655,10 @@
         <v>678</v>
       </c>
       <c r="C496" t="s">
-        <v>1024</v>
+        <v>989</v>
       </c>
       <c r="D496">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10663,10 +10669,10 @@
         <v>678</v>
       </c>
       <c r="C497" t="s">
-        <v>990</v>
+        <v>1025</v>
       </c>
       <c r="D497">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -10677,10 +10683,10 @@
         <v>678</v>
       </c>
       <c r="C498" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D498">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -10691,7 +10697,7 @@
         <v>678</v>
       </c>
       <c r="C499" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D499">
         <v>2</v>
@@ -10702,13 +10708,13 @@
         <v>502</v>
       </c>
       <c r="B500" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C500" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10716,10 +10722,10 @@
         <v>503</v>
       </c>
       <c r="B501" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C501" t="s">
-        <v>1028</v>
+        <v>703</v>
       </c>
       <c r="D501">
         <v>1</v>
@@ -10733,7 +10739,7 @@
         <v>678</v>
       </c>
       <c r="C502" t="s">
-        <v>703</v>
+        <v>946</v>
       </c>
       <c r="D502">
         <v>1</v>
@@ -10747,10 +10753,10 @@
         <v>678</v>
       </c>
       <c r="C503" t="s">
-        <v>949</v>
+        <v>1029</v>
       </c>
       <c r="D503">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10761,10 +10767,10 @@
         <v>678</v>
       </c>
       <c r="C504" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="D504">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10775,10 +10781,10 @@
         <v>678</v>
       </c>
       <c r="C505" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D505">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10789,7 +10795,7 @@
         <v>678</v>
       </c>
       <c r="C506" t="s">
-        <v>1031</v>
+        <v>973</v>
       </c>
       <c r="D506">
         <v>2</v>
@@ -10803,10 +10809,10 @@
         <v>678</v>
       </c>
       <c r="C507" t="s">
-        <v>974</v>
+        <v>989</v>
       </c>
       <c r="D507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10817,7 +10823,7 @@
         <v>678</v>
       </c>
       <c r="C508" t="s">
-        <v>990</v>
+        <v>901</v>
       </c>
       <c r="D508">
         <v>1</v>
@@ -10831,7 +10837,7 @@
         <v>678</v>
       </c>
       <c r="C509" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
       <c r="D509">
         <v>1</v>
@@ -10845,7 +10851,7 @@
         <v>678</v>
       </c>
       <c r="C510" t="s">
-        <v>919</v>
+        <v>752</v>
       </c>
       <c r="D510">
         <v>1</v>
@@ -10859,10 +10865,10 @@
         <v>678</v>
       </c>
       <c r="C511" t="s">
-        <v>752</v>
+        <v>840</v>
       </c>
       <c r="D511">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10873,7 +10879,7 @@
         <v>678</v>
       </c>
       <c r="C512" t="s">
-        <v>840</v>
+        <v>1032</v>
       </c>
       <c r="D512">
         <v>2</v>
@@ -10887,7 +10893,7 @@
         <v>678</v>
       </c>
       <c r="C513" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D513">
         <v>2</v>
@@ -10901,10 +10907,10 @@
         <v>678</v>
       </c>
       <c r="C514" t="s">
-        <v>1033</v>
+        <v>916</v>
       </c>
       <c r="D514">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10915,7 +10921,7 @@
         <v>678</v>
       </c>
       <c r="C515" t="s">
-        <v>919</v>
+        <v>1034</v>
       </c>
       <c r="D515">
         <v>1</v>
@@ -10929,10 +10935,10 @@
         <v>678</v>
       </c>
       <c r="C516" t="s">
-        <v>1034</v>
+        <v>840</v>
       </c>
       <c r="D516">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10943,10 +10949,10 @@
         <v>678</v>
       </c>
       <c r="C517" t="s">
-        <v>840</v>
+        <v>951</v>
       </c>
       <c r="D517">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10957,7 +10963,7 @@
         <v>678</v>
       </c>
       <c r="C518" t="s">
-        <v>937</v>
+        <v>761</v>
       </c>
       <c r="D518">
         <v>1</v>
@@ -10971,7 +10977,7 @@
         <v>678</v>
       </c>
       <c r="C519" t="s">
-        <v>761</v>
+        <v>913</v>
       </c>
       <c r="D519">
         <v>1</v>
@@ -10985,10 +10991,10 @@
         <v>678</v>
       </c>
       <c r="C520" t="s">
-        <v>915</v>
+        <v>1035</v>
       </c>
       <c r="D520">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10999,7 +11005,7 @@
         <v>678</v>
       </c>
       <c r="C521" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D521">
         <v>2</v>
@@ -11013,10 +11019,10 @@
         <v>678</v>
       </c>
       <c r="C522" t="s">
-        <v>1036</v>
+        <v>703</v>
       </c>
       <c r="D522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -11027,7 +11033,7 @@
         <v>678</v>
       </c>
       <c r="C523" t="s">
-        <v>703</v>
+        <v>860</v>
       </c>
       <c r="D523">
         <v>1</v>
@@ -11041,10 +11047,10 @@
         <v>678</v>
       </c>
       <c r="C524" t="s">
-        <v>862</v>
+        <v>1037</v>
       </c>
       <c r="D524">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -11052,13 +11058,13 @@
         <v>527</v>
       </c>
       <c r="B525" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C525" t="s">
-        <v>1037</v>
+        <v>860</v>
       </c>
       <c r="D525">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -11069,7 +11075,7 @@
         <v>679</v>
       </c>
       <c r="C526" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D526">
         <v>1</v>
@@ -11083,10 +11089,10 @@
         <v>679</v>
       </c>
       <c r="C527" t="s">
-        <v>862</v>
+        <v>1038</v>
       </c>
       <c r="D527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -11094,10 +11100,10 @@
         <v>530</v>
       </c>
       <c r="B528" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C528" t="s">
-        <v>1038</v>
+        <v>850</v>
       </c>
       <c r="D528">
         <v>2</v>
@@ -11111,10 +11117,10 @@
         <v>678</v>
       </c>
       <c r="C529" t="s">
-        <v>852</v>
+        <v>794</v>
       </c>
       <c r="D529">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -11125,7 +11131,7 @@
         <v>678</v>
       </c>
       <c r="C530" t="s">
-        <v>793</v>
+        <v>939</v>
       </c>
       <c r="D530">
         <v>1</v>
@@ -11139,7 +11145,7 @@
         <v>678</v>
       </c>
       <c r="C531" t="s">
-        <v>942</v>
+        <v>814</v>
       </c>
       <c r="D531">
         <v>1</v>
@@ -11153,10 +11159,10 @@
         <v>678</v>
       </c>
       <c r="C532" t="s">
-        <v>814</v>
+        <v>924</v>
       </c>
       <c r="D532">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -11167,7 +11173,7 @@
         <v>678</v>
       </c>
       <c r="C533" t="s">
-        <v>926</v>
+        <v>1039</v>
       </c>
       <c r="D533">
         <v>2</v>
@@ -11178,13 +11184,13 @@
         <v>536</v>
       </c>
       <c r="B534" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C534" t="s">
-        <v>1039</v>
+        <v>860</v>
       </c>
       <c r="D534">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -11192,13 +11198,13 @@
         <v>537</v>
       </c>
       <c r="B535" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C535" t="s">
-        <v>862</v>
+        <v>758</v>
       </c>
       <c r="D535">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -11209,10 +11215,10 @@
         <v>678</v>
       </c>
       <c r="C536" t="s">
-        <v>758</v>
+        <v>814</v>
       </c>
       <c r="D536">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -11223,7 +11229,7 @@
         <v>678</v>
       </c>
       <c r="C537" t="s">
-        <v>814</v>
+        <v>703</v>
       </c>
       <c r="D537">
         <v>1</v>
@@ -11251,10 +11257,10 @@
         <v>678</v>
       </c>
       <c r="C539" t="s">
-        <v>703</v>
+        <v>1040</v>
       </c>
       <c r="D539">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -11265,21 +11271,21 @@
         <v>678</v>
       </c>
       <c r="C540" t="s">
-        <v>1040</v>
+        <v>951</v>
       </c>
       <c r="D540">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" t="s">
-        <v>543</v>
+        <v>402</v>
       </c>
       <c r="B541" t="s">
         <v>678</v>
       </c>
       <c r="C541" t="s">
-        <v>937</v>
+        <v>860</v>
       </c>
       <c r="D541">
         <v>1</v>
@@ -11287,13 +11293,13 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542" t="s">
-        <v>403</v>
+        <v>543</v>
       </c>
       <c r="B542" t="s">
         <v>678</v>
       </c>
       <c r="C542" t="s">
-        <v>862</v>
+        <v>913</v>
       </c>
       <c r="D542">
         <v>1</v>
@@ -11307,7 +11313,7 @@
         <v>678</v>
       </c>
       <c r="C543" t="s">
-        <v>915</v>
+        <v>946</v>
       </c>
       <c r="D543">
         <v>1</v>
@@ -11321,7 +11327,7 @@
         <v>678</v>
       </c>
       <c r="C544" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="D544">
         <v>1</v>
@@ -11335,10 +11341,10 @@
         <v>678</v>
       </c>
       <c r="C545" t="s">
-        <v>947</v>
+        <v>1041</v>
       </c>
       <c r="D545">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -11349,7 +11355,7 @@
         <v>678</v>
       </c>
       <c r="C546" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D546">
         <v>2</v>
@@ -11363,10 +11369,10 @@
         <v>678</v>
       </c>
       <c r="C547" t="s">
-        <v>1042</v>
+        <v>792</v>
       </c>
       <c r="D547">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -11377,7 +11383,7 @@
         <v>678</v>
       </c>
       <c r="C548" t="s">
-        <v>791</v>
+        <v>860</v>
       </c>
       <c r="D548">
         <v>1</v>
@@ -11391,10 +11397,10 @@
         <v>678</v>
       </c>
       <c r="C549" t="s">
-        <v>862</v>
+        <v>992</v>
       </c>
       <c r="D549">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -11405,7 +11411,7 @@
         <v>678</v>
       </c>
       <c r="C550" t="s">
-        <v>993</v>
+        <v>1033</v>
       </c>
       <c r="D550">
         <v>2</v>
@@ -11419,10 +11425,10 @@
         <v>678</v>
       </c>
       <c r="C551" t="s">
-        <v>1033</v>
+        <v>860</v>
       </c>
       <c r="D551">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -11430,10 +11436,10 @@
         <v>553</v>
       </c>
       <c r="B552" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C552" t="s">
-        <v>862</v>
+        <v>989</v>
       </c>
       <c r="D552">
         <v>1</v>
@@ -11444,10 +11450,10 @@
         <v>554</v>
       </c>
       <c r="B553" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C553" t="s">
-        <v>990</v>
+        <v>814</v>
       </c>
       <c r="D553">
         <v>1</v>
@@ -11461,10 +11467,10 @@
         <v>678</v>
       </c>
       <c r="C554" t="s">
-        <v>814</v>
+        <v>1043</v>
       </c>
       <c r="D554">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -11475,7 +11481,7 @@
         <v>678</v>
       </c>
       <c r="C555" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D555">
         <v>2</v>
@@ -11486,13 +11492,13 @@
         <v>557</v>
       </c>
       <c r="B556" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C556" t="s">
-        <v>1044</v>
+        <v>860</v>
       </c>
       <c r="D556">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -11500,10 +11506,10 @@
         <v>558</v>
       </c>
       <c r="B557" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C557" t="s">
-        <v>862</v>
+        <v>703</v>
       </c>
       <c r="D557">
         <v>1</v>
@@ -11517,7 +11523,7 @@
         <v>678</v>
       </c>
       <c r="C558" t="s">
-        <v>703</v>
+        <v>1045</v>
       </c>
       <c r="D558">
         <v>1</v>
@@ -11531,7 +11537,7 @@
         <v>678</v>
       </c>
       <c r="C559" t="s">
-        <v>843</v>
+        <v>946</v>
       </c>
       <c r="D559">
         <v>1</v>
@@ -11545,7 +11551,7 @@
         <v>678</v>
       </c>
       <c r="C560" t="s">
-        <v>949</v>
+        <v>884</v>
       </c>
       <c r="D560">
         <v>1</v>
@@ -11559,7 +11565,7 @@
         <v>678</v>
       </c>
       <c r="C561" t="s">
-        <v>886</v>
+        <v>922</v>
       </c>
       <c r="D561">
         <v>1</v>
@@ -11573,7 +11579,7 @@
         <v>678</v>
       </c>
       <c r="C562" t="s">
-        <v>924</v>
+        <v>860</v>
       </c>
       <c r="D562">
         <v>1</v>
@@ -11587,10 +11593,10 @@
         <v>678</v>
       </c>
       <c r="C563" t="s">
-        <v>862</v>
+        <v>804</v>
       </c>
       <c r="D563">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11601,7 +11607,7 @@
         <v>678</v>
       </c>
       <c r="C564" t="s">
-        <v>804</v>
+        <v>1046</v>
       </c>
       <c r="D564">
         <v>2</v>
@@ -11615,10 +11621,10 @@
         <v>678</v>
       </c>
       <c r="C565" t="s">
-        <v>1045</v>
+        <v>703</v>
       </c>
       <c r="D565">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11629,7 +11635,7 @@
         <v>678</v>
       </c>
       <c r="C566" t="s">
-        <v>703</v>
+        <v>946</v>
       </c>
       <c r="D566">
         <v>1</v>
@@ -11643,7 +11649,7 @@
         <v>678</v>
       </c>
       <c r="C567" t="s">
-        <v>949</v>
+        <v>863</v>
       </c>
       <c r="D567">
         <v>1</v>
@@ -11657,7 +11663,7 @@
         <v>678</v>
       </c>
       <c r="C568" t="s">
-        <v>865</v>
+        <v>984</v>
       </c>
       <c r="D568">
         <v>1</v>
@@ -11668,10 +11674,10 @@
         <v>570</v>
       </c>
       <c r="B569" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C569" t="s">
-        <v>985</v>
+        <v>946</v>
       </c>
       <c r="D569">
         <v>1</v>
@@ -11682,13 +11688,13 @@
         <v>571</v>
       </c>
       <c r="B570" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C570" t="s">
-        <v>949</v>
+        <v>781</v>
       </c>
       <c r="D570">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11699,10 +11705,10 @@
         <v>678</v>
       </c>
       <c r="C571" t="s">
-        <v>779</v>
+        <v>916</v>
       </c>
       <c r="D571">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11713,7 +11719,7 @@
         <v>678</v>
       </c>
       <c r="C572" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="D572">
         <v>1</v>
@@ -11727,7 +11733,7 @@
         <v>678</v>
       </c>
       <c r="C573" t="s">
-        <v>915</v>
+        <v>860</v>
       </c>
       <c r="D573">
         <v>1</v>
@@ -11741,10 +11747,10 @@
         <v>678</v>
       </c>
       <c r="C574" t="s">
-        <v>862</v>
+        <v>1039</v>
       </c>
       <c r="D574">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11755,10 +11761,10 @@
         <v>678</v>
       </c>
       <c r="C575" t="s">
-        <v>1039</v>
+        <v>884</v>
       </c>
       <c r="D575">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11769,7 +11775,7 @@
         <v>678</v>
       </c>
       <c r="C576" t="s">
-        <v>886</v>
+        <v>946</v>
       </c>
       <c r="D576">
         <v>1</v>
@@ -11783,10 +11789,10 @@
         <v>678</v>
       </c>
       <c r="C577" t="s">
-        <v>949</v>
+        <v>840</v>
       </c>
       <c r="D577">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11797,10 +11803,10 @@
         <v>678</v>
       </c>
       <c r="C578" t="s">
-        <v>840</v>
+        <v>703</v>
       </c>
       <c r="D578">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11811,7 +11817,7 @@
         <v>678</v>
       </c>
       <c r="C579" t="s">
-        <v>703</v>
+        <v>916</v>
       </c>
       <c r="D579">
         <v>1</v>
@@ -11825,10 +11831,10 @@
         <v>678</v>
       </c>
       <c r="C580" t="s">
-        <v>919</v>
+        <v>840</v>
       </c>
       <c r="D580">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11839,7 +11845,7 @@
         <v>678</v>
       </c>
       <c r="C581" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="D581">
         <v>2</v>
@@ -11853,7 +11859,7 @@
         <v>678</v>
       </c>
       <c r="C582" t="s">
-        <v>833</v>
+        <v>1047</v>
       </c>
       <c r="D582">
         <v>2</v>
@@ -11867,10 +11873,10 @@
         <v>678</v>
       </c>
       <c r="C583" t="s">
-        <v>1046</v>
+        <v>916</v>
       </c>
       <c r="D583">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11881,7 +11887,7 @@
         <v>678</v>
       </c>
       <c r="C584" t="s">
-        <v>919</v>
+        <v>1048</v>
       </c>
       <c r="D584">
         <v>1</v>
@@ -11895,7 +11901,7 @@
         <v>678</v>
       </c>
       <c r="C585" t="s">
-        <v>1047</v>
+        <v>909</v>
       </c>
       <c r="D585">
         <v>1</v>
@@ -11909,10 +11915,10 @@
         <v>678</v>
       </c>
       <c r="C586" t="s">
-        <v>911</v>
+        <v>1049</v>
       </c>
       <c r="D586">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11923,7 +11929,7 @@
         <v>678</v>
       </c>
       <c r="C587" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D587">
         <v>2</v>
@@ -11937,10 +11943,10 @@
         <v>678</v>
       </c>
       <c r="C588" t="s">
-        <v>1049</v>
+        <v>916</v>
       </c>
       <c r="D588">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -11951,7 +11957,7 @@
         <v>678</v>
       </c>
       <c r="C589" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D589">
         <v>1</v>
@@ -11959,13 +11965,13 @@
     </row>
     <row r="590" spans="1:4">
       <c r="A590" t="s">
-        <v>591</v>
+        <v>433</v>
       </c>
       <c r="B590" t="s">
         <v>678</v>
       </c>
       <c r="C590" t="s">
-        <v>919</v>
+        <v>946</v>
       </c>
       <c r="D590">
         <v>1</v>
@@ -11973,13 +11979,13 @@
     </row>
     <row r="591" spans="1:4">
       <c r="A591" t="s">
-        <v>434</v>
+        <v>591</v>
       </c>
       <c r="B591" t="s">
         <v>678</v>
       </c>
       <c r="C591" t="s">
-        <v>949</v>
+        <v>752</v>
       </c>
       <c r="D591">
         <v>1</v>
@@ -11993,7 +11999,7 @@
         <v>678</v>
       </c>
       <c r="C592" t="s">
-        <v>752</v>
+        <v>951</v>
       </c>
       <c r="D592">
         <v>1</v>
@@ -12007,10 +12013,10 @@
         <v>678</v>
       </c>
       <c r="C593" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="D593">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -12021,10 +12027,10 @@
         <v>678</v>
       </c>
       <c r="C594" t="s">
-        <v>926</v>
+        <v>794</v>
       </c>
       <c r="D594">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -12035,7 +12041,7 @@
         <v>678</v>
       </c>
       <c r="C595" t="s">
-        <v>793</v>
+        <v>884</v>
       </c>
       <c r="D595">
         <v>1</v>
@@ -12046,10 +12052,10 @@
         <v>596</v>
       </c>
       <c r="B596" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C596" t="s">
-        <v>886</v>
+        <v>1028</v>
       </c>
       <c r="D596">
         <v>1</v>
@@ -12060,10 +12066,10 @@
         <v>597</v>
       </c>
       <c r="B597" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C597" t="s">
-        <v>1028</v>
+        <v>922</v>
       </c>
       <c r="D597">
         <v>1</v>
@@ -12077,10 +12083,10 @@
         <v>678</v>
       </c>
       <c r="C598" t="s">
-        <v>924</v>
+        <v>758</v>
       </c>
       <c r="D598">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -12088,10 +12094,10 @@
         <v>599</v>
       </c>
       <c r="B599" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C599" t="s">
-        <v>758</v>
+        <v>888</v>
       </c>
       <c r="D599">
         <v>2</v>
@@ -12102,10 +12108,10 @@
         <v>600</v>
       </c>
       <c r="B600" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C600" t="s">
-        <v>890</v>
+        <v>1051</v>
       </c>
       <c r="D600">
         <v>2</v>
@@ -12119,10 +12125,10 @@
         <v>678</v>
       </c>
       <c r="C601" t="s">
-        <v>1050</v>
+        <v>860</v>
       </c>
       <c r="D601">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -12133,7 +12139,7 @@
         <v>678</v>
       </c>
       <c r="C602" t="s">
-        <v>862</v>
+        <v>884</v>
       </c>
       <c r="D602">
         <v>1</v>
@@ -12147,7 +12153,7 @@
         <v>678</v>
       </c>
       <c r="C603" t="s">
-        <v>886</v>
+        <v>860</v>
       </c>
       <c r="D603">
         <v>1</v>
@@ -12155,13 +12161,13 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" t="s">
-        <v>604</v>
+        <v>402</v>
       </c>
       <c r="B604" t="s">
         <v>678</v>
       </c>
       <c r="C604" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D604">
         <v>1</v>
@@ -12169,13 +12175,13 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" t="s">
-        <v>403</v>
+        <v>604</v>
       </c>
       <c r="B605" t="s">
         <v>678</v>
       </c>
       <c r="C605" t="s">
-        <v>862</v>
+        <v>916</v>
       </c>
       <c r="D605">
         <v>1</v>
@@ -12183,13 +12189,13 @@
     </row>
     <row r="606" spans="1:4">
       <c r="A606" t="s">
-        <v>605</v>
+        <v>433</v>
       </c>
       <c r="B606" t="s">
         <v>678</v>
       </c>
       <c r="C606" t="s">
-        <v>919</v>
+        <v>946</v>
       </c>
       <c r="D606">
         <v>1</v>
@@ -12197,16 +12203,16 @@
     </row>
     <row r="607" spans="1:4">
       <c r="A607" t="s">
-        <v>434</v>
+        <v>605</v>
       </c>
       <c r="B607" t="s">
         <v>678</v>
       </c>
       <c r="C607" t="s">
-        <v>949</v>
+        <v>986</v>
       </c>
       <c r="D607">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -12217,10 +12223,10 @@
         <v>678</v>
       </c>
       <c r="C608" t="s">
-        <v>987</v>
+        <v>1052</v>
       </c>
       <c r="D608">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -12231,10 +12237,10 @@
         <v>678</v>
       </c>
       <c r="C609" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="D609">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -12242,13 +12248,13 @@
         <v>608</v>
       </c>
       <c r="B610" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C610" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="D610">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -12256,13 +12262,13 @@
         <v>609</v>
       </c>
       <c r="B611" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C611" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="D611">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -12270,13 +12276,13 @@
         <v>610</v>
       </c>
       <c r="B612" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C612" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D612">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -12284,13 +12290,13 @@
         <v>611</v>
       </c>
       <c r="B613" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C613" t="s">
-        <v>1055</v>
+        <v>844</v>
       </c>
       <c r="D613">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -12301,10 +12307,10 @@
         <v>677</v>
       </c>
       <c r="C614" t="s">
-        <v>846</v>
+        <v>1057</v>
       </c>
       <c r="D614">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -12312,13 +12318,13 @@
         <v>613</v>
       </c>
       <c r="B615" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C615" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="D615">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -12326,13 +12332,13 @@
         <v>614</v>
       </c>
       <c r="B616" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C616" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D616">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -12343,10 +12349,10 @@
         <v>678</v>
       </c>
       <c r="C617" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D617">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -12354,10 +12360,10 @@
         <v>616</v>
       </c>
       <c r="B618" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C618" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="D618">
         <v>3</v>
@@ -12368,13 +12374,13 @@
         <v>617</v>
       </c>
       <c r="B619" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C619" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="D619">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -12382,13 +12388,13 @@
         <v>618</v>
       </c>
       <c r="B620" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C620" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D620">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -12396,13 +12402,13 @@
         <v>619</v>
       </c>
       <c r="B621" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C621" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="D621">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -12413,10 +12419,10 @@
         <v>678</v>
       </c>
       <c r="C622" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D622">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -12427,10 +12433,10 @@
         <v>678</v>
       </c>
       <c r="C623" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="D623">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -12441,10 +12447,10 @@
         <v>678</v>
       </c>
       <c r="C624" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="D624">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -12452,13 +12458,13 @@
         <v>623</v>
       </c>
       <c r="B625" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C625" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D625">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -12466,13 +12472,13 @@
         <v>624</v>
       </c>
       <c r="B626" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C626" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="D626">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -12480,13 +12486,13 @@
         <v>625</v>
       </c>
       <c r="B627" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C627" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D627">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -12494,13 +12500,13 @@
         <v>626</v>
       </c>
       <c r="B628" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C628" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D628">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -12511,10 +12517,10 @@
         <v>678</v>
       </c>
       <c r="C629" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D629">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -12522,13 +12528,13 @@
         <v>628</v>
       </c>
       <c r="B630" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C630" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D630">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -12536,13 +12542,13 @@
         <v>629</v>
       </c>
       <c r="B631" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C631" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="D631">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -12550,13 +12556,13 @@
         <v>630</v>
       </c>
       <c r="B632" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C632" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="D632">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -12564,13 +12570,13 @@
         <v>631</v>
       </c>
       <c r="B633" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C633" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="D633">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -12578,13 +12584,13 @@
         <v>632</v>
       </c>
       <c r="B634" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C634" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D634">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -12592,13 +12598,13 @@
         <v>633</v>
       </c>
       <c r="B635" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C635" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="D635">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -12606,13 +12612,13 @@
         <v>634</v>
       </c>
       <c r="B636" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C636" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="D636">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12623,10 +12629,10 @@
         <v>678</v>
       </c>
       <c r="C637" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="D637">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -12634,13 +12640,13 @@
         <v>636</v>
       </c>
       <c r="B638" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C638" t="s">
-        <v>1079</v>
+        <v>880</v>
       </c>
       <c r="D638">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -12651,10 +12657,10 @@
         <v>680</v>
       </c>
       <c r="C639" t="s">
-        <v>882</v>
+        <v>1081</v>
       </c>
       <c r="D639">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12662,13 +12668,13 @@
         <v>638</v>
       </c>
       <c r="B640" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C640" t="s">
-        <v>1080</v>
+        <v>1017</v>
       </c>
       <c r="D640">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -12676,13 +12682,13 @@
         <v>639</v>
       </c>
       <c r="B641" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C641" t="s">
-        <v>1017</v>
+        <v>1082</v>
       </c>
       <c r="D641">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -12690,13 +12696,13 @@
         <v>640</v>
       </c>
       <c r="B642" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C642" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D642">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -12704,13 +12710,13 @@
         <v>641</v>
       </c>
       <c r="B643" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C643" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D643">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -12721,10 +12727,10 @@
         <v>680</v>
       </c>
       <c r="C644" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D644">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -12732,10 +12738,10 @@
         <v>643</v>
       </c>
       <c r="B645" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C645" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="D645">
         <v>3</v>
@@ -12749,10 +12755,10 @@
         <v>678</v>
       </c>
       <c r="C646" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D646">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -12763,10 +12769,10 @@
         <v>678</v>
       </c>
       <c r="C647" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="D647">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -12777,10 +12783,10 @@
         <v>678</v>
       </c>
       <c r="C648" t="s">
-        <v>1087</v>
+        <v>840</v>
       </c>
       <c r="D648">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -12791,10 +12797,10 @@
         <v>678</v>
       </c>
       <c r="C649" t="s">
-        <v>840</v>
+        <v>1089</v>
       </c>
       <c r="D649">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -12802,13 +12808,13 @@
         <v>648</v>
       </c>
       <c r="B650" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C650" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="D650">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12816,13 +12822,13 @@
         <v>649</v>
       </c>
       <c r="B651" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C651" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D651">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -12833,7 +12839,7 @@
         <v>678</v>
       </c>
       <c r="C652" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="D652">
         <v>4</v>
@@ -12847,7 +12853,7 @@
         <v>678</v>
       </c>
       <c r="C653" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D653">
         <v>4</v>
@@ -12861,7 +12867,7 @@
         <v>680</v>
       </c>
       <c r="C654" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="D654">
         <v>1</v>
@@ -12875,7 +12881,7 @@
         <v>678</v>
       </c>
       <c r="C655" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="D655">
         <v>5</v>
@@ -12889,7 +12895,7 @@
         <v>678</v>
       </c>
       <c r="C656" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="D656">
         <v>8</v>
@@ -12903,7 +12909,7 @@
         <v>680</v>
       </c>
       <c r="C657" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D657">
         <v>1</v>
@@ -12917,7 +12923,7 @@
         <v>678</v>
       </c>
       <c r="C658" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D658">
         <v>10</v>
@@ -12931,7 +12937,7 @@
         <v>678</v>
       </c>
       <c r="C659" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D659">
         <v>9</v>
@@ -12945,7 +12951,7 @@
         <v>680</v>
       </c>
       <c r="C660" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D660">
         <v>3</v>
@@ -12959,7 +12965,7 @@
         <v>680</v>
       </c>
       <c r="C661" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D661">
         <v>1</v>
@@ -12973,7 +12979,7 @@
         <v>680</v>
       </c>
       <c r="C662" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="D662">
         <v>4</v>
@@ -12987,7 +12993,7 @@
         <v>680</v>
       </c>
       <c r="C663" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D663">
         <v>1</v>
@@ -13001,7 +13007,7 @@
         <v>678</v>
       </c>
       <c r="C664" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D664">
         <v>8</v>
@@ -13015,7 +13021,7 @@
         <v>678</v>
       </c>
       <c r="C665" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D665">
         <v>4</v>
@@ -13029,7 +13035,7 @@
         <v>680</v>
       </c>
       <c r="C666" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="D666">
         <v>1</v>
@@ -13043,7 +13049,7 @@
         <v>676</v>
       </c>
       <c r="C667" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="D667">
         <v>5</v>
@@ -13057,7 +13063,7 @@
         <v>680</v>
       </c>
       <c r="C668" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D668">
         <v>6</v>
@@ -13071,7 +13077,7 @@
         <v>676</v>
       </c>
       <c r="C669" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D669">
         <v>2</v>
@@ -13085,7 +13091,7 @@
         <v>678</v>
       </c>
       <c r="C670" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
       <c r="D670">
         <v>1</v>
@@ -13099,7 +13105,7 @@
         <v>680</v>
       </c>
       <c r="C671" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D671">
         <v>1</v>
@@ -13113,7 +13119,7 @@
         <v>679</v>
       </c>
       <c r="C672" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D672">
         <v>1</v>
@@ -13127,7 +13133,7 @@
         <v>678</v>
       </c>
       <c r="C673" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="D673">
         <v>8</v>
@@ -13141,7 +13147,7 @@
         <v>680</v>
       </c>
       <c r="C674" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D674">
         <v>1</v>
@@ -13155,7 +13161,7 @@
         <v>678</v>
       </c>
       <c r="C675" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="D675">
         <v>3</v>
@@ -13169,7 +13175,7 @@
         <v>680</v>
       </c>
       <c r="C676" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D676">
         <v>1</v>
@@ -13183,7 +13189,7 @@
         <v>678</v>
       </c>
       <c r="C677" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="D677">
         <v>2</v>

--- a/AmazonReviewMatchResultdrop.xlsx
+++ b/AmazonReviewMatchResultdrop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="173">
   <si>
     <t>Review</t>
   </si>
@@ -28,399 +28,513 @@
     <t>Matched Count</t>
   </si>
   <si>
-    <t>first tv arrived with a shattered screen. amazon replaced it quickly and it was fine. we have an lg oled and it is incredible at all angles. this lg uled is only good looking straight on. viewing at left or right angles the pic fades and the colors are very weak. we use it in a bedroom so we basically look straight on so it is fine for us.......but in a large living room i think, if you can afford, the oled would be the best. it’s a much better tv.</t>
-  </si>
-  <si>
-    <t>this tv is excellent. color is good compares others on this price range. only con i can think of is there is no "hbo max" yet. if you think of best tv on this price range, this tv is what you want.update: i had some sound distortions issue. so i thought it was soundbar that i have but it was the tv! it happends when you use hdmi(arc) so check your tv also has same issue. and i couldnt exchange when i realized this cause of its been over 30days. anyway i hope this is helpful 🙂</t>
-  </si>
-  <si>
-    <t>received my new tv.  no damage, screen is perfect.  setup was quick and fairly easy, although there’s a lot more to learn.everything was great until today...about a week after setting it up.watched my tv, connected to my home theater this morning and everything was fine.  hit the off button on my tv’s remote, and both the tv and my denon receiver shut off as expected.i come home a few hours later, click the power button on my tv remote....only the tv comes on, not my receiver.  i turn on my receiver to find the my tv is no longer sending audio to my tv thru hdmi(arc).i switch to optical output....no good.i am at a loss as to what to do and as far as i’m concerned this lg tv is a total miss.i week of usage an already the audio is messed up?not good.i hope can find some was to get the tv to output audio again.  wish me luck!let me add one final thought.  this is a highly advanced feature packed tv that comes with a users manual better suited to the average 4 slice toaster!  shameful and frustrating!</t>
-  </si>
-  <si>
-    <t>arrived in perfect shape and easy to set up out of the box. picture quality is stunning and spot on with deep colors, sharp details and infinite blacks. integrated well with the apple tv 4k</t>
-  </si>
-  <si>
-    <t>excellent tv love lg brands, was amazed at the picture quality better than the rest of our tv's.</t>
-  </si>
-  <si>
-    <t>the manual is not good enough to explain the basic simple things on how to operate this tv. thank president trump for helping with customer support which knew right away how to correct it. now i am happy.</t>
-  </si>
-  <si>
-    <t>our tv arrived completely shattered. we've sent for a replacement and hope the next one is better.edit: the second one arrived in much better condition and it's a pretty decent tv.</t>
-  </si>
-  <si>
-    <t>what a great buy! so happy with this. very light weight and easy to install. you're online in seconds and everything works with ease.</t>
-  </si>
-  <si>
-    <t>for a $600 tv i love it. i dont know why people are comparing to a oled. if i wanted a $1500-$2000 oled tv i would have bought one. this tv replaced a 5 yo $300 sharp lcd/led with the crappiest picture. the picture quality is 100x better, tv is thinner and i love the magic remote, especially the mouse feature.</t>
-  </si>
-  <si>
-    <t>spent hours trying to get this to work.  forums show that lg has known about this flaw for 3 years and they haven't fixed it.  seriously?!!  the tv says it is connected yet it can't download user agreement.  i've tried resetting routers, the tv, waiting 20 min for it to reset, changing dns, and factory reset.  nothing works and without the updated user agreement you can't download apps and use any wireless features.  very disappointed.  will try again in the morning then will return for a refund.</t>
-  </si>
-  <si>
-    <t>i've had flat screen tv's since they first came out. both plasma and lcd.i always preferred plasma because they had an excellent viewing angle similar to the old crt tv.s we grew up with, .then, where plasmas were gone, i had no choice and had to go lcd. they sucked for years as far as my main criteria. viewing angle.they were like laptops where you have to be viewing straight ahead at the screen, dead center up and down and left and rightthen they improved and nowadays consumer reports rates most pricey sets with and 3 star (good) out of 5 for viewing angle, except for lg which has had a 4 star (better than average) viewing angle.that's still true.so, the viewing angle on this set is excellent,i have an lg oled 65 inch that cost me a fortune in my living room and another in my bedroom.i also have an lg 42 inch in my basement all have great viewing angle,.i now redid the first floor of my house and in the front living room, i planned on spending a fortune again for an oled set, but thought i'd just get an lg 4k smart tv for the bedroom. luckily, i did my bedroom first and bought this set, planning to get an oled for the living room when i was done renovation,. boy am i lucky that i bought this one first.the viewing angle of course is great, just like the ratings say, but i never thought the picture was going to be this great. i cannot tell the difference when streaming hd that i rent on amazon, or, hd that i pay extra for on netflix and hd versions of movies and documentaries from amazon where you pay a few bucks more to rent in hd.none of my friends could tell the difference between this set and my two oled sets when i gave them a blind comparison test and asked them which was the oled sets and which was this set,i cannot tell the difference,now i'm ordering another for the downstairs and it's going to save me a bundle since this set was only $699 on amazoni can't believe that i wasted money on oled sets when i can't see any difference from this set,i'm very critical, but my main concern, like i said, is viewing.samsung still has a long way to go with their average viewing angle,lg is the leader when it comes to viewing angle, \do not waste your money on an expensive tv. this is a smart tv. has all the bells and whistles,the remote is great, but i am used to it because of my other lg's.take your time to use it properly and you will love it,one star off, because even though lg gets consistently high ratings on their products, their customer service sucks.i have four air conditioners in the house. two lg's because of the high ratings in consumer reports, but i wanted to save some money downstairs so i bought a whirlpool and an amana. (they are identical and both made by whirlpool, got the amana because the price was less under that name). when i needed customer service for the lg ac's, they sucked. i also needed customer service on my older oled lg tv and customer service again, is useless. so, great products but one star off for horrible customer service. buy this set. it is all you need in a great 65 inch 4k ultra hd smart tv,.don't wast your money.the law of diminishing returns applies here. the tiny difference, that i dare you to see on the oled's are not worth the fortune they cost,i love this tv and hate the fact that it showed me how much money i would have saved had i seen this one before i bought those oled sets.</t>
-  </si>
-  <si>
-    <t>this tv worked for about a month. now nothing works. i can't use the voice commands, i can't airplay from my phone, i can't open apps, i can't go to the app store. nothing works. and what's worse is that amazon and lg's customer service teams have both been completely unwilling to help. good luck trying to get in touch with someone if you buy this tv and it stops working for you like it did for me.</t>
-  </si>
-  <si>
-    <t>we received the 65 inch tv in perfect condition.  it was very well packaged and there was no damage to the exterior of the box.  we were appreciatitive of the unboxing directions, this is a huge tv lol.setting up the tv was pretty easy except for the remote.  there are pretty much no directions for the tv or remote in anything that came with the tv.  went online for any assistance with the remote but there wasn't much there either.  the remote is not a "magic" remote in my book. more like a bit of a pain in the ass.so i am learning as i go with the remote. it really flipped me when a cursor appeared on the screen when messing around with the remote. that takes some time to get use to.basically, we are very pleased with the tv. the only issues to this point has been the magic remote and not having discovery + as an available app for the tv.  we're pretty disappointed with that situation.  it was not a difficult work around but i feel like they should have an app for discovery+ by now. to work around it we installed a xfinity flex box to the tv. if you're not familiar with a flex box, it works like chromecast, roko, etc. problem solved but would rather have the app and have left the flex box in the bedroom attached to an older tv.overall, great picture and sound, great tv in this price point compared with others in the same class. i can't wait to figure out and utilize the ai features. would i purchase it again, yes and would recommend to friends.</t>
-  </si>
-  <si>
-    <t>overall i'm disappointed in the quality of this "tv." if i had to do it again i would not but this but would instead go for the samsung uhd 65" less than $100 difference in price.it is as thin as advertised and much lighter than i expected. about the same weight as the 42" vizio that it replaced.it is slow to power on. i'm sure it's lg's webos. i have a 42" lg lcd on my desk that i use every day for work and it is an outstanding product.but this is not. it is slow to power on, slow switching between apps (as in i thought i pressed the button ... wait wait). it supposedly allows you to select apps but you cannot delete most of the apps including "lg tv". (i was able to delete the disney and hulu apps). alexa is slow. as in ask it what time and i can walk across the house to the kitchen and read the clock before it answers. the voice is also not alexa...the screen is backlit but unfortunately very unevenly. when dark images are on screen the uneven backlight is visible and look horrible.installation of the amazon prime video and alexa apps was easy. after that i did a typical amazon new device sign in.i rented a uhd movie from my mobile and it was as always immediately in my items list. playback at uhd was slow and jumpy. overall a poor experience. i paused and switched to hdmi 1 input, an xbox one. same internet service and network, same streaming source (amazon prime) and same video.. i literally selected resume in prime video app on xbox and it was way better.considering the age of the xbox it's beyond disappointing that the lg os and apps perform so poorly.while the screen itself is probably a 3/5 in quality the poor user experience and quality of their software demotes this from a "smart tv" that i paid for to an overpriced 65" monitor.i can confidently recommend you not buy this product.</t>
-  </si>
-  <si>
-    <t>tv is fabulous picture is crystal clear smart features are terrific. the issue is don’t order from amazon. i had ordered it first delievery screen was smashed. second delivery screen was smashed. they wanted to second a third and i said i was done and wanted refund. went to best buy and purchased one in pristine condition.</t>
-  </si>
-  <si>
-    <t>the tv has a great picture, good sound and many features. there is one major flaw in the tv and that is the wifi. it will connect then randomly disconnect from your router and when you go to see why it cant connect it will say cant connect to media server. this happen on 3 of the same tvs because i asked for 2 replacements and it happen on every single one. i talked with lg and said i would have to get it service and why should it be serviced when its basically new out of the box. avoid this tv if you are going to use this subscription or just avoid it because its unacceptable to be sold something with broken wifi. they could have made this a regular tv and it would have been a great tv but no slapped a router on it with an os and call it a smart tv. that wasn't very smart of them to do.</t>
-  </si>
-  <si>
-    <t>no customer service opendoesn’t workthanks again</t>
-  </si>
-  <si>
-    <t>edit: to clarify, the device hardware and viewing experience itself are adequate for this price point.i should have known better, as i explicitly refused to connect my first lg tv with the internet and instead used media integration through my ps4 console. software and setup are agonizing. the fact that i would rather buy a chrome or amazon dongle speaks to how atrocious the software experience is.it forces you to set up an lg account so it can collect data off of you and make money from marketing ads. it forces you to agree to data collection to use any of its apps. and the apps are such garbage that you would rather buy a streaming dongle in order to use the damn thing properly.the age of "smart" device integration into our lives has been mediocre at best.</t>
-  </si>
-  <si>
-    <t>pretty meh for a 4k lg tv. viewing angle is bad. and i don't mean just if you go side to side the picture gets dark, but literally if you sitting on your couch and you slouch you can be too low for the proper viewing angle. sound is muddy; my three year old 50" phillips 1080 tv was better</t>
-  </si>
-  <si>
-    <t>i recently entered the world of streaming and cutting the cord. i replaced a 6 year old samsung smart tv in my office with a 55" lg tv. my old 50" went in the bedroom, but it was too large for the corner, and the smart features on that seemed really limited on not allowing me to add any further apps. so i replaced it with a 43" lg tv. i was trying to get the same series as my 55", but it was a 2020 model and hard to find it at a decent price. this 43" is an updated model, has all the current smart tv features, an awesome picture, and the sound is really good too for this smaller room. of which i only use it at night and i keep the volume low. so the built in speakers are just fine. and i noticed that it has an extremely slim frame. so the tv looks real sleek and does not take up any excess space. one thing about the remote that i cannot figure out yet, is that it has no play/pause button like my 55" tv remote does. haven't explored the voice commands yet, but i suspect they may work for that. i would recommend this tv for where you would like a smaller tv or in a smaller room where it better fits. excellent price. kind of phenomenal pricing when you look back about 15 years and 32" flat panel tv's were priced over $1000. now a 43" with fancy features for $400. that is great. my 55" was on sale at sam's for $419. so great deals overall. lg smart tv's are a winner.</t>
-  </si>
-  <si>
-    <t>pretty good tv, i would recommend it.cons: the ui could use some improvements. unavle to download hbomax app. screen is fairly reflective.pros: great look screen. i can tell the difference between their 120hz vs others 60 in similar price range. very vibrant colors. can connect bluetooth headphones to it.</t>
-  </si>
-  <si>
-    <t>sound and picture is good quality. biggest disappointment is the ui for what it can download for apps is not what was expected, still needed an amazon fire stick to get some of the more popular apps installed. maybe over time we’ll figure things out. just not out of the box.</t>
-  </si>
-  <si>
-    <t>overall this is a good tv, however this is a remote from hell, new issue for 2021, there is no tutorial anywhere as to how to use, written or on line…no clear button for features.  looked tutorials on youtube and they go like this, double click such a button and you will find a hidden  menu.  the features are hidden who knows where.  this is very frustrating…and it takes away from the enjoyment of the television.  i am slowly discovering the navigation by trial and error….had i known this i would have chosen a different brand.i feel lg could have done a better job with this remote or at least let the consumer know how to operate it.</t>
-  </si>
-  <si>
-    <t>the menu system sucksthe remote control setup suckscould not get cable box remote to work with tvthe instructions suckit has a pointer built into the remote, it sucks.what good is a beautiful tv if all of the usability features sucks.i feel like manufacturers are taking advantage of consumers.  stop hiding stuff.  these cute low contrast menus are not good for the average consumer.  why do you care if they are low contrast when they are hidden 99.999999999% of the time.  give the setup menu contrast.  and do away with the smart tv crap.  put more into the interface.  if i want a roku or apple tv i will buy it.  stop forcing me to buy smart crap that is dumber then a box of rocks.  i like the picture, but i got so stressed out setting up the tv i almost thru it out.  a new tv should be a joy to install and operate.  you missed the mark today.  everyday is a test, and you got an f today lg.</t>
-  </si>
-  <si>
-    <t>within 3 weeks of owning this tv, a giant 3-4 inch line appeared down the length of the screen. it just flickered into existence and won’t go away. what kind of trash tv breaks after 3 weeks? the pixels are messed up, and there doesn’t look like there’s any way to fix it. do not buy this garbage.</t>
-  </si>
-  <si>
-    <t>easy to set up (wired network, ethernet), i used my lg sound bar from other 65" lg tv. photos are "standard" setting on tv. delivery team carried tv into my living room, i unpacked, no damage (was worried because of other reviews). followed prompts at start-up for easy set up. built in alexa didn't initially work, i updated software in settings, restarted tv and it worked.</t>
-  </si>
-  <si>
-    <t>the display is excellent, after you sort out how to adjust it! the manual doesn't tell you how to adjust the display but it's easy enough to find the info online. the default display settings weren't to our liking, a bit dim which made it appear less sharp. we set it to the 'sports' setting (even though we rarely watch sports) because it had the right balance of brightness and sharpness.it's a great tv for the price. we weren't ready to pay the oled prices and feel this display gives us more than adequate visual satisfaction.</t>
-  </si>
-  <si>
-    <t>we had an lg led smart tv for many years, and it always provided us with a sharp picture and a quality sound.  consequently, we were not hesitant about buying another lg ty.  the tv was easy to set up, and we were up and running in no time.  this newer model has some new features that give us greater flexibility in selecting what we want to watch, how it can interact with other equipment.  it's a great tv at a good price.</t>
-  </si>
-  <si>
-    <t>lg ran a check it seems my tv developed some blacklight bleeding. so i’m waiting for a led panel and the repairman to fix it , i’ll  try to get keep you updated. ps… though i’m not really disappointed all in all it’s a great tv . they had a repairman come to the house a new led panel was damaged ,now for the waiting game !!!!</t>
-  </si>
-  <si>
-    <t>all the features would've been amazing-- if they worked. it's not recognized by alexa, the wireless display disconnects after only a minute if you want to connect it to your laptop, the voice feature doesn't work, and even the netflix, disney+, etc buttons at the bottom of the remote don't work. what even is the point of a smart tv if it can't connect to things like alexa? utter trash, don't waste your money on this lg tv. i spent so much time debating which tv i should get only to be stuck with this trash.</t>
-  </si>
-  <si>
-    <t>tv was set up and picture was horrible and defective. green tint on left side of screen and yet the right side of the screen had perfect picture.i am returning the tv and it has become a major issue. they will not pick it up, expect me to carry a 50 lb box to a ups location.</t>
-  </si>
-  <si>
-    <t>my neighbor had an lg 49" 4k uhd and i was thoroughly impressed by the picture clarity and all the features. the magic remote is fantastic! i'm not sure why this item gets negative reviews because i love it and would buy an lg again! so take it from an audiophile and tech guy, this baby rocks!</t>
-  </si>
-  <si>
-    <t>amazon delivered this at 4:30am in the morning!!  they let it in the rain, getting soaked, and i live on a busy street where it could of easily been stolen in the next 4 hours until i actually woke up.. called my phone at 4:30am in morning for an otp code to confirm... seriously, the day after thanksgiving my doorbell being rung by amazon drivers... completely and utterly unacceptable.  tv is great though, highly recommended with lg, ordering a tv from amazon wont happen again though ever in a million years.</t>
-  </si>
-  <si>
-    <t>great picture,  sound, features, and all. i'm extremely happy with this lg tv. zero problems and easy set up. works with all the apps i use. remote is solid and great quality too. i recommend this tv to anyone.</t>
-  </si>
-  <si>
-    <t>for the price and the space i needed to fit this tv into, it’s great, works great and i’ve got no complaints. except for the stickers that came stuck directly in the monitor. instead of a plastic film covering the entire screen like my other lg (55” oled), and the stickers being attached to that, this tv came with no protective film, just the stickers. like the picture shows (lower left corner), removing the sticker left two noticeable spots that i haven’t yet been able to get rid of.</t>
-  </si>
-  <si>
-    <t>picture quality is great but i am unable to view movies through the streaming services (except amazon prime video), even though the remote itself has labeled buttons for several services. this is a tremendous inconvenience. i purchased this television specifically to stream movies. disappointed is an understatement.</t>
-  </si>
-  <si>
-    <t>tv itself seemed ok , a little complicated setting up for a senior lol. amazon needs to be more careful with shipping , 1st tv arrived cracked screen, 2nd one had 3 defects on bottom of screen. i tracked it on amazon site it went up and down in the state till i finally got,  too much handling.. will not reorder.  amazon you need to do better</t>
-  </si>
-  <si>
-    <t>i was so excited about this tv. it seems to be a great tv but when it was delivered to me it had already been dropped as there was a giant crack all the way across the screen. waiting another week now</t>
-  </si>
-  <si>
-    <t>was so excited to purchase this television on prime day for our new home, we have a media room it’s perfect for!  however, it arrived with a shattered screen and we were hesitant to order another one as a replacement.  we contacted amazon and explained the situation, they were wonderful, ups is picking up the damaged television tomorrow and our new television will be delivered on wednesday via prime…. fingers crossed its screen’s not shattered, too.</t>
-  </si>
-  <si>
-    <t>really the hardest part was getting it out of the box.  the power input on the back is a little hard to find.  i am impressed by the picture quality.  i have not found alexa yet and frankly i just want to turn it off.</t>
-  </si>
-  <si>
     <t>your browser does not support html5 video.
-   this is useless tv. i am getting internet issues on my tv. my streaming websites are buffering. i talked to customer support for 1 hour but they could not resolve the issue.i get 400 mbps speed on my laptop but i get only 50-60 mbps speed on tv</t>
-  </si>
-  <si>
-    <t>i am very disappointed with this tv.  all kinds of problems with connection to internet.  constantly have to turn off tv and reset.  i miss my old samsung.</t>
-  </si>
-  <si>
-    <t>purchased on prime day. shipped fast. packed well.setup was easy. also ordered amazon recommended wall mount.nice tv. good features.happy buyer.</t>
-  </si>
-  <si>
-    <t>beautiful picture.  lots of features.  handy remote.  incredible sound!  easy set up.</t>
-  </si>
-  <si>
-    <t>picture quality is fantastic. lg updates software often, unlike our other tv (another brand). very thin tv. we’re very happy with this purchase.</t>
-  </si>
-  <si>
-    <t>tv screen was cracked even though package appeared undamaged. replacement ordered, hopefully the next one is better.</t>
-  </si>
-  <si>
-    <t>quality and function are excellent.</t>
-  </si>
-  <si>
-    <t>love it. so far was very easy to set up and connect. i changed router, two cable boxes and replaced older model tv in a half a day. no problems. i was happy that all the cables and connectors i needed were available. i have no complaints. i have had several  lg flat screen tvs for 13 years, so the controls and procedural steps were not new to me.</t>
-  </si>
-  <si>
-    <t>your browser does not support html5 video.
-   at the beginning the image was perfect and very detailed, but now the screen ghosting is impacting the colors heavily… wish i could return</t>
-  </si>
-  <si>
-    <t>a pesar de que no es tan grande se ve nitida la pantalla es un buen televisor y se escucha muy bien</t>
-  </si>
-  <si>
-    <t>love my tv , thank you lg, features great, picture quality, and evrything else, thanks again keep up the good work.</t>
-  </si>
-  <si>
-    <t>wrong size sent (smaller). spent 30+ minutes on the phone trying to get difference in money back. sound quality is bad, inconsistent and sometimes out of sync. picture quality is poor on any setting. the remote is really annoying. the tv is slow, clunky and not always responsive. so many apps are unavailable. total waste of time and energy.</t>
-  </si>
-  <si>
-    <t>the picture is decent but good god the user interface is rubbish. got to get an apple tv or roku. it’s a decent tv all in all.</t>
-  </si>
-  <si>
-    <t>overall a good tv. my biggest dislike is the remote control. the button you have to push the most is slightly lower than the buttons around it and it makes pushing it very hard for someone with long nails. very annoying</t>
-  </si>
-  <si>
-    <t>it is a nice tv. good picture quality. but my primary issue is that there is not a good user friendly manual</t>
-  </si>
-  <si>
-    <t>oh a very nice tv</t>
-  </si>
-  <si>
-    <t>shipping was fast, no defects or problems with the tv whats so ever. and the price was the best and the lowest compared to any competitors.</t>
-  </si>
-  <si>
-    <t>awesome 👌</t>
-  </si>
-  <si>
-    <t>it's little tricky to connect with the sound bar, but overall it is very nice and clear. the tv already includes useful apps, so i personally think that i don't have to use fire tv stick again.</t>
-  </si>
-  <si>
-    <t>nice picture</t>
-  </si>
-  <si>
-    <t>very happy with this purchase. awesome picture and great price.</t>
-  </si>
-  <si>
-    <t>amazing picture quality!  so many many features already in the system. love lg products.</t>
-  </si>
-  <si>
-    <t>wonderful new addition to the mbr.</t>
-  </si>
-  <si>
-    <t>delivered with the screen cracked x2 flats . still have yet to receive my refund for either.</t>
-  </si>
-  <si>
-    <t>lg quality is great. picture looks really nice definitely recommend.</t>
-  </si>
-  <si>
-    <t>beautiful and excellent performance...thank you amazon</t>
-  </si>
-  <si>
-    <t>nice tv</t>
-  </si>
-  <si>
-    <t>all the bells and whistles at a great price!!! excellent picture and clarity</t>
-  </si>
-  <si>
-    <t>screen is too reflective - lamps and windows are easily noticed - annoying.  does not have deep blacks.</t>
+   first off, i want to dispell any bad reviews you may read about this tv. the people who wrote them simply don't know how to do an "expert setup" on their tv. they obviously think it's "plug n' play" and that is not the case with any tv, not just this one.all tv's are setup at the factory and are set at neutral settings across the board throughout the tv's range. you must know how to properly adjust each individual setting to optimize the picture quality!!these settings are located under &gt;settings&gt;picture&gt;expert settings, on the tv's menu. don't be afraid to make some mistakes, this is how i learned! you can always hit factory reset and yes, start all over again!!i know how to do this, i'm very experienced on tweaking tv's. not to scare anyone, but this one took me the better part of 4 days to fine tune, but man, was it time well spent!!i scanned different channels, waited patiently for facial close-ups, making adjustments, and basically got a good sampling of all types of tv viewing. doing this, eliminates the need to make minor adjustments with certain programs occasionally.i'm very discerning and picky when it comes to a tv's picture quality. remember, this is only a one-time fine tuning!! getting this picky only happens once, it won't be a constant hassle during your tv's lifespan. i have dialed in this tv so well, it's like looking out my picture window at real life action, live. in some scenes the people look lifesize!! wild!!to the average viewer, you may not want to go as far as i did fine tuning your tv, but if you really want to experience the extreme level of excellence that this tv is most definitely capable of, you will find the time to take my advice and just do it!!i bought the 75 inch screen and mounted it on my living room wall like the masterpiece it is! i'm a firm samsung believer, their quality and technology is top-notch and world-class!!i bought a full-motion wall mount for my installation. it's rated for tv's up to 130lbs. with a full-motion mount, it makes connecting cables very easy. just pull it out from the wall and turn it to the left, that's where the usb/hdmi ports are. you can easily get behind the tv by doing this.if you need more usb/hdmi ports than are provided, there are 3, you can buy splitter hubs to turn one port into 2, 3 or more. just be sure they are 4k splitters.additionally, i recommend using a bi-directional splitter. it allows to either "input one" port, in to "2 output ports," or reverse it to "2 input ports," to "one output port.". (depending on your specific needs.) these types of splitters are used for connecting other components to your tv. a button on top of the splitter allows you to switch between tv mode, to blu-ray player or dvr etc.note: if you're going to mount your tv on a wall, be sure to use a stud-finder to locate the wall studs. do not mount your tv onto just drywall or paneling alone. my wall is thick pine paneling, drywall, and concrete block behind that.i used a 8" concrete drill bit and lag-bolted the mount with lead concrete anchors, directly into solid concrete. it's not going anywhere anytime soon!!i also bought a wireless keyboard and mouse so i can easily access the tv's internet capabilities. with alexa included, i just say into the voice remote, "alexa, open the internet." and she opens it to my home page. this is just one example of what alexa can do, the list is seemingly endless. if you have other smart devices in your home, they can be programmed into this tv and controlled by using alexa as well.as i write this review i am watching my big-screen as you would a computer monitor or smartphone screen and i have the pandora music app pumping my favorite music thru my home stereo in the background. for me, this online multi-combination is great for reading/writing emails, playing on facebook, twitter, instagram etc, paying bills, shopping or just browsing the web.and i would be remiss if i forgot to mention the voice remote!! no more batteries to change out! this remote has an indoor solar panel on the back! bout time someone thought of that! it also has usb charging if you prefer. its slim design is simple to use and easy to learn.i am simply blown away with this tv! i have it wired into my 1,000 watt per channel home stereo and i'm so glad i live in a cinder block house, not a glass one!! i'm waiting for the day i accidently blowout my picture window!!the combination of the big-screen and my sound system is like sitting front and center at the movie theater. extremely impressive!for the price,  (it was $1497 at the time i purchased this 2021 model,) this tv is an amazing deal if you can't afford the upper class models, such as the q70's, q80's or q90's.one hint for the not so tech savvy. you must upgrade your cable box/satellite service to 4k. this tv won't give you a 4k picture thru a cable or satellite box unless you do. then check your cable box settings to make sure it configures correctly at boot-up and is set to 4k resolution.this upgrade should include using 4k hdr hdmi cables, not standard hdmi cables. so consult your cable or satellite service for what you will need to receive a true 4k (3840x2160) uhd picture. one other hint: double-check your cable box video setting to be sure it configures correctly! some boxes, even though 4k, will default to standard hd (1080p) or even 720p. if this is the case with yours, scroll to the 2160p setting and lock your picture into 4k. i have deep, rich blacks and bright, vivid colors that explode off the screen and come to life with true to life flesh tones as well. this is the result of the hdr (high dynamic range.)  simply put, it enhances brightness, contrast and color levels significantly.i can actually tell the difference between a person in a black suit and a person in a very dark blue one! this tells me my brightness, contrast and color levels are set perfectly.please don't judge this tv's picture quality by my cellphone pictures and short video! they truly don't do this tv justice. you have to see it in person, and just take my word for it that it's just absolutely incredible!all in all, i am extremely happy with this purchase, and i am sure if you know what you're doing, you can set it up perfectly to your liking. or if you can't, ask a techie friend you may have, we all know one or two!!just a quick note: i noticed that it appears that this comment page lists posts from owners with a wide range of tv models and sizes.for the record, i am experiencing outstanding results as i just described with the samsung 75-inch class qled q60a series - 4k uhd dual led quantum hdr smart tv with alexa built-in (qn75q60aafxza, 2021 model)i can't speak to any other models. i hope your choice is as good as mine was!!good luck!jeff stearnswhitehall, mi.</t>
+  </si>
+  <si>
+    <t>everything about this tv is great, minus one thing (we'll get back to that). the picture quality is stunning, hdr is great, and the picture options are pretty vast and allows for a good amount of fine tuning. the smart features are also really nice, though honestly i just use my ps5 for video streaming so i can't be bothered to sign into both, especially when the tv remote can also be used on the ps5. the part that sucks is the speakers. wow, these are actually terrible. they were actually so bad, i called my friend in just to laugh together at how horrible everything sounded. if i had to compare it to something honestly, it  sounds worse than some early 2000's phones. i didn't really mind too much since i had a few spare sound bars, but do not buy this unless you have a speaker to go with it. it's amazing other than that, but bad sound quality in a tv is kind of unforgivable in my opinion.</t>
+  </si>
+  <si>
+    <t>dear samsung,the remote control for this tv is a complete failure in human engineering. there are too few useful buttons and too many mystery functions, icons, and inexplicable actions, making this "smart" remote very user unfriendly.  i handed the remote to 5 people and asked them to do something simple like "change the channel".  they had to futz and futz.  my guests don't want to wade thru a bunch of mysterious menus to do something simple. you can't simply undo incorrect actions because the remote simultaneously controls our direct tv box and and you almost never get the expected result.i can only imagine what would happen if a hotel tried to use this remote in their rooms.  they'd be flooded with calls.  this remote just has too few buttons to be useful, and too many things are buried in menus that require lots of button presses and navigating to accomplish. but netflix and amazon and samsung tv must've paid to have their buttons on the remote, good grief.technology should make things simpler, not more difficult. by trying to automate too much, you're failing to take into account what happens when button presses do the unexpected and you can't easily reverse course.it should be obvious how to work the remote control. if i've got to open a manual, it's a failure in human engineering.  it shouldn't require a research project to figure out simple things like changing channels or inputs or picture setup.  give us a button. don't make me wade thru 400 menus just so you can make a remote with fewer buttons.  if i have to spend time online and in forums to figure out how to do something simple it is badly designed by definition.the setup process was hardly flawless, either. numerous times the app would hang and give me a whirlygig forever.  and i've got a galaxy note 8, so samsung can't blame the phone.  if you're going to automate the setup process, it should frankly be flawless and glitch free. when i get to a point in the setup where the "continue" button is grayed out, it leaves me no choice but to start over in frustration.the picture on this tv looks great, but i will not be buying more samsung tvs.  i want to watch the tv, not make a career out of how to control it.  this remote would be useless to my guests without me giving them a full tutorial. on top of that, i don't want to be forced to do multiple button presses and navigating around the screen to do something simple like changing the tv input source.  on my older samsung, one button press is all that was required. now you've got to launch the smart hub, navigate to the source icon, navigate to the specific input you want and then hit enter.  lots of button presses.  i will be returning this one shortly.btw, i won't buy a car without a mechanical fan button on the dash, either. i want to reach for a knob without taking my eyes off the road.  if i've got to bring up a climate screen, find and select the fan icon, then poke at the up and down buttons on-screen, especially in bright sunlight, it is badly designed, imho.</t>
+  </si>
+  <si>
+    <t>total brick right out of the box. there was no visible damage or signs of mishandling. the unit was completely dead ... no power getting to it at all, no standby light, nothing. i called the samsung help line, where i was advised to box it up and send it back to amazon. refund still pending. total waste of time and effort.</t>
+  </si>
+  <si>
+    <t>considering i bought this as an upgrade to 4k, very dissapointed in how 4k is displayed.  there is only one 'brightness' and 'contrast' that takes effect for hd and 4k.  when both are set to max and you can't see 4k content (too dark) and the hd content is on the verge of being too bright.this is a new tv, so maybe they're still figuring it out, but i can't figure out where to get support or report this, so i'll type it here.</t>
+  </si>
+  <si>
+    <t>i am changing my review because even though it's a fantastic picture only at straight view. when i started to work on something i looked at screen at 45 degree angle and i lost that perfect picture.i made a mistake the faded image only happens when the transmitted image is non uhd.i am good again.with 1080p to uhd at viewpoint is 110 degrees. anything lower than 780 is a whiteout.so is awsome again.</t>
+  </si>
+  <si>
+    <t>the color and picture quality are excellent, and so is the sound quality. i had a tech person install the tv as i am not a tech person. the remote is not user friendly if one does not understand the meaning of each icon, and i am still trying to sort that part out.</t>
+  </si>
+  <si>
+    <t>this is a quality tv with all the features one could ask for.  picture is amazing!  easy to set up and connect to our wifi.  i especially like samsung's new solar powered remote!  a big improvement over battery powered remotes.  the solar powered remote works flawlessly withour spectrum package and various other apps, i.e., netflex, prime, disney+, and hulu.  well done samsung!</t>
+  </si>
+  <si>
+    <t>arrived as per amazon's detailed arrival instructions.  the box and set were in perfect shape.i was initially concerned because it had less hdmi ports than my previous set from 2014 but i quickly discerned that with all it's smart features, it doesn't need chromecast (because it has an intricated series of screen mirroring features for computers and phones).i was blown away with a period piece on netflix.  some news folks facial coloration is off but i think it's due to skyping in on cheap webcams.i'll add more info as i get to know the set.</t>
+  </si>
+  <si>
+    <t>first off the difference in everything with this tv starts with a comparison of old to new tv between it being like watching tv without your glasses on amd listening to it through a radio station. this picture in dynamic mode is unbelievably crisp, sharp lined, and colorful.in 5-6 years the changes they have made in tv viewing is like night and day! gaming, wifes a big gamer, is phenomenally enhanced both visually and listening. the processing speed is so quick that as fast as you can use the remote, the tv responds. the remote is small and takes some time to get use to. but the solar charging feature is nice. once you get the hang of the remote it and it's abilities, it actually eliminated three other remotes that we needed prior to getting this tv. which is nice!overall very please with this brand and the tv itself. time will tell about the longevity. but samsung has a great reputation so.</t>
+  </si>
+  <si>
+    <t>pros: picture, sound quality, value for money are all 5-stars. ease of set up. thrilled by all.  i've cut the cord and use multiple streaming services  with a hi-speed wi-fi connection (not on ethernet) and rarely have a hiccup.cons: remote control/navigation often takes you too far "back", remote doesn't fully recharge  quickly via usb. i use phone app as remote as substitute for more options.</t>
+  </si>
+  <si>
+    <t>well, an upgrade for me to qled. i use this as a pc monitor (with the brightness turned way down), for my 4k blu ray player and use a digital antenna. no cable for me.the picture is good. i notice just the slightest bit of pixelization when i'm up close. this may fade as the screen breaks in. (samsung claims no break in period)colors are really good with hdr, 4k discs look fantastic.the form factor is super slim. keep in mind that there is barely any bezel around the edge so there is almost nothing to grab onto to move the screen. if you have an extendable wall mount you will get smudges when you grab it.the feet are nicely shaped and slim, and the adjustable height is nice. however, the feet are not tightly locked into the screen, and there is a good amount of front to back wobble when sitting on a surface that moves slightly. i have this on a desk with a mic boom attached, and whenever i move the mic, the tv rocks back and forth. i really wish manufacturers would put more effort into the feet of these expensive sets. the adjustable legs only do 2 positions, and should really be attached more firmly.the remote is super sexy slim and minimalist.the software and gui is where this set really gets annoying. it takes nine button presses to get to the bloody settings screen. this is beyond stupid and frustrating!want to switch to game mode? fourteen button presses. so obnoxious i want to speak to the interface designer.anyway, that's first impressions. will add review of software functions once i feel like pressing the remote buttons 8406 times.</t>
+  </si>
+  <si>
+    <t>i don’t know where to begin but i definitely like the remote that it comes with and how easy it is to set up he remote for controlling other devices. i love the color aspect of the television and contrast i do wish there were more controls for picture clarity but it’s definitely a pretty picture none the less. hd will look meh on this tv, just due to its massive size. 4k is stunningly brilliant and beautiful. i bought the sonos arc soundbar and gen 3 sub and it’s definitely a kick ass system. my only gripe is they give 3 hdmis so figure that out lol. it comes with apple tv built in, alexa and google assistant as well and airplay capability and of that works as i tested it all out. definitely get the arc soundbar though because the speakers on this will not do the picture justice.</t>
+  </si>
+  <si>
+    <t>i use youtubetv for my local tv screening, etc.  application loads properly but when i attempt to change to another station, get the buffer circle briefly and then black screen.  channel does not load and from that point on, nothing works on the application.  spent two hours on the phone with samsung support.  as instructed, i deleted the application; i reinstalled the application, same problem.  we reset the television to factory setting.  same problem.  all other applications work.  have a roku box and am able to watch all of youtubetv features with no problems at all through it and on my amazon fire stick.  have tried everything i can think of that might be causing the conflict but am at my wit's end and  even deleted the application from my samsung s21 phone.  problem still exists.  not a happy camper at all.  first serious problem with a samsung product...i had a 2013 samsung smart tv that worked flawlessly....what's up with this q60a, qled 4k uhd 2021 model??????????  looks like a return is inevitable.</t>
+  </si>
+  <si>
+    <t>i had high hopes for this tv after putting a lot of time into researching the different options around this price point. when i first received it, it worked fine - my first impressions were: good picture quality out of the box, didn't require much optimization at all, smart features are very comprehensive - i liked the way it aggregated content from multiple streaming services. i liked the neat little solar powered remote. the sound, however, was disappointing vs. the 10yr old lg set it replaced - tinny, with hardly any bass - not particularly surprising given how thin the tv is, but i would agree with other reviews that you really need a sound bar for this tv if you care about good quality sound. i purchased a samsung sound bar and was pleased to see it integrated well with the tv, operating from the same remote etc. all was well until about 5 days later when i turned on the tv one afternoon and it seemed to freeze after just a few seconds on on-time. i restarted the set thinking it was just a temporary glitch, and was disturbed to see that the exact same behavior occured again.... and again... and again... the tv developed an issue where it stuck in a "boot loop" - it would start up, get to the intro menu, but within a few seconds would completely freeze and then restart. there is absolutely nothing i could do to get it to stop this behavior - it was impossible to get to the settings menu because the tv would freeze before i could navigate to the menu. i tried everything - powering down the set, switching power cords, scoured the internet for any ways of resetting the set, but absolutely nothing worked. samsung support was useless - all they could offer was referral to a third party service center that likely would have charged me to come and try the same troubleshooting steps i had already done, so in the end i decided to simply return the set for a refund. i since replaced it with an equivalently priced sony set which has just as good picture and smart capabilities, but with much better sound and a more robust interface. i was disappointed as i really wanted to stick with the samsung, but the inescapable boot loop issue destroyed my confidence in it, and for that reason i strongly recommend against buying this particular set.</t>
+  </si>
+  <si>
+    <t>where to begin?  after spending several weeks researching options to upgrade our old 42" vizio (model e422vle) i decided on the q60a 55" and was very excited to surprise my wife with the upgrade.  to keep things neat and tidy, let's break it down.delivery:amazon did a great job here.  i scheduled it for the earliest available slot (6:30 am to 9:30 am) it arrived right around 6:45 am.  box was in perfect condition, and the delivery driver helped carry the unit into the house.unboxing:samsung really thought this through as well.  after cutting the straps, you can open the top of the box for the accessories, and then simply slide off the main/upper portion of the box to get to the television.  instructions were clear and easy to read, and the feet easy to install and adjust without tools.design:the overall design of this tv is fantastic.  i honestly like it more than many higher end options.  the top and side bezels are not only nice and thin, but also a nice matte finish.  so you don't have to worry about any strange glare or reflections along the borders (my biggest gripe with the vizio, which had monstrous, glossy bezels).  the offset logo is also a nice touch in reducing potential distractions, and it has a downward firing red light when powered off, which shouldn't cause any sleeping issues if this unit is in a bedroom.  oh, and thin!  this tv is beautifully thin.as a side note: attentional all industrial designers!  please, please stop using gloss black on the front-facing surround of screens.  it makes no sense and is needlessly distracting.  yes, i know it's supposed to look and feel "premium", but it just attracts glare, dust, and toddler fingerprints.  have some fun with matte finishes, different tones of gray, frosted glass or other materials, whatever.  but no more gloss on the front, ok?setup:i didn't have a samsung account yet, so i went ahead and got that going.  the authentication text messages seemed to have quite a bit of lag, but once the account was authorized it was pretty simple to to get the tv setup with my cell phone and the smartthings app.interface:in general, i liked the interface.  it was simple, easy to navigate, and nice and snappy.  no lag whatsoever.  i did notice some ads for service like hbo max but this doesn't really bother me since the vast majority of our tv use is through a 4k apple tv.picture:wow.  just...  wow!  coming from the 1080p vizio (which was honestly a fine tv for being 10 years old, just not 4k) i'm sure most 4k tv's would have been impressive.  even so, i feel like i can honestly say the straight-out-of-the-box picture was gorgeous.  i didn't fiddle with any picture settings.  the colors popped without being overly saturated, and the blacks felt plenty dark.  all in all it just looked great.  i did notice there was some small, lightly darker spots in both lower corners, and when looking again at the display units at best buy noticed it was on their unit as well.  it's not terrible, and on any movies with even minimal letterboxing (like luca) you won't even notice it.  but on bright backgrounds without a lot of detail it may distract a bit.sound:sadly, the sound is where things really started falling apart.  i'd read some reviews that the sound was like "a cell phone in the 90's" and thought to myself there's no way that could be true.  and while it isn't quite that bad, in "normal" mode (the default setting) it certainly sounded severely week and hollow.  to the point i couldn't imagine trying to ever listen to anything in that mode.  the middle option, "adaptive" was sufficient, though the bass still felt lacking.  the new imac - which is significantly smaller and thinner - has significantly more bass and much, much better audio quality than the q60a, which is disappointing.  but it gets worse...when using a 4k apple tv the audio randomly, and frequently cuts out.  sometimes when the next show in a series started to stream, sometimes in the middle of a movie.  stranger still was that the sound in general still worked - if you pushed the back button to browse again you'd hear the navigation effects and chimes without problem - but go back into the movie/show and there wasn't any audio.  i tried adjusting audio settings, switching to airplay speakers (which would work fine) then back to the tv (still no sound), resetting the tv, and searched the samsung support forums for answers.  unfortunately it seems like this is a potential issue with this model, and possibly samsung tv's in general.what's more, once while in the middle of a movie, the sound muted by itself (the remote was on the stand) for no reason at all.  the mute icon just popped up on the screen and stayed that way until i adjusted the volume with the remote.  not an encouraging sign.i didn't expect spectacular sound, but the combination of what i would call "just barely adequate sound" at this price point, combined with the frustration of sound dropping randomly means i'll be sending this unit back.  if i decide to try a replacement of the same model i'll be sure to update my review, but for now i can't see giving any more than 2 stars.summary:amazingly colorful, crisp picture with some very subtle clouding in the lower corners, beautiful and thoughtful industrial design, and a clean, snappy interface.  but disappointingly poor sound and unacceptable sound dropping issues.  i would highly advise looking &amp; listening to this model in a store first if at all possible.</t>
+  </si>
+  <si>
+    <t>i am a samsung loyalist but this television is awful. the picture drags and pixelates. the ticker tape on the news judders across the stream instead of staying smooth giving you a headache.but the reason i sent it back after just two days was because the brightness was dull even set at its max. the whites were grey and the reds were burgundy. they only let you alter the brightness up to 50 so had no choice but to return it.the only thing that it had going for it was the sleek remote control. by the way i did have samsung expert help on the phone before i sent it back just in case i was missing something but they couldn’t get it any better either.</t>
+  </si>
+  <si>
+    <t>good bang for your buck ! great quality and good price - remote control kind of quirky - believe it or not the volume is not easy to use</t>
+  </si>
+  <si>
+    <t>this tv is amazing, amazing!first i purchased the samsung  65” 4k qled for my bedroom, several months ago and absolutely love it so, i just bought the same samsung 4k qled but,  in 75”, for my livingroom.this tv is not only huge but, the picture is just so incredible that i would have to say,mind blown, mic drop.who thought we’d own tv’s of this size in our homes when, growing up, if you had a 26” sony, you were the coolest family on the block.i can’t believe how truly affordable these are, yes, i caught both on sale plus, i have 2 samsung sound bars with subs for each and i’m truly in heaven, again mind blowing picture size and unreal 4k quality in qled and the sound with the soundbar with sub is just a wonderful, movie theater-ish experience that is a “must have” in today’s world of true home theater.just a side note, since this is turning into. novel, i plan to upgrade both my soundbars and subs to the klipsch 600 w/surround speakers as soon as i catch a sale (never listen to these speakers at a store as it will make you so unhappy when you listen to what you already have or anything else and honestly, i was so super happy with the sound from my samsung soundbar setup).damn klipsch for being the best sound and the big electronics store for allowing me to hear them, even though i specifically went to that store with the sole intention of hearing the klipsch system before i would buy them from amazon.there’s a huge difference, i mean huge difference from uhd (which i had in the 65” and replaced with a 65” qled) and qled, which you see immediately and if you can spend the extra bucks to get qled, you’ll never regret it, i still can’t believe the difference as i had both a 65” uhd &amp; 65” qled in my home at the same time and it drove me crazy so, i had to get another qled ergo this 75” qled.i bought the 3 year warranty and before you call me a fool/sucker, i will tell you exactly why it’s so very much worth it.what no one tells you (yet you can easily find out if you do a little research) all these flat screen tv are considered “disposable”, to be replaced every 5-7 years as there’s little to near nothing that is fixable or worth the money to fix, that’s a biggie.i actually sold tv’s and other electronics a very long time ago and back then it was mostly a total scam but, not now.i’ve had 2 flat screens go out on me in the last 6 years and prices back then were much much higher.my 65” 1080p highest hidef tv at the time (only $3,000.00 for a 42” led), well it blew out, died, had a seizure, something or other and it was just out of warranty by only 3 months (of course).i tried everything, called everyone, started off really nice, tried bribing people and eventually went to yelling, cursing hey, im a new yorker (that’s a nu yawka who lived on lawn guyland okay😎lol) and got nowhere, nothing fougeddabouddit.finally i was offering to pay a repairman out of pocket but, he told me it just wasn’t worth it.my high definition lcd flat screen went out with the trash (you don’t want to tell the wife that story because you know she was against it, never needed or wanted a big tv in “her house! we’ll get back to “her house” later”.i replaced that tv with a 65” 4k uhd tv but, this time i bought the 3 year warranty and wouldn’t you know it, at the very beginning of the second year(isn’t it funny how everything always works great until 12 seconds after the warranty runs out), the screen started to really mess up, there were streaks of light, bright dots and stars, it was just too annoying to watch, especially since our tv’s are now a major part of the home decor.in today’s living room, it’s become the key focal point and the main attraction for which the tv is front and center, then we adjust all the furniture around it.of course i called the extended warranty company btw &amp; fyi a little heads up so it’ll make sense or not, i’m a new yorker so, i was already for a fight before anything started, it’s always going to be something and then an argument.i explained the problem bla bla bla and the service rep explained that i was out of the manufacturer’s warranty so, i was correct to contact them but, this was a problem that they were already very familiar with and unfortunately it’s  not a fixable problem.okay, here we go, my blood pressure is already rising as i’m waiting to find out how i was scammed.first the service rep apologized for it not being a repairable problem and immediately asked when the could schedule the appointment to pick up my broken tv and bring me a brand new one, a time that would be convenient for me.wait, did i hear that correctly, what’s the catch?i asked he to repeat what he said and also to let me know how much out of pocket it was going to cost me for a new tv, that i think he just said, they are bringing me to replace my 2 years old broken tv?long story short, they delivered a newer model as mine was discontinued, they apologized again (poor me they upgraded my broken tv for a newer model, i think i’ll live) and it cost me absolutely zip, zero, zilc, nada, nothing!!!i couldn’t wait to tell the wife this story as i am going to exaggerate, embellish and make up a story of how i had to fight them to get this newer model and i wasn’t going to pay them a penny (come on, every guy does this, we all want to be the hero in our wives eyes).it didn’t matter because during this whole fiasco, it turned out the wife was defective too and like she said, the tv was my idea so, i got the new newer tv for free all for myself and she didn’t get it (of course she got the house, cars, the dogs, basically everything but, the tv and almost all of my money for the next too many years, that’s a divorce in new york, it’s all about the ladies and i’m okay with that but, this is about a tv &amp; the extended warranty and i got both!!!).the moral of this looong story,the samsung qled is a wonderful thing to have in your house, just incredible, nothing comes close (there’s the 8k, it’s better but, if you had the big bucks that 8k tv’s go for, why would you still be reading this?) plus, if you add a soundbar and sub, now or later, chances are you are going to love watching movies at home more than going out, driving to the theater, looking for parking, waiting online to pay ridiculous ticket prices just before you get robbed at the snack bar and don’t forget the super large cup of ice with a splash of soda and your $6.00 stale candy bar  , garbage pail of the saltiest popcorn that’s guaranteed to get you the new high score on the free cvs blood pressure machine, don’t forget your “fake butter flavoring”, now you’re already to sit with a bunch noisy nosey  of strangers, trying to calculate how the bill for the  overpriced snacks were more than the overpriced tickets yet, still unable to stop thinking about why your feet are stuck to those gross floors.hey, some people just love that theater experience,i think a nice bright 4k qled in my own hone with a nice sound system, my couch, my new future ex at my side, our own fresh junk food, no strangers annoying us and the best part,pause for a quick bathroom break plus,rewind anything you didn’t hear or want to see it again.i will pick home theater with my75” samsung qled every time (okay some movies should be seen in a theater but, that’s for you to decide, i’m staying home!)five stars ⭐️ ⭐️ ⭐️ ⭐️ ⭐️2 thumbs up 👍 👍and a whole bunch ofsmileys 😃😃😃😃😃😃😃😃</t>
+  </si>
+  <si>
+    <t>i am so absolutely disappointed with this television. it took me a month to choose what brand and model to get, and i thought that this was going to be a very good choice. boy was i wrong. the picture is awful! so blurry and pixelated. the apps always freeze, and i have to unplug the television and then plug it back in to reset it. this is a garbage tv.</t>
+  </si>
+  <si>
+    <t>this is a beautiful, reasonably priced, latest model samsung tv. i was pleased to see it for sale by amazon, but even more delighted that they now have a reasonably priced delivery service that will bring it into the home, and into any room you desire. i chose the early morning window of 6am - 9am, and it arrived at my 26 floor apartments door at 7:30.by 8:30 am i had it up and running, fully voice controlled instruction and setup for tv, amazon prime and netflix.  great picture quality, although i did add an inexpensive sound bar to enjoy music and videos.</t>
+  </si>
+  <si>
+    <t>this 85 inch tv is a great addition to my family room.  great features and seems well built. overall picture quality is great also. i had forgotten that the q60a series is edge lit backlight instead of the better full matrix backlight.8/21/21, first review: within the first 3 days of use, i have noticed some issues with the display that are somewhat annoying and may indicate a problem that might require replacement. see the photos of arcs of banding from the bottom on brighter scenes. on dark scenes, there are light foggy areas. these problems are exactly the same no matter the source, so i'm pretty sure its the display itself.i will provide more updates soon.8/25/21: update: tv performance is great other than the display issues i described above. i do believe i will have to return it. none of my other tvs have similar issues, so i don't expect it from this one. as great as the picture is, i really hate to have to return it. and i really hope the replacement is much better. more updates to come.9/7/21: update: amazon replaced the tv when requested due to the defects i described above. the replacement seems to be much better. i cannot detect any of the ripples, waves, arcs.  there still seems to be some very, very  light foggy areas. they are much less in number and less noticeable. the foggy areas are only noticable when viewing in a dark room with a dark scene. i think this will be a keeper now.</t>
+  </si>
+  <si>
+    <t>1. in order to use youtube tv you must have a samsung account. i was unable to get a samsung account because of a samsung problem. when i called samsung support they said it would take six business days to solve!after six business days they didn’t call me, so i called them. they said they couldn’t solve the problem and would escalate it within the company. another six business days. in the meantime no youtube tv.after more than another six business days they called me. this is a problem that started last month! they have no concept of customer service.2. at the same time i bought a tcl and insignia tvs. their remotes, and hence their software, are far superior to samsung‘s. i cannot believe how awkward and clunky the samsung is to select viewing.this is the last samsung product i will purchase. poor product, and worse customer service.(the picture quality is very good.)</t>
+  </si>
+  <si>
+    <t>if you want a good mirror, this is great. no instruction manual, set up guide did not work. our last samsung tv worked perfect but eventually failed. i left everything in the old tv so i could transfer to new tv. new tv didn't have rca cable input for dvd player. tried hdmi cable, would not recognize so we can now longer use our dvd player. tried connecting our roku device, would not work, tried using our local cable, no ware to be found. all we can watch is samsung tv with none of our local channels.  tried using cell phone to scan code but it offered no assistance to setting up our tv only showed advertisements to other products. internet scrolling is a joke, very sluggish at best. unable to find the digital manual, it says to click "*" but the remote has no "*" button on it. now in the process of trying out after market remote controllers to see if we can fix this tv. what a disappointment. the limited things available did have great video though but in my opinion try something else. if there is a lot of sun light in the room then all you'll see is reflections like a mirror.</t>
+  </si>
+  <si>
+    <t>in my 73 yrs, i have purchased 10-15 samsung tvs and been pleased with their upscale tech without the sony baaaaad attitude attached. i.e. tech support w/o the "you were so blessed to be able to buy a sony that now you can go flock yourself" attitude. i shall never buy another.  samsung now seems to be of the opinion that i do not own the device that i paid for. they incessantly annoy me with their tragically onerous software attempting to control my sound system and destroying my enjoyment of music. their ai is a moron. their greed is so sanguine that they seem to want a constant monitor on my listening habits. they are loathsome. music was not meant ti be constantly disrupted but samsung seems to desire to destroy in in favor of corporate data gathering. the word is greed. bye bye sam.</t>
+  </si>
+  <si>
+    <t>first they only show the 60" picture of this tv.  for the 32" version, the two stands are at the extreme end of the television and point outward toward the edges.  so any kind of table top, nightstand, sound bar, etc. designed (or a good fit for) a 32" tv won't be wide enough for the required base (i couldn't find a single piece of furniture in my house that could fit the corner and hold this tv).i jury rigged a tv stand with some textbooks and turned on the tv.  the first screen was a lady in spoken text telling me to "choose between two simple options" for phone vs. manual setup.  there was no way past this screen.  it did not recognize speech or accept any of the buttons from the remote (other than the power button).  there was a message to hold down the "volume button" (which isn't really a button it's more of a two way switch) but that did nothing but adjust the tv volume  in a little popup window.so i chucked the stupid remote at the screen and broke it.  threw the whole thing in the garbage.  the old samsung 32" were the best you could buy at that size (and maybe still are in terms of picture) but i'll never buy another samsung tv.</t>
+  </si>
+  <si>
+    <t>i bought this even though i said i wouldn't buy another samsung t.v. because all critics raved about the great picture. my 2017 samsung lcd gives as good a picture as this qled. without daily having to spend 90 minutes adjusting picture. doesn't matter if i'm on same channel or different source, i have to adjust,adjust,adjust. i don't like the people onscreen to look like 1) artificial suntaned (orange) or 2) as if they have jaundice (yellow skin), or the picture to look faded. eventually i do get a good picture but 90-120 minutes per viewing? the movie or ballgame is almost over! why does it take daily tweaking? the sound quality is par with the 2017 model except when connected to my aiwa exos-9 i have to raise the volume to 44 where my 2017 never went to 30. however reception is much better than 2017, airwave &amp; wi-fi. problems here is unable to get plutotv app except by internet search each time (why? i have it on old 2017) and home quick launch bar full of apps and unable to remove or reassign positions. i would keep for the better reception, but the daily picture adjustments plus everything else...oh, just to help anyone willing to give it a go, picture mode must be on standard, this gives you more options for "trying" to tone the yellow, orange &amp; green (color spacing). my best success was standard picture, low contrast enhancer,  cool color tone , plus adjust the gamma and shadow detail then color space settings being mindful that pausing the picture to adjust it will not be the same picture you see in motion. thus this makes my 2017 seem like a plug &amp; play.</t>
+  </si>
+  <si>
+    <t>i’ve read a lot of reviews and i have to agree with the ones that mention the sound and the remote as the not great parts of this tv.the sound:  it’s ok and plenty loud but doesn’t sound as good or as “full” as my old 52” samsung lcd that i bought in 09. it sounds a little more digital or tinny but it’s not as bad as some reviews say.  not sure how good of speakers they can squeeze into a tv that is an inch thick so if you want better sound i say look for a sound bar.remote:  since it doesn’t take batteries i suggest you take it out of the box and charge it while you are getting the tv up on the wall or set up wherever you are putting it so it has juice.  find a youtube video on the remote because the instructions that are in the box are garbage.  once you pair the remote with the tv, learn what and how the buttons work it’s not that bad but it would be so much easier if it was already paired with the tv.  i found that my old samsung tv remote with all the buttons worked perfectly with it so if you have one and want to use it it works just fine.</t>
+  </si>
+  <si>
+    <t>this product was given as a gift and upon setting the tv up the screen is discolored and has horizontal lines throughout the screen. amazon would not allow for return or replacement through them since by the time it was setup after i gifted it to a friend it was 3 days out of the return time, so now we are trying to go through samsung... samsung said they would contact me wirhin 48hr to arrange for a day for a tech to do an in home repair, three days later nit a word and the tv keeps getting worse. horrible customer service from both companies.</t>
+  </si>
+  <si>
+    <t>i bought this 32 inch qled tv to replace an older samsung tv in my guestroom based on the mainly positive reviews from other amazon users. the picture quality, after going through the entire menu of available "expert" adjustments, is indeed outstanding. at 100% sharpness, for example, every single hair on a person's head and every single blemish is discernible, but that is not necessarily the ideal adjustment, of course. similarly, the other optional picture settings all produce the expected results ... a superb, pixel-free image. sound is a different matter. after pairing this tv with a samsung soundbar, and having been  unable to control the sound volume with the soundbar remote, i tried the remote provided with this tv.  it, too, would not adjust the sound volume.  i finally solved the problem by using a universal remote from an older samsung tv. the sound produced by this tv (without the soundbar) is fair, but probably still better than most i've had experience with; with the soundbar it's good.  if anyone has been able to adjust sound volume with the remote provided with this tv, please comment. thanks!</t>
+  </si>
+  <si>
+    <t>well first off the remote requires a type c usb cable to charge it. or i guess i can put it outside while it's still summer to recharge. if you have a samsung phone then i understand its the same type for the remote. neighbor gave me the cord plugged it in and could never get the setup menu to work to setup the tv! i'd like to really tell you in more descriptive words how bad this is! but i'll just say i'll be returning the tv back to amazon for a refund and go to walmart and get something that works. your results may be better than mine but that's how this happened to me. good luck!oh...a solar charged remote.....for an indoor tv!!!!</t>
+  </si>
+  <si>
+    <t>researched tv's until they started all running together.  decided on the qled based on various reviews and first hand comparisons.  found the picture quality we better and audio was decent.  i have it connected to a surround sound system, so don't use the tv sound much.  i like the auto picture mode so the tv adjusts to the format of the projected video.  as they say, is only as good/strong as its weakest link/part, etc.  with that said, people will be negative about picture quality on older programs/formats.  if the video is 4k / uhd, etc., the quality is crystal clear and excellent.  delivery was quick and included free in room setup with packing all removed.</t>
+  </si>
+  <si>
+    <t>was not expecting such a beautiful picture for such a reasonable price. samsung qled with hd 4k on this 82" tv is quite fantastic, and you just can't beat the price! i can't even imagine what oled  8k looks like, but i don't care given the price and quality i have with this unit</t>
+  </si>
+  <si>
+    <t>where should i start with the disappointing purchase of this smart tv.  start up default is samsung tv rather than our service provider.  have to change this everytime we turn on the tv.  voice commands may work, but we have yet to find out how.  the remote is so streamlined, with less buttons on most remotes that you have to be a tech wizard to find the on screen menu selection you need to change preferences.  remote doesn't light up so in a dark room you have to use your cell phone to see the few buttons that it actually has.  we purchased a samsung at the suggestion of our cable provider; however, this tv is so new that we could not get the mlb app on it because according to samsung they are still negotiating with mlb to have it made available.  would not recommend this tv.</t>
+  </si>
+  <si>
+    <t>the tv was just as advertised. with a little adjustment, it has a really good picture and we love the new features like the solar powered remote and smart system.but the delivery was terrible and that is being kind! it took 6 weeks after being originally told it would be 10 days of less. it sat in an nsd terminal in memphis for close to a month. after a minimum of 10 contacts with amazon reps, it finally arrived. amazon should never ship anything with nds again. the box was heavily damaged...the communication with nsd was close to like talking to the white house of cia...in other words... they didn't communicate at all. the tracking information was false.i just can not imagine a worse experience with shipping.</t>
+  </si>
+  <si>
+    <t>unlike smart tvs of yesterday, this model remains completely dumb unless the user consents to the typical pages of user agreements.  as a result the user is forced to access streaming video services through hardware such as roku connected to the tv's hdmi input.  it all distills down to:if potential buyer doesn't value privacy then this is a great tv.if potential buyer values privacy expect this tv to provide nothing more than a great picture.</t>
+  </si>
+  <si>
+    <t>the picture is amazing.  however, you can only use their apps.  there is no feature to allow the addition of apps that are not included.  i hate the remote.  it changes the channel just by breathing on it.  i hate the start page.  samsung is determined to have you watch their pre installed samsung tv.  i bought an antenna for local shows and it will not let me add the channels to favorites or scroll the antenna channels.  you cannot find these shows in th tv channel guide either.  only samsung tv shows.  you cannot change the home page either.  i also have to plug it directly into my modem to get a continuous clear picture.  i have over 100 megs oer second. the speakers are crap.  bought a sound bar. i will say it easily paired with my bluetooth devices.  i wished i could have sent it back but i threw out the box.  keep the box until you decide if you want to keep the tv. oh, once the tv is hung on the wall you cannot get the the ports unless you have a mount that pulls out.  i installed this alone on the wall only to figure out this issue.</t>
+  </si>
+  <si>
+    <t>this is my second unit of this same model. when i first bought it, i was able to control everything on my tv using my alexa device.  3 weeks in, that went away. my alexa device couldn’t control anything other than the power and volume right before the first software update. after days and weeks wasted with customer service, i bought a second unit (lost $80 because i wasted time with tech support) thinking i’d have better luck.  voice control via my alexa device didn’t work, so i just resigned myself to dealing with it.now, voice recognition won’t work at all! not even using the smart things app! the solar charging feature on the remote doesn’t work either! i didn’t purchase a smart tv with theoretic voice control features to go searching for a remote that can’t fully charge after 6 hours in direct sunlight all over the place! i’ve contacted samsung, they’re sending a new remote but, now they also want me to purchase an extended warranty to get a full refund! i’m not even 4 months into the manufacture’s warranty yet!</t>
+  </si>
+  <si>
+    <t>a huge downside to this relatively average tv is that you must sit front and center to get a beautiful picture. any movement on your part to the left or right, and it fades and changes color and distorts.  so basically...you have to watch tv alone. others have mentioned this. my old and cheaper tv was better.  for this price, you should be able to get a great picture no matter what part of the room you're watching from. the sound is terrible.  sometimes it's blaring loud, then almost silent at other times.  but mostly, you have to turn the volume to near 100, which is not good.</t>
+  </si>
+  <si>
+    <t>1) easy set up... just make sure that its in a room apart from other samsung televisions, or you will "confuse" the remote.2) great picture, bright enough for any well lit room, just like any other samsung (we have 11 including the office)3) smart, minimalist number of buttons, on the remotes by samsung are my preferred over any other brand's approach to controls.4) clean simple design fits any decor.bought this to wall mount between kitchen and dining room,  it was the perfect size, lightweight enough for a single point wall bracket, on a 36" arm,  and bright enough to handle our bright, bright kitchen with all the led lights.ideal for our application...one "defect" is that the apple tv app doesn't seem to want to let my log in to my apple library. have tried multiple times over several days without success. though this is less of a problem, since there is an apple tv device attached to one of the hdmi ports, so the content works, but the app failure is troubling none the less. i've not had this problem with our other samsung tvs using the apple tv app.</t>
+  </si>
+  <si>
+    <t>delivery was excellent but the tv had sound only. called customer service. they were horrible the girl had no idea what she was talking about, she told me to make sure it was plugged in after i told her we had sound! i hung up called back to get someone else, i hot the same person. obviously returning. on a good note target had a better samsung tv 75” on sale for $869.00.</t>
+  </si>
+  <si>
+    <t>the picture is outstanding (i would expect nothing less from samsung) and the sound quality for my wall mounted tv is also excellent.  i rated the remote lower because it is really a change from the usual tv remote. even with that said, it does work well and the voice commands are really a nice change.  the solar (light) charging capability of the remote is a nice touch and appears to work well with little effort on my part. for anyone interested, even though the remote is blue tooth connected, the tv still works with my logitech harmony 650 remote.</t>
+  </si>
+  <si>
+    <t>so far, i’m loving this television. assembly and set up was incredibly straight forward and took me fifteen minutes at the most. i haven’t toyed with the display settings yet, but it is already light years ahead of the tv it replaced (that was 6 years old). i haven’t had any problems with the remote. it has been pretty intuitive to me, but i could see it being an adjustment for others. i was able to add my cable box with ease, and finally no longer have to use two separate remotes. i will update this if it changes, but i’m so glad i didn’t spend the money on a higher level qled. will it brew my morning coffee or do a song and dance? no, but that’s not what i need.  this one serves its purpose, and is the perfect size.</t>
+  </si>
+  <si>
+    <t>tv delivered by fedex after their usually missed expectations and deadlines come and gone, but when i drunkenly sent a message of disgust about the missed delivery, i got a prompt response from walt's tv!  the only fault of walt's tv was choosing fedex to deliver their goods, because i have to say that their customer service was outstanding!  the tv has exceptional color and lifelike picture, but the motion does drag a bit at times as expected for a 60 hertz set, but i like it for the price!  if this lasts more than two years it has the sony that i bought last time beaten!  i took one star off the rating because the initial setup that the tv makes you go through was quite onerous!  all i wanted was a tv to plug my firestick into and set to hdmi 1, but they make you spend a half hour of your life signing up to samsung accounts and such.</t>
+  </si>
+  <si>
+    <t>the media could not be loaded.
+   we just installed the television about a week or so ago after having it delivered to our home. it was working flawlessly until today when we noticed what looks like a single vertical line of pixelation (very thin line) running down the center of the tv when playing a few blu rays. no major changes to the settings have been made.i have added screenshots and a video clip showing this behavior and it seems consistent when in the samsung tv menus as well. the pixelation seems to subside when playing games on the ps4 though in my testing so far.otherwise the television has been working great, just very disappointed in the sudden issue with the vertical line down the middle of the screen after spending so much on it. going through the replacement process and will provide updates when available.</t>
+  </si>
+  <si>
+    <t>the first week i had the product i had to reset it to factory default to fix a bunch of bugs; it would turn on by itself, it would randomly open apps, it would jump from what i was watching to a sound wall app, etc. so, i had to go through the entire setup twice which takes about an hour. then, after two more months, the exact same thing happened again. apparently samsung is aware of this problem and is unable to fix it. unless you have nothing better to do but reset your tv every couple months then this tv is for you.</t>
+  </si>
+  <si>
+    <t>tried and tried to adjust the picture quality but never got the clarity and detail promised.  i reset to factory specs but the result was more like an old crt tube.  blurry details.  also, when changing channels the picture comes up darker and then becomes bright.  the samsung i bought 7 years ago is far superior, with excllent detail, but has developed quarter-sized bright spots - hence the desire for a replacement.many reviews crow about the picture quality.  does samsung have a quality problem?  am returing the tv.</t>
+  </si>
+  <si>
+    <t>the absolute worst interface on the planet. loaded with samsung garbage, difficult to navigate and rendered our apple remote unusable. bought two, opened one. both going back. pic is great, interface horrid.</t>
+  </si>
+  <si>
+    <t>75 inches of beauty!  this samsung tv delivers on picture quality.  if you like it has pre arranged settings for movies, gaming etc.  or you can set to your own liking.  pictures below are set on just movie setting and still perfectly clear.  easy to setup if you already have a samsung account.  samsung free tv is a nice feature.  sound quality just out of the tv is great actually.  but i have mine hooked up to my system for even better surround sound.  i do wish they had more hdmi inputs on the back.  optical input is a great way to get awesome sound.  and for the size it's actually not very heavy but still requires at least 2 people to get in your tv stand.  it has a rather fast response to the controls.  using alexa is rather simple.  as for faster processing on the apps you'll notice it.  going through movies or other online material is pretty quick.  so the processor in this tv sure makes a difference over my old samsung curved set.it's not a top of the line tv but you'll still be impressed.  i would recommend this tv.</t>
+  </si>
+  <si>
+    <t>we love this tv. bought two 75-inchers. we wall-mounted one and set the other up using all 4 stand-legs. the 75 inch is the smallest size with slots for 4 legs, so you can have a narrow or wide setup to match your tv stand, but it only comes with 2 stand-legs. buying two 75 inchers let us have each fully supported in its own way.one nice surprise was the sound quality. we aren’t exactly audiophiles, but we were pleasantly surprised with the sound. the tv does faux-surround where the volume is emphasized where the movement is. for example, if a character on the left is speaking, their voice will sound like its coming more from the left. the sound is surely worse on smaller models, but with a tv this large we decided we don’t even need a soundbar.our only real complaint is that the remote is tiny and awkward to use, but that’s far from a dealbreaker. we are very satisfied with this pair of purchases, which we snagged for $1300 and $1100 off amazon (plus tax). hard to find better value!</t>
+  </si>
+  <si>
+    <t>this samsung tv is really nice.  we replaced a smaller set after getting rid of a cabinet that restricted the size.  the smart features have taken some time to get used to.  i'm not too excited about the samsung tv channels that come up when you are switching between smart features and cable but that may just be me.  if i didn't have cable in my hoa prepaid i might use the samsung  tv features.  i would like it, if tv manufactures could come up with a way to search without typing in the letters on the screen.  the alexa voice search works for some of that and i do use that more and more.  i'm not  sure why some of the other apps were not all ready built in but they are relatively easy to download and add. i have an older samsung smart tv. samsung has worked hard to improve the smart hub.i wasn't to sure about the remote, but quickly got used to it.  i wish i could have made my meadiacom remote work with this remote also but was not able to.  i still need two different remotes. the solar feature is really cool. no more batteries to replace in the remote.</t>
+  </si>
+  <si>
+    <t>this is my first smart tv and i didn't know exactly what to expect. it was super easy to set up with my galaxy s21 phone. the picture is great. watched a 4k football game on youtube tv and didn't notice any issues with ghosting and skipped frames. upscaling from 1080p is decent, but 720p upscaling isn't that great as there is a ton of residual blocking. you will want a sound bar or some other external sound setup as the tv speakers are very tinny.a little disappointed in the remote, however. have to push the mic button in order to use the voice features with alexa. having a little trouble setting up my google stuff outside of the youtube apps. it's probably something on my end as i'm also having trouble with my wifi light bulbs i control with google home.overall, i'm very pleased with the purchase and hope samsung will improve the alexa compatability so i don't have to push the button on the remote to open apps and search the content. i feel like i'm in the jetsons!</t>
+  </si>
+  <si>
+    <t>this tv has a great picture!!! the colors are bright and the black is black not a shade of gray.  it is truly black.  dark scenes can be seen even in bright room.tv remote is minimalistic but gets the job done once you read the owners manual.  that is the only bad point on this tv.you must access the samsung website to print out the 250 page manual.  you can also print portions of it.  however, you must get it through the samsung site or it is on the tv but it is less easy to move around the manual while it is on the tv screen.  it is better to access the manual through the site.i do like the features of the smart tv.  they are easy to get but it is difficult to get from the apps back to the tv picture.</t>
+  </si>
+  <si>
+    <t>this clean clear tv will have you looking at things just to look at the tv!! very good. you will need a sound bar or some hdmi sound, but i wouldn't let that stop mi one bit. movie night with the family is a true success every time.</t>
+  </si>
+  <si>
+    <t>was so excited to get this installed. after setup, we noticed that an entire row of vertical pixels were dead. depending on the outcome, i may change this review.</t>
+  </si>
+  <si>
+    <t>love this tv. honestly, i tried to be intelligent in my decision and try to tell everyone in my household that this was the best of the market at the time. but i really don't understand all the various features of this or comparable units.i will say it is a vast upgrade from my 2011 52" samsung.and great for gaming. i have ps4 and switch consoles and the quality is so much better than what i was experiencing.the only maybe downside is the sound quality. but this might be related to various streaming services. i've noticed a huge sound quality difference between amazon prime vs. disney+ vs. hbomax. have not yet invested in a soundbar.</t>
+  </si>
+  <si>
+    <t>first one amazon shipped had been walked on (boot prints visible) and had a hole in front of box that went right through to scratch the screen. replacement arrived fine. we have an open layout with living room, kitchen, and dining room, and got a sonos sound bar to go with tv. definitely was necessary. tv picture quality has that soap opera effect to it, though i just learned that can be turned off. family agrees that the apple tv remote and design are way more user friendly than what samsung has going on. in some apps, the pause/play button doesn’t do anything at all, and instead you have to use the center button to play… also somewhat difficult navigating between apps, and they can be slow to open, at times encountering errors. never have issues with the apple tv on our 39” on same network on the other hand. i’m sure we’ll get used to it. one great thing is the solar charging remote.</t>
+  </si>
+  <si>
+    <t>first things first check your measurements. i assumed replace a 43in samsung with a 43in samsung. not so this one did not fit my opening too big. smart features were nice and great picture quality. the sound decent but if you want quality get addition sound equipment. the remote has a learning curve some reading is required.</t>
+  </si>
+  <si>
+    <t>the samsung picture is excellent. the remote is cheap and i set it up for using my iphone and ipad to control the tv. there were no instructions on how to set up or pair the tv with the remote and i had to go to youtube in order to get the instructions to pair. the sound on the tv is not very good and i had to add a sound bar.</t>
+  </si>
+  <si>
+    <t>older flat tvs used liquid crystal displays, in which each pixel was made by a little lcd pixel covered with a red, green, or blue absorbing dye; colors were not great, and picture quality degraded when viewed from the side.the samsung qled actually has a red, green, or blue light-emitting diode at each pixel, which gives vivid, pure colors when viewed from all angles. this is a quantum improvement in tv quality!the sound is also good, and the remote easy to use once one gets used to its peculiar channel and volume buttons. set-up was difficult, and i had to ask the spectrum cable technician for help.this tv cost a bit more, but is worth it.</t>
+  </si>
+  <si>
+    <t>do i want a samsung account, answer i do not!  why should i need one answer, i should not!  does the app have anything to do with samsung, it does not!result if you value privacy and want a smart tv look elsewhere.  my lg's (as an example) do not require this, go with lg is my suggestion, or expect to do what i've had to spend time and effort blocking smasung after installing the app on a firewall (hint samsung tv's leak a lot!, as i've learned in the progress of blocking it). so i'm not unimpressed with the tv's  image, but compared to older samsung tv's i have previously owned, i am completely unimpressed with the smart tv requiring a samsung account to add any apps even ones that have nothing to do with samsung.</t>
+  </si>
+  <si>
+    <t>as many reviewers have noted, you don't purchase this without having an external speaker - which i do.but ... the interaction between the two is unwieldy, as is the remote control itself.too many choices in today's world leads to a jam-packed interface - i get that - but this one is clumsily done.so overall - great picturem but lousy tech and poor use of available tech and dismal attempt at making it all user-friendly.</t>
+  </si>
+  <si>
+    <t>this 60” samsung tv fits perfect on our built-in shelf. amazon delivered it in record time and within the time frame i chose. the tv was easy to set up and connect to our roku. the picture is beautiful, sharp and clear. well worth the price. this is our second samsung tv that we have purchased from amazon. we are very happy with both purchases.</t>
+  </si>
+  <si>
+    <t>awesome tv until you notice the light leaks on screen. no wonder it was a good deal. you get what you pay for.</t>
+  </si>
+  <si>
+    <t>this is a surprisingly good tv, especially at the price it was being offered at.  it was easy to assemble/set up and the picture is great.  the only flaws:  the remote that arrives with it is a high-tech paperweight.  thankfully, i still have the remote from the previous tv, also a samsung (a bn59 remote), a classic that still works.the sound for this unit could also be better.  i may start browsing for a sound bar, and the closed captions are a bit iffy on a few channels.all in all, this seems to be a very dependable tv in the short time that i’ve had it, and continue to fiddle with all the settings:  video, network, etc.</t>
+  </si>
+  <si>
+    <t>you have to sign up for a samsung account to download new apps. it's my tv! i shouldn't sign over my information and agree to yet another 30 page user agreement just to use all its functionality.plus just discovered that this model samsung is not compatible with sling. so unhappy.</t>
+  </si>
+  <si>
+    <t>i bought this to replace my dumb tv.  while this new tv is the same size as my old one the picture quality is much clearer and the color is more vibrant.  the smart features work flawlessly and the tv paired seamlessly with my reciever.  the smart remote is rechargeable and even has a small solar panel so the light in your room can charge the remote.  i am very pleased with my purchase.</t>
+  </si>
+  <si>
+    <t>update:samsung customer service is trash too. made an appointment with them to repair the tv, got multiple text messages and email confirmation, but no one showed up. i repeat, don’t buy samsung. googled it, it’s also common that they don’t show up to scheduled appointments and you need to keep rescheduling until one day, they knock on your door!original review:trash. owned it for 2 months and 2 weeks and now it’s turning itself on and off every second. when i googled it looks like it’s a very common issue with samsung. don’t buy it.</t>
+  </si>
+  <si>
+    <t>received the tv picture is beautiful. found a part missing for the remote and soon will not be able to use it which makes the tv useless after only a month. attempted to get the missing part but unable to talk to the right person so far. rethinking what i buy in the future. called samsung 3 times to receive help combining the samsung remote with my cable universal. was put on death hold and they disconnected the call so need 2 remotes which one won’t work soon. yes this is the worst thing since shopping with amazon but an expensive thing. not a happy customer anymore.</t>
+  </si>
+  <si>
+    <t>best picture i have ever seen on a 43 inch flat screen.the speakers are poor so i hooked the samsung 43q60a to a samsung sound bar with a remote bass reflex bluetooth speaker and the sound is much better, especially if you play music through a remote source like music saved on your phone or tablet.the smart features work very well, the remote is simple and doesn't need batteries, a nice new solar technology.best value for "quality" even though it is a little more than other models.highly recommended.</t>
+  </si>
+  <si>
+    <t>i wish it had more inputs/outputs options. for example, i really needed a 3.5mm audio out, but it only has optical out. what this means is that i cant use tv remote to midulate the volume for my external amplified speakers (pro media 2.1) which worked fine with a much older samsung tv. now i lost this functionality</t>
+  </si>
+  <si>
+    <t>prior to this tv i had a toshiba…i purchase this tv because my son bought a samsung tv and told me to get this for my needs since i am not a gamer like him.  the picture  clarity is amazing…..the color tones are very strong and bright which for me is a bit much but my eyes have gotten used to the brightness in colors and i have turn down the brightness of it so i am loving it</t>
+  </si>
+  <si>
+    <t>we have bought samsung products off and on for several years.  most were good to great, others bad to....  when the price was right we jumped of this tv.  i must say there are no regrets so far.  i knew the picture would be good, but after watching it for several hours we noticed that the picture was sharper and clearer than we expected.  it is so good our 3 year old 50" (another brand) is hiding in shame.  even the sound is good, not great so a sound bar is better to get the full effect of the show.  (we have an older one, but plan for a new one)</t>
+  </si>
+  <si>
+    <t>the picture is good and the smart features are as expected. but the remote is worthless. the solar cell smart remote doesn't charge well. we left our remote in the cabinet for one day and that evening it was dead, leaving no way to control the tv unless you own or purchase a usb-c cable. operation of the remote is not intuitive; button functions are inconsistent. control of replay from our dvr is lousy. we contacted samsung; they simply refused to help.if you buy this tv, order a full-function remote at the same time and toss the solar remote. or just choose a tv from sony or lg.</t>
+  </si>
+  <si>
+    <t>great picture and features. setup was easy. note that the remote is usb rechargeable. for some folks the picture may seem to digital. you can make it more movie-like in the expert settings. the remote is simplified, not like some earlier samsung remotes were excessively cluttered.</t>
+  </si>
+  <si>
+    <t>what a low price for a great tv!it's mounted on the wall.  the clarity and color are excellent.this smart tv makes use of netflix and other streaming services very easy.the remote has limited options and takes some time to get used to.</t>
+  </si>
+  <si>
+    <t>freezes up, changes channel by itself, can't change channel with remote.this is second unit, first had same problems!</t>
+  </si>
+  <si>
+    <t>had this tv for several months now. wife and i love it. setup process for including netflix, hulu, etc is include and made getting this 100% ready for use was 15-20 mintunes tops.only complaint is the feet are a slightly different shade of black/grey than the rest. would have been nicer if it matched.love the rechargeable remote. wish it was shaped more like their older one thought. not enough to ding it a star. great tv.</t>
+  </si>
+  <si>
+    <t>we absolutely love our 70-inch  samsung tv. it was so easy to set up! i thought for sure it would be complicated but not at all. movies and games look amazing and the tv automatically sets up the screen for either movies or ps4 (in our case). you can always change the picture quality yourself too. the remote was a bit over our heads but my daughter figured it out in like 2 seconds lol, so no problem! we are very pleased with this purchase!</t>
+  </si>
+  <si>
+    <t>this is a replacement for my 2019 qled samsung 65in model whose picture failed. until intermittent blackouts occurred, it was terrific. i upgraded for my replacement. this 2021 qn75q60a 75in is even more impressive than the last. great pic, sound, amazing. my choice of another samsung qled was borne out by my latest issue of consumer reports which made this model a top rated "smart buy". no weaknesses in any category.</t>
+  </si>
+  <si>
+    <t>i bought the 60 in. size of this tv mainly because 65 in. was too large for my entertainment center.  this tv has a great picture but due to the 60 hertz refresh rate, the "smoothing" of sports action like football is lacking.  if you like samsung and watch a lot of sports, then i would recommend purchasing the next class up which has the 120 hertz refresh rate - can't say how much better it will be but i would start there.  for movies and regular television viewing, this is a phenomenal piece of equipment.</t>
+  </si>
+  <si>
+    <t>bought this tv as a gift for my granddaughter's new apartment. wow, what a great tv! now i wish i had one.  arrived quickly, set up easily, and has far more features than i realized. picture quickly is superb. i recommend highly.</t>
+  </si>
+  <si>
+    <t>i bought the 55”. very disappointed in this tv. my 10 year old samsung has a better picture. further, specifications say it has 3 hdmi ports. it only has 2. i confirmed this with samsung. would not have bought tv with only 2 hdmi ports.</t>
+  </si>
+  <si>
+    <t>Love</t>
   </si>
   <si>
     <t>Okay</t>
   </si>
   <si>
+    <t>Hate</t>
+  </si>
+  <si>
+    <t>Do Not Like</t>
+  </si>
+  <si>
     <t>Like</t>
   </si>
   <si>
-    <t>Hate</t>
-  </si>
-  <si>
-    <t>Love</t>
-  </si>
-  <si>
-    <t>Do Not Like</t>
-  </si>
-  <si>
-    <t>credible fine good quick</t>
-  </si>
-  <si>
-    <t>excellent good helpful</t>
-  </si>
-  <si>
-    <t>concerned fair fine good perfect quick sage</t>
-  </si>
-  <si>
-    <t>deep perfect sharp stunning</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> excellent</t>
-  </si>
-  <si>
-    <t>custom good happy plain simple</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pretty</t>
-  </si>
-  <si>
-    <t>happy light</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sharp</t>
-  </si>
-  <si>
-    <t>fun serious</t>
-  </si>
-  <si>
-    <t>consistent custom excellent expensive good lucky smart</t>
-  </si>
-  <si>
-    <t>custom good open willing</t>
-  </si>
-  <si>
-    <t>direct familiar perfect pretty</t>
-  </si>
-  <si>
-    <t>confident light smart soft</t>
-  </si>
-  <si>
-    <t>fabulous fun pristine smart</t>
-  </si>
-  <si>
-    <t>good smart</t>
-  </si>
-  <si>
-    <t>custom open</t>
-  </si>
-  <si>
-    <t>hard smart soft</t>
-  </si>
-  <si>
-    <t>awesome current excellent fancy fine fit good hard kind sleek smart</t>
-  </si>
-  <si>
-    <t>fair good pretty reflective vibrant</t>
+    <t>amazing bright capable controlled credible deep direct discerning dynamic expert fine good happy level open patient perfect quick simple smart solid specific standard vivid wild</t>
+  </si>
+  <si>
+    <t>amazing fine good honest kind nice pretty smart stunning</t>
+  </si>
+  <si>
+    <t>bright direct frank free friendly fun giving good hard light mechanical mysterious open simple smart specific</t>
+  </si>
+  <si>
+    <t>fun light</t>
+  </si>
+  <si>
+    <t>bright content</t>
+  </si>
+  <si>
+    <t>fantastic good perfect</t>
+  </si>
+  <si>
+    <t>excellent friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amazing</t>
+  </si>
+  <si>
+    <t>concerned detailed perfect quick smart</t>
+  </si>
+  <si>
+    <t>colorful dynamic fast nice quick sharp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quick</t>
+  </si>
+  <si>
+    <t>bright expensive fantastic fun good light minimal nice sexy soft stable</t>
+  </si>
+  <si>
+    <t>pretty stunning</t>
+  </si>
+  <si>
+    <t>happy serious smart</t>
+  </si>
+  <si>
+    <t>capable content fine free fun good hard neat robust smart strong</t>
+  </si>
+  <si>
+    <t>adaptive amazing authentic bright clean colorful encouraging excited fantastic fine fun giving gorgeous honest industrial light minimal neat nice open perfect pretty sage simple smart thoughtful</t>
+  </si>
+  <si>
+    <t>bright expert giving loyal sleek</t>
+  </si>
+  <si>
+    <t>good kind quirky</t>
+  </si>
+  <si>
+    <t>affordable amazing bright convenient cool credible familiar free fresh fun funny happy honest light nice noisy plain quick specific wonderful</t>
+  </si>
+  <si>
+    <t>elated free good</t>
+  </si>
+  <si>
+    <t>controlled expensive light</t>
+  </si>
+  <si>
+    <t>bright light pretty</t>
+  </si>
+  <si>
+    <t>custom good soft</t>
+  </si>
+  <si>
+    <t>good light perfect</t>
+  </si>
+  <si>
+    <t>corporate soft</t>
+  </si>
+  <si>
+    <t>fit good kind sage simple</t>
+  </si>
+  <si>
+    <t>cool good mindful quick standard willing</t>
+  </si>
+  <si>
+    <t>fine good perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> custom</t>
+  </si>
+  <si>
+    <t>expert fair free good positive sharp</t>
+  </si>
+  <si>
+    <t>fun good</t>
+  </si>
+  <si>
+    <t>excellent free good quick strong</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fantastic</t>
+  </si>
+  <si>
+    <t>light smart</t>
+  </si>
+  <si>
+    <t>good hip kind original smart</t>
+  </si>
+  <si>
+    <t>hard smart</t>
+  </si>
+  <si>
+    <t>amazing determined direct</t>
+  </si>
+  <si>
+    <t>custom direct fun light smart soft</t>
   </si>
   <si>
     <t xml:space="preserve"> good</t>
   </si>
   <si>
-    <t xml:space="preserve"> kind</t>
-  </si>
-  <si>
-    <t>soft standard</t>
-  </si>
-  <si>
-    <t>bright excellent sharp</t>
-  </si>
-  <si>
-    <t>good sharp smart</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> light</t>
+    <t>bright clean content fit light minimal perfect simple smart</t>
+  </si>
+  <si>
+    <t>custom excellent good</t>
+  </si>
+  <si>
+    <t>excellent light nice</t>
+  </si>
+  <si>
+    <t>intuitive level light loving perfect pretty</t>
+  </si>
+  <si>
+    <t>custom good sage</t>
+  </si>
+  <si>
+    <t>consistent wise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> open</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bright</t>
+  </si>
+  <si>
+    <t>awesome fast free heavy nice perfect pretty quick simple</t>
+  </si>
+  <si>
+    <t>hard nice plain pleasant</t>
+  </si>
+  <si>
+    <t>cool excited hard nice quick smart</t>
+  </si>
+  <si>
+    <t>content light open smart</t>
+  </si>
+  <si>
+    <t>bright minimal smart</t>
+  </si>
+  <si>
+    <t>clean good</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> excited</t>
+  </si>
+  <si>
+    <t>elated honest</t>
+  </si>
+  <si>
+    <t>fine friendly hip open</t>
+  </si>
+  <si>
+    <t>fit nice open smart</t>
+  </si>
+  <si>
+    <t>excellent good</t>
+  </si>
+  <si>
+    <t>good light pure vivid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> smart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> friendly</t>
+  </si>
+  <si>
+    <t>fit happy perfect sharp</t>
+  </si>
+  <si>
+    <t>awesome good light</t>
+  </si>
+  <si>
+    <t>classic dependable good high-tech</t>
+  </si>
+  <si>
+    <t>fun functional happy</t>
+  </si>
+  <si>
+    <t>light smart vibrant</t>
+  </si>
+  <si>
+    <t>custom original sage</t>
+  </si>
+  <si>
+    <t>custom expensive happy</t>
+  </si>
+  <si>
+    <t>nice simple smart</t>
+  </si>
+  <si>
+    <t>fine fun functional</t>
+  </si>
+  <si>
+    <t>amazing bright loving strong</t>
+  </si>
+  <si>
+    <t>good sharp</t>
+  </si>
+  <si>
+    <t>consistent fun good intuitive smart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> expert</t>
+  </si>
+  <si>
+    <t>excellent smart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free</t>
+  </si>
+  <si>
+    <t>light nice plain</t>
   </si>
   <si>
     <t>amazing smart</t>
   </si>
   <si>
-    <t xml:space="preserve"> perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fantastic</t>
-  </si>
-  <si>
-    <t>giving serious</t>
-  </si>
-  <si>
-    <t>happy solid</t>
-  </si>
-  <si>
-    <t>direct fit plain protective</t>
+    <t xml:space="preserve"> fresh</t>
+  </si>
+  <si>
+    <t>grand quick</t>
   </si>
   <si>
     <t xml:space="preserve"> specific</t>
-  </si>
-  <si>
-    <t>careful hip</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> excited</t>
-  </si>
-  <si>
-    <t>excited perfect plain wonderful</t>
-  </si>
-  <si>
-    <t>frank hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> custom</t>
-  </si>
-  <si>
-    <t>fast good happy hip nice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> credible</t>
-  </si>
-  <si>
-    <t>fantastic happy soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hopeful</t>
-  </si>
-  <si>
-    <t>excellent fun</t>
-  </si>
-  <si>
-    <t>happy plain</t>
-  </si>
-  <si>
-    <t>detailed perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> grand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> consistent</t>
-  </si>
-  <si>
-    <t>good hard light</t>
-  </si>
-  <si>
-    <t>friendly good nice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nice</t>
-  </si>
-  <si>
-    <t>fast hip</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> awesome</t>
-  </si>
-  <si>
-    <t>awesome happy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> amazing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wonderful</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fun</t>
-  </si>
-  <si>
-    <t>deep reflective</t>
   </si>
 </sst>
 </file>
@@ -778,7 +892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,13 +917,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -817,13 +931,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -831,13 +945,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -845,13 +959,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -859,13 +973,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -873,13 +987,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -887,13 +1001,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -901,13 +1015,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -915,13 +1029,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -929,13 +1043,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -943,13 +1057,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -957,13 +1071,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -971,13 +1085,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -985,13 +1099,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -999,13 +1113,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1013,13 +1127,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1027,13 +1141,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1041,10 +1155,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1055,13 +1169,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1069,13 +1183,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1083,13 +1197,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1097,13 +1211,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1111,13 +1225,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1125,13 +1239,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1139,13 +1253,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1153,13 +1267,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1167,13 +1281,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1181,10 +1295,10 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1195,10 +1309,10 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1209,13 +1323,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1223,13 +1337,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1237,13 +1351,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1251,13 +1365,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1265,10 +1379,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1279,13 +1393,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1293,13 +1407,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1307,13 +1421,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1321,13 +1435,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1335,13 +1449,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1349,13 +1463,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1363,13 +1477,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1377,13 +1491,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1391,13 +1505,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1405,13 +1519,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1419,13 +1533,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1433,10 +1547,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1447,13 +1561,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1461,13 +1575,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1475,13 +1589,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1489,13 +1603,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1503,13 +1617,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1517,13 +1631,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1531,13 +1645,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1545,13 +1659,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1559,13 +1673,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1573,13 +1687,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1587,13 +1701,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1601,13 +1715,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1615,13 +1729,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1629,13 +1743,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1643,13 +1757,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1657,10 +1771,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1671,13 +1785,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1685,13 +1799,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1699,13 +1813,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1713,13 +1827,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1727,13 +1841,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1741,13 +1855,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1755,13 +1869,209 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
         <v>73</v>
       </c>
-      <c r="C70" t="s">
-        <v>134</v>
-      </c>
-      <c r="D70">
+      <c r="B71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74">
         <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/AmazonReviewMatchResultdrop.xlsx
+++ b/AmazonReviewMatchResultdrop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="136">
   <si>
     <t>Review</t>
   </si>
@@ -28,513 +28,402 @@
     <t>Matched Count</t>
   </si>
   <si>
-    <t>your browser does not support html5 video.
-   first off, i want to dispell any bad reviews you may read about this tv. the people who wrote them simply don't know how to do an "expert setup" on their tv. they obviously think it's "plug n' play" and that is not the case with any tv, not just this one.all tv's are setup at the factory and are set at neutral settings across the board throughout the tv's range. you must know how to properly adjust each individual setting to optimize the picture quality!!these settings are located under &gt;settings&gt;picture&gt;expert settings, on the tv's menu. don't be afraid to make some mistakes, this is how i learned! you can always hit factory reset and yes, start all over again!!i know how to do this, i'm very experienced on tweaking tv's. not to scare anyone, but this one took me the better part of 4 days to fine tune, but man, was it time well spent!!i scanned different channels, waited patiently for facial close-ups, making adjustments, and basically got a good sampling of all types of tv viewing. doing this, eliminates the need to make minor adjustments with certain programs occasionally.i'm very discerning and picky when it comes to a tv's picture quality. remember, this is only a one-time fine tuning!! getting this picky only happens once, it won't be a constant hassle during your tv's lifespan. i have dialed in this tv so well, it's like looking out my picture window at real life action, live. in some scenes the people look lifesize!! wild!!to the average viewer, you may not want to go as far as i did fine tuning your tv, but if you really want to experience the extreme level of excellence that this tv is most definitely capable of, you will find the time to take my advice and just do it!!i bought the 75 inch screen and mounted it on my living room wall like the masterpiece it is! i'm a firm samsung believer, their quality and technology is top-notch and world-class!!i bought a full-motion wall mount for my installation. it's rated for tv's up to 130lbs. with a full-motion mount, it makes connecting cables very easy. just pull it out from the wall and turn it to the left, that's where the usb/hdmi ports are. you can easily get behind the tv by doing this.if you need more usb/hdmi ports than are provided, there are 3, you can buy splitter hubs to turn one port into 2, 3 or more. just be sure they are 4k splitters.additionally, i recommend using a bi-directional splitter. it allows to either "input one" port, in to "2 output ports," or reverse it to "2 input ports," to "one output port.". (depending on your specific needs.) these types of splitters are used for connecting other components to your tv. a button on top of the splitter allows you to switch between tv mode, to blu-ray player or dvr etc.note: if you're going to mount your tv on a wall, be sure to use a stud-finder to locate the wall studs. do not mount your tv onto just drywall or paneling alone. my wall is thick pine paneling, drywall, and concrete block behind that.i used a 8" concrete drill bit and lag-bolted the mount with lead concrete anchors, directly into solid concrete. it's not going anywhere anytime soon!!i also bought a wireless keyboard and mouse so i can easily access the tv's internet capabilities. with alexa included, i just say into the voice remote, "alexa, open the internet." and she opens it to my home page. this is just one example of what alexa can do, the list is seemingly endless. if you have other smart devices in your home, they can be programmed into this tv and controlled by using alexa as well.as i write this review i am watching my big-screen as you would a computer monitor or smartphone screen and i have the pandora music app pumping my favorite music thru my home stereo in the background. for me, this online multi-combination is great for reading/writing emails, playing on facebook, twitter, instagram etc, paying bills, shopping or just browsing the web.and i would be remiss if i forgot to mention the voice remote!! no more batteries to change out! this remote has an indoor solar panel on the back! bout time someone thought of that! it also has usb charging if you prefer. its slim design is simple to use and easy to learn.i am simply blown away with this tv! i have it wired into my 1,000 watt per channel home stereo and i'm so glad i live in a cinder block house, not a glass one!! i'm waiting for the day i accidently blowout my picture window!!the combination of the big-screen and my sound system is like sitting front and center at the movie theater. extremely impressive!for the price,  (it was $1497 at the time i purchased this 2021 model,) this tv is an amazing deal if you can't afford the upper class models, such as the q70's, q80's or q90's.one hint for the not so tech savvy. you must upgrade your cable box/satellite service to 4k. this tv won't give you a 4k picture thru a cable or satellite box unless you do. then check your cable box settings to make sure it configures correctly at boot-up and is set to 4k resolution.this upgrade should include using 4k hdr hdmi cables, not standard hdmi cables. so consult your cable or satellite service for what you will need to receive a true 4k (3840x2160) uhd picture. one other hint: double-check your cable box video setting to be sure it configures correctly! some boxes, even though 4k, will default to standard hd (1080p) or even 720p. if this is the case with yours, scroll to the 2160p setting and lock your picture into 4k. i have deep, rich blacks and bright, vivid colors that explode off the screen and come to life with true to life flesh tones as well. this is the result of the hdr (high dynamic range.)  simply put, it enhances brightness, contrast and color levels significantly.i can actually tell the difference between a person in a black suit and a person in a very dark blue one! this tells me my brightness, contrast and color levels are set perfectly.please don't judge this tv's picture quality by my cellphone pictures and short video! they truly don't do this tv justice. you have to see it in person, and just take my word for it that it's just absolutely incredible!all in all, i am extremely happy with this purchase, and i am sure if you know what you're doing, you can set it up perfectly to your liking. or if you can't, ask a techie friend you may have, we all know one or two!!just a quick note: i noticed that it appears that this comment page lists posts from owners with a wide range of tv models and sizes.for the record, i am experiencing outstanding results as i just described with the samsung 75-inch class qled q60a series - 4k uhd dual led quantum hdr smart tv with alexa built-in (qn75q60aafxza, 2021 model)i can't speak to any other models. i hope your choice is as good as mine was!!good luck!jeff stearnswhitehall, mi.</t>
-  </si>
-  <si>
-    <t>everything about this tv is great, minus one thing (we'll get back to that). the picture quality is stunning, hdr is great, and the picture options are pretty vast and allows for a good amount of fine tuning. the smart features are also really nice, though honestly i just use my ps5 for video streaming so i can't be bothered to sign into both, especially when the tv remote can also be used on the ps5. the part that sucks is the speakers. wow, these are actually terrible. they were actually so bad, i called my friend in just to laugh together at how horrible everything sounded. if i had to compare it to something honestly, it  sounds worse than some early 2000's phones. i didn't really mind too much since i had a few spare sound bars, but do not buy this unless you have a speaker to go with it. it's amazing other than that, but bad sound quality in a tv is kind of unforgivable in my opinion.</t>
-  </si>
-  <si>
-    <t>dear samsung,the remote control for this tv is a complete failure in human engineering. there are too few useful buttons and too many mystery functions, icons, and inexplicable actions, making this "smart" remote very user unfriendly.  i handed the remote to 5 people and asked them to do something simple like "change the channel".  they had to futz and futz.  my guests don't want to wade thru a bunch of mysterious menus to do something simple. you can't simply undo incorrect actions because the remote simultaneously controls our direct tv box and and you almost never get the expected result.i can only imagine what would happen if a hotel tried to use this remote in their rooms.  they'd be flooded with calls.  this remote just has too few buttons to be useful, and too many things are buried in menus that require lots of button presses and navigating to accomplish. but netflix and amazon and samsung tv must've paid to have their buttons on the remote, good grief.technology should make things simpler, not more difficult. by trying to automate too much, you're failing to take into account what happens when button presses do the unexpected and you can't easily reverse course.it should be obvious how to work the remote control. if i've got to open a manual, it's a failure in human engineering.  it shouldn't require a research project to figure out simple things like changing channels or inputs or picture setup.  give us a button. don't make me wade thru 400 menus just so you can make a remote with fewer buttons.  if i have to spend time online and in forums to figure out how to do something simple it is badly designed by definition.the setup process was hardly flawless, either. numerous times the app would hang and give me a whirlygig forever.  and i've got a galaxy note 8, so samsung can't blame the phone.  if you're going to automate the setup process, it should frankly be flawless and glitch free. when i get to a point in the setup where the "continue" button is grayed out, it leaves me no choice but to start over in frustration.the picture on this tv looks great, but i will not be buying more samsung tvs.  i want to watch the tv, not make a career out of how to control it.  this remote would be useless to my guests without me giving them a full tutorial. on top of that, i don't want to be forced to do multiple button presses and navigating around the screen to do something simple like changing the tv input source.  on my older samsung, one button press is all that was required. now you've got to launch the smart hub, navigate to the source icon, navigate to the specific input you want and then hit enter.  lots of button presses.  i will be returning this one shortly.btw, i won't buy a car without a mechanical fan button on the dash, either. i want to reach for a knob without taking my eyes off the road.  if i've got to bring up a climate screen, find and select the fan icon, then poke at the up and down buttons on-screen, especially in bright sunlight, it is badly designed, imho.</t>
-  </si>
-  <si>
-    <t>total brick right out of the box. there was no visible damage or signs of mishandling. the unit was completely dead ... no power getting to it at all, no standby light, nothing. i called the samsung help line, where i was advised to box it up and send it back to amazon. refund still pending. total waste of time and effort.</t>
-  </si>
-  <si>
-    <t>considering i bought this as an upgrade to 4k, very dissapointed in how 4k is displayed.  there is only one 'brightness' and 'contrast' that takes effect for hd and 4k.  when both are set to max and you can't see 4k content (too dark) and the hd content is on the verge of being too bright.this is a new tv, so maybe they're still figuring it out, but i can't figure out where to get support or report this, so i'll type it here.</t>
-  </si>
-  <si>
-    <t>i am changing my review because even though it's a fantastic picture only at straight view. when i started to work on something i looked at screen at 45 degree angle and i lost that perfect picture.i made a mistake the faded image only happens when the transmitted image is non uhd.i am good again.with 1080p to uhd at viewpoint is 110 degrees. anything lower than 780 is a whiteout.so is awsome again.</t>
-  </si>
-  <si>
-    <t>the color and picture quality are excellent, and so is the sound quality. i had a tech person install the tv as i am not a tech person. the remote is not user friendly if one does not understand the meaning of each icon, and i am still trying to sort that part out.</t>
-  </si>
-  <si>
-    <t>this is a quality tv with all the features one could ask for.  picture is amazing!  easy to set up and connect to our wifi.  i especially like samsung's new solar powered remote!  a big improvement over battery powered remotes.  the solar powered remote works flawlessly withour spectrum package and various other apps, i.e., netflex, prime, disney+, and hulu.  well done samsung!</t>
-  </si>
-  <si>
-    <t>arrived as per amazon's detailed arrival instructions.  the box and set were in perfect shape.i was initially concerned because it had less hdmi ports than my previous set from 2014 but i quickly discerned that with all it's smart features, it doesn't need chromecast (because it has an intricated series of screen mirroring features for computers and phones).i was blown away with a period piece on netflix.  some news folks facial coloration is off but i think it's due to skyping in on cheap webcams.i'll add more info as i get to know the set.</t>
-  </si>
-  <si>
-    <t>first off the difference in everything with this tv starts with a comparison of old to new tv between it being like watching tv without your glasses on amd listening to it through a radio station. this picture in dynamic mode is unbelievably crisp, sharp lined, and colorful.in 5-6 years the changes they have made in tv viewing is like night and day! gaming, wifes a big gamer, is phenomenally enhanced both visually and listening. the processing speed is so quick that as fast as you can use the remote, the tv responds. the remote is small and takes some time to get use to. but the solar charging feature is nice. once you get the hang of the remote it and it's abilities, it actually eliminated three other remotes that we needed prior to getting this tv. which is nice!overall very please with this brand and the tv itself. time will tell about the longevity. but samsung has a great reputation so.</t>
-  </si>
-  <si>
-    <t>pros: picture, sound quality, value for money are all 5-stars. ease of set up. thrilled by all.  i've cut the cord and use multiple streaming services  with a hi-speed wi-fi connection (not on ethernet) and rarely have a hiccup.cons: remote control/navigation often takes you too far "back", remote doesn't fully recharge  quickly via usb. i use phone app as remote as substitute for more options.</t>
-  </si>
-  <si>
-    <t>well, an upgrade for me to qled. i use this as a pc monitor (with the brightness turned way down), for my 4k blu ray player and use a digital antenna. no cable for me.the picture is good. i notice just the slightest bit of pixelization when i'm up close. this may fade as the screen breaks in. (samsung claims no break in period)colors are really good with hdr, 4k discs look fantastic.the form factor is super slim. keep in mind that there is barely any bezel around the edge so there is almost nothing to grab onto to move the screen. if you have an extendable wall mount you will get smudges when you grab it.the feet are nicely shaped and slim, and the adjustable height is nice. however, the feet are not tightly locked into the screen, and there is a good amount of front to back wobble when sitting on a surface that moves slightly. i have this on a desk with a mic boom attached, and whenever i move the mic, the tv rocks back and forth. i really wish manufacturers would put more effort into the feet of these expensive sets. the adjustable legs only do 2 positions, and should really be attached more firmly.the remote is super sexy slim and minimalist.the software and gui is where this set really gets annoying. it takes nine button presses to get to the bloody settings screen. this is beyond stupid and frustrating!want to switch to game mode? fourteen button presses. so obnoxious i want to speak to the interface designer.anyway, that's first impressions. will add review of software functions once i feel like pressing the remote buttons 8406 times.</t>
-  </si>
-  <si>
-    <t>i don’t know where to begin but i definitely like the remote that it comes with and how easy it is to set up he remote for controlling other devices. i love the color aspect of the television and contrast i do wish there were more controls for picture clarity but it’s definitely a pretty picture none the less. hd will look meh on this tv, just due to its massive size. 4k is stunningly brilliant and beautiful. i bought the sonos arc soundbar and gen 3 sub and it’s definitely a kick ass system. my only gripe is they give 3 hdmis so figure that out lol. it comes with apple tv built in, alexa and google assistant as well and airplay capability and of that works as i tested it all out. definitely get the arc soundbar though because the speakers on this will not do the picture justice.</t>
-  </si>
-  <si>
-    <t>i use youtubetv for my local tv screening, etc.  application loads properly but when i attempt to change to another station, get the buffer circle briefly and then black screen.  channel does not load and from that point on, nothing works on the application.  spent two hours on the phone with samsung support.  as instructed, i deleted the application; i reinstalled the application, same problem.  we reset the television to factory setting.  same problem.  all other applications work.  have a roku box and am able to watch all of youtubetv features with no problems at all through it and on my amazon fire stick.  have tried everything i can think of that might be causing the conflict but am at my wit's end and  even deleted the application from my samsung s21 phone.  problem still exists.  not a happy camper at all.  first serious problem with a samsung product...i had a 2013 samsung smart tv that worked flawlessly....what's up with this q60a, qled 4k uhd 2021 model??????????  looks like a return is inevitable.</t>
-  </si>
-  <si>
-    <t>i had high hopes for this tv after putting a lot of time into researching the different options around this price point. when i first received it, it worked fine - my first impressions were: good picture quality out of the box, didn't require much optimization at all, smart features are very comprehensive - i liked the way it aggregated content from multiple streaming services. i liked the neat little solar powered remote. the sound, however, was disappointing vs. the 10yr old lg set it replaced - tinny, with hardly any bass - not particularly surprising given how thin the tv is, but i would agree with other reviews that you really need a sound bar for this tv if you care about good quality sound. i purchased a samsung sound bar and was pleased to see it integrated well with the tv, operating from the same remote etc. all was well until about 5 days later when i turned on the tv one afternoon and it seemed to freeze after just a few seconds on on-time. i restarted the set thinking it was just a temporary glitch, and was disturbed to see that the exact same behavior occured again.... and again... and again... the tv developed an issue where it stuck in a "boot loop" - it would start up, get to the intro menu, but within a few seconds would completely freeze and then restart. there is absolutely nothing i could do to get it to stop this behavior - it was impossible to get to the settings menu because the tv would freeze before i could navigate to the menu. i tried everything - powering down the set, switching power cords, scoured the internet for any ways of resetting the set, but absolutely nothing worked. samsung support was useless - all they could offer was referral to a third party service center that likely would have charged me to come and try the same troubleshooting steps i had already done, so in the end i decided to simply return the set for a refund. i since replaced it with an equivalently priced sony set which has just as good picture and smart capabilities, but with much better sound and a more robust interface. i was disappointed as i really wanted to stick with the samsung, but the inescapable boot loop issue destroyed my confidence in it, and for that reason i strongly recommend against buying this particular set.</t>
-  </si>
-  <si>
-    <t>where to begin?  after spending several weeks researching options to upgrade our old 42" vizio (model e422vle) i decided on the q60a 55" and was very excited to surprise my wife with the upgrade.  to keep things neat and tidy, let's break it down.delivery:amazon did a great job here.  i scheduled it for the earliest available slot (6:30 am to 9:30 am) it arrived right around 6:45 am.  box was in perfect condition, and the delivery driver helped carry the unit into the house.unboxing:samsung really thought this through as well.  after cutting the straps, you can open the top of the box for the accessories, and then simply slide off the main/upper portion of the box to get to the television.  instructions were clear and easy to read, and the feet easy to install and adjust without tools.design:the overall design of this tv is fantastic.  i honestly like it more than many higher end options.  the top and side bezels are not only nice and thin, but also a nice matte finish.  so you don't have to worry about any strange glare or reflections along the borders (my biggest gripe with the vizio, which had monstrous, glossy bezels).  the offset logo is also a nice touch in reducing potential distractions, and it has a downward firing red light when powered off, which shouldn't cause any sleeping issues if this unit is in a bedroom.  oh, and thin!  this tv is beautifully thin.as a side note: attentional all industrial designers!  please, please stop using gloss black on the front-facing surround of screens.  it makes no sense and is needlessly distracting.  yes, i know it's supposed to look and feel "premium", but it just attracts glare, dust, and toddler fingerprints.  have some fun with matte finishes, different tones of gray, frosted glass or other materials, whatever.  but no more gloss on the front, ok?setup:i didn't have a samsung account yet, so i went ahead and got that going.  the authentication text messages seemed to have quite a bit of lag, but once the account was authorized it was pretty simple to to get the tv setup with my cell phone and the smartthings app.interface:in general, i liked the interface.  it was simple, easy to navigate, and nice and snappy.  no lag whatsoever.  i did notice some ads for service like hbo max but this doesn't really bother me since the vast majority of our tv use is through a 4k apple tv.picture:wow.  just...  wow!  coming from the 1080p vizio (which was honestly a fine tv for being 10 years old, just not 4k) i'm sure most 4k tv's would have been impressive.  even so, i feel like i can honestly say the straight-out-of-the-box picture was gorgeous.  i didn't fiddle with any picture settings.  the colors popped without being overly saturated, and the blacks felt plenty dark.  all in all it just looked great.  i did notice there was some small, lightly darker spots in both lower corners, and when looking again at the display units at best buy noticed it was on their unit as well.  it's not terrible, and on any movies with even minimal letterboxing (like luca) you won't even notice it.  but on bright backgrounds without a lot of detail it may distract a bit.sound:sadly, the sound is where things really started falling apart.  i'd read some reviews that the sound was like "a cell phone in the 90's" and thought to myself there's no way that could be true.  and while it isn't quite that bad, in "normal" mode (the default setting) it certainly sounded severely week and hollow.  to the point i couldn't imagine trying to ever listen to anything in that mode.  the middle option, "adaptive" was sufficient, though the bass still felt lacking.  the new imac - which is significantly smaller and thinner - has significantly more bass and much, much better audio quality than the q60a, which is disappointing.  but it gets worse...when using a 4k apple tv the audio randomly, and frequently cuts out.  sometimes when the next show in a series started to stream, sometimes in the middle of a movie.  stranger still was that the sound in general still worked - if you pushed the back button to browse again you'd hear the navigation effects and chimes without problem - but go back into the movie/show and there wasn't any audio.  i tried adjusting audio settings, switching to airplay speakers (which would work fine) then back to the tv (still no sound), resetting the tv, and searched the samsung support forums for answers.  unfortunately it seems like this is a potential issue with this model, and possibly samsung tv's in general.what's more, once while in the middle of a movie, the sound muted by itself (the remote was on the stand) for no reason at all.  the mute icon just popped up on the screen and stayed that way until i adjusted the volume with the remote.  not an encouraging sign.i didn't expect spectacular sound, but the combination of what i would call "just barely adequate sound" at this price point, combined with the frustration of sound dropping randomly means i'll be sending this unit back.  if i decide to try a replacement of the same model i'll be sure to update my review, but for now i can't see giving any more than 2 stars.summary:amazingly colorful, crisp picture with some very subtle clouding in the lower corners, beautiful and thoughtful industrial design, and a clean, snappy interface.  but disappointingly poor sound and unacceptable sound dropping issues.  i would highly advise looking &amp; listening to this model in a store first if at all possible.</t>
-  </si>
-  <si>
-    <t>i am a samsung loyalist but this television is awful. the picture drags and pixelates. the ticker tape on the news judders across the stream instead of staying smooth giving you a headache.but the reason i sent it back after just two days was because the brightness was dull even set at its max. the whites were grey and the reds were burgundy. they only let you alter the brightness up to 50 so had no choice but to return it.the only thing that it had going for it was the sleek remote control. by the way i did have samsung expert help on the phone before i sent it back just in case i was missing something but they couldn’t get it any better either.</t>
-  </si>
-  <si>
-    <t>good bang for your buck ! great quality and good price - remote control kind of quirky - believe it or not the volume is not easy to use</t>
-  </si>
-  <si>
-    <t>this tv is amazing, amazing!first i purchased the samsung  65” 4k qled for my bedroom, several months ago and absolutely love it so, i just bought the same samsung 4k qled but,  in 75”, for my livingroom.this tv is not only huge but, the picture is just so incredible that i would have to say,mind blown, mic drop.who thought we’d own tv’s of this size in our homes when, growing up, if you had a 26” sony, you were the coolest family on the block.i can’t believe how truly affordable these are, yes, i caught both on sale plus, i have 2 samsung sound bars with subs for each and i’m truly in heaven, again mind blowing picture size and unreal 4k quality in qled and the sound with the soundbar with sub is just a wonderful, movie theater-ish experience that is a “must have” in today’s world of true home theater.just a side note, since this is turning into. novel, i plan to upgrade both my soundbars and subs to the klipsch 600 w/surround speakers as soon as i catch a sale (never listen to these speakers at a store as it will make you so unhappy when you listen to what you already have or anything else and honestly, i was so super happy with the sound from my samsung soundbar setup).damn klipsch for being the best sound and the big electronics store for allowing me to hear them, even though i specifically went to that store with the sole intention of hearing the klipsch system before i would buy them from amazon.there’s a huge difference, i mean huge difference from uhd (which i had in the 65” and replaced with a 65” qled) and qled, which you see immediately and if you can spend the extra bucks to get qled, you’ll never regret it, i still can’t believe the difference as i had both a 65” uhd &amp; 65” qled in my home at the same time and it drove me crazy so, i had to get another qled ergo this 75” qled.i bought the 3 year warranty and before you call me a fool/sucker, i will tell you exactly why it’s so very much worth it.what no one tells you (yet you can easily find out if you do a little research) all these flat screen tv are considered “disposable”, to be replaced every 5-7 years as there’s little to near nothing that is fixable or worth the money to fix, that’s a biggie.i actually sold tv’s and other electronics a very long time ago and back then it was mostly a total scam but, not now.i’ve had 2 flat screens go out on me in the last 6 years and prices back then were much much higher.my 65” 1080p highest hidef tv at the time (only $3,000.00 for a 42” led), well it blew out, died, had a seizure, something or other and it was just out of warranty by only 3 months (of course).i tried everything, called everyone, started off really nice, tried bribing people and eventually went to yelling, cursing hey, im a new yorker (that’s a nu yawka who lived on lawn guyland okay😎lol) and got nowhere, nothing fougeddabouddit.finally i was offering to pay a repairman out of pocket but, he told me it just wasn’t worth it.my high definition lcd flat screen went out with the trash (you don’t want to tell the wife that story because you know she was against it, never needed or wanted a big tv in “her house! we’ll get back to “her house” later”.i replaced that tv with a 65” 4k uhd tv but, this time i bought the 3 year warranty and wouldn’t you know it, at the very beginning of the second year(isn’t it funny how everything always works great until 12 seconds after the warranty runs out), the screen started to really mess up, there were streaks of light, bright dots and stars, it was just too annoying to watch, especially since our tv’s are now a major part of the home decor.in today’s living room, it’s become the key focal point and the main attraction for which the tv is front and center, then we adjust all the furniture around it.of course i called the extended warranty company btw &amp; fyi a little heads up so it’ll make sense or not, i’m a new yorker so, i was already for a fight before anything started, it’s always going to be something and then an argument.i explained the problem bla bla bla and the service rep explained that i was out of the manufacturer’s warranty so, i was correct to contact them but, this was a problem that they were already very familiar with and unfortunately it’s  not a fixable problem.okay, here we go, my blood pressure is already rising as i’m waiting to find out how i was scammed.first the service rep apologized for it not being a repairable problem and immediately asked when the could schedule the appointment to pick up my broken tv and bring me a brand new one, a time that would be convenient for me.wait, did i hear that correctly, what’s the catch?i asked he to repeat what he said and also to let me know how much out of pocket it was going to cost me for a new tv, that i think he just said, they are bringing me to replace my 2 years old broken tv?long story short, they delivered a newer model as mine was discontinued, they apologized again (poor me they upgraded my broken tv for a newer model, i think i’ll live) and it cost me absolutely zip, zero, zilc, nada, nothing!!!i couldn’t wait to tell the wife this story as i am going to exaggerate, embellish and make up a story of how i had to fight them to get this newer model and i wasn’t going to pay them a penny (come on, every guy does this, we all want to be the hero in our wives eyes).it didn’t matter because during this whole fiasco, it turned out the wife was defective too and like she said, the tv was my idea so, i got the new newer tv for free all for myself and she didn’t get it (of course she got the house, cars, the dogs, basically everything but, the tv and almost all of my money for the next too many years, that’s a divorce in new york, it’s all about the ladies and i’m okay with that but, this is about a tv &amp; the extended warranty and i got both!!!).the moral of this looong story,the samsung qled is a wonderful thing to have in your house, just incredible, nothing comes close (there’s the 8k, it’s better but, if you had the big bucks that 8k tv’s go for, why would you still be reading this?) plus, if you add a soundbar and sub, now or later, chances are you are going to love watching movies at home more than going out, driving to the theater, looking for parking, waiting online to pay ridiculous ticket prices just before you get robbed at the snack bar and don’t forget the super large cup of ice with a splash of soda and your $6.00 stale candy bar  , garbage pail of the saltiest popcorn that’s guaranteed to get you the new high score on the free cvs blood pressure machine, don’t forget your “fake butter flavoring”, now you’re already to sit with a bunch noisy nosey  of strangers, trying to calculate how the bill for the  overpriced snacks were more than the overpriced tickets yet, still unable to stop thinking about why your feet are stuck to those gross floors.hey, some people just love that theater experience,i think a nice bright 4k qled in my own hone with a nice sound system, my couch, my new future ex at my side, our own fresh junk food, no strangers annoying us and the best part,pause for a quick bathroom break plus,rewind anything you didn’t hear or want to see it again.i will pick home theater with my75” samsung qled every time (okay some movies should be seen in a theater but, that’s for you to decide, i’m staying home!)five stars ⭐️ ⭐️ ⭐️ ⭐️ ⭐️2 thumbs up 👍 👍and a whole bunch ofsmileys 😃😃😃😃😃😃😃😃</t>
-  </si>
-  <si>
-    <t>i am so absolutely disappointed with this television. it took me a month to choose what brand and model to get, and i thought that this was going to be a very good choice. boy was i wrong. the picture is awful! so blurry and pixelated. the apps always freeze, and i have to unplug the television and then plug it back in to reset it. this is a garbage tv.</t>
-  </si>
-  <si>
-    <t>this is a beautiful, reasonably priced, latest model samsung tv. i was pleased to see it for sale by amazon, but even more delighted that they now have a reasonably priced delivery service that will bring it into the home, and into any room you desire. i chose the early morning window of 6am - 9am, and it arrived at my 26 floor apartments door at 7:30.by 8:30 am i had it up and running, fully voice controlled instruction and setup for tv, amazon prime and netflix.  great picture quality, although i did add an inexpensive sound bar to enjoy music and videos.</t>
-  </si>
-  <si>
-    <t>this 85 inch tv is a great addition to my family room.  great features and seems well built. overall picture quality is great also. i had forgotten that the q60a series is edge lit backlight instead of the better full matrix backlight.8/21/21, first review: within the first 3 days of use, i have noticed some issues with the display that are somewhat annoying and may indicate a problem that might require replacement. see the photos of arcs of banding from the bottom on brighter scenes. on dark scenes, there are light foggy areas. these problems are exactly the same no matter the source, so i'm pretty sure its the display itself.i will provide more updates soon.8/25/21: update: tv performance is great other than the display issues i described above. i do believe i will have to return it. none of my other tvs have similar issues, so i don't expect it from this one. as great as the picture is, i really hate to have to return it. and i really hope the replacement is much better. more updates to come.9/7/21: update: amazon replaced the tv when requested due to the defects i described above. the replacement seems to be much better. i cannot detect any of the ripples, waves, arcs.  there still seems to be some very, very  light foggy areas. they are much less in number and less noticeable. the foggy areas are only noticable when viewing in a dark room with a dark scene. i think this will be a keeper now.</t>
-  </si>
-  <si>
-    <t>1. in order to use youtube tv you must have a samsung account. i was unable to get a samsung account because of a samsung problem. when i called samsung support they said it would take six business days to solve!after six business days they didn’t call me, so i called them. they said they couldn’t solve the problem and would escalate it within the company. another six business days. in the meantime no youtube tv.after more than another six business days they called me. this is a problem that started last month! they have no concept of customer service.2. at the same time i bought a tcl and insignia tvs. their remotes, and hence their software, are far superior to samsung‘s. i cannot believe how awkward and clunky the samsung is to select viewing.this is the last samsung product i will purchase. poor product, and worse customer service.(the picture quality is very good.)</t>
-  </si>
-  <si>
-    <t>if you want a good mirror, this is great. no instruction manual, set up guide did not work. our last samsung tv worked perfect but eventually failed. i left everything in the old tv so i could transfer to new tv. new tv didn't have rca cable input for dvd player. tried hdmi cable, would not recognize so we can now longer use our dvd player. tried connecting our roku device, would not work, tried using our local cable, no ware to be found. all we can watch is samsung tv with none of our local channels.  tried using cell phone to scan code but it offered no assistance to setting up our tv only showed advertisements to other products. internet scrolling is a joke, very sluggish at best. unable to find the digital manual, it says to click "*" but the remote has no "*" button on it. now in the process of trying out after market remote controllers to see if we can fix this tv. what a disappointment. the limited things available did have great video though but in my opinion try something else. if there is a lot of sun light in the room then all you'll see is reflections like a mirror.</t>
-  </si>
-  <si>
-    <t>in my 73 yrs, i have purchased 10-15 samsung tvs and been pleased with their upscale tech without the sony baaaaad attitude attached. i.e. tech support w/o the "you were so blessed to be able to buy a sony that now you can go flock yourself" attitude. i shall never buy another.  samsung now seems to be of the opinion that i do not own the device that i paid for. they incessantly annoy me with their tragically onerous software attempting to control my sound system and destroying my enjoyment of music. their ai is a moron. their greed is so sanguine that they seem to want a constant monitor on my listening habits. they are loathsome. music was not meant ti be constantly disrupted but samsung seems to desire to destroy in in favor of corporate data gathering. the word is greed. bye bye sam.</t>
-  </si>
-  <si>
-    <t>first they only show the 60" picture of this tv.  for the 32" version, the two stands are at the extreme end of the television and point outward toward the edges.  so any kind of table top, nightstand, sound bar, etc. designed (or a good fit for) a 32" tv won't be wide enough for the required base (i couldn't find a single piece of furniture in my house that could fit the corner and hold this tv).i jury rigged a tv stand with some textbooks and turned on the tv.  the first screen was a lady in spoken text telling me to "choose between two simple options" for phone vs. manual setup.  there was no way past this screen.  it did not recognize speech or accept any of the buttons from the remote (other than the power button).  there was a message to hold down the "volume button" (which isn't really a button it's more of a two way switch) but that did nothing but adjust the tv volume  in a little popup window.so i chucked the stupid remote at the screen and broke it.  threw the whole thing in the garbage.  the old samsung 32" were the best you could buy at that size (and maybe still are in terms of picture) but i'll never buy another samsung tv.</t>
-  </si>
-  <si>
-    <t>i bought this even though i said i wouldn't buy another samsung t.v. because all critics raved about the great picture. my 2017 samsung lcd gives as good a picture as this qled. without daily having to spend 90 minutes adjusting picture. doesn't matter if i'm on same channel or different source, i have to adjust,adjust,adjust. i don't like the people onscreen to look like 1) artificial suntaned (orange) or 2) as if they have jaundice (yellow skin), or the picture to look faded. eventually i do get a good picture but 90-120 minutes per viewing? the movie or ballgame is almost over! why does it take daily tweaking? the sound quality is par with the 2017 model except when connected to my aiwa exos-9 i have to raise the volume to 44 where my 2017 never went to 30. however reception is much better than 2017, airwave &amp; wi-fi. problems here is unable to get plutotv app except by internet search each time (why? i have it on old 2017) and home quick launch bar full of apps and unable to remove or reassign positions. i would keep for the better reception, but the daily picture adjustments plus everything else...oh, just to help anyone willing to give it a go, picture mode must be on standard, this gives you more options for "trying" to tone the yellow, orange &amp; green (color spacing). my best success was standard picture, low contrast enhancer,  cool color tone , plus adjust the gamma and shadow detail then color space settings being mindful that pausing the picture to adjust it will not be the same picture you see in motion. thus this makes my 2017 seem like a plug &amp; play.</t>
-  </si>
-  <si>
-    <t>i’ve read a lot of reviews and i have to agree with the ones that mention the sound and the remote as the not great parts of this tv.the sound:  it’s ok and plenty loud but doesn’t sound as good or as “full” as my old 52” samsung lcd that i bought in 09. it sounds a little more digital or tinny but it’s not as bad as some reviews say.  not sure how good of speakers they can squeeze into a tv that is an inch thick so if you want better sound i say look for a sound bar.remote:  since it doesn’t take batteries i suggest you take it out of the box and charge it while you are getting the tv up on the wall or set up wherever you are putting it so it has juice.  find a youtube video on the remote because the instructions that are in the box are garbage.  once you pair the remote with the tv, learn what and how the buttons work it’s not that bad but it would be so much easier if it was already paired with the tv.  i found that my old samsung tv remote with all the buttons worked perfectly with it so if you have one and want to use it it works just fine.</t>
-  </si>
-  <si>
-    <t>this product was given as a gift and upon setting the tv up the screen is discolored and has horizontal lines throughout the screen. amazon would not allow for return or replacement through them since by the time it was setup after i gifted it to a friend it was 3 days out of the return time, so now we are trying to go through samsung... samsung said they would contact me wirhin 48hr to arrange for a day for a tech to do an in home repair, three days later nit a word and the tv keeps getting worse. horrible customer service from both companies.</t>
-  </si>
-  <si>
-    <t>i bought this 32 inch qled tv to replace an older samsung tv in my guestroom based on the mainly positive reviews from other amazon users. the picture quality, after going through the entire menu of available "expert" adjustments, is indeed outstanding. at 100% sharpness, for example, every single hair on a person's head and every single blemish is discernible, but that is not necessarily the ideal adjustment, of course. similarly, the other optional picture settings all produce the expected results ... a superb, pixel-free image. sound is a different matter. after pairing this tv with a samsung soundbar, and having been  unable to control the sound volume with the soundbar remote, i tried the remote provided with this tv.  it, too, would not adjust the sound volume.  i finally solved the problem by using a universal remote from an older samsung tv. the sound produced by this tv (without the soundbar) is fair, but probably still better than most i've had experience with; with the soundbar it's good.  if anyone has been able to adjust sound volume with the remote provided with this tv, please comment. thanks!</t>
-  </si>
-  <si>
-    <t>well first off the remote requires a type c usb cable to charge it. or i guess i can put it outside while it's still summer to recharge. if you have a samsung phone then i understand its the same type for the remote. neighbor gave me the cord plugged it in and could never get the setup menu to work to setup the tv! i'd like to really tell you in more descriptive words how bad this is! but i'll just say i'll be returning the tv back to amazon for a refund and go to walmart and get something that works. your results may be better than mine but that's how this happened to me. good luck!oh...a solar charged remote.....for an indoor tv!!!!</t>
-  </si>
-  <si>
-    <t>researched tv's until they started all running together.  decided on the qled based on various reviews and first hand comparisons.  found the picture quality we better and audio was decent.  i have it connected to a surround sound system, so don't use the tv sound much.  i like the auto picture mode so the tv adjusts to the format of the projected video.  as they say, is only as good/strong as its weakest link/part, etc.  with that said, people will be negative about picture quality on older programs/formats.  if the video is 4k / uhd, etc., the quality is crystal clear and excellent.  delivery was quick and included free in room setup with packing all removed.</t>
-  </si>
-  <si>
-    <t>was not expecting such a beautiful picture for such a reasonable price. samsung qled with hd 4k on this 82" tv is quite fantastic, and you just can't beat the price! i can't even imagine what oled  8k looks like, but i don't care given the price and quality i have with this unit</t>
-  </si>
-  <si>
-    <t>where should i start with the disappointing purchase of this smart tv.  start up default is samsung tv rather than our service provider.  have to change this everytime we turn on the tv.  voice commands may work, but we have yet to find out how.  the remote is so streamlined, with less buttons on most remotes that you have to be a tech wizard to find the on screen menu selection you need to change preferences.  remote doesn't light up so in a dark room you have to use your cell phone to see the few buttons that it actually has.  we purchased a samsung at the suggestion of our cable provider; however, this tv is so new that we could not get the mlb app on it because according to samsung they are still negotiating with mlb to have it made available.  would not recommend this tv.</t>
-  </si>
-  <si>
-    <t>the tv was just as advertised. with a little adjustment, it has a really good picture and we love the new features like the solar powered remote and smart system.but the delivery was terrible and that is being kind! it took 6 weeks after being originally told it would be 10 days of less. it sat in an nsd terminal in memphis for close to a month. after a minimum of 10 contacts with amazon reps, it finally arrived. amazon should never ship anything with nds again. the box was heavily damaged...the communication with nsd was close to like talking to the white house of cia...in other words... they didn't communicate at all. the tracking information was false.i just can not imagine a worse experience with shipping.</t>
-  </si>
-  <si>
-    <t>unlike smart tvs of yesterday, this model remains completely dumb unless the user consents to the typical pages of user agreements.  as a result the user is forced to access streaming video services through hardware such as roku connected to the tv's hdmi input.  it all distills down to:if potential buyer doesn't value privacy then this is a great tv.if potential buyer values privacy expect this tv to provide nothing more than a great picture.</t>
-  </si>
-  <si>
-    <t>the picture is amazing.  however, you can only use their apps.  there is no feature to allow the addition of apps that are not included.  i hate the remote.  it changes the channel just by breathing on it.  i hate the start page.  samsung is determined to have you watch their pre installed samsung tv.  i bought an antenna for local shows and it will not let me add the channels to favorites or scroll the antenna channels.  you cannot find these shows in th tv channel guide either.  only samsung tv shows.  you cannot change the home page either.  i also have to plug it directly into my modem to get a continuous clear picture.  i have over 100 megs oer second. the speakers are crap.  bought a sound bar. i will say it easily paired with my bluetooth devices.  i wished i could have sent it back but i threw out the box.  keep the box until you decide if you want to keep the tv. oh, once the tv is hung on the wall you cannot get the the ports unless you have a mount that pulls out.  i installed this alone on the wall only to figure out this issue.</t>
-  </si>
-  <si>
-    <t>this is my second unit of this same model. when i first bought it, i was able to control everything on my tv using my alexa device.  3 weeks in, that went away. my alexa device couldn’t control anything other than the power and volume right before the first software update. after days and weeks wasted with customer service, i bought a second unit (lost $80 because i wasted time with tech support) thinking i’d have better luck.  voice control via my alexa device didn’t work, so i just resigned myself to dealing with it.now, voice recognition won’t work at all! not even using the smart things app! the solar charging feature on the remote doesn’t work either! i didn’t purchase a smart tv with theoretic voice control features to go searching for a remote that can’t fully charge after 6 hours in direct sunlight all over the place! i’ve contacted samsung, they’re sending a new remote but, now they also want me to purchase an extended warranty to get a full refund! i’m not even 4 months into the manufacture’s warranty yet!</t>
-  </si>
-  <si>
-    <t>a huge downside to this relatively average tv is that you must sit front and center to get a beautiful picture. any movement on your part to the left or right, and it fades and changes color and distorts.  so basically...you have to watch tv alone. others have mentioned this. my old and cheaper tv was better.  for this price, you should be able to get a great picture no matter what part of the room you're watching from. the sound is terrible.  sometimes it's blaring loud, then almost silent at other times.  but mostly, you have to turn the volume to near 100, which is not good.</t>
-  </si>
-  <si>
-    <t>1) easy set up... just make sure that its in a room apart from other samsung televisions, or you will "confuse" the remote.2) great picture, bright enough for any well lit room, just like any other samsung (we have 11 including the office)3) smart, minimalist number of buttons, on the remotes by samsung are my preferred over any other brand's approach to controls.4) clean simple design fits any decor.bought this to wall mount between kitchen and dining room,  it was the perfect size, lightweight enough for a single point wall bracket, on a 36" arm,  and bright enough to handle our bright, bright kitchen with all the led lights.ideal for our application...one "defect" is that the apple tv app doesn't seem to want to let my log in to my apple library. have tried multiple times over several days without success. though this is less of a problem, since there is an apple tv device attached to one of the hdmi ports, so the content works, but the app failure is troubling none the less. i've not had this problem with our other samsung tvs using the apple tv app.</t>
-  </si>
-  <si>
-    <t>delivery was excellent but the tv had sound only. called customer service. they were horrible the girl had no idea what she was talking about, she told me to make sure it was plugged in after i told her we had sound! i hung up called back to get someone else, i hot the same person. obviously returning. on a good note target had a better samsung tv 75” on sale for $869.00.</t>
-  </si>
-  <si>
-    <t>the picture is outstanding (i would expect nothing less from samsung) and the sound quality for my wall mounted tv is also excellent.  i rated the remote lower because it is really a change from the usual tv remote. even with that said, it does work well and the voice commands are really a nice change.  the solar (light) charging capability of the remote is a nice touch and appears to work well with little effort on my part. for anyone interested, even though the remote is blue tooth connected, the tv still works with my logitech harmony 650 remote.</t>
-  </si>
-  <si>
-    <t>so far, i’m loving this television. assembly and set up was incredibly straight forward and took me fifteen minutes at the most. i haven’t toyed with the display settings yet, but it is already light years ahead of the tv it replaced (that was 6 years old). i haven’t had any problems with the remote. it has been pretty intuitive to me, but i could see it being an adjustment for others. i was able to add my cable box with ease, and finally no longer have to use two separate remotes. i will update this if it changes, but i’m so glad i didn’t spend the money on a higher level qled. will it brew my morning coffee or do a song and dance? no, but that’s not what i need.  this one serves its purpose, and is the perfect size.</t>
-  </si>
-  <si>
-    <t>tv delivered by fedex after their usually missed expectations and deadlines come and gone, but when i drunkenly sent a message of disgust about the missed delivery, i got a prompt response from walt's tv!  the only fault of walt's tv was choosing fedex to deliver their goods, because i have to say that their customer service was outstanding!  the tv has exceptional color and lifelike picture, but the motion does drag a bit at times as expected for a 60 hertz set, but i like it for the price!  if this lasts more than two years it has the sony that i bought last time beaten!  i took one star off the rating because the initial setup that the tv makes you go through was quite onerous!  all i wanted was a tv to plug my firestick into and set to hdmi 1, but they make you spend a half hour of your life signing up to samsung accounts and such.</t>
+    <t>first tv arrived with a shattered screen. amazon replaced it quickly and it was fine. we have an lg oled and it is incredible at all angles. this lg uled is only good looking straight on. viewing at left or right angles the pic fades and the colors are very weak. we use it in a bedroom so we basically look straight on so it is fine for us.......but in a large living room i think, if you can afford, the oled would be the best. it’s a much better tv.</t>
+  </si>
+  <si>
+    <t>this tv is excellent. color is good compares others on this price range. only con i can think of is there is no "hbo max" yet. if you think of best tv on this price range, this tv is what you want.update: i had some sound distortions issue. so i thought it was soundbar that i have but it was the tv! it happends when you use hdmi(arc) so check your tv also has same issue. and i couldnt exchange when i realized this cause of its been over 30days. anyway i hope this is helpful 🙂</t>
+  </si>
+  <si>
+    <t>received my new tv.  no damage, screen is perfect.  setup was quick and fairly easy, although there’s a lot more to learn.everything was great until today...about a week after setting it up.watched my tv, connected to my home theater this morning and everything was fine.  hit the off button on my tv’s remote, and both the tv and my denon receiver shut off as expected.i come home a few hours later, click the power button on my tv remote....only the tv comes on, not my receiver.  i turn on my receiver to find the my tv is no longer sending audio to my tv thru hdmi(arc).i switch to optical output....no good.i am at a loss as to what to do and as far as i’m concerned this lg tv is a total miss.i week of usage an already the audio is messed up?not good.i hope can find some was to get the tv to output audio again.  wish me luck!let me add one final thought.  this is a highly advanced feature packed tv that comes with a users manual better suited to the average 4 slice toaster!  shameful and frustrating!</t>
+  </si>
+  <si>
+    <t>arrived in perfect shape and easy to set up out of the box. picture quality is stunning and spot on with deep colors, sharp details and infinite blacks. integrated well with the apple tv 4k</t>
+  </si>
+  <si>
+    <t>excellent tv love lg brands, was amazed at the picture quality better than the rest of our tv's.</t>
+  </si>
+  <si>
+    <t>the manual is not good enough to explain the basic simple things on how to operate this tv. thank president trump for helping with customer support which knew right away how to correct it. now i am happy.</t>
+  </si>
+  <si>
+    <t>our tv arrived completely shattered. we've sent for a replacement and hope the next one is better.edit: the second one arrived in much better condition and it's a pretty decent tv.</t>
+  </si>
+  <si>
+    <t>what a great buy! so happy with this. very light weight and easy to install. you're online in seconds and everything works with ease.</t>
+  </si>
+  <si>
+    <t>for a $600 tv i love it. i dont know why people are comparing to a oled. if i wanted a $1500-$2000 oled tv i would have bought one. this tv replaced a 5 yo $300 sharp lcd/led with the crappiest picture. the picture quality is 100x better, tv is thinner and i love the magic remote, especially the mouse feature.</t>
+  </si>
+  <si>
+    <t>spent hours trying to get this to work.  forums show that lg has known about this flaw for 3 years and they haven't fixed it.  seriously?!!  the tv says it is connected yet it can't download user agreement.  i've tried resetting routers, the tv, waiting 20 min for it to reset, changing dns, and factory reset.  nothing works and without the updated user agreement you can't download apps and use any wireless features.  very disappointed.  will try again in the morning then will return for a refund.</t>
+  </si>
+  <si>
+    <t>i've had flat screen tv's since they first came out. both plasma and lcd.i always preferred plasma because they had an excellent viewing angle similar to the old crt tv.s we grew up with, .then, where plasmas were gone, i had no choice and had to go lcd. they sucked for years as far as my main criteria. viewing angle.they were like laptops where you have to be viewing straight ahead at the screen, dead center up and down and left and rightthen they improved and nowadays consumer reports rates most pricey sets with and 3 star (good) out of 5 for viewing angle, except for lg which has had a 4 star (better than average) viewing angle.that's still true.so, the viewing angle on this set is excellent,i have an lg oled 65 inch that cost me a fortune in my living room and another in my bedroom.i also have an lg 42 inch in my basement all have great viewing angle,.i now redid the first floor of my house and in the front living room, i planned on spending a fortune again for an oled set, but thought i'd just get an lg 4k smart tv for the bedroom. luckily, i did my bedroom first and bought this set, planning to get an oled for the living room when i was done renovation,. boy am i lucky that i bought this one first.the viewing angle of course is great, just like the ratings say, but i never thought the picture was going to be this great. i cannot tell the difference when streaming hd that i rent on amazon, or, hd that i pay extra for on netflix and hd versions of movies and documentaries from amazon where you pay a few bucks more to rent in hd.none of my friends could tell the difference between this set and my two oled sets when i gave them a blind comparison test and asked them which was the oled sets and which was this set,i cannot tell the difference,now i'm ordering another for the downstairs and it's going to save me a bundle since this set was only $699 on amazoni can't believe that i wasted money on oled sets when i can't see any difference from this set,i'm very critical, but my main concern, like i said, is viewing.samsung still has a long way to go with their average viewing angle,lg is the leader when it comes to viewing angle, \do not waste your money on an expensive tv. this is a smart tv. has all the bells and whistles,the remote is great, but i am used to it because of my other lg's.take your time to use it properly and you will love it,one star off, because even though lg gets consistently high ratings on their products, their customer service sucks.i have four air conditioners in the house. two lg's because of the high ratings in consumer reports, but i wanted to save some money downstairs so i bought a whirlpool and an amana. (they are identical and both made by whirlpool, got the amana because the price was less under that name). when i needed customer service for the lg ac's, they sucked. i also needed customer service on my older oled lg tv and customer service again, is useless. so, great products but one star off for horrible customer service. buy this set. it is all you need in a great 65 inch 4k ultra hd smart tv,.don't wast your money.the law of diminishing returns applies here. the tiny difference, that i dare you to see on the oled's are not worth the fortune they cost,i love this tv and hate the fact that it showed me how much money i would have saved had i seen this one before i bought those oled sets.</t>
+  </si>
+  <si>
+    <t>this tv worked for about a month. now nothing works. i can't use the voice commands, i can't airplay from my phone, i can't open apps, i can't go to the app store. nothing works. and what's worse is that amazon and lg's customer service teams have both been completely unwilling to help. good luck trying to get in touch with someone if you buy this tv and it stops working for you like it did for me.</t>
+  </si>
+  <si>
+    <t>we received the 65 inch tv in perfect condition.  it was very well packaged and there was no damage to the exterior of the box.  we were appreciatitive of the unboxing directions, this is a huge tv lol.setting up the tv was pretty easy except for the remote.  there are pretty much no directions for the tv or remote in anything that came with the tv.  went online for any assistance with the remote but there wasn't much there either.  the remote is not a "magic" remote in my book. more like a bit of a pain in the ass.so i am learning as i go with the remote. it really flipped me when a cursor appeared on the screen when messing around with the remote. that takes some time to get use to.basically, we are very pleased with the tv. the only issues to this point has been the magic remote and not having discovery + as an available app for the tv.  we're pretty disappointed with that situation.  it was not a difficult work around but i feel like they should have an app for discovery+ by now. to work around it we installed a xfinity flex box to the tv. if you're not familiar with a flex box, it works like chromecast, roko, etc. problem solved but would rather have the app and have left the flex box in the bedroom attached to an older tv.overall, great picture and sound, great tv in this price point compared with others in the same class. i can't wait to figure out and utilize the ai features. would i purchase it again, yes and would recommend to friends.</t>
+  </si>
+  <si>
+    <t>overall i'm disappointed in the quality of this "tv." if i had to do it again i would not but this but would instead go for the samsung uhd 65" less than $100 difference in price.it is as thin as advertised and much lighter than i expected. about the same weight as the 42" vizio that it replaced.it is slow to power on. i'm sure it's lg's webos. i have a 42" lg lcd on my desk that i use every day for work and it is an outstanding product.but this is not. it is slow to power on, slow switching between apps (as in i thought i pressed the button ... wait wait). it supposedly allows you to select apps but you cannot delete most of the apps including "lg tv". (i was able to delete the disney and hulu apps). alexa is slow. as in ask it what time and i can walk across the house to the kitchen and read the clock before it answers. the voice is also not alexa...the screen is backlit but unfortunately very unevenly. when dark images are on screen the uneven backlight is visible and look horrible.installation of the amazon prime video and alexa apps was easy. after that i did a typical amazon new device sign in.i rented a uhd movie from my mobile and it was as always immediately in my items list. playback at uhd was slow and jumpy. overall a poor experience. i paused and switched to hdmi 1 input, an xbox one. same internet service and network, same streaming source (amazon prime) and same video.. i literally selected resume in prime video app on xbox and it was way better.considering the age of the xbox it's beyond disappointing that the lg os and apps perform so poorly.while the screen itself is probably a 3/5 in quality the poor user experience and quality of their software demotes this from a "smart tv" that i paid for to an overpriced 65" monitor.i can confidently recommend you not buy this product.</t>
+  </si>
+  <si>
+    <t>tv is fabulous picture is crystal clear smart features are terrific. the issue is don’t order from amazon. i had ordered it first delievery screen was smashed. second delivery screen was smashed. they wanted to second a third and i said i was done and wanted refund. went to best buy and purchased one in pristine condition.</t>
+  </si>
+  <si>
+    <t>the tv has a great picture, good sound and many features. there is one major flaw in the tv and that is the wifi. it will connect then randomly disconnect from your router and when you go to see why it cant connect it will say cant connect to media server. this happen on 3 of the same tvs because i asked for 2 replacements and it happen on every single one. i talked with lg and said i would have to get it service and why should it be serviced when its basically new out of the box. avoid this tv if you are going to use this subscription or just avoid it because its unacceptable to be sold something with broken wifi. they could have made this a regular tv and it would have been a great tv but no slapped a router on it with an os and call it a smart tv. that wasn't very smart of them to do.</t>
+  </si>
+  <si>
+    <t>no customer service opendoesn’t workthanks again</t>
+  </si>
+  <si>
+    <t>edit: to clarify, the device hardware and viewing experience itself are adequate for this price point.i should have known better, as i explicitly refused to connect my first lg tv with the internet and instead used media integration through my ps4 console. software and setup are agonizing. the fact that i would rather buy a chrome or amazon dongle speaks to how atrocious the software experience is.it forces you to set up an lg account so it can collect data off of you and make money from marketing ads. it forces you to agree to data collection to use any of its apps. and the apps are such garbage that you would rather buy a streaming dongle in order to use the damn thing properly.the age of "smart" device integration into our lives has been mediocre at best.</t>
+  </si>
+  <si>
+    <t>pretty meh for a 4k lg tv. viewing angle is bad. and i don't mean just if you go side to side the picture gets dark, but literally if you sitting on your couch and you slouch you can be too low for the proper viewing angle. sound is muddy; my three year old 50" phillips 1080 tv was better</t>
+  </si>
+  <si>
+    <t>i recently entered the world of streaming and cutting the cord. i replaced a 6 year old samsung smart tv in my office with a 55" lg tv. my old 50" went in the bedroom, but it was too large for the corner, and the smart features on that seemed really limited on not allowing me to add any further apps. so i replaced it with a 43" lg tv. i was trying to get the same series as my 55", but it was a 2020 model and hard to find it at a decent price. this 43" is an updated model, has all the current smart tv features, an awesome picture, and the sound is really good too for this smaller room. of which i only use it at night and i keep the volume low. so the built in speakers are just fine. and i noticed that it has an extremely slim frame. so the tv looks real sleek and does not take up any excess space. one thing about the remote that i cannot figure out yet, is that it has no play/pause button like my 55" tv remote does. haven't explored the voice commands yet, but i suspect they may work for that. i would recommend this tv for where you would like a smaller tv or in a smaller room where it better fits. excellent price. kind of phenomenal pricing when you look back about 15 years and 32" flat panel tv's were priced over $1000. now a 43" with fancy features for $400. that is great. my 55" was on sale at sam's for $419. so great deals overall. lg smart tv's are a winner.</t>
+  </si>
+  <si>
+    <t>pretty good tv, i would recommend it.cons: the ui could use some improvements. unavle to download hbomax app. screen is fairly reflective.pros: great look screen. i can tell the difference between their 120hz vs others 60 in similar price range. very vibrant colors. can connect bluetooth headphones to it.</t>
+  </si>
+  <si>
+    <t>sound and picture is good quality. biggest disappointment is the ui for what it can download for apps is not what was expected, still needed an amazon fire stick to get some of the more popular apps installed. maybe over time we’ll figure things out. just not out of the box.</t>
+  </si>
+  <si>
+    <t>overall this is a good tv, however this is a remote from hell, new issue for 2021, there is no tutorial anywhere as to how to use, written or on line…no clear button for features.  looked tutorials on youtube and they go like this, double click such a button and you will find a hidden  menu.  the features are hidden who knows where.  this is very frustrating…and it takes away from the enjoyment of the television.  i am slowly discovering the navigation by trial and error….had i known this i would have chosen a different brand.i feel lg could have done a better job with this remote or at least let the consumer know how to operate it.</t>
+  </si>
+  <si>
+    <t>the menu system sucksthe remote control setup suckscould not get cable box remote to work with tvthe instructions suckit has a pointer built into the remote, it sucks.what good is a beautiful tv if all of the usability features sucks.i feel like manufacturers are taking advantage of consumers.  stop hiding stuff.  these cute low contrast menus are not good for the average consumer.  why do you care if they are low contrast when they are hidden 99.999999999% of the time.  give the setup menu contrast.  and do away with the smart tv crap.  put more into the interface.  if i want a roku or apple tv i will buy it.  stop forcing me to buy smart crap that is dumber then a box of rocks.  i like the picture, but i got so stressed out setting up the tv i almost thru it out.  a new tv should be a joy to install and operate.  you missed the mark today.  everyday is a test, and you got an f today lg.</t>
+  </si>
+  <si>
+    <t>within 3 weeks of owning this tv, a giant 3-4 inch line appeared down the length of the screen. it just flickered into existence and won’t go away. what kind of trash tv breaks after 3 weeks? the pixels are messed up, and there doesn’t look like there’s any way to fix it. do not buy this garbage.</t>
+  </si>
+  <si>
+    <t>easy to set up (wired network, ethernet), i used my lg sound bar from other 65" lg tv. photos are "standard" setting on tv. delivery team carried tv into my living room, i unpacked, no damage (was worried because of other reviews). followed prompts at start-up for easy set up. built in alexa didn't initially work, i updated software in settings, restarted tv and it worked.</t>
+  </si>
+  <si>
+    <t>the display is excellent, after you sort out how to adjust it! the manual doesn't tell you how to adjust the display but it's easy enough to find the info online. the default display settings weren't to our liking, a bit dim which made it appear less sharp. we set it to the 'sports' setting (even though we rarely watch sports) because it had the right balance of brightness and sharpness.it's a great tv for the price. we weren't ready to pay the oled prices and feel this display gives us more than adequate visual satisfaction.</t>
+  </si>
+  <si>
+    <t>i had bought a total of 3 tvs - 2 of the lg nano and 1 of this uhd, i mainly wanted to see if there was any big difference. imo, there is not. just like the nano, when you first plug this in, it will ask you for your wi-fi info and walks you through the setup process. it also has the normal netflix, prime, disney+, hulu, etc but if you like viki, it is not available in it’s app store. the sound is ok, it’s what you expect from a flat screen tv as they have no space for a decent speaker system and if you want super black color, this is not it. you need an oled for that. but it still has great picture, the sound is fine and you can’t beat the price for the quality that you get.</t>
+  </si>
+  <si>
+    <t>we had an lg led smart tv for many years, and it always provided us with a sharp picture and a quality sound.  consequently, we were not hesitant about buying another lg ty.  the tv was easy to set up, and we were up and running in no time.  this newer model has some new features that give us greater flexibility in selecting what we want to watch, how it can interact with other equipment.  it's a great tv at a good price.</t>
+  </si>
+  <si>
+    <t>lg ran a check it seems my tv developed some blacklight bleeding. so i’m waiting for a led panel and the repairman to fix it , i’ll  try to get keep you updated. ps… though i’m not really disappointed all in all it’s a great tv . they had a repairman come to the house a new led panel was damaged ,now for the waiting game !!!!</t>
+  </si>
+  <si>
+    <t>all the features would've been amazing-- if they worked. it's not recognized by alexa, the wireless display disconnects after only a minute if you want to connect it to your laptop, the voice feature doesn't work, and even the netflix, disney+, etc buttons at the bottom of the remote don't work. what even is the point of a smart tv if it can't connect to things like alexa? utter trash, don't waste your money on this lg tv. i spent so much time debating which tv i should get only to be stuck with this trash.</t>
+  </si>
+  <si>
+    <t>tv was set up and picture was horrible and defective. green tint on left side of screen and yet the right side of the screen had perfect picture.i am returning the tv and it has become a major issue. they will not pick it up, expect me to carry a 50 lb box to a ups location.</t>
+  </si>
+  <si>
+    <t>my neighbor had an lg 49" 4k uhd and i was thoroughly impressed by the picture clarity and all the features. the magic remote is fantastic! i'm not sure why this item gets negative reviews because i love it and would buy an lg again! so take it from an audiophile and tech guy, this baby rocks!</t>
+  </si>
+  <si>
+    <t>amazon delivered this at 4:30am in the morning!!  they let it in the rain, getting soaked, and i live on a busy street where it could of easily been stolen in the next 4 hours until i actually woke up.. called my phone at 4:30am in morning for an otp code to confirm... seriously, the day after thanksgiving my doorbell being rung by amazon drivers... completely and utterly unacceptable.  tv is great though, highly recommended with lg, ordering a tv from amazon wont happen again though ever in a million years.</t>
+  </si>
+  <si>
+    <t>great picture,  sound, features, and all. i'm extremely happy with this lg tv. zero problems and easy set up. works with all the apps i use. remote is solid and great quality too. i recommend this tv to anyone.</t>
+  </si>
+  <si>
+    <t>for the price and the space i needed to fit this tv into, it’s great, works great and i’ve got no complaints. except for the stickers that came stuck directly in the monitor. instead of a plastic film covering the entire screen like my other lg (55” oled), and the stickers being attached to that, this tv came with no protective film, just the stickers. like the picture shows (lower left corner), removing the sticker left two noticeable spots that i haven’t yet been able to get rid of.</t>
+  </si>
+  <si>
+    <t>picture quality is great but i am unable to view movies through the streaming services (except amazon prime video), even though the remote itself has labeled buttons for several services. this is a tremendous inconvenience. i purchased this television specifically to stream movies. disappointed is an understatement.</t>
+  </si>
+  <si>
+    <t>tv itself seemed ok , a little complicated setting up for a senior lol. amazon needs to be more careful with shipping , 1st tv arrived cracked screen, 2nd one had 3 defects on bottom of screen. i tracked it on amazon site it went up and down in the state till i finally got,  too much handling.. will not reorder.  amazon you need to do better</t>
+  </si>
+  <si>
+    <t>i was so excited about this tv. it seems to be a great tv but when it was delivered to me it had already been dropped as there was a giant crack all the way across the screen. waiting another week now</t>
+  </si>
+  <si>
+    <t>was so excited to purchase this television on prime day for our new home, we have a media room it’s perfect for!  however, it arrived with a shattered screen and we were hesitant to order another one as a replacement.  we contacted amazon and explained the situation, they were wonderful, ups is picking up the damaged television tomorrow and our new television will be delivered on wednesday via prime…. fingers crossed its screen’s not shattered, too.</t>
+  </si>
+  <si>
+    <t>really the hardest part was getting it out of the box.  the power input on the back is a little hard to find.  i am impressed by the picture quality.  i have not found alexa yet and frankly i just want to turn it off.</t>
   </si>
   <si>
     <t>the media could not be loaded.
-   we just installed the television about a week or so ago after having it delivered to our home. it was working flawlessly until today when we noticed what looks like a single vertical line of pixelation (very thin line) running down the center of the tv when playing a few blu rays. no major changes to the settings have been made.i have added screenshots and a video clip showing this behavior and it seems consistent when in the samsung tv menus as well. the pixelation seems to subside when playing games on the ps4 though in my testing so far.otherwise the television has been working great, just very disappointed in the sudden issue with the vertical line down the middle of the screen after spending so much on it. going through the replacement process and will provide updates when available.</t>
-  </si>
-  <si>
-    <t>the first week i had the product i had to reset it to factory default to fix a bunch of bugs; it would turn on by itself, it would randomly open apps, it would jump from what i was watching to a sound wall app, etc. so, i had to go through the entire setup twice which takes about an hour. then, after two more months, the exact same thing happened again. apparently samsung is aware of this problem and is unable to fix it. unless you have nothing better to do but reset your tv every couple months then this tv is for you.</t>
-  </si>
-  <si>
-    <t>tried and tried to adjust the picture quality but never got the clarity and detail promised.  i reset to factory specs but the result was more like an old crt tube.  blurry details.  also, when changing channels the picture comes up darker and then becomes bright.  the samsung i bought 7 years ago is far superior, with excllent detail, but has developed quarter-sized bright spots - hence the desire for a replacement.many reviews crow about the picture quality.  does samsung have a quality problem?  am returing the tv.</t>
-  </si>
-  <si>
-    <t>the absolute worst interface on the planet. loaded with samsung garbage, difficult to navigate and rendered our apple remote unusable. bought two, opened one. both going back. pic is great, interface horrid.</t>
-  </si>
-  <si>
-    <t>75 inches of beauty!  this samsung tv delivers on picture quality.  if you like it has pre arranged settings for movies, gaming etc.  or you can set to your own liking.  pictures below are set on just movie setting and still perfectly clear.  easy to setup if you already have a samsung account.  samsung free tv is a nice feature.  sound quality just out of the tv is great actually.  but i have mine hooked up to my system for even better surround sound.  i do wish they had more hdmi inputs on the back.  optical input is a great way to get awesome sound.  and for the size it's actually not very heavy but still requires at least 2 people to get in your tv stand.  it has a rather fast response to the controls.  using alexa is rather simple.  as for faster processing on the apps you'll notice it.  going through movies or other online material is pretty quick.  so the processor in this tv sure makes a difference over my old samsung curved set.it's not a top of the line tv but you'll still be impressed.  i would recommend this tv.</t>
-  </si>
-  <si>
-    <t>we love this tv. bought two 75-inchers. we wall-mounted one and set the other up using all 4 stand-legs. the 75 inch is the smallest size with slots for 4 legs, so you can have a narrow or wide setup to match your tv stand, but it only comes with 2 stand-legs. buying two 75 inchers let us have each fully supported in its own way.one nice surprise was the sound quality. we aren’t exactly audiophiles, but we were pleasantly surprised with the sound. the tv does faux-surround where the volume is emphasized where the movement is. for example, if a character on the left is speaking, their voice will sound like its coming more from the left. the sound is surely worse on smaller models, but with a tv this large we decided we don’t even need a soundbar.our only real complaint is that the remote is tiny and awkward to use, but that’s far from a dealbreaker. we are very satisfied with this pair of purchases, which we snagged for $1300 and $1100 off amazon (plus tax). hard to find better value!</t>
-  </si>
-  <si>
-    <t>this samsung tv is really nice.  we replaced a smaller set after getting rid of a cabinet that restricted the size.  the smart features have taken some time to get used to.  i'm not too excited about the samsung tv channels that come up when you are switching between smart features and cable but that may just be me.  if i didn't have cable in my hoa prepaid i might use the samsung  tv features.  i would like it, if tv manufactures could come up with a way to search without typing in the letters on the screen.  the alexa voice search works for some of that and i do use that more and more.  i'm not  sure why some of the other apps were not all ready built in but they are relatively easy to download and add. i have an older samsung smart tv. samsung has worked hard to improve the smart hub.i wasn't to sure about the remote, but quickly got used to it.  i wish i could have made my meadiacom remote work with this remote also but was not able to.  i still need two different remotes. the solar feature is really cool. no more batteries to replace in the remote.</t>
-  </si>
-  <si>
-    <t>this is my first smart tv and i didn't know exactly what to expect. it was super easy to set up with my galaxy s21 phone. the picture is great. watched a 4k football game on youtube tv and didn't notice any issues with ghosting and skipped frames. upscaling from 1080p is decent, but 720p upscaling isn't that great as there is a ton of residual blocking. you will want a sound bar or some other external sound setup as the tv speakers are very tinny.a little disappointed in the remote, however. have to push the mic button in order to use the voice features with alexa. having a little trouble setting up my google stuff outside of the youtube apps. it's probably something on my end as i'm also having trouble with my wifi light bulbs i control with google home.overall, i'm very pleased with the purchase and hope samsung will improve the alexa compatability so i don't have to push the button on the remote to open apps and search the content. i feel like i'm in the jetsons!</t>
-  </si>
-  <si>
-    <t>this tv has a great picture!!! the colors are bright and the black is black not a shade of gray.  it is truly black.  dark scenes can be seen even in bright room.tv remote is minimalistic but gets the job done once you read the owners manual.  that is the only bad point on this tv.you must access the samsung website to print out the 250 page manual.  you can also print portions of it.  however, you must get it through the samsung site or it is on the tv but it is less easy to move around the manual while it is on the tv screen.  it is better to access the manual through the site.i do like the features of the smart tv.  they are easy to get but it is difficult to get from the apps back to the tv picture.</t>
-  </si>
-  <si>
-    <t>this clean clear tv will have you looking at things just to look at the tv!! very good. you will need a sound bar or some hdmi sound, but i wouldn't let that stop mi one bit. movie night with the family is a true success every time.</t>
-  </si>
-  <si>
-    <t>was so excited to get this installed. after setup, we noticed that an entire row of vertical pixels were dead. depending on the outcome, i may change this review.</t>
-  </si>
-  <si>
-    <t>love this tv. honestly, i tried to be intelligent in my decision and try to tell everyone in my household that this was the best of the market at the time. but i really don't understand all the various features of this or comparable units.i will say it is a vast upgrade from my 2011 52" samsung.and great for gaming. i have ps4 and switch consoles and the quality is so much better than what i was experiencing.the only maybe downside is the sound quality. but this might be related to various streaming services. i've noticed a huge sound quality difference between amazon prime vs. disney+ vs. hbomax. have not yet invested in a soundbar.</t>
-  </si>
-  <si>
-    <t>first one amazon shipped had been walked on (boot prints visible) and had a hole in front of box that went right through to scratch the screen. replacement arrived fine. we have an open layout with living room, kitchen, and dining room, and got a sonos sound bar to go with tv. definitely was necessary. tv picture quality has that soap opera effect to it, though i just learned that can be turned off. family agrees that the apple tv remote and design are way more user friendly than what samsung has going on. in some apps, the pause/play button doesn’t do anything at all, and instead you have to use the center button to play… also somewhat difficult navigating between apps, and they can be slow to open, at times encountering errors. never have issues with the apple tv on our 39” on same network on the other hand. i’m sure we’ll get used to it. one great thing is the solar charging remote.</t>
-  </si>
-  <si>
-    <t>first things first check your measurements. i assumed replace a 43in samsung with a 43in samsung. not so this one did not fit my opening too big. smart features were nice and great picture quality. the sound decent but if you want quality get addition sound equipment. the remote has a learning curve some reading is required.</t>
-  </si>
-  <si>
-    <t>the samsung picture is excellent. the remote is cheap and i set it up for using my iphone and ipad to control the tv. there were no instructions on how to set up or pair the tv with the remote and i had to go to youtube in order to get the instructions to pair. the sound on the tv is not very good and i had to add a sound bar.</t>
-  </si>
-  <si>
-    <t>older flat tvs used liquid crystal displays, in which each pixel was made by a little lcd pixel covered with a red, green, or blue absorbing dye; colors were not great, and picture quality degraded when viewed from the side.the samsung qled actually has a red, green, or blue light-emitting diode at each pixel, which gives vivid, pure colors when viewed from all angles. this is a quantum improvement in tv quality!the sound is also good, and the remote easy to use once one gets used to its peculiar channel and volume buttons. set-up was difficult, and i had to ask the spectrum cable technician for help.this tv cost a bit more, but is worth it.</t>
-  </si>
-  <si>
-    <t>do i want a samsung account, answer i do not!  why should i need one answer, i should not!  does the app have anything to do with samsung, it does not!result if you value privacy and want a smart tv look elsewhere.  my lg's (as an example) do not require this, go with lg is my suggestion, or expect to do what i've had to spend time and effort blocking smasung after installing the app on a firewall (hint samsung tv's leak a lot!, as i've learned in the progress of blocking it). so i'm not unimpressed with the tv's  image, but compared to older samsung tv's i have previously owned, i am completely unimpressed with the smart tv requiring a samsung account to add any apps even ones that have nothing to do with samsung.</t>
-  </si>
-  <si>
-    <t>as many reviewers have noted, you don't purchase this without having an external speaker - which i do.but ... the interaction between the two is unwieldy, as is the remote control itself.too many choices in today's world leads to a jam-packed interface - i get that - but this one is clumsily done.so overall - great picturem but lousy tech and poor use of available tech and dismal attempt at making it all user-friendly.</t>
-  </si>
-  <si>
-    <t>this 60” samsung tv fits perfect on our built-in shelf. amazon delivered it in record time and within the time frame i chose. the tv was easy to set up and connect to our roku. the picture is beautiful, sharp and clear. well worth the price. this is our second samsung tv that we have purchased from amazon. we are very happy with both purchases.</t>
-  </si>
-  <si>
-    <t>awesome tv until you notice the light leaks on screen. no wonder it was a good deal. you get what you pay for.</t>
-  </si>
-  <si>
-    <t>this is a surprisingly good tv, especially at the price it was being offered at.  it was easy to assemble/set up and the picture is great.  the only flaws:  the remote that arrives with it is a high-tech paperweight.  thankfully, i still have the remote from the previous tv, also a samsung (a bn59 remote), a classic that still works.the sound for this unit could also be better.  i may start browsing for a sound bar, and the closed captions are a bit iffy on a few channels.all in all, this seems to be a very dependable tv in the short time that i’ve had it, and continue to fiddle with all the settings:  video, network, etc.</t>
-  </si>
-  <si>
-    <t>you have to sign up for a samsung account to download new apps. it's my tv! i shouldn't sign over my information and agree to yet another 30 page user agreement just to use all its functionality.plus just discovered that this model samsung is not compatible with sling. so unhappy.</t>
-  </si>
-  <si>
-    <t>i bought this to replace my dumb tv.  while this new tv is the same size as my old one the picture quality is much clearer and the color is more vibrant.  the smart features work flawlessly and the tv paired seamlessly with my reciever.  the smart remote is rechargeable and even has a small solar panel so the light in your room can charge the remote.  i am very pleased with my purchase.</t>
-  </si>
-  <si>
-    <t>update:samsung customer service is trash too. made an appointment with them to repair the tv, got multiple text messages and email confirmation, but no one showed up. i repeat, don’t buy samsung. googled it, it’s also common that they don’t show up to scheduled appointments and you need to keep rescheduling until one day, they knock on your door!original review:trash. owned it for 2 months and 2 weeks and now it’s turning itself on and off every second. when i googled it looks like it’s a very common issue with samsung. don’t buy it.</t>
-  </si>
-  <si>
-    <t>received the tv picture is beautiful. found a part missing for the remote and soon will not be able to use it which makes the tv useless after only a month. attempted to get the missing part but unable to talk to the right person so far. rethinking what i buy in the future. called samsung 3 times to receive help combining the samsung remote with my cable universal. was put on death hold and they disconnected the call so need 2 remotes which one won’t work soon. yes this is the worst thing since shopping with amazon but an expensive thing. not a happy customer anymore.</t>
-  </si>
-  <si>
-    <t>best picture i have ever seen on a 43 inch flat screen.the speakers are poor so i hooked the samsung 43q60a to a samsung sound bar with a remote bass reflex bluetooth speaker and the sound is much better, especially if you play music through a remote source like music saved on your phone or tablet.the smart features work very well, the remote is simple and doesn't need batteries, a nice new solar technology.best value for "quality" even though it is a little more than other models.highly recommended.</t>
-  </si>
-  <si>
-    <t>i wish it had more inputs/outputs options. for example, i really needed a 3.5mm audio out, but it only has optical out. what this means is that i cant use tv remote to midulate the volume for my external amplified speakers (pro media 2.1) which worked fine with a much older samsung tv. now i lost this functionality</t>
-  </si>
-  <si>
-    <t>prior to this tv i had a toshiba…i purchase this tv because my son bought a samsung tv and told me to get this for my needs since i am not a gamer like him.  the picture  clarity is amazing…..the color tones are very strong and bright which for me is a bit much but my eyes have gotten used to the brightness in colors and i have turn down the brightness of it so i am loving it</t>
-  </si>
-  <si>
-    <t>we have bought samsung products off and on for several years.  most were good to great, others bad to....  when the price was right we jumped of this tv.  i must say there are no regrets so far.  i knew the picture would be good, but after watching it for several hours we noticed that the picture was sharper and clearer than we expected.  it is so good our 3 year old 50" (another brand) is hiding in shame.  even the sound is good, not great so a sound bar is better to get the full effect of the show.  (we have an older one, but plan for a new one)</t>
-  </si>
-  <si>
-    <t>the picture is good and the smart features are as expected. but the remote is worthless. the solar cell smart remote doesn't charge well. we left our remote in the cabinet for one day and that evening it was dead, leaving no way to control the tv unless you own or purchase a usb-c cable. operation of the remote is not intuitive; button functions are inconsistent. control of replay from our dvr is lousy. we contacted samsung; they simply refused to help.if you buy this tv, order a full-function remote at the same time and toss the solar remote. or just choose a tv from sony or lg.</t>
-  </si>
-  <si>
-    <t>great picture and features. setup was easy. note that the remote is usb rechargeable. for some folks the picture may seem to digital. you can make it more movie-like in the expert settings. the remote is simplified, not like some earlier samsung remotes were excessively cluttered.</t>
-  </si>
-  <si>
-    <t>what a low price for a great tv!it's mounted on the wall.  the clarity and color are excellent.this smart tv makes use of netflix and other streaming services very easy.the remote has limited options and takes some time to get used to.</t>
-  </si>
-  <si>
-    <t>freezes up, changes channel by itself, can't change channel with remote.this is second unit, first had same problems!</t>
-  </si>
-  <si>
-    <t>had this tv for several months now. wife and i love it. setup process for including netflix, hulu, etc is include and made getting this 100% ready for use was 15-20 mintunes tops.only complaint is the feet are a slightly different shade of black/grey than the rest. would have been nicer if it matched.love the rechargeable remote. wish it was shaped more like their older one thought. not enough to ding it a star. great tv.</t>
-  </si>
-  <si>
-    <t>we absolutely love our 70-inch  samsung tv. it was so easy to set up! i thought for sure it would be complicated but not at all. movies and games look amazing and the tv automatically sets up the screen for either movies or ps4 (in our case). you can always change the picture quality yourself too. the remote was a bit over our heads but my daughter figured it out in like 2 seconds lol, so no problem! we are very pleased with this purchase!</t>
-  </si>
-  <si>
-    <t>this is a replacement for my 2019 qled samsung 65in model whose picture failed. until intermittent blackouts occurred, it was terrific. i upgraded for my replacement. this 2021 qn75q60a 75in is even more impressive than the last. great pic, sound, amazing. my choice of another samsung qled was borne out by my latest issue of consumer reports which made this model a top rated "smart buy". no weaknesses in any category.</t>
-  </si>
-  <si>
-    <t>i bought the 60 in. size of this tv mainly because 65 in. was too large for my entertainment center.  this tv has a great picture but due to the 60 hertz refresh rate, the "smoothing" of sports action like football is lacking.  if you like samsung and watch a lot of sports, then i would recommend purchasing the next class up which has the 120 hertz refresh rate - can't say how much better it will be but i would start there.  for movies and regular television viewing, this is a phenomenal piece of equipment.</t>
-  </si>
-  <si>
-    <t>bought this tv as a gift for my granddaughter's new apartment. wow, what a great tv! now i wish i had one.  arrived quickly, set up easily, and has far more features than i realized. picture quickly is superb. i recommend highly.</t>
-  </si>
-  <si>
-    <t>i bought the 55”. very disappointed in this tv. my 10 year old samsung has a better picture. further, specifications say it has 3 hdmi ports. it only has 2. i confirmed this with samsung. would not have bought tv with only 2 hdmi ports.</t>
+   this is useless tv. i am getting internet issues on my tv. my streaming websites are buffering. i talked to customer support for 1 hour but they could not resolve the issue.i get 400 mbps speed on my laptop but i get only 50-60 mbps speed on tv</t>
+  </si>
+  <si>
+    <t>i am very disappointed with this tv.  all kinds of problems with connection to internet.  constantly have to turn off tv and reset.  i miss my old samsung.</t>
+  </si>
+  <si>
+    <t>purchased on prime day. shipped fast. packed well.setup was easy. also ordered amazon recommended wall mount.nice tv. good features.happy buyer.</t>
+  </si>
+  <si>
+    <t>beautiful picture.  lots of features.  handy remote.  incredible sound!  easy set up.</t>
+  </si>
+  <si>
+    <t>picture quality is fantastic. lg updates software often, unlike our other tv (another brand). very thin tv. we’re very happy with this purchase.</t>
+  </si>
+  <si>
+    <t>tv screen was cracked even though package appeared undamaged. replacement ordered, hopefully the next one is better.</t>
+  </si>
+  <si>
+    <t>quality and function are excellent.</t>
+  </si>
+  <si>
+    <t>love it. so far was very easy to set up and connect. i changed router, two cable boxes and replaced older model tv in a half a day. no problems. i was happy that all the cables and connectors i needed were available. i have no complaints. i have had several  lg flat screen tvs for 13 years, so the controls and procedural steps were not new to me.</t>
+  </si>
+  <si>
+    <t>the media could not be loaded.
+   at the beginning the image was perfect and very detailed, but now the screen ghosting is impacting the colors heavily… wish i could return</t>
+  </si>
+  <si>
+    <t>a pesar de que no es tan grande se ve nitida la pantalla es un buen televisor y se escucha muy bien</t>
+  </si>
+  <si>
+    <t>love my tv , thank you lg, features great, picture quality, and evrything else, thanks again keep up the good work.</t>
+  </si>
+  <si>
+    <t>wrong size sent (smaller). spent 30+ minutes on the phone trying to get difference in money back. sound quality is bad, inconsistent and sometimes out of sync. picture quality is poor on any setting. the remote is really annoying. the tv is slow, clunky and not always responsive. so many apps are unavailable. total waste of time and energy.</t>
+  </si>
+  <si>
+    <t>the picture is decent but good god the user interface is rubbish. got to get an apple tv or roku. it’s a decent tv all in all.</t>
+  </si>
+  <si>
+    <t>overall a good tv. my biggest dislike is the remote control. the button you have to push the most is slightly lower than the buttons around it and it makes pushing it very hard for someone with long nails. very annoying</t>
+  </si>
+  <si>
+    <t>it is a nice tv. good picture quality. but my primary issue is that there is not a good user friendly manual</t>
+  </si>
+  <si>
+    <t>this tv replaces a 47" lg purchased 11 years ago. unlike the old one the new tv has 2 legs instead of a solid center base which swivels. however i do love the new set with all it's new features  and the new one costs $400 less than the old one.</t>
+  </si>
+  <si>
+    <t>oh a very nice tv</t>
+  </si>
+  <si>
+    <t>shipping was fast, no defects or problems with the tv whats so ever. and the price was the best and the lowest compared to any competitors.</t>
+  </si>
+  <si>
+    <t>awesome 👌</t>
+  </si>
+  <si>
+    <t>it's little tricky to connect with the sound bar, but overall it is very nice and clear. the tv already includes useful apps, so i personally think that i don't have to use fire tv stick again.</t>
+  </si>
+  <si>
+    <t>nice picture</t>
+  </si>
+  <si>
+    <t>very happy with this purchase. awesome picture and great price.</t>
+  </si>
+  <si>
+    <t>amazing picture quality!  so many many features already in the system. love lg products.</t>
+  </si>
+  <si>
+    <t>wonderful new addition to the mbr.</t>
+  </si>
+  <si>
+    <t>delivered with the screen cracked x2 flats . still have yet to receive my refund for either.</t>
+  </si>
+  <si>
+    <t>lg quality is great. picture looks really nice definitely recommend.</t>
+  </si>
+  <si>
+    <t>beautiful and excellent performance...thank you amazon</t>
+  </si>
+  <si>
+    <t>nice tv</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>Like</t>
+  </si>
+  <si>
+    <t>Hate</t>
   </si>
   <si>
     <t>Love</t>
   </si>
   <si>
-    <t>Okay</t>
-  </si>
-  <si>
-    <t>Hate</t>
-  </si>
-  <si>
     <t>Do Not Like</t>
   </si>
   <si>
-    <t>Like</t>
-  </si>
-  <si>
-    <t>amazing bright capable controlled credible deep direct discerning dynamic expert fine good happy level open patient perfect quick simple smart solid specific standard vivid wild</t>
-  </si>
-  <si>
-    <t>amazing fine good honest kind nice pretty smart stunning</t>
-  </si>
-  <si>
-    <t>bright direct frank free friendly fun giving good hard light mechanical mysterious open simple smart specific</t>
-  </si>
-  <si>
-    <t>fun light</t>
-  </si>
-  <si>
-    <t>bright content</t>
-  </si>
-  <si>
-    <t>fantastic good perfect</t>
-  </si>
-  <si>
-    <t>excellent friendly</t>
+    <t>credible fine good quick</t>
+  </si>
+  <si>
+    <t>excellent good helpful</t>
+  </si>
+  <si>
+    <t>concerned fair fine good perfect quick sage</t>
+  </si>
+  <si>
+    <t>deep perfect sharp stunning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> excellent</t>
+  </si>
+  <si>
+    <t>custom good happy plain simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pretty</t>
+  </si>
+  <si>
+    <t>happy light</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sharp</t>
+  </si>
+  <si>
+    <t>fun serious</t>
+  </si>
+  <si>
+    <t>consistent custom excellent expensive good lucky smart</t>
+  </si>
+  <si>
+    <t>custom good open willing</t>
+  </si>
+  <si>
+    <t>direct familiar perfect pretty</t>
+  </si>
+  <si>
+    <t>confident light smart soft</t>
+  </si>
+  <si>
+    <t>fabulous fun pristine smart</t>
+  </si>
+  <si>
+    <t>good smart</t>
+  </si>
+  <si>
+    <t>custom open</t>
+  </si>
+  <si>
+    <t>hard smart soft</t>
+  </si>
+  <si>
+    <t>awesome current excellent fancy fine fit good hard kind sleek smart</t>
+  </si>
+  <si>
+    <t>fair good pretty reflective vibrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> good</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kind</t>
+  </si>
+  <si>
+    <t>soft standard</t>
+  </si>
+  <si>
+    <t>bright excellent sharp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fine</t>
+  </si>
+  <si>
+    <t>good sharp smart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> light</t>
+  </si>
+  <si>
+    <t>amazing smart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fantastic</t>
+  </si>
+  <si>
+    <t>giving serious</t>
+  </si>
+  <si>
+    <t>happy solid</t>
+  </si>
+  <si>
+    <t>direct fit plain protective</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> specific</t>
+  </si>
+  <si>
+    <t>careful hip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> excited</t>
+  </si>
+  <si>
+    <t>excited perfect plain wonderful</t>
+  </si>
+  <si>
+    <t>frank hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> custom</t>
+  </si>
+  <si>
+    <t>fast good happy hip nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> credible</t>
+  </si>
+  <si>
+    <t>fantastic happy soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hopeful</t>
+  </si>
+  <si>
+    <t>excellent fun</t>
+  </si>
+  <si>
+    <t>happy plain</t>
+  </si>
+  <si>
+    <t>detailed perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> consistent</t>
+  </si>
+  <si>
+    <t>good hard light</t>
+  </si>
+  <si>
+    <t>friendly good nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nice</t>
+  </si>
+  <si>
+    <t>fast hip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> awesome</t>
+  </si>
+  <si>
+    <t>awesome happy</t>
   </si>
   <si>
     <t xml:space="preserve"> amazing</t>
   </si>
   <si>
-    <t>concerned detailed perfect quick smart</t>
-  </si>
-  <si>
-    <t>colorful dynamic fast nice quick sharp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> quick</t>
-  </si>
-  <si>
-    <t>bright expensive fantastic fun good light minimal nice sexy soft stable</t>
-  </si>
-  <si>
-    <t>pretty stunning</t>
-  </si>
-  <si>
-    <t>happy serious smart</t>
-  </si>
-  <si>
-    <t>capable content fine free fun good hard neat robust smart strong</t>
-  </si>
-  <si>
-    <t>adaptive amazing authentic bright clean colorful encouraging excited fantastic fine fun giving gorgeous honest industrial light minimal neat nice open perfect pretty sage simple smart thoughtful</t>
-  </si>
-  <si>
-    <t>bright expert giving loyal sleek</t>
-  </si>
-  <si>
-    <t>good kind quirky</t>
-  </si>
-  <si>
-    <t>affordable amazing bright convenient cool credible familiar free fresh fun funny happy honest light nice noisy plain quick specific wonderful</t>
-  </si>
-  <si>
-    <t>elated free good</t>
-  </si>
-  <si>
-    <t>controlled expensive light</t>
-  </si>
-  <si>
-    <t>bright light pretty</t>
-  </si>
-  <si>
-    <t>custom good soft</t>
-  </si>
-  <si>
-    <t>good light perfect</t>
-  </si>
-  <si>
-    <t>corporate soft</t>
-  </si>
-  <si>
-    <t>fit good kind sage simple</t>
-  </si>
-  <si>
-    <t>cool good mindful quick standard willing</t>
-  </si>
-  <si>
-    <t>fine good perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> custom</t>
-  </si>
-  <si>
-    <t>expert fair free good positive sharp</t>
-  </si>
-  <si>
-    <t>fun good</t>
-  </si>
-  <si>
-    <t>excellent free good quick strong</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fantastic</t>
-  </si>
-  <si>
-    <t>light smart</t>
-  </si>
-  <si>
-    <t>good hip kind original smart</t>
-  </si>
-  <si>
-    <t>hard smart</t>
-  </si>
-  <si>
-    <t>amazing determined direct</t>
-  </si>
-  <si>
-    <t>custom direct fun light smart soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> good</t>
-  </si>
-  <si>
-    <t>bright clean content fit light minimal perfect simple smart</t>
-  </si>
-  <si>
-    <t>custom excellent good</t>
-  </si>
-  <si>
-    <t>excellent light nice</t>
-  </si>
-  <si>
-    <t>intuitive level light loving perfect pretty</t>
-  </si>
-  <si>
-    <t>custom good sage</t>
-  </si>
-  <si>
-    <t>consistent wise</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> open</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bright</t>
-  </si>
-  <si>
-    <t>awesome fast free heavy nice perfect pretty quick simple</t>
-  </si>
-  <si>
-    <t>hard nice plain pleasant</t>
-  </si>
-  <si>
-    <t>cool excited hard nice quick smart</t>
-  </si>
-  <si>
-    <t>content light open smart</t>
-  </si>
-  <si>
-    <t>bright minimal smart</t>
-  </si>
-  <si>
-    <t>clean good</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> excited</t>
-  </si>
-  <si>
-    <t>elated honest</t>
-  </si>
-  <si>
-    <t>fine friendly hip open</t>
-  </si>
-  <si>
-    <t>fit nice open smart</t>
-  </si>
-  <si>
-    <t>excellent good</t>
-  </si>
-  <si>
-    <t>good light pure vivid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> smart</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> friendly</t>
-  </si>
-  <si>
-    <t>fit happy perfect sharp</t>
-  </si>
-  <si>
-    <t>awesome good light</t>
-  </si>
-  <si>
-    <t>classic dependable good high-tech</t>
-  </si>
-  <si>
-    <t>fun functional happy</t>
-  </si>
-  <si>
-    <t>light smart vibrant</t>
-  </si>
-  <si>
-    <t>custom original sage</t>
-  </si>
-  <si>
-    <t>custom expensive happy</t>
-  </si>
-  <si>
-    <t>nice simple smart</t>
-  </si>
-  <si>
-    <t>fine fun functional</t>
-  </si>
-  <si>
-    <t>amazing bright loving strong</t>
-  </si>
-  <si>
-    <t>good sharp</t>
-  </si>
-  <si>
-    <t>consistent fun good intuitive smart</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> expert</t>
-  </si>
-  <si>
-    <t>excellent smart</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> free</t>
-  </si>
-  <si>
-    <t>light nice plain</t>
-  </si>
-  <si>
-    <t>amazing smart</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fresh</t>
-  </si>
-  <si>
-    <t>grand quick</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> specific</t>
+    <t xml:space="preserve"> wonderful</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fun</t>
   </si>
 </sst>
 </file>
@@ -892,7 +781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -917,13 +806,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -931,13 +820,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -945,13 +834,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -959,13 +848,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -973,13 +862,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -987,13 +876,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1001,13 +890,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1015,13 +904,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1029,13 +918,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1043,13 +932,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
       <c r="D11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1057,13 +946,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1071,13 +960,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1085,13 +974,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1099,13 +988,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1113,13 +1002,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1127,13 +1016,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1141,13 +1030,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1155,10 +1044,10 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1169,13 +1058,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1183,13 +1072,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1197,13 +1086,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1211,13 +1100,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1225,13 +1114,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1239,13 +1128,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1253,13 +1142,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1267,13 +1156,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1281,13 +1170,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1295,13 +1184,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1309,13 +1198,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1323,13 +1212,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1337,10 +1226,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1351,13 +1240,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1365,10 +1254,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1379,10 +1268,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1393,13 +1282,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1407,13 +1296,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1421,13 +1310,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1435,13 +1324,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1449,10 +1338,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1463,13 +1352,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1477,13 +1366,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1491,13 +1380,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1505,13 +1394,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1519,13 +1408,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1533,13 +1422,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1547,13 +1436,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1561,10 +1450,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1575,13 +1464,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1589,13 +1478,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D50">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1603,13 +1492,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1617,13 +1506,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1631,13 +1520,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1645,13 +1534,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1659,13 +1548,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1673,13 +1562,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1687,13 +1576,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1701,13 +1590,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1715,13 +1604,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1729,10 +1618,10 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -1743,13 +1632,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1757,10 +1646,10 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1771,10 +1660,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1785,13 +1674,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1799,13 +1688,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1813,13 +1702,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1827,13 +1716,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1841,13 +1730,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1855,13 +1744,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1869,208 +1758,12 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="D70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" t="s">
-        <v>160</v>
-      </c>
-      <c r="D71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" t="s">
-        <v>91</v>
-      </c>
-      <c r="C72" t="s">
-        <v>161</v>
-      </c>
-      <c r="D72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" t="s">
-        <v>162</v>
-      </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" t="s">
-        <v>164</v>
-      </c>
-      <c r="D75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C76" t="s">
-        <v>165</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77" t="s">
-        <v>166</v>
-      </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" t="s">
-        <v>167</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" t="s">
-        <v>168</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" t="s">
-        <v>169</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" t="s">
-        <v>170</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" t="s">
-        <v>171</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" t="s">
-        <v>172</v>
-      </c>
-      <c r="D84">
         <v>1</v>
       </c>
     </row>

--- a/AmazonReviewMatchResultdrop.xlsx
+++ b/AmazonReviewMatchResultdrop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="149">
   <si>
     <t>Review</t>
   </si>
@@ -28,402 +28,439 @@
     <t>Matched Count</t>
   </si>
   <si>
-    <t>first tv arrived with a shattered screen. amazon replaced it quickly and it was fine. we have an lg oled and it is incredible at all angles. this lg uled is only good looking straight on. viewing at left or right angles the pic fades and the colors are very weak. we use it in a bedroom so we basically look straight on so it is fine for us.......but in a large living room i think, if you can afford, the oled would be the best. it’s a much better tv.</t>
-  </si>
-  <si>
-    <t>this tv is excellent. color is good compares others on this price range. only con i can think of is there is no "hbo max" yet. if you think of best tv on this price range, this tv is what you want.update: i had some sound distortions issue. so i thought it was soundbar that i have but it was the tv! it happends when you use hdmi(arc) so check your tv also has same issue. and i couldnt exchange when i realized this cause of its been over 30days. anyway i hope this is helpful 🙂</t>
-  </si>
-  <si>
-    <t>received my new tv.  no damage, screen is perfect.  setup was quick and fairly easy, although there’s a lot more to learn.everything was great until today...about a week after setting it up.watched my tv, connected to my home theater this morning and everything was fine.  hit the off button on my tv’s remote, and both the tv and my denon receiver shut off as expected.i come home a few hours later, click the power button on my tv remote....only the tv comes on, not my receiver.  i turn on my receiver to find the my tv is no longer sending audio to my tv thru hdmi(arc).i switch to optical output....no good.i am at a loss as to what to do and as far as i’m concerned this lg tv is a total miss.i week of usage an already the audio is messed up?not good.i hope can find some was to get the tv to output audio again.  wish me luck!let me add one final thought.  this is a highly advanced feature packed tv that comes with a users manual better suited to the average 4 slice toaster!  shameful and frustrating!</t>
-  </si>
-  <si>
-    <t>arrived in perfect shape and easy to set up out of the box. picture quality is stunning and spot on with deep colors, sharp details and infinite blacks. integrated well with the apple tv 4k</t>
-  </si>
-  <si>
-    <t>excellent tv love lg brands, was amazed at the picture quality better than the rest of our tv's.</t>
-  </si>
-  <si>
-    <t>the manual is not good enough to explain the basic simple things on how to operate this tv. thank president trump for helping with customer support which knew right away how to correct it. now i am happy.</t>
-  </si>
-  <si>
-    <t>our tv arrived completely shattered. we've sent for a replacement and hope the next one is better.edit: the second one arrived in much better condition and it's a pretty decent tv.</t>
-  </si>
-  <si>
-    <t>what a great buy! so happy with this. very light weight and easy to install. you're online in seconds and everything works with ease.</t>
-  </si>
-  <si>
-    <t>for a $600 tv i love it. i dont know why people are comparing to a oled. if i wanted a $1500-$2000 oled tv i would have bought one. this tv replaced a 5 yo $300 sharp lcd/led with the crappiest picture. the picture quality is 100x better, tv is thinner and i love the magic remote, especially the mouse feature.</t>
-  </si>
-  <si>
-    <t>spent hours trying to get this to work.  forums show that lg has known about this flaw for 3 years and they haven't fixed it.  seriously?!!  the tv says it is connected yet it can't download user agreement.  i've tried resetting routers, the tv, waiting 20 min for it to reset, changing dns, and factory reset.  nothing works and without the updated user agreement you can't download apps and use any wireless features.  very disappointed.  will try again in the morning then will return for a refund.</t>
-  </si>
-  <si>
-    <t>i've had flat screen tv's since they first came out. both plasma and lcd.i always preferred plasma because they had an excellent viewing angle similar to the old crt tv.s we grew up with, .then, where plasmas were gone, i had no choice and had to go lcd. they sucked for years as far as my main criteria. viewing angle.they were like laptops where you have to be viewing straight ahead at the screen, dead center up and down and left and rightthen they improved and nowadays consumer reports rates most pricey sets with and 3 star (good) out of 5 for viewing angle, except for lg which has had a 4 star (better than average) viewing angle.that's still true.so, the viewing angle on this set is excellent,i have an lg oled 65 inch that cost me a fortune in my living room and another in my bedroom.i also have an lg 42 inch in my basement all have great viewing angle,.i now redid the first floor of my house and in the front living room, i planned on spending a fortune again for an oled set, but thought i'd just get an lg 4k smart tv for the bedroom. luckily, i did my bedroom first and bought this set, planning to get an oled for the living room when i was done renovation,. boy am i lucky that i bought this one first.the viewing angle of course is great, just like the ratings say, but i never thought the picture was going to be this great. i cannot tell the difference when streaming hd that i rent on amazon, or, hd that i pay extra for on netflix and hd versions of movies and documentaries from amazon where you pay a few bucks more to rent in hd.none of my friends could tell the difference between this set and my two oled sets when i gave them a blind comparison test and asked them which was the oled sets and which was this set,i cannot tell the difference,now i'm ordering another for the downstairs and it's going to save me a bundle since this set was only $699 on amazoni can't believe that i wasted money on oled sets when i can't see any difference from this set,i'm very critical, but my main concern, like i said, is viewing.samsung still has a long way to go with their average viewing angle,lg is the leader when it comes to viewing angle, \do not waste your money on an expensive tv. this is a smart tv. has all the bells and whistles,the remote is great, but i am used to it because of my other lg's.take your time to use it properly and you will love it,one star off, because even though lg gets consistently high ratings on their products, their customer service sucks.i have four air conditioners in the house. two lg's because of the high ratings in consumer reports, but i wanted to save some money downstairs so i bought a whirlpool and an amana. (they are identical and both made by whirlpool, got the amana because the price was less under that name). when i needed customer service for the lg ac's, they sucked. i also needed customer service on my older oled lg tv and customer service again, is useless. so, great products but one star off for horrible customer service. buy this set. it is all you need in a great 65 inch 4k ultra hd smart tv,.don't wast your money.the law of diminishing returns applies here. the tiny difference, that i dare you to see on the oled's are not worth the fortune they cost,i love this tv and hate the fact that it showed me how much money i would have saved had i seen this one before i bought those oled sets.</t>
-  </si>
-  <si>
-    <t>this tv worked for about a month. now nothing works. i can't use the voice commands, i can't airplay from my phone, i can't open apps, i can't go to the app store. nothing works. and what's worse is that amazon and lg's customer service teams have both been completely unwilling to help. good luck trying to get in touch with someone if you buy this tv and it stops working for you like it did for me.</t>
-  </si>
-  <si>
-    <t>we received the 65 inch tv in perfect condition.  it was very well packaged and there was no damage to the exterior of the box.  we were appreciatitive of the unboxing directions, this is a huge tv lol.setting up the tv was pretty easy except for the remote.  there are pretty much no directions for the tv or remote in anything that came with the tv.  went online for any assistance with the remote but there wasn't much there either.  the remote is not a "magic" remote in my book. more like a bit of a pain in the ass.so i am learning as i go with the remote. it really flipped me when a cursor appeared on the screen when messing around with the remote. that takes some time to get use to.basically, we are very pleased with the tv. the only issues to this point has been the magic remote and not having discovery + as an available app for the tv.  we're pretty disappointed with that situation.  it was not a difficult work around but i feel like they should have an app for discovery+ by now. to work around it we installed a xfinity flex box to the tv. if you're not familiar with a flex box, it works like chromecast, roko, etc. problem solved but would rather have the app and have left the flex box in the bedroom attached to an older tv.overall, great picture and sound, great tv in this price point compared with others in the same class. i can't wait to figure out and utilize the ai features. would i purchase it again, yes and would recommend to friends.</t>
-  </si>
-  <si>
-    <t>overall i'm disappointed in the quality of this "tv." if i had to do it again i would not but this but would instead go for the samsung uhd 65" less than $100 difference in price.it is as thin as advertised and much lighter than i expected. about the same weight as the 42" vizio that it replaced.it is slow to power on. i'm sure it's lg's webos. i have a 42" lg lcd on my desk that i use every day for work and it is an outstanding product.but this is not. it is slow to power on, slow switching between apps (as in i thought i pressed the button ... wait wait). it supposedly allows you to select apps but you cannot delete most of the apps including "lg tv". (i was able to delete the disney and hulu apps). alexa is slow. as in ask it what time and i can walk across the house to the kitchen and read the clock before it answers. the voice is also not alexa...the screen is backlit but unfortunately very unevenly. when dark images are on screen the uneven backlight is visible and look horrible.installation of the amazon prime video and alexa apps was easy. after that i did a typical amazon new device sign in.i rented a uhd movie from my mobile and it was as always immediately in my items list. playback at uhd was slow and jumpy. overall a poor experience. i paused and switched to hdmi 1 input, an xbox one. same internet service and network, same streaming source (amazon prime) and same video.. i literally selected resume in prime video app on xbox and it was way better.considering the age of the xbox it's beyond disappointing that the lg os and apps perform so poorly.while the screen itself is probably a 3/5 in quality the poor user experience and quality of their software demotes this from a "smart tv" that i paid for to an overpriced 65" monitor.i can confidently recommend you not buy this product.</t>
-  </si>
-  <si>
-    <t>tv is fabulous picture is crystal clear smart features are terrific. the issue is don’t order from amazon. i had ordered it first delievery screen was smashed. second delivery screen was smashed. they wanted to second a third and i said i was done and wanted refund. went to best buy and purchased one in pristine condition.</t>
-  </si>
-  <si>
-    <t>the tv has a great picture, good sound and many features. there is one major flaw in the tv and that is the wifi. it will connect then randomly disconnect from your router and when you go to see why it cant connect it will say cant connect to media server. this happen on 3 of the same tvs because i asked for 2 replacements and it happen on every single one. i talked with lg and said i would have to get it service and why should it be serviced when its basically new out of the box. avoid this tv if you are going to use this subscription or just avoid it because its unacceptable to be sold something with broken wifi. they could have made this a regular tv and it would have been a great tv but no slapped a router on it with an os and call it a smart tv. that wasn't very smart of them to do.</t>
-  </si>
-  <si>
-    <t>no customer service opendoesn’t workthanks again</t>
-  </si>
-  <si>
-    <t>edit: to clarify, the device hardware and viewing experience itself are adequate for this price point.i should have known better, as i explicitly refused to connect my first lg tv with the internet and instead used media integration through my ps4 console. software and setup are agonizing. the fact that i would rather buy a chrome or amazon dongle speaks to how atrocious the software experience is.it forces you to set up an lg account so it can collect data off of you and make money from marketing ads. it forces you to agree to data collection to use any of its apps. and the apps are such garbage that you would rather buy a streaming dongle in order to use the damn thing properly.the age of "smart" device integration into our lives has been mediocre at best.</t>
-  </si>
-  <si>
-    <t>pretty meh for a 4k lg tv. viewing angle is bad. and i don't mean just if you go side to side the picture gets dark, but literally if you sitting on your couch and you slouch you can be too low for the proper viewing angle. sound is muddy; my three year old 50" phillips 1080 tv was better</t>
-  </si>
-  <si>
-    <t>i recently entered the world of streaming and cutting the cord. i replaced a 6 year old samsung smart tv in my office with a 55" lg tv. my old 50" went in the bedroom, but it was too large for the corner, and the smart features on that seemed really limited on not allowing me to add any further apps. so i replaced it with a 43" lg tv. i was trying to get the same series as my 55", but it was a 2020 model and hard to find it at a decent price. this 43" is an updated model, has all the current smart tv features, an awesome picture, and the sound is really good too for this smaller room. of which i only use it at night and i keep the volume low. so the built in speakers are just fine. and i noticed that it has an extremely slim frame. so the tv looks real sleek and does not take up any excess space. one thing about the remote that i cannot figure out yet, is that it has no play/pause button like my 55" tv remote does. haven't explored the voice commands yet, but i suspect they may work for that. i would recommend this tv for where you would like a smaller tv or in a smaller room where it better fits. excellent price. kind of phenomenal pricing when you look back about 15 years and 32" flat panel tv's were priced over $1000. now a 43" with fancy features for $400. that is great. my 55" was on sale at sam's for $419. so great deals overall. lg smart tv's are a winner.</t>
-  </si>
-  <si>
-    <t>pretty good tv, i would recommend it.cons: the ui could use some improvements. unavle to download hbomax app. screen is fairly reflective.pros: great look screen. i can tell the difference between their 120hz vs others 60 in similar price range. very vibrant colors. can connect bluetooth headphones to it.</t>
-  </si>
-  <si>
-    <t>sound and picture is good quality. biggest disappointment is the ui for what it can download for apps is not what was expected, still needed an amazon fire stick to get some of the more popular apps installed. maybe over time we’ll figure things out. just not out of the box.</t>
-  </si>
-  <si>
-    <t>overall this is a good tv, however this is a remote from hell, new issue for 2021, there is no tutorial anywhere as to how to use, written or on line…no clear button for features.  looked tutorials on youtube and they go like this, double click such a button and you will find a hidden  menu.  the features are hidden who knows where.  this is very frustrating…and it takes away from the enjoyment of the television.  i am slowly discovering the navigation by trial and error….had i known this i would have chosen a different brand.i feel lg could have done a better job with this remote or at least let the consumer know how to operate it.</t>
-  </si>
-  <si>
-    <t>the menu system sucksthe remote control setup suckscould not get cable box remote to work with tvthe instructions suckit has a pointer built into the remote, it sucks.what good is a beautiful tv if all of the usability features sucks.i feel like manufacturers are taking advantage of consumers.  stop hiding stuff.  these cute low contrast menus are not good for the average consumer.  why do you care if they are low contrast when they are hidden 99.999999999% of the time.  give the setup menu contrast.  and do away with the smart tv crap.  put more into the interface.  if i want a roku or apple tv i will buy it.  stop forcing me to buy smart crap that is dumber then a box of rocks.  i like the picture, but i got so stressed out setting up the tv i almost thru it out.  a new tv should be a joy to install and operate.  you missed the mark today.  everyday is a test, and you got an f today lg.</t>
-  </si>
-  <si>
-    <t>within 3 weeks of owning this tv, a giant 3-4 inch line appeared down the length of the screen. it just flickered into existence and won’t go away. what kind of trash tv breaks after 3 weeks? the pixels are messed up, and there doesn’t look like there’s any way to fix it. do not buy this garbage.</t>
-  </si>
-  <si>
-    <t>easy to set up (wired network, ethernet), i used my lg sound bar from other 65" lg tv. photos are "standard" setting on tv. delivery team carried tv into my living room, i unpacked, no damage (was worried because of other reviews). followed prompts at start-up for easy set up. built in alexa didn't initially work, i updated software in settings, restarted tv and it worked.</t>
-  </si>
-  <si>
-    <t>the display is excellent, after you sort out how to adjust it! the manual doesn't tell you how to adjust the display but it's easy enough to find the info online. the default display settings weren't to our liking, a bit dim which made it appear less sharp. we set it to the 'sports' setting (even though we rarely watch sports) because it had the right balance of brightness and sharpness.it's a great tv for the price. we weren't ready to pay the oled prices and feel this display gives us more than adequate visual satisfaction.</t>
-  </si>
-  <si>
-    <t>i had bought a total of 3 tvs - 2 of the lg nano and 1 of this uhd, i mainly wanted to see if there was any big difference. imo, there is not. just like the nano, when you first plug this in, it will ask you for your wi-fi info and walks you through the setup process. it also has the normal netflix, prime, disney+, hulu, etc but if you like viki, it is not available in it’s app store. the sound is ok, it’s what you expect from a flat screen tv as they have no space for a decent speaker system and if you want super black color, this is not it. you need an oled for that. but it still has great picture, the sound is fine and you can’t beat the price for the quality that you get.</t>
-  </si>
-  <si>
-    <t>we had an lg led smart tv for many years, and it always provided us with a sharp picture and a quality sound.  consequently, we were not hesitant about buying another lg ty.  the tv was easy to set up, and we were up and running in no time.  this newer model has some new features that give us greater flexibility in selecting what we want to watch, how it can interact with other equipment.  it's a great tv at a good price.</t>
-  </si>
-  <si>
-    <t>lg ran a check it seems my tv developed some blacklight bleeding. so i’m waiting for a led panel and the repairman to fix it , i’ll  try to get keep you updated. ps… though i’m not really disappointed all in all it’s a great tv . they had a repairman come to the house a new led panel was damaged ,now for the waiting game !!!!</t>
-  </si>
-  <si>
-    <t>all the features would've been amazing-- if they worked. it's not recognized by alexa, the wireless display disconnects after only a minute if you want to connect it to your laptop, the voice feature doesn't work, and even the netflix, disney+, etc buttons at the bottom of the remote don't work. what even is the point of a smart tv if it can't connect to things like alexa? utter trash, don't waste your money on this lg tv. i spent so much time debating which tv i should get only to be stuck with this trash.</t>
-  </si>
-  <si>
-    <t>tv was set up and picture was horrible and defective. green tint on left side of screen and yet the right side of the screen had perfect picture.i am returning the tv and it has become a major issue. they will not pick it up, expect me to carry a 50 lb box to a ups location.</t>
-  </si>
-  <si>
-    <t>my neighbor had an lg 49" 4k uhd and i was thoroughly impressed by the picture clarity and all the features. the magic remote is fantastic! i'm not sure why this item gets negative reviews because i love it and would buy an lg again! so take it from an audiophile and tech guy, this baby rocks!</t>
-  </si>
-  <si>
-    <t>amazon delivered this at 4:30am in the morning!!  they let it in the rain, getting soaked, and i live on a busy street where it could of easily been stolen in the next 4 hours until i actually woke up.. called my phone at 4:30am in morning for an otp code to confirm... seriously, the day after thanksgiving my doorbell being rung by amazon drivers... completely and utterly unacceptable.  tv is great though, highly recommended with lg, ordering a tv from amazon wont happen again though ever in a million years.</t>
-  </si>
-  <si>
-    <t>great picture,  sound, features, and all. i'm extremely happy with this lg tv. zero problems and easy set up. works with all the apps i use. remote is solid and great quality too. i recommend this tv to anyone.</t>
-  </si>
-  <si>
-    <t>for the price and the space i needed to fit this tv into, it’s great, works great and i’ve got no complaints. except for the stickers that came stuck directly in the monitor. instead of a plastic film covering the entire screen like my other lg (55” oled), and the stickers being attached to that, this tv came with no protective film, just the stickers. like the picture shows (lower left corner), removing the sticker left two noticeable spots that i haven’t yet been able to get rid of.</t>
-  </si>
-  <si>
-    <t>picture quality is great but i am unable to view movies through the streaming services (except amazon prime video), even though the remote itself has labeled buttons for several services. this is a tremendous inconvenience. i purchased this television specifically to stream movies. disappointed is an understatement.</t>
-  </si>
-  <si>
-    <t>tv itself seemed ok , a little complicated setting up for a senior lol. amazon needs to be more careful with shipping , 1st tv arrived cracked screen, 2nd one had 3 defects on bottom of screen. i tracked it on amazon site it went up and down in the state till i finally got,  too much handling.. will not reorder.  amazon you need to do better</t>
-  </si>
-  <si>
-    <t>i was so excited about this tv. it seems to be a great tv but when it was delivered to me it had already been dropped as there was a giant crack all the way across the screen. waiting another week now</t>
-  </si>
-  <si>
-    <t>was so excited to purchase this television on prime day for our new home, we have a media room it’s perfect for!  however, it arrived with a shattered screen and we were hesitant to order another one as a replacement.  we contacted amazon and explained the situation, they were wonderful, ups is picking up the damaged television tomorrow and our new television will be delivered on wednesday via prime…. fingers crossed its screen’s not shattered, too.</t>
-  </si>
-  <si>
-    <t>really the hardest part was getting it out of the box.  the power input on the back is a little hard to find.  i am impressed by the picture quality.  i have not found alexa yet and frankly i just want to turn it off.</t>
-  </si>
-  <si>
-    <t>the media could not be loaded.
-   this is useless tv. i am getting internet issues on my tv. my streaming websites are buffering. i talked to customer support for 1 hour but they could not resolve the issue.i get 400 mbps speed on my laptop but i get only 50-60 mbps speed on tv</t>
-  </si>
-  <si>
-    <t>i am very disappointed with this tv.  all kinds of problems with connection to internet.  constantly have to turn off tv and reset.  i miss my old samsung.</t>
-  </si>
-  <si>
-    <t>purchased on prime day. shipped fast. packed well.setup was easy. also ordered amazon recommended wall mount.nice tv. good features.happy buyer.</t>
-  </si>
-  <si>
-    <t>beautiful picture.  lots of features.  handy remote.  incredible sound!  easy set up.</t>
-  </si>
-  <si>
-    <t>picture quality is fantastic. lg updates software often, unlike our other tv (another brand). very thin tv. we’re very happy with this purchase.</t>
-  </si>
-  <si>
-    <t>tv screen was cracked even though package appeared undamaged. replacement ordered, hopefully the next one is better.</t>
-  </si>
-  <si>
-    <t>quality and function are excellent.</t>
-  </si>
-  <si>
-    <t>love it. so far was very easy to set up and connect. i changed router, two cable boxes and replaced older model tv in a half a day. no problems. i was happy that all the cables and connectors i needed were available. i have no complaints. i have had several  lg flat screen tvs for 13 years, so the controls and procedural steps were not new to me.</t>
-  </si>
-  <si>
-    <t>the media could not be loaded.
-   at the beginning the image was perfect and very detailed, but now the screen ghosting is impacting the colors heavily… wish i could return</t>
-  </si>
-  <si>
-    <t>a pesar de que no es tan grande se ve nitida la pantalla es un buen televisor y se escucha muy bien</t>
-  </si>
-  <si>
-    <t>love my tv , thank you lg, features great, picture quality, and evrything else, thanks again keep up the good work.</t>
-  </si>
-  <si>
-    <t>wrong size sent (smaller). spent 30+ minutes on the phone trying to get difference in money back. sound quality is bad, inconsistent and sometimes out of sync. picture quality is poor on any setting. the remote is really annoying. the tv is slow, clunky and not always responsive. so many apps are unavailable. total waste of time and energy.</t>
-  </si>
-  <si>
-    <t>the picture is decent but good god the user interface is rubbish. got to get an apple tv or roku. it’s a decent tv all in all.</t>
-  </si>
-  <si>
-    <t>overall a good tv. my biggest dislike is the remote control. the button you have to push the most is slightly lower than the buttons around it and it makes pushing it very hard for someone with long nails. very annoying</t>
-  </si>
-  <si>
-    <t>it is a nice tv. good picture quality. but my primary issue is that there is not a good user friendly manual</t>
-  </si>
-  <si>
-    <t>this tv replaces a 47" lg purchased 11 years ago. unlike the old one the new tv has 2 legs instead of a solid center base which swivels. however i do love the new set with all it's new features  and the new one costs $400 less than the old one.</t>
-  </si>
-  <si>
-    <t>oh a very nice tv</t>
-  </si>
-  <si>
-    <t>shipping was fast, no defects or problems with the tv whats so ever. and the price was the best and the lowest compared to any competitors.</t>
-  </si>
-  <si>
-    <t>awesome 👌</t>
-  </si>
-  <si>
-    <t>it's little tricky to connect with the sound bar, but overall it is very nice and clear. the tv already includes useful apps, so i personally think that i don't have to use fire tv stick again.</t>
-  </si>
-  <si>
-    <t>nice picture</t>
-  </si>
-  <si>
-    <t>very happy with this purchase. awesome picture and great price.</t>
-  </si>
-  <si>
-    <t>amazing picture quality!  so many many features already in the system. love lg products.</t>
-  </si>
-  <si>
-    <t>wonderful new addition to the mbr.</t>
-  </si>
-  <si>
-    <t>delivered with the screen cracked x2 flats . still have yet to receive my refund for either.</t>
-  </si>
-  <si>
-    <t>lg quality is great. picture looks really nice definitely recommend.</t>
-  </si>
-  <si>
-    <t>beautiful and excellent performance...thank you amazon</t>
-  </si>
-  <si>
-    <t>nice tv</t>
+    <t>it took six hours to set upi am a techy electronics engineer.  i have dozens of patents in electronics and have written thousands of lines of computer code, in three different programming languages.  but this watch is quite a challenge.when i tried to pair the watch to the phone, the phone said i must update the phone to os 14.8.1.  yet i have always had "automatic updates" "on" in the phone menu.so i spent a half-hour updating to os 14.8.1.i tried to pair the watch to the phone again and the phone said my os must be updated.  but i had just updated it.  so i called apple support.  they directed me to update my os to 15.1.  why was i previously directed to update to 14.8.1 when that was obsolete?  updating to 15.1 took an hour!next when i tried to pair the watch, the message on the phone says that i need to charge the watch.  i examined the watch charge cable and it must plug into a usb "c" charger which is not included with the watch.  do you have such a charger?  i didn't even know such chargers existed.  i have ten chargers, including several made by apple, and they all only accept the original usb plug, called usb "a".i recall reading a few weeks ago that apple was no longer including chargers.  i thought, that's ok, we all have lots of chargers.  but nobody has usb "c" chargers, they are very new.so i ordered a usb "c" charger.the charger arrived i started the pairing process.  but the phone stuck for 30 minutes during the pairing process so i called support.  they couldn't get it to work by the standard way, which is to update the watch software, so they opted to install without updating the watch software.  that worked with lots of hand holding and took about 45 minutesall together i spent about six hours getting the phone to work.has apple lost their mind?</t>
+  </si>
+  <si>
+    <t>the apple watch 7 is nice. especially if you are upgrading from a version that is several years old.but beware, it only comes with a charger that is usb c. so if you don’t already have a usb power brick or old watch charger, you have to buy that and won’t be able to charge your watch</t>
+  </si>
+  <si>
+    <t>this is my first apple watch. i feel incredibly stupid for waiting this long to buy one! this thing is so amazing! i decided to go with the graphite stainless case. it’s certainly more expensive than the aluminum models which are also super nice. the watch is very easy to setup and connects nearly instantly to your iphone. the apps and available customizable watch faces are nearly limitless. the 45mm fits my wrist perfectly - it’s not too big. it looks amazing! make sure to order a usb c charger when you order your watch. i’m not sure why it’s not included. other than that it’s perfect!! absolutely love it. probably one of the best little things i’ve ever bought for me!</t>
+  </si>
+  <si>
+    <t>i’m upgrading from a series 1, so it is a completely different watch. i am very satisfied with this purchase. most of the heart monitoring functions only work with people older than 22 which is frustrating for me especially since i paid for the watch, so i should get access to all the features. nonetheless, i really like the starlight apple watch and band. it’s very subtle and nice to look at. hopefully braided solo loops get a sale soon bc i really would like one. it is a pain that they don't give power bricks, but this is the new age. i highly suggest you purchase many usb c power bricks and switch all cords from usb a to usb c. anker has great ones and you can always find deals for them.</t>
+  </si>
+  <si>
+    <t>got my series 7 45 mm stainless steel in graphite was lucky to get it today on the 24th of october 2021 and ordered it 2 days on the 22nd coming from a 44 mm series 6 in product red loving the new series 7 in graphite color to match my 13 pro max in graphite and first impressions of it was screen is big even though it’s not much bigger also the watch face i’m using is called lumy. you can find it on appstore on your iphone shoutout to zollotech the youtuber for showing it in his videos</t>
+  </si>
+  <si>
+    <t>the magnet on the armband is too weak. the armband keeps slipping loose and ends up dangling on my arm every 20 minutes. and this is just while walking around the home or office. this band is absolutely unusable when exercising. the watch slips right off. i paid about $300 extra for a pretty armband, and it turned out to be a complete turd. i will be returning it and getting one of the base models</t>
+  </si>
+  <si>
+    <t>got this watch at least 6 weeks before apple could ship it.  product is great.</t>
+  </si>
+  <si>
+    <t>so far. got the watch. turned it on. when it tried to link to my iphone it said i needed to update my iphone. so i updated my iphone which took hours. by that time the watch had run out of the factory charge. dead watch. they give you a magnetic charger which has a usb c male end which fits nothing i have. seriously! i paid over $700 for this thing and they couldn't include a real charger?  so, at this point it sucks.</t>
+  </si>
+  <si>
+    <t>they gave me a 41 millimeter version when i double checked what i got and not just that when i tried the family setup it said to need a gps+cellular and that’s what i got so i have a strong suspicion on them that they gave me only the gps version so i think that they did it on purpose wasting my time and almost tricking $100 from me</t>
+  </si>
+  <si>
+    <t>i love the watch and am sure once i get cell service added it will do exactly what i need it to do.  i got this solely for the “fall alert” function. i find it a  much cheaper alternative than life alert and those kinds of services.many other features - as listed in detail on the watch description. but **important to know**the “charger” included is the cord only! it has the round disk type on one end of the cord and usb-c end on the other.  it only plugs into a usb-c charging cube.  the cube is not included.  you can buy one here for relatively cheap.  but i recommend you buy one when you order the watch if you don’t already have one.  i have an old galaxy 9s phone that has a c port, so i can charge it on that for now. but that is a short term solution.  my other option was to wait 5 days for amazon before i can use my watch.watch did come with 87% charge, but set up took battery down to 55%.  so you will need a charging cube when you get the watch.  again- a cube with a c port… not a lightening or regular usb port.</t>
+  </si>
+  <si>
+    <t>overall apple watch s7 is a great product without doubt. but compared to s6, the improvements are really not big - only a slight bigger screen in my opinion (tangible change). the soc etc. are the same. so if you have the s6 even s5, there is no need to upgrade from my perspective.</t>
+  </si>
+  <si>
+    <t>5 stars not here for the tech review. there are people was more qualified than me. just here to warn all those who purchase the stainless steel version with the milanese loop band. the band will scratch the watch. no matter how careful you are. that’s damage done in less than a week babying the watch and band as i remove it. if this bothers you i would stay far away from this loop.</t>
+  </si>
+  <si>
+    <t>apple does a lot of stuff well.  mac books, imac, ipad, and iphone.  as a fitness tracker it is excellent and how it integrates so well with the iphone, but as a watch is another matter altogether.  the short battery life, the rectangular watch face limiting details, and no seconds indication when in low-power-always-on-display mode are all big drawbacks.the apple watch will get you at around 26 hours on a full charge. this is completely unacceptable if you are frequent traveler or someone who falls asleep with their watch on.  it is one more thing to charge in such a short time.  your phone you put down after some time, but a watch is used more frequently.sometimes in 2022 or by 2024, apple should introduce an apple watch which has greater than 36 hours in a round face.  until then, save your money.</t>
+  </si>
+  <si>
+    <t>i ordered this watch at least 25 days ago, finally got it today and made a surprise to my wife. she definitely loves this watch!it works very smoothly and also very cute design. i am glad i picked right color, the starlight color perfectly matched her.</t>
+  </si>
+  <si>
+    <t>phone although in new condition, i have to question its longevity. the "charger cord" that was sent for one is not and apple charger. its a samsung charger. you only receive part of charger, you don't even get the c port, just a useless cord actually made for another product. this was $400+ wasted not to mention my time...........i honestly expected what i was paying for, yes.</t>
+  </si>
+  <si>
+    <t>it’s a watch lol. what more do you want. alright, let’s see. screen is great. scratch resistant but not impervious. which is fine. great product.…you can talk to your watch for calls. just like power rangers. what more do you need lol.the box that it comes in is worth it too. love the box presentation. love it.one big flaw… doesn’t seem to want to work with amazon music. guess apple company doesn’t quite like its competitors. but it will connect to pandora lol.</t>
+  </si>
+  <si>
+    <t>series 7 is the best!! i love this watch and the larger face is amazing!! my watch was delivered with care on time and was a breeze to set up and pair with my iphone. the size of the 45mm is insane!! i upgraded from a series 3 to series 7 and i’m so glad i did. get you one it won’t disappoint!!!</t>
+  </si>
+  <si>
+    <t>phone is awesome. however on day 2 i scratched the watch doing dishes. i thought the watch was indestructible. come to find out it can crack and scratch. please get tempered glass and case unless you purchase stainless steel and sapphire glass. this model is 729 gps cellular stainless steel. make sure you get apple care through carrier think it’s cheaper. note stainless steel van still scratch but it is quite durable. other than that this is my 1st apple watch and the ease of use is phenomenal as well as the merging of my cell phone with the watch. mom gave it as a gift and i absolutely love the fact that i can get a real time pulse ox+ hr+ and ekg! fall detection is great cause i am a diabetic!!! this is the watch for those who want to be independent but have health issues that can  cause barriers to that goal! safety wise it’s a keeper💪🏾</t>
+  </si>
+  <si>
+    <t>i was hoping this wasn’t a scam because every store was out of this watch! i’m pleased to say it’s perfect</t>
+  </si>
+  <si>
+    <t>this is my first apple watch, so far i’m loving the convenience of it. however….. after 4 hours last night and 3 hours on the phone this morning with verizon technical support (3 different tiers of folks) - i still don’t have cellular functionality on the watch, which is the whole reason i purchased this one! very frustrating and time consuming to say the least. hopefully the bugs will get worked out quickly.</t>
+  </si>
+  <si>
+    <t>initially, i never wanted a smart watch. then, my husband got one &amp; i thought his was pretty cool. so i started looking at one similar to what he had (a fossil), but was unable to find something i liked, or could even tolerate. since i have (and love) my iphone, i decided to look into the apple watched, and found this one on amazon. although the price was rather off-putting, my husband &amp; i decided that, with all of the health benefits the watch has, i should go ahead &amp; order it. well, since getting the watch. i've worn it all day, every day, and i simply think the watch is amazing! i can check my heart rate throughout the day (something i need to do), and keep an eye on my blood sugar levels (since i am a type one diabetic, and have the dexcom app on my iphone, it also shows on my watch--how cool!). the watch encourages me to stand up a couple of times an hour, which is great, since i work from home &amp; sit at a computer for eight hours/day. i love that i can make/receive phone calls from the watch, too. in the week that i've had my watch, i've found that i use my watch more than i use my iphone. and to think that i was so.very.opposed to getting a smart watch... now, i don't know how i ever got by without it.</t>
+  </si>
+  <si>
+    <t>the watch 7 packaging consists of two standalone boxes for your selected watch and band, wrapped together. the watch performs great, and the extra screen space makes a difference. the keyboard functionality actually works even for my relatively big fingers. the bigger watch works perfectly with bands that marked for the 44mm ( even seem like a better fit to the wristcam camera bands). i believe the apps needs updating as most of them have some funky behavior with the new keyboard and voice functionality. will probably change to 5 stars soon when that happens - but basically do not assume full screen or keyboard for older watch apps without an update.</t>
+  </si>
+  <si>
+    <t>i resisted buying a apple watch...i don't know why since i have been using iphones, ipads, macbook pros for years.  possibly because i don't usually wear a watch much anymore.  but that has changed with the series 7 watch.  seamless integration with my iphone and the features are awesome!!  i was not sure about the band, but i'm beginning to like it more everyday i wear the watch.  the altimeter is accurate, and the heart monitor appears to be spot on as well!  another awesome apple product!</t>
+  </si>
+  <si>
+    <t>my husband went to open up his birthday gift of this apple watch and there was the charger the band but there was no apple watch in the box. this is the second time i’ve ordered an apple watch off amazon and received no apple watch</t>
+  </si>
+  <si>
+    <t>cons: so if you’re switching from a fitbit for your first apple watch like myself you’ll miss your fitbit it doesn’t track your calories all day like your fitbit because it doesn’t automatically detect your work out/calorie burn.  it doesn’t track your sleep details the same either i almost want to buy a fitbit..that’s just weird though wearing 2watches…last bad thing is the battery you have to charge it every day oh…and mine wasn’t charging i had to go to best buy and get another charger cable i got the one with usb port then it started charging…screw that other one it doesn’t work.pros: it’s fun technology i like how my ring notifications come out on my watch and it shows the video. i like how i am washing my hands and it times it. it’s good to check your blood oxygen and heart ratebut that’s it pretty much i can still control my my music like on my fit bit i don’t really text people from my watch i guess that’s the other benefit but other than that nothing really amazing about it. i didn’t get cellular you don’t need it if you always have your phone near by. it connected to my  phone quick. i miss my fitbit.though the only sad part</t>
+  </si>
+  <si>
+    <t>i’ve owned an apple watch since the 2. i had the 4 and loved it. the 7 is equally as great and is faster, bigger, with always on and blood oxygen detection. the stainless steel feels more substantial and looks better but the aluminum is great too. i haven’t owned a titanium or ceramic version. all my bands work with this bigger size.</t>
+  </si>
+  <si>
+    <t>the item works fine. lots of great features for sure. however there were a couple of issues that make this product over priced. the first disappointment was that it only comes with half a charger! luckily my wife already had a charger. the next was that this thing really only has a days worth of battery life. i have to take it off so often and forget to put it back on. i bought this thing to monitor health, which it does very well, however i have to take it off to charge every single night which means heart health isn’t tracked at night. for 500 plus dollars, this product should come with a charger (come on!) and it should have a better battery. going to return it if i can.</t>
+  </si>
+  <si>
+    <t>i would have chosen another color, but this was available.  the sports band feels like skin and is extremely comfortable.i got the watch to track my health readings  during sleep.  my cpap was under fda recall not to use.  so i was monitoring my o2 level sleeping without cpap.  o2 levels were dangerously low so i got another cpap and they came up to normal levels.  the watch clearly showed this.the watch has so many more features that i may sometime use.  i recommend the series 7 watch.</t>
+  </si>
+  <si>
+    <t>i received my watch today. when i opened the box the wrist band piece to attach to the actual watch was broken.</t>
+  </si>
+  <si>
+    <t>the watch is very pretty, but finding out how to find different settings is confusingi went to the apple store and they upgraded my phone and the watch but wouldn’t give me any tech help. they claimed they don’t do that anymore</t>
+  </si>
+  <si>
+    <t>i upgraded from a series 4 apple watch. i like the "always on" display and the added blood oxygen measurement. other than that it doesn't do much of anything that the older watch doesn't do. but imo it's enough to justify the upgrade.fwiw, the slightly larger display isn't at all obvious. is it a little bigger? yes. but if i wasn't told beforehand i'd never have noticed!</t>
+  </si>
+  <si>
+    <t>very pricey but christmas gift to self. the sound quality is very nice. huge improvement! i have first watch apple put out,  like new but software went caput. decided rather that go for repair i’d purchase the updated version. only fixable kink was had to update my 12 pro phone to most currant software 15.0. im very pleased. make a great gift! order a face shield to protect face.</t>
+  </si>
+  <si>
+    <t>upgraded to the series 7 after my son, broke my series 5 and man! this is thing is a beauty, this is my first time buying a stainless steel one and the gold really pops!! it really does look like a dime piece..more elegant</t>
+  </si>
+  <si>
+    <t>i really like the series 7, i had the 6 so not much difference in overall functionality however the screen is noticeably larger, more smoothed out and rounded. i was a bit disappointed in what they are calling green. while it is not black, it is not black like navy blue isn't black and yet is called blue. the green is there, but it is not even as green as the phones are. but i would buy again regardless as i do really enjoy the larger size.</t>
+  </si>
+  <si>
+    <t>i ordered this on 11/26 and received it at 6am on the 27th (gotta love rush overnight shipping being a prime member).this was an upgrade for me coming from the apple watch 3 and then going to whoop for a year and a half. ultimately decided back on apple for the smart watch features.few things to note:1. the screen is a lot bigger if you’re used to a  41 or 42mm. personally love the bigger screen but i also have a bigger wrist so it fits very well.2. the watch does not come with the “butt” part of the charger you plug into the wall. if you have a newer charger for your apple devices (ie when i got my ipad earlier this year i had gotten a full charger that i can swap the wires out with this) you’re all set. if not, go buy a charger when you’re purchasing this3. the watch, for me at least, was closer to 90% charged so wouldn’t have been a huge deal if i had to amazon prime or run to the store for a charger4. features are advances compared to the 3 but still have a lot of similarities.5. box comes with two band sizes. small and then medium/large6. the packaging is very well done. i was impressed when i opened it upoverall i’m happy with this purchase (i knew i would be) as i spent probably 2 months comparing the new apple watch to the garmin to find what would be best for me and my specific needs.</t>
+  </si>
+  <si>
+    <t>i love this watch but it's not cheap because nothing on it is free.</t>
+  </si>
+  <si>
+    <t>exquisite watchlove it！it's not available anywhere else except amazon! and two day deliver！</t>
+  </si>
+  <si>
+    <t>i really like the series 7 apple watch. many improvements over the series 3. that was a good watch too.the watch face choices seem to go on and on!  the 41mm size seems to fit me better than the 38mm.the extra features are really nice. you can read all about them when you go to apple website. i got the blue watch, matches my new blue iphone12. took 4 days to receive it.  guess this is a very busy time of year.if you are a fan of apple watches, then you will love the series 7.</t>
+  </si>
+  <si>
+    <t>another home run for apple. live getting phone calls on my wrist snd responding to texts quickly. the face is nice snd clear… great color too!  but really, they couldn’t throw in the wall plug for the charger ? remember to get an extra one so you can charge from a wall plug .  but i do love my watch!</t>
+  </si>
+  <si>
+    <t>first of all, thanks amazon for very fast shipping even i am not a prime member. this is my second apple watch, my first apple watch was first apple watch came out,it's still working fine and love it, but it's time to upgrade, apple watch series 7 is so not expensive, it has all most every necessary application that you want to have in a watch. it's easy to set up. if you like to wear a watch, then apple watch series 7 is a must have.</t>
+  </si>
+  <si>
+    <t>i have been using the watch for almost a week. the charge only lasts around 18 hours. it does charge in about 45 minutes but definitely doesn’t stay charged as long as the fitbit.  the ekg works great, and i feel the 02 sensor is pretty accurate.  make sure to order the c charging plug if you don’t already have one or you won’t have anything to plug the charging cord to and your watch will die while you’re waiting.</t>
+  </si>
+  <si>
+    <t>the apple watch itself is great and as advertised. but i would order from another site. i tried using amazon's 12 month equal pay option, but they ended up still charging the full amount without notifying me of any changes. despite using an amazon card, it took 2 emails, 10 minutes of online chat, and then 20 minutes on the phone to get the billing rectified. customers shouldn't have to spend an hour of their time to resolve a billing issue on the seller's side, much less when it's the seller's credit card being used. not the best look for such an established company. the month delay in shipping due to the supply chain issues is understandable, the effort on resolving issues that are in amazon's control, is not.</t>
+  </si>
+  <si>
+    <t>i am 73 years old. the week after i purchased this watch i fell. this watch immediately alerted to ask if i needed emergency help. the emergency button was on screen available for me to press if i was injured or could not get up. it requested confirmation that i did not need help. i wish i had it earlier this year when i had broken my foot from a fall, rather than hobbling to a phone i could have just pressed the emergency button. thank you, apple watch.</t>
+  </si>
+  <si>
+    <t>the packaging it was horrible, as i opened the watch it fell out the box. it was no secured in the box. and no band. what kind of advertising is that?</t>
+  </si>
+  <si>
+    <t>going from android to ios was a little strange, at first, but i’m so glad i did. this watch has been wonderful to wear. it’s stylish look and the health apps has been the most important reason for the switch. i hope to keep this for at least a couple years. that is until they release the much rumored blood glucose monitor in the near future</t>
+  </si>
+  <si>
+    <t>i’ve purchased a number of iphones and ipads and have always found a charging cable included. the packaging looked like it was directly from the factory and had not been tampered with. so why no charging cable?</t>
+  </si>
+  <si>
+    <t>when i bought this, apple watch series 7 was out of stock almost everywhere. but amazon had it in stock with free overnight delivery. and it was $30 off retail price.it arrived well packed in its original unopened box and in perfect condition. i’ve been very happy with the watch and the graphite milanese loop band.</t>
+  </si>
+  <si>
+    <t>my first apple watch! i love 45mm big screen so much even with my thin wrist!! sport band feels so soft and watch is very light! very useful to wear this during physical activities!</t>
+  </si>
+  <si>
+    <t>twice i tried to post an honest review and it wasn’t published. the watch is fine, it’s everything else that sucks.</t>
+  </si>
+  <si>
+    <t>we were excited about the medical monitoring.  we are an apple family with an iphone, 2 ipads, and a imac, none of which are compatible with the apple watch!  no mention of strict requirements on the amazon website. our only option was to buy a new iphone or return the apple watch and investigate alternative medical monitoring options.  shame on apple's merchandising philosophy!</t>
+  </si>
+  <si>
+    <t>love my new gold stainless watch. delivery was extremely fast - ordered on 10/21 and it was delivered in 10/24.</t>
+  </si>
+  <si>
+    <t>the watch is very nice.  alert: you must have your iphone at ios 15.1 in order to pair the series 7 watch.  also the charger must have the usb-c version, which you must buy separately in order to charge the watch.  it does not come with the watch, order separately because the watch must be full charge for an update. it comes without the most recent update.  i spent 2 hours trying to pair, then talked to apple support, that could not help.  then i read another review to find out it needed ios 15.1 on the phone.</t>
+  </si>
+  <si>
+    <t>i had a series 2.  major upgrades since then.  love being able to track pulse oxygen levels, etc.,  throughout the day.  much more medical info available on the 7 as opposed to the 2.  very happy with my purchase.</t>
+  </si>
+  <si>
+    <t>watch is very versatile and looks great. easy to use and an abundance of info. be careful, our first box was missing the actual watch and one band. seems like the seals were broken. amazon replaced immediately.</t>
+  </si>
+  <si>
+    <t>as expected , coming from a series 4 aluminium  user , it was a good upgradei also highly recommend buying it from this seller .cons : -you have to buy a usb-c charger separately, only the cable included-it’s not a big upgrade if you are a series 5-6 apple watch user</t>
+  </si>
+  <si>
+    <t>received a defective watch whose display won’t turn on even after 2hrs of charging it! first amazon delivers it late. second it doesn’t turn on. third the amazon app does not have a “replacement” option. only return. how will i get this watch back on thanksgiving deal that i purchased it on?! very bad experience with amazon!</t>
+  </si>
+  <si>
+    <t>i have had a samsung phone and watch forever, just purchased a iphone 13 and this watch. absolutely amazing.</t>
+  </si>
+  <si>
+    <t>was super excited to receive this for christmas gifting but now i am not sure. it seems to have been opened and is not a new item!! looks like i am going to return and purchase from apple directly to make sure it is not fake.</t>
+  </si>
+  <si>
+    <t>the watch comes with two bands one is too small the other is too big… i lost my watch the first time i wore it.  not happy</t>
+  </si>
+  <si>
+    <t>upgraded from a series 3.  love all the new features including the oxygen level monitor.</t>
+  </si>
+  <si>
+    <t>i love everything about this watch. just brought an apple watch coming from samsung and by far apple is winning. this watch here is a very good buy.</t>
+  </si>
+  <si>
+    <t>ordered this watch on tuesday and received thursday! set up in a quick 10 minutes and so far, love love! 100% worth the money!</t>
+  </si>
+  <si>
+    <t>i upgraded from a 5 series to a 7 with a 45mm face. it is fantastic. i would recommend the upgrade to anyone. very impressive.</t>
+  </si>
+  <si>
+    <t>i purchased this series 7 iwatch for my wife. she found it by accident and is now wearing it daily. she is amazed at all its functions and abilities. talking to her wrist with her phone in another room is her favorite (not cellular).  all the apps, her o2 sat., her ekg, her connectivity. she is thrilled with her gift.</t>
+  </si>
+  <si>
+    <t>this is a great smart watch. it is very useful and keeps you updated even your not beside your phone. it helps me maintain my daily exercise and health app. this is the best smart watch and i recommend it. its a bet expensive but it comes into clutch anywhere, anytime.</t>
+  </si>
+  <si>
+    <t>that’s good gift for someone who will love it</t>
+  </si>
+  <si>
+    <t>works perfectly fine, fits good for skinny people and i love it!, all those bad reviews are cap! idk where they got theirs but the product came in the original apple watch box and freshly new!! love it :) also it was sealed and safely delivered and on time!!</t>
+  </si>
+  <si>
+    <t>this is a considerable upgrade from my previous apple watch (series 3). i decided to get the 41 mm instead of the 45 mm, and i am delighted with the watch's size. the display is vibrant, and it does a great job of logging my workouts. i would recommend this watch.</t>
+  </si>
+  <si>
+    <t>nice watch - works great with my iphone 12 pro:)abyss blue is deep blue - great new color.much larger display then my apple watch 3.too many features to list!watch face looks much better then the uploaded photos!</t>
+  </si>
+  <si>
+    <t>love the watch. battery dies fast so i have to charge it and then i forget to put it back on</t>
+  </si>
+  <si>
+    <t>i had the se but it didn’t have cellular so i decided to buy the new watch. i can not live without my apple watch! i have pretty small wrists so the 41mm fits great!</t>
+  </si>
+  <si>
+    <t>love this watch…stylish and the new features are wonderful. so happy i got it.</t>
+  </si>
+  <si>
+    <t>compressive and functional. however there is no free app coming with the apple watch monitoring the sleepingquality, e.g. time of deep sleep. the builtin sleep app is merely a time scheduler.</t>
+  </si>
+  <si>
+    <t>came in original packaging and was exactly as described. was easy to setup and got it connected with my verizon account and it looks good and works as intended.</t>
+  </si>
+  <si>
+    <t>muy buen producto, buenos materiales y acabados, el reloj en acero inoxidable se ve muy elegante, algo caro pero la pantalla en zafiro vale mucho la pena</t>
+  </si>
+  <si>
+    <t>Hate</t>
+  </si>
+  <si>
+    <t>Like</t>
+  </si>
+  <si>
+    <t>Love</t>
   </si>
   <si>
     <t>Okay</t>
   </si>
   <si>
-    <t>Like</t>
-  </si>
-  <si>
-    <t>Hate</t>
-  </si>
-  <si>
-    <t>Love</t>
-  </si>
-  <si>
-    <t>Do Not Like</t>
-  </si>
-  <si>
-    <t>credible fine good quick</t>
-  </si>
-  <si>
-    <t>excellent good helpful</t>
-  </si>
-  <si>
-    <t>concerned fair fine good perfect quick sage</t>
-  </si>
-  <si>
-    <t>deep perfect sharp stunning</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> excellent</t>
-  </si>
-  <si>
-    <t>custom good happy plain simple</t>
+    <t>direct original sage soft standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nice</t>
+  </si>
+  <si>
+    <t>amazing custom expensive fit nice perfect</t>
+  </si>
+  <si>
+    <t>fun hopeful light nice</t>
+  </si>
+  <si>
+    <t>loving lucky</t>
   </si>
   <si>
     <t xml:space="preserve"> pretty</t>
   </si>
   <si>
-    <t>happy light</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sharp</t>
-  </si>
-  <si>
-    <t>fun serious</t>
-  </si>
-  <si>
-    <t>consistent custom excellent expensive good lucky smart</t>
-  </si>
-  <si>
-    <t>custom good open willing</t>
-  </si>
-  <si>
-    <t>direct familiar perfect pretty</t>
-  </si>
-  <si>
-    <t>confident light smart soft</t>
-  </si>
-  <si>
-    <t>fabulous fun pristine smart</t>
-  </si>
-  <si>
-    <t>good smart</t>
-  </si>
-  <si>
-    <t>custom open</t>
-  </si>
-  <si>
-    <t>hard smart soft</t>
-  </si>
-  <si>
-    <t>awesome current excellent fancy fine fit good hard kind sleek smart</t>
-  </si>
-  <si>
-    <t>fair good pretty reflective vibrant</t>
+    <t xml:space="preserve"> hip</t>
+  </si>
+  <si>
+    <t>fit magnetic serious</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> strong</t>
+  </si>
+  <si>
+    <t>alert fun kind light</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> light</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> careful</t>
+  </si>
+  <si>
+    <t>excellent fit raw</t>
+  </si>
+  <si>
+    <t>light perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> honest</t>
+  </si>
+  <si>
+    <t>fine present</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amazing</t>
+  </si>
+  <si>
+    <t>awesome independent safe wise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> perfect</t>
+  </si>
+  <si>
+    <t>fun functional hopeful loving quick</t>
+  </si>
+  <si>
+    <t>amazing cool fit level pretty smart</t>
+  </si>
+  <si>
+    <t>fit fun functional perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> awesome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> open</t>
+  </si>
+  <si>
+    <t>amazing fit fun good pretty quick</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fine</t>
+  </si>
+  <si>
+    <t>comfortable level</t>
+  </si>
+  <si>
+    <t>nice soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> elegant</t>
+  </si>
+  <si>
+    <t>fun functional</t>
+  </si>
+  <si>
+    <t>fit happy hip open smart specific</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exquisite</t>
+  </si>
+  <si>
+    <t>fit good nice</t>
+  </si>
+  <si>
+    <t>nice quick</t>
+  </si>
+  <si>
+    <t>expensive fast fine hip</t>
+  </si>
+  <si>
+    <t>fit pretty</t>
+  </si>
+  <si>
+    <t>custom hip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alert</t>
+  </si>
+  <si>
+    <t>kind open secure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wonderful</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> direct</t>
+  </si>
+  <si>
+    <t>free happy open original perfect</t>
+  </si>
+  <si>
+    <t>light soft</t>
+  </si>
+  <si>
+    <t>fine honest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> excited</t>
+  </si>
+  <si>
+    <t>alert nice</t>
+  </si>
+  <si>
+    <t>happy level</t>
+  </si>
+  <si>
+    <t>careful versatile</t>
   </si>
   <si>
     <t xml:space="preserve"> good</t>
   </si>
   <si>
-    <t xml:space="preserve"> kind</t>
-  </si>
-  <si>
-    <t>soft standard</t>
-  </si>
-  <si>
-    <t>bright excellent sharp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fine</t>
-  </si>
-  <si>
-    <t>good sharp smart</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> light</t>
-  </si>
-  <si>
-    <t>amazing smart</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> perfect</t>
+    <t xml:space="preserve"> giving</t>
+  </si>
+  <si>
+    <t>direct excited open</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> happy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> level</t>
+  </si>
+  <si>
+    <t>good winning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quick</t>
   </si>
   <si>
     <t xml:space="preserve"> fantastic</t>
   </si>
   <si>
-    <t>giving serious</t>
-  </si>
-  <si>
-    <t>happy solid</t>
-  </si>
-  <si>
-    <t>direct fit plain protective</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> specific</t>
-  </si>
-  <si>
-    <t>careful hip</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> excited</t>
-  </si>
-  <si>
-    <t>excited perfect plain wonderful</t>
-  </si>
-  <si>
-    <t>frank hard</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> custom</t>
-  </si>
-  <si>
-    <t>fast good happy hip nice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> credible</t>
-  </si>
-  <si>
-    <t>fantastic happy soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hopeful</t>
-  </si>
-  <si>
-    <t>excellent fun</t>
-  </si>
-  <si>
-    <t>happy plain</t>
-  </si>
-  <si>
-    <t>detailed perfect</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> grand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> consistent</t>
-  </si>
-  <si>
-    <t>good hard light</t>
-  </si>
-  <si>
-    <t>friendly good nice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nice</t>
-  </si>
-  <si>
-    <t>fast hip</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> awesome</t>
-  </si>
-  <si>
-    <t>awesome happy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> amazing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wonderful</t>
-  </si>
-  <si>
     <t xml:space="preserve"> fun</t>
+  </si>
+  <si>
+    <t>expensive smart</t>
+  </si>
+  <si>
+    <t>fine fit fresh good original perfect safe</t>
+  </si>
+  <si>
+    <t>light vibrant</t>
+  </si>
+  <si>
+    <t>deep nice</t>
+  </si>
+  <si>
+    <t>happy wonderful</t>
+  </si>
+  <si>
+    <t>deep free fun functional</t>
+  </si>
+  <si>
+    <t>good original</t>
   </si>
 </sst>
 </file>
@@ -781,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -806,13 +843,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -820,13 +857,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -834,13 +871,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -848,10 +885,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -862,13 +899,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -876,13 +913,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -890,10 +927,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -904,13 +941,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -918,10 +955,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -932,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -946,13 +983,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -960,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -974,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -988,13 +1025,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1002,13 +1039,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1016,10 +1053,10 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1030,13 +1067,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1044,13 +1081,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1058,10 +1095,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1072,13 +1109,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1086,13 +1123,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1100,13 +1137,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1114,10 +1151,10 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1128,13 +1165,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1142,13 +1179,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1156,13 +1193,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1170,13 +1207,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1184,13 +1221,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1198,13 +1235,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1212,10 +1249,10 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1226,13 +1263,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1240,13 +1277,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1254,10 +1291,10 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1268,10 +1305,10 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1282,13 +1319,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1296,13 +1333,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1310,10 +1347,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1324,13 +1361,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1338,13 +1375,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1352,10 +1389,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -1366,10 +1403,10 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1380,13 +1417,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1394,10 +1431,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1408,13 +1445,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1422,10 +1459,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1436,13 +1473,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1450,13 +1487,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1464,10 +1501,10 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1478,10 +1515,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -1492,13 +1529,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1506,10 +1543,10 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1520,13 +1557,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1534,13 +1571,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1548,13 +1585,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1562,13 +1599,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1576,13 +1613,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1590,10 +1627,10 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1604,13 +1641,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1618,13 +1655,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1632,10 +1669,10 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1646,13 +1683,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1660,10 +1697,10 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1674,13 +1711,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1688,10 +1725,10 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1702,13 +1739,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1716,10 +1753,10 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1730,13 +1767,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1744,13 +1781,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1758,12 +1795,96 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
         <v>76</v>
       </c>
-      <c r="C70" t="s">
-        <v>129</v>
-      </c>
-      <c r="D70">
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76">
         <v>1</v>
       </c>
     </row>
